--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1090.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1090.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7580781044003323</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03790390522001662</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03790390522001662</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06064624835202659</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06023405440940448</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01023405440940448</v>
+        <v>0.02235597270649246</v>
       </c>
       <c r="B65" t="n">
-        <v>0.007410419469998136</v>
+        <v>0.01618783023692942</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002152470486853388</v>
+        <v>0.001911196988446828</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007929127126356788</v>
+        <v>0.000799914357538436</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001627726141659763</v>
+        <v>0.005125305154923848</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007338824225096241</v>
+        <v>0.0007884191692313407</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006344552314335394</v>
+        <v>0.01119153961574998</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007359327813804078</v>
+        <v>0.0007853046626693759</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01057264122638757</v>
+        <v>0.001911196988446828</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007582970921413744</v>
+        <v>0.000799914357538436</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002079274006163791</v>
+        <v>0.003652143339854107</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001585825425271358</v>
+        <v>0.001599828715076872</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003381867670337685</v>
+        <v>0.01142819718440946</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001467764845019248</v>
+        <v>0.001576838338462681</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01275423564670741</v>
+        <v>0.02337883833159438</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001471865562760816</v>
+        <v>0.001570609325338752</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02220385840659439</v>
+        <v>0.003652143339854107</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001516594184282749</v>
+        <v>0.001599828715076872</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002470139823332712</v>
+        <v>0.002606739130434782</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01699999999999999</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002172282608695651</v>
+        <v>0.002413647342995168</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01938318797823749</v>
+        <v>0.03363835059618175</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002207798344141223</v>
+        <v>0.002355913988008127</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03195286533155933</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002274891276424123</v>
+        <v>0.002606739130434782</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006588308989898539</v>
+        <v>0.006688867113999249</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003171650850542715</v>
+        <v>0.003199657430153744</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006073669170952201</v>
+        <v>0.01966350008939405</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002935529690038496</v>
+        <v>0.003153676676925363</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02418554729004693</v>
+        <v>0.04344653085816108</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002943731125521631</v>
+        <v>0.003141218650677504</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04057887579222164</v>
+        <v>0.006688867113999249</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003033188368565498</v>
+        <v>0.003199657430153744</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002470139823332712</v>
+        <v>0.002606739130434782</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007466693923180702</v>
+        <v>0.008261815491122239</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003964563563178394</v>
+        <v>0.00399957178769218</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007105990903148528</v>
+        <v>0.02425093199953141</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00366941211254812</v>
+        <v>0.003942095846156704</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02951545156325722</v>
+        <v>0.05047983356618085</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003679663906902038</v>
+        <v>0.00392652331334688</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04824110357952016</v>
+        <v>0.008261815491122239</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003791485460706872</v>
+        <v>0.00399957178769218</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006222336192530611</v>
+        <v>0.009268950317117976</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004757476275814073</v>
+        <v>0.004799486145230616</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008057678639789033</v>
+        <v>0.02752783860766725</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004403294535057745</v>
+        <v>0.004730515015388044</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03402703877898977</v>
+        <v>0.059</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004415596688282447</v>
+        <v>0.004882463768115942</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05399999999999999</v>
+        <v>0.009268950317117976</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004426538146021329</v>
+        <v>0.004799486145230616</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006884246585031402</v>
+        <v>0.01061510855113956</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005550388988449752</v>
+        <v>0.005599400502769051</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.00923850196852205</v>
+        <v>0.03080639113141229</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005137176957567369</v>
+        <v>0.005518934184619385</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03699999999999998</v>
+        <v>0.06082730760278826</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005103140096618356</v>
+        <v>0.005497132638685631</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05940691565308842</v>
+        <v>0.01061510855113956</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005308079644989621</v>
+        <v>0.005599400502769051</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00948143588776619</v>
+        <v>0.01130512715234008</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00634330170108543</v>
+        <v>0.006399314860307488</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01015823047699595</v>
+        <v>0.03379876078837724</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005871059380076993</v>
+        <v>0.006307353353850726</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03902491125929358</v>
+        <v>0.06490960180519834</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005887462251043262</v>
+        <v>0.006282437301355007</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06165411401375953</v>
+        <v>0.01130512715234008</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006066376737130995</v>
+        <v>0.006399314860307488</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01023405440940448</v>
+        <v>0.01244384307987261</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007410419469998136</v>
+        <v>0.007199229217845924</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0112266337528591</v>
+        <v>0.03661711879617283</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006604941802586617</v>
+        <v>0.007095772523082067</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04100436449661257</v>
+        <v>0.06949327855615522</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00662339503242367</v>
+        <v>0.007067741964024383</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06519283799952685</v>
+        <v>0.01244384307987261</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006824673829272369</v>
+        <v>0.007199229217845924</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.008597630712812415</v>
+        <v>0.01353609329289023</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007929127126356789</v>
+        <v>0.00799914357538436</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01165348138375988</v>
+        <v>0.03957363637240971</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007338824225096241</v>
+        <v>0.007884191692313408</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04309201376281446</v>
+        <v>0.07207481759720569</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007359327813804077</v>
+        <v>0.00785304662669376</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06915819873683066</v>
+        <v>0.01353609329289023</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007582970921413744</v>
+        <v>0.00799914357538436</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009159807525371412</v>
+        <v>0.01428671475054608</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008722039838992467</v>
+        <v>0.008799057932922795</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01254854295734663</v>
+        <v>0.04178048473469861</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008072706647605865</v>
+        <v>0.008672610861544748</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04406565494894232</v>
+        <v>0.07495069866989662</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008095260595184485</v>
+        <v>0.008638351289363135</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07128530735211175</v>
+        <v>0.01428671475054608</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008341268013555119</v>
+        <v>0.008799057932922795</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01072712577746056</v>
+        <v>0.01550054441199318</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009514952551628146</v>
+        <v>0.009598972290461232</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01342158806126768</v>
+        <v>0.04484983510065024</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00880658907011549</v>
+        <v>0.009461030030776089</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04590308394603917</v>
+        <v>0.07791740151577475</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008831193376564893</v>
+        <v>0.00942365595203251</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07440927497181044</v>
+        <v>0.01550054441199318</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009099565105696492</v>
+        <v>0.009598972290461232</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01229664689904873</v>
+        <v>0.01628241923638467</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01030786526426382</v>
+        <v>0.01039888664799967</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01418238628317149</v>
+        <v>0.04689385868787529</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009540471492625114</v>
+        <v>0.01024944920000743</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04708209664514801</v>
+        <v>0.08037140587638691</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0095671261579453</v>
+        <v>0.01020896061470189</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07686521272236735</v>
+        <v>0.01628241923638467</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009857862197837866</v>
+        <v>0.01039888664799967</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01186543232010479</v>
+        <v>0.01723717618287357</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0111007779768995</v>
+        <v>0.0111988010055381</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01504070721070634</v>
+        <v>0.0490247267139845</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01027435391513474</v>
+        <v>0.01103786836923877</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04878048893731196</v>
+        <v>0.08160919149327989</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01030305893932571</v>
+        <v>0.01099426527737126</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08088823173022297</v>
+        <v>0.01723717618287357</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01061615928997924</v>
+        <v>0.0111988010055381</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01143054347059763</v>
+        <v>0.01816965221061304</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01189369068953518</v>
+        <v>0.01199871536307654</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0159063204315206</v>
+        <v>0.05125461039658857</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01100823633764436</v>
+        <v>0.01182628753847011</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05047605671357402</v>
+        <v>0.08618103088860068</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01103899172070612</v>
+        <v>0.01188632092690604</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08371344312181778</v>
+        <v>0.01816965221061304</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01137445638212061</v>
+        <v>0.01199871536307654</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01398904178049615</v>
+        <v>0.01858468427875612</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01268660340217086</v>
+        <v>0.01279862972061498</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01628899553326266</v>
+        <v>0.05426850179754658</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01174211876015399</v>
+        <v>0.01284166913450753</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05234659586497728</v>
+        <v>0.08686259858644052</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01177492450208652</v>
+        <v>0.01256487460271001</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08618103088860068</v>
+        <v>0.01858468427875612</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01177418582382202</v>
+        <v>0.01279862972061498</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01453798867976921</v>
+        <v>0.01968710934645591</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01347951611480654</v>
+        <v>0.01359854407815341</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01749850210358087</v>
+        <v>0.05468086734119537</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01247600118266361</v>
+        <v>0.01340312587693279</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05426850179754658</v>
+        <v>0.09065396726574032</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01247476430209303</v>
+        <v>0.01335017926537939</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09085381391610398</v>
+        <v>0.01968710934645591</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01289105056640336</v>
+        <v>0.01359854407815341</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0140744455983857</v>
+        <v>0.0205817643728655</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01427242882744222</v>
+        <v>0.01439845843569185</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01794460973012361</v>
+        <v>0.05737250997389345</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01320988360517323</v>
+        <v>0.01419154504616413</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05655285214871522</v>
+        <v>0.09369394292757527</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01324679006484734</v>
+        <v>0.01413548392804877</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09547370578002634</v>
+        <v>0.0205817643728655</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01364934765854474</v>
+        <v>0.01439845843569185</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01459547396631451</v>
+        <v>0.02127348631713798</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0150653415400779</v>
+        <v>0.01519837279323028</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01893708800053921</v>
+        <v>0.05937094246966604</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01394376602768286</v>
+        <v>0.01497996421539547</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05870232866859507</v>
+        <v>0.09497627879687748</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01398272284622775</v>
+        <v>0.01492078859071814</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1000582223755278</v>
+        <v>0.02127348631713798</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01440764475068611</v>
+        <v>0.01519837279323028</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01409813521352449</v>
+        <v>0.02235597270649246</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01585825425271358</v>
+        <v>0.01618783023692942</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02018570650247607</v>
+        <v>0.06097289316020649</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01467764845019248</v>
+        <v>0.01576838338462682</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06146103065567901</v>
+        <v>0.09809472809857861</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01471865562760815</v>
+        <v>0.01570609325338752</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1054278364598724</v>
+        <v>0.02235597270649246</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01516594184282749</v>
+        <v>0.01618783023692942</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01457949076998457</v>
+        <v>0.0228710358023607</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01665116696534925</v>
+        <v>0.01679820150830716</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02110023482358252</v>
+        <v>0.06267509037720803</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01541153087270211</v>
+        <v>0.01655680255385815</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06497153915853848</v>
+        <v>0.102343044057611</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01545458840898856</v>
+        <v>0.01649139791605689</v>
       </c>
       <c r="N86" t="n">
-        <v>0.111203020790324</v>
+        <v>0.0228710358023607</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01592423893496886</v>
+        <v>0.01679820150830716</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0150366020656636</v>
+        <v>0.02359452298190746</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01744407967798493</v>
+        <v>0.01759811586584559</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02235597270649246</v>
+        <v>0.06487426245236394</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01618783023692942</v>
+        <v>0.0173452217230895</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06817643522574501</v>
+        <v>0.1039149798989064</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01619052119036897</v>
+        <v>0.01727670257872627</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1176042481241469</v>
+        <v>0.02359452298190746</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01668253602711024</v>
+        <v>0.01759811586584559</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01546653053053048</v>
+        <v>0.02443531575033041</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01823699239062061</v>
+        <v>0.01839803022338403</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0235521255074885</v>
+        <v>0.06756713771736747</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01687929571772135</v>
+        <v>0.01813364089232084</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07191829990587012</v>
+        <v>0.106904288847397</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01692645397174938</v>
+        <v>0.01806200724139564</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1228519912186049</v>
+        <v>0.02443531575033041</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01744083311925161</v>
+        <v>0.01839803022338403</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01686633759455407</v>
+        <v>0.02539074290597093</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01902990510325629</v>
+        <v>0.01919794458092246</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02476299037182134</v>
+        <v>0.06865044450391192</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01761317814023098</v>
+        <v>0.01892206006155218</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07563971424748525</v>
+        <v>0.1101047241280145</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01766238675312979</v>
+        <v>0.01884731190406502</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1293667228309621</v>
+        <v>0.02539074290597093</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01819913021139298</v>
+        <v>0.01919794458092246</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01623308468770328</v>
+        <v>0.02625813324717054</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01982281781589197</v>
+        <v>0.0199978589384609</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02667030237788363</v>
+        <v>0.07112091114369054</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01834706056274061</v>
+        <v>0.01971047923078352</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07918325929916195</v>
+        <v>0.1129100389656912</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01839831953451019</v>
+        <v>0.0196326165667344</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1343689157184824</v>
+        <v>0.02625813324717054</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01895742730353436</v>
+        <v>0.0199978589384609</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01856383323994698</v>
+        <v>0.02693481557227061</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02061573052852765</v>
+        <v>0.02079777329599933</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02832096803957874</v>
+        <v>0.0734752659683966</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01908094298525023</v>
+        <v>0.02049889840001486</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08249151610947175</v>
+        <v>0.1151139865853589</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0191342523158906</v>
+        <v>0.02041792122940377</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1384790426384297</v>
+        <v>0.02693481557227061</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01971572439567573</v>
+        <v>0.02079777329599933</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01885564468125404</v>
+        <v>0.02771811867961263</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02140864324116333</v>
+        <v>0.02159768765353777</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03046189387081003</v>
+        <v>0.07521023730972332</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01981482540775985</v>
+        <v>0.0212873175692462</v>
       </c>
       <c r="L92" t="n">
-        <v>0.085907065726986</v>
+        <v>0.1188103202119495</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01987018509727101</v>
+        <v>0.02120322589207315</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1441175763480683</v>
+        <v>0.02771811867961263</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02047402148781711</v>
+        <v>0.02159768765353777</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01910558044159336</v>
+        <v>0.02860537136753802</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02220155595379901</v>
+        <v>0.02239760201107621</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03223998638548081</v>
+        <v>0.07642255349936403</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02054870783026948</v>
+        <v>0.02207573673847754</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08917248920027632</v>
+        <v>0.1222927930703951</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02060611787865142</v>
+        <v>0.02198853055474253</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1498049896046618</v>
+        <v>0.02860537136753802</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02123231857995848</v>
+        <v>0.02239760201107621</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0193107019509338</v>
+        <v>0.02989390243438822</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02299446866643469</v>
+        <v>0.02319751636861464</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03450215209749447</v>
+        <v>0.07870894286901203</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0212825902527791</v>
+        <v>0.02286415590770888</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09243036757791412</v>
+        <v>0.1245551583856278</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02134205066003183</v>
+        <v>0.0227738352174119</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1540617551654746</v>
+        <v>0.02989390243438822</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02199061567209986</v>
+        <v>0.02319751636861464</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01746807063924426</v>
+        <v>0.03058104067850466</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02378738137907036</v>
+        <v>0.02399743072615308</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03619529752075433</v>
+        <v>0.08106613375036054</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02201647267528873</v>
+        <v>0.02365257507694022</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09572328190847099</v>
+        <v>0.1273911693825793</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02207798344141223</v>
+        <v>0.02355913988008128</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1572083457877705</v>
+        <v>0.03058104067850466</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02274891276424123</v>
+        <v>0.02399743072615308</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01757474793649363</v>
+        <v>0.03156411489822879</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02458029409170604</v>
+        <v>0.02479734508369151</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03786632916916376</v>
+        <v>0.08199085447510279</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02275035509779835</v>
+        <v>0.02444099424617156</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09779381324051833</v>
+        <v>0.1294945792861818</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02281391622279264</v>
+        <v>0.02434444454275065</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1605652342288135</v>
+        <v>0.03156411489822879</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0235072098563826</v>
+        <v>0.02479734508369151</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01962779527265079</v>
+        <v>0.03214045389190207</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02537320680434172</v>
+        <v>0.02559725944122995</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03936215355662609</v>
+        <v>0.08477983337493211</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02348423752030797</v>
+        <v>0.0252294134154029</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1007845426226278</v>
+        <v>0.1336591413213671</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02354984900417305</v>
+        <v>0.02512974920542003</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1622528932458675</v>
+        <v>0.03214045389190207</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02426550694852398</v>
+        <v>0.02559725944122995</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01862858779305482</v>
+        <v>0.03320738645786589</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0261661195169774</v>
+        <v>0.02639717379876839</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04102967719704464</v>
+        <v>0.08642979878154175</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0242181199428176</v>
+        <v>0.02601783258463424</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1025380511033707</v>
+        <v>0.1360786087130675</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02428578178555345</v>
+        <v>0.02591505386808941</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1652917955961968</v>
+        <v>0.03320738645786589</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02502380404066535</v>
+        <v>0.02639717379876839</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01959702229948728</v>
+        <v>0.03386224139446173</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02695903222961308</v>
+        <v>0.02719708815630683</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04191580660432283</v>
+        <v>0.08793747902662499</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02495200236532722</v>
+        <v>0.02680625175386559</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1029969197313185</v>
+        <v>0.1383467346862147</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02502171456693386</v>
+        <v>0.02670035853075878</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1645024140370651</v>
+        <v>0.03386224139446173</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02578210113280673</v>
+        <v>0.02719708815630683</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01953810320662</v>
+        <v>0.03470234750003102</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02775194494224876</v>
+        <v>0.02799700251384526</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04256744829236396</v>
+        <v>0.0894996024418751</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02568588478783685</v>
+        <v>0.02759467092309693</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1044037295550428</v>
+        <v>0.1403572724657407</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02575764734831427</v>
+        <v>0.02748566319342816</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1655937727487702</v>
+        <v>0.03470234750003102</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0265403982249481</v>
+        <v>0.02799700251384526</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.01845431867702757</v>
+        <v>0.03572503357291519</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02854485765488443</v>
+        <v>0.0287969168713837</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0429315087750714</v>
+        <v>0.09111289735898526</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02641976721034647</v>
+        <v>0.02838309009232827</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1046333298579273</v>
+        <v>0.1443039752765775</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02649358012969468</v>
+        <v>0.02827096785609753</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1655683858734416</v>
+        <v>0.03572503357291519</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02729869531708948</v>
+        <v>0.0287969168713837</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0173481568732846</v>
+        <v>0.03632762841145569</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02933777036752011</v>
+        <v>0.02959683122892213</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04293761904553565</v>
+        <v>0.09237409210964892</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02715364963285609</v>
+        <v>0.02917150926155961</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1044420330837917</v>
+        <v>0.1456805963436573</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02722951291107509</v>
+        <v>0.02905627251876691</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1651346433777856</v>
+        <v>0.03632762841145569</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02805699240923085</v>
+        <v>0.02959683122892213</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0172221059579657</v>
+        <v>0.03720746081399397</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03013068308015579</v>
+        <v>0.03039674558646057</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04303621218231074</v>
+        <v>0.09417991502555917</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02788753205536572</v>
+        <v>0.02995992843079095</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1042496653507897</v>
+        <v>0.1481808888919117</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02796544569245549</v>
+        <v>0.02984157718143628</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1649119164097642</v>
+        <v>0.03720746081399397</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02881528950137223</v>
+        <v>0.03039674558646057</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01807865409364547</v>
+        <v>0.03796185957887144</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03092359579279147</v>
+        <v>0.03119665994399901</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04285802627337069</v>
+        <v>0.09592709443840941</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02862141447787534</v>
+        <v>0.03074834760002229</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1037642389318046</v>
+        <v>0.150198606146273</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0287013784738359</v>
+        <v>0.03062688184410566</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1640195761173391</v>
+        <v>0.03796185957887144</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0295735865935136</v>
+        <v>0.03119665994399901</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01792028944289852</v>
+        <v>0.03868815350442953</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03171650850542716</v>
+        <v>0.03199657430153744</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04261319778550679</v>
+        <v>0.09661235867989285</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02935529690038496</v>
+        <v>0.03153676676925363</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1034937660997197</v>
+        <v>0.153227501331673</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02943731125521631</v>
+        <v>0.03141218650677504</v>
       </c>
       <c r="N105" t="n">
-        <v>0.162076993648472</v>
+        <v>0.03868815350442953</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03033188368565497</v>
+        <v>0.03199657430153744</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01774950016829945</v>
+        <v>0.03968367138900973</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03250942121806283</v>
+        <v>0.03279648865907588</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04241186318551031</v>
+        <v>0.09813243608170277</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03008917932289459</v>
+        <v>0.03232518593848497</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1028462591274186</v>
+        <v>0.1558613276730438</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03017324403659672</v>
+        <v>0.03219749116944441</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1621035401511245</v>
+        <v>0.03968367138900973</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03109018077779635</v>
+        <v>0.03279648865907588</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01756877443242286</v>
+        <v>0.04014574203095343</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03330233393069851</v>
+        <v>0.03359640301661431</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04216415894017252</v>
+        <v>0.09998405497553237</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03082306174540421</v>
+        <v>0.03311360510771631</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1020297302877845</v>
+        <v>0.1570938383953173</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03090917681797712</v>
+        <v>0.03298279583211378</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1593185867732587</v>
+        <v>0.04014574203095343</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03184847786993773</v>
+        <v>0.03359640301661431</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01638060039784336</v>
+        <v>0.04087169422860212</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03409524664333419</v>
+        <v>0.03439631737415275</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04138022151628472</v>
+        <v>0.100163943693075</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03155694416791384</v>
+        <v>0.03390202427694765</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1018521918537008</v>
+        <v>0.1589187867234256</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03164510959935753</v>
+        <v>0.03376810049478316</v>
       </c>
       <c r="N108" t="n">
-        <v>0.158441504662836</v>
+        <v>0.04087169422860212</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0326067749620791</v>
+        <v>0.03439631737415275</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01818746622713557</v>
+        <v>0.04135885678029717</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03488815935596987</v>
+        <v>0.03519623173169118</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04107018738063817</v>
+        <v>0.1019688305660238</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03229082659042346</v>
+        <v>0.03469044344617899</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1013216560980508</v>
+        <v>0.1600299258823005</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03238104238073794</v>
+        <v>0.03455340515745254</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1583916649678184</v>
+        <v>0.04135885678029717</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03336507205422048</v>
+        <v>0.03519623173169118</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01699186008287408</v>
+        <v>0.0419045584843801</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03568107206860555</v>
+        <v>0.03599614608922962</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04064419300002418</v>
+        <v>0.1022954439260724</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03302470901293309</v>
+        <v>0.03547886261541033</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1008461352937181</v>
+        <v>0.1623210090968741</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03311697516211835</v>
+        <v>0.03533870982012191</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1558884388361675</v>
+        <v>0.0419045584843801</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03412336914636185</v>
+        <v>0.03599614608922962</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0177962701276335</v>
+        <v>0.04230612813919232</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03647398478124122</v>
+        <v>0.03679606044676806</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04041237484123401</v>
+        <v>0.1040405121049137</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03375859143544271</v>
+        <v>0.03626728178464168</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09953364171358572</v>
+        <v>0.1643857895920784</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03385290794349876</v>
+        <v>0.03612401448279129</v>
       </c>
       <c r="N111" t="n">
-        <v>0.154651197415845</v>
+        <v>0.04230612813919232</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03488166623850322</v>
+        <v>0.03679606044676806</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01560318452398843</v>
+        <v>0.04296089454307522</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0372668974938769</v>
+        <v>0.03759597480430649</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03968486937105896</v>
+        <v>0.104300763434241</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03449247385795234</v>
+        <v>0.03705570095387302</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09939218763053731</v>
+        <v>0.1653180205928453</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03458884072487917</v>
+        <v>0.03690931914546067</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1532993118548129</v>
+        <v>0.04296089454307522</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03563996333064459</v>
+        <v>0.03759597480430649</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01641509143451347</v>
+        <v>0.0430661864943703</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03805981020651258</v>
+        <v>0.03839588916184493</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03947181305629029</v>
+        <v>0.1051729262457478</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03522635628046196</v>
+        <v>0.03784412012310436</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09882978531745615</v>
+        <v>0.1676114553241068</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03532477350625957</v>
+        <v>0.03769462380813004</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1509521533010328</v>
+        <v>0.0430661864943703</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03639826042278597</v>
+        <v>0.03839588916184493</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01723447902178325</v>
+        <v>0.04341933279141898</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03885272291914826</v>
+        <v>0.03919580351938336</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0392833423637193</v>
+        <v>0.1064537288711271</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03596023870297158</v>
+        <v>0.0386325392923357</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09765444704722562</v>
+        <v>0.168459847010795</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03606070628763998</v>
+        <v>0.03847992847079942</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1507290929024664</v>
+        <v>0.04341933279141898</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03715655751492734</v>
+        <v>0.03919580351938336</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01506383544837235</v>
+        <v>0.04391766223256267</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03964563563178394</v>
+        <v>0.0399957178769218</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03892959376013728</v>
+        <v>0.1070398996420723</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03669412112548121</v>
+        <v>0.03942095846156703</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09677418509272906</v>
+        <v>0.1686569488778417</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03679663906902039</v>
+        <v>0.0392652331334688</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1496495018070756</v>
+        <v>0.04391766223256267</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03791485460706872</v>
+        <v>0.0399957178769218</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0169056488768554</v>
+        <v>0.04435850361614285</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04043854834441962</v>
+        <v>0.04079563223446023</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03842070371233548</v>
+        <v>0.1066281668902767</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03742800354799083</v>
+        <v>0.04020937763079838</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09589701172684986</v>
+        <v>0.169096514150179</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0375325718504008</v>
+        <v>0.04005053779613817</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1471327511628219</v>
+        <v>0.04435850361614285</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0386731516992101</v>
+        <v>0.04079563223446023</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01476240746980696</v>
+        <v>0.04443918574050096</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0412314610570553</v>
+        <v>0.04159554659199867</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03836680868710521</v>
+        <v>0.1076152589474335</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03816188597050046</v>
+        <v>0.04099779680002972</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09533093922247138</v>
+        <v>0.1710722960527388</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0382685046317812</v>
+        <v>0.04083584245880754</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1463982121176673</v>
+        <v>0.04443918574050096</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03943144879135146</v>
+        <v>0.04159554659199867</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01663659938980169</v>
+        <v>0.04445703740397842</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04202437376969097</v>
+        <v>0.04239546094953711</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03807804515123774</v>
+        <v>0.108297904145236</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03889576839301008</v>
+        <v>0.04178621596926106</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09468397985247703</v>
+        <v>0.1718780478104532</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03900443741316161</v>
+        <v>0.04162114712147692</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1452652558195734</v>
+        <v>0.04445703740397842</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04018974588349284</v>
+        <v>0.04239546094953711</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01553071279941416</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04281728648232665</v>
+        <v>0.04319537530707554</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03776454957152436</v>
+        <v>0.1085370035950932</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0396296508155197</v>
+        <v>0.0425746351384924</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0937641458897501</v>
+        <v>0.1721075226482541</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03974037019454202</v>
+        <v>0.0424064517841463</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1438532534165021</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04094804297563422</v>
+        <v>0.04319537530707554</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01644723586121899</v>
+        <v>0.04431020249271225</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04361019919496233</v>
+        <v>0.04399528966461398</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03773562552998966</v>
+        <v>0.1082367672895512</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04036353323802933</v>
+        <v>0.04336305430772374</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09257944960717401</v>
+        <v>0.1723620617772014</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04047630297592242</v>
+        <v>0.04319175644681567</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1433815760564149</v>
+        <v>0.04431020249271225</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04170634006777559</v>
+        <v>0.04399528966461398</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01638865673779078</v>
+        <v>0.04450219837086174</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04440311190759801</v>
+        <v>0.04479520402215241</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03786810997490959</v>
+        <v>0.107830223656938</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04109741566053896</v>
+        <v>0.04415147347695508</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09233790327763217</v>
+        <v>0.1715559551091598</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04121223575730284</v>
+        <v>0.04397706110948505</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1430695948872738</v>
+        <v>0.04450219837086174</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04246463715991697</v>
+        <v>0.04479520402215241</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01535746359170414</v>
+        <v>0.04448786205631326</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04519602462023369</v>
+        <v>0.04559511837969085</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03784501597829239</v>
+        <v>0.1078081988004743</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04183129808304858</v>
+        <v>0.04493989264618642</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09134751917400785</v>
+        <v>0.1713273189473624</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04194816853868324</v>
+        <v>0.04476236577215443</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1413366810570404</v>
+        <v>0.04448786205631326</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04322293425205834</v>
+        <v>0.04559511837969085</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01435769140778025</v>
+        <v>0.04466737045727254</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04598893733286937</v>
+        <v>0.04639503273722929</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03786297589649022</v>
+        <v>0.1078712327060299</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0425651805055582</v>
+        <v>0.04572831181541776</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09091630956918445</v>
+        <v>0.1707757209427359</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04268410132006365</v>
+        <v>0.0455476704348238</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1411022057136766</v>
+        <v>0.04466737045727254</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04398123134419971</v>
+        <v>0.04639503273722929</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01440075917475474</v>
+        <v>0.04424090048194528</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04678185004550504</v>
+        <v>0.04719494709476772</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03811862208585537</v>
+        <v>0.1076196612740395</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04329906292806782</v>
+        <v>0.0465167309846491</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09065228673604539</v>
+        <v>0.171701683851744</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04342003410144406</v>
+        <v>0.04633297509749318</v>
       </c>
       <c r="N124" t="n">
-        <v>0.142085540005144</v>
+        <v>0.04424090048194528</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04473952843634108</v>
+        <v>0.04719494709476772</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01548524764425496</v>
+        <v>0.04430862903853718</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04757476275814072</v>
+        <v>0.04799486145230616</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03850858690274001</v>
+        <v>0.1079538204049383</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04403294535057745</v>
+        <v>0.04730515015388045</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09036346294747405</v>
+        <v>0.1715057304308505</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04415596688282446</v>
+        <v>0.04711827976016256</v>
       </c>
       <c r="N125" t="n">
-        <v>0.142264568550966</v>
+        <v>0.04430862903853718</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04549782552848246</v>
+        <v>0.04799486145230616</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01460718642274429</v>
+        <v>0.04447073303525395</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04836767547077641</v>
+        <v>0.04879477580984459</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03842950270349638</v>
+        <v>0.107274045999161</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04476682777308708</v>
+        <v>0.04809356932311178</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0900578504763537</v>
+        <v>0.1713883834365194</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04489189966420487</v>
+        <v>0.04790358442283193</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1422829968303645</v>
+        <v>0.04447073303525395</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04625612262062383</v>
+        <v>0.04879477580984459</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01476260511668608</v>
+        <v>0.04442738938030136</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04916058818341209</v>
+        <v>0.04959469016738303</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03897800184447668</v>
+        <v>0.1076806739571425</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0455007101955967</v>
+        <v>0.04888198849234313</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09004346159556778</v>
+        <v>0.1701501656252143</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04562783244558528</v>
+        <v>0.04868888908550131</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1432066927859307</v>
+        <v>0.04442738938030136</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04701441971276521</v>
+        <v>0.04959469016738303</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01694753333254368</v>
+        <v>0.04407877498188507</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04995350089604776</v>
+        <v>0.05039460452492146</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03915071668203318</v>
+        <v>0.1075740401793179</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04623459261810632</v>
+        <v>0.04967040766157447</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09002830857799965</v>
+        <v>0.1702915997533991</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04636376522696569</v>
+        <v>0.04947419374817068</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1449015223038322</v>
+        <v>0.04407877498188507</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04777271680490659</v>
+        <v>0.05039460452492146</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01615800067678046</v>
+        <v>0.04442506674821081</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05074641360868344</v>
+        <v>0.05119451888245991</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03964427957251807</v>
+        <v>0.107254480566122</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04696847504061594</v>
+        <v>0.0504588268308058</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09033519825926878</v>
+        <v>0.1711132085775376</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0470996980083461</v>
+        <v>0.05025949841084006</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1455333512702368</v>
+        <v>0.04442506674821081</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04853101389704796</v>
+        <v>0.05119451888245991</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0163900367558598</v>
+        <v>0.04406644158748431</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05153932632131912</v>
+        <v>0.05199443323999834</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03955532287228358</v>
+        <v>0.1068223310179897</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04770235746312557</v>
+        <v>0.05124724600003715</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09028113868375964</v>
+        <v>0.1703155148540936</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0478356307897265</v>
+        <v>0.05104480307350943</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1477680455713121</v>
+        <v>0.04406644158748431</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04928931098918934</v>
+        <v>0.05199443323999834</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01663967117624504</v>
+        <v>0.04420307640791124</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0523322390339548</v>
+        <v>0.05279434759753678</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04008047893768189</v>
+        <v>0.106777927435356</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0484362398856352</v>
+        <v>0.05203566516926849</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09106662543428817</v>
+        <v>0.1693990413395309</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04857156357110691</v>
+        <v>0.05183010773617881</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1494714710932262</v>
+        <v>0.04420307640791124</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05004760808133071</v>
+        <v>0.05279434759753678</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01590293354439955</v>
+        <v>0.04413514811769738</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05312515174659048</v>
+        <v>0.05359426195507521</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04041638012506529</v>
+        <v>0.1072216057186558</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04917012230814482</v>
+        <v>0.05282408433849983</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09096333099316051</v>
+        <v>0.1704643107903133</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04930749635248732</v>
+        <v>0.05261541239884818</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1514094937221468</v>
+        <v>0.04413514811769738</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05080590517347208</v>
+        <v>0.05359426195507521</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0181758534667867</v>
+        <v>0.0441628336250484</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05391806445922616</v>
+        <v>0.05439417631261365</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04055965879078596</v>
+        <v>0.1073537017683242</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04990400473065444</v>
+        <v>0.05361250350773118</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09254292784268286</v>
+        <v>0.1699118459629047</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05004342913386773</v>
+        <v>0.05340071706151756</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1533479793442417</v>
+        <v>0.0441628336250484</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05156420226561346</v>
+        <v>0.05439417631261365</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01745446054986983</v>
+        <v>0.04368630983817003</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05471097717186184</v>
+        <v>0.05519409067015207</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04130694729119615</v>
+        <v>0.1071745514847958</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05063788715316406</v>
+        <v>0.05440092267696251</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09297708846516134</v>
+        <v>0.1700421696137687</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05077936191524814</v>
+        <v>0.05418602172418694</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1538527938456784</v>
+        <v>0.04368630983817003</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05232249935775483</v>
+        <v>0.05519409067015207</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01773478440011232</v>
+        <v>0.04360575366526796</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05550388988449752</v>
+        <v>0.05599400502769052</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04145487798264803</v>
+        <v>0.1064844907685057</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05137176957567369</v>
+        <v>0.05518934184619386</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09393748534290217</v>
+        <v>0.1696558044993694</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05151529469662854</v>
+        <v>0.05497132638685631</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1563898031126251</v>
+        <v>0.04360575366526796</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0530807964498962</v>
+        <v>0.05599400502769052</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01801285462397752</v>
+        <v>0.04392134201454795</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05629680259713319</v>
+        <v>0.05679391938522895</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04180008322149387</v>
+        <v>0.106683855519889</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05210565199818332</v>
+        <v>0.0559777610154252</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09539579095821143</v>
+        <v>0.1683532733761705</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05225122747800895</v>
+        <v>0.05575663104952568</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1591248730312493</v>
+        <v>0.04392134201454795</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05383909354203759</v>
+        <v>0.05679391938522895</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0182847008279288</v>
+        <v>0.04373325179421567</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05708971530976887</v>
+        <v>0.05759383374276739</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04233919536408587</v>
+        <v>0.1065729816393802</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05283953442069294</v>
+        <v>0.05676618018465653</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09672367779339533</v>
+        <v>0.1690350990006356</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05298716025938936</v>
+        <v>0.05654193571219506</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1603238694877189</v>
+        <v>0.04373325179421567</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05459739063417895</v>
+        <v>0.05759383374276739</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01754635261842952</v>
+        <v>0.04364165991247686</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05788262802240455</v>
+        <v>0.05839374810030583</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04266884676677625</v>
+        <v>0.1063522050274146</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05357341684320256</v>
+        <v>0.05755459935388788</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09869281833076007</v>
+        <v>0.1679018041292289</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05372309304076977</v>
+        <v>0.05732724037486445</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1630526583682017</v>
+        <v>0.04364165991247686</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05535568772632033</v>
+        <v>0.05839374810030583</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01979383960194304</v>
+        <v>0.04324674327753723</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05867554073504023</v>
+        <v>0.05919366245784426</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04268566978591724</v>
+        <v>0.1059218615844271</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05430729926571218</v>
+        <v>0.05834301852311921</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09957488505261169</v>
+        <v>0.1679539115184138</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05445902582215018</v>
+        <v>0.05811254503753382</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1652771055588654</v>
+        <v>0.04324674327753723</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0561139848184617</v>
+        <v>0.05919366245784426</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01802319138493273</v>
+        <v>0.04334867879760249</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05946845344767591</v>
+        <v>0.0599935768153827</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04328629677786106</v>
+        <v>0.1052822872108524</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05504118168822181</v>
+        <v>0.05913143769235056</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1009415504412564</v>
+        <v>0.1682919439246544</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05519495860353058</v>
+        <v>0.0588978497002032</v>
       </c>
       <c r="N140" t="n">
-        <v>0.167063076945878</v>
+        <v>0.04334867879760249</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05687228191060308</v>
+        <v>0.0599935768153827</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01923043757386194</v>
+        <v>0.04314764338087837</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06026136616031158</v>
+        <v>0.06079349117292113</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04316736009895994</v>
+        <v>0.1052338178071256</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05577506411073144</v>
+        <v>0.0599198568615819</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1022644869790005</v>
+        <v>0.1666164241044144</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05593089138491098</v>
+        <v>0.05968315436287257</v>
       </c>
       <c r="N141" t="n">
-        <v>0.168176438415407</v>
+        <v>0.04314764338087837</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05763057900274445</v>
+        <v>0.06079349117292113</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02046810881880896</v>
+        <v>0.04334381393557055</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06105427887294726</v>
+        <v>0.06159340553045958</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04352549210556608</v>
+        <v>0.1044767892736815</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05650894653324107</v>
+        <v>0.06070827603081323</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1034153671481499</v>
+        <v>0.1662278748141576</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0566668241662914</v>
+        <v>0.06046845902554194</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1681830558536203</v>
+        <v>0.04334381393557055</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05838887609488582</v>
+        <v>0.06159340553045958</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01957045218745331</v>
+        <v>0.04313736736988479</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06184719158558294</v>
+        <v>0.06239331988799801</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0437573251540317</v>
+        <v>0.1050115375109552</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05724282895575069</v>
+        <v>0.06149669520004458</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1044658634310109</v>
+        <v>0.1658268188103478</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05740275694767181</v>
+        <v>0.06125376368821132</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1707487951466858</v>
+        <v>0.04313736736988479</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0591471731870272</v>
+        <v>0.06239331988799801</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01873100663751552</v>
+        <v>0.04312848059202677</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06264010429821863</v>
+        <v>0.06319323424553644</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04405949160070904</v>
+        <v>0.1048383984193816</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05797671137826031</v>
+        <v>0.06228511436927592</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1062876483098897</v>
+        <v>0.1655137788494489</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05813868972905221</v>
+        <v>0.0620390683508807</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1702395221807711</v>
+        <v>0.04312848059202677</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05990547027916857</v>
+        <v>0.06319323424553644</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01889461593524257</v>
+        <v>0.04281733051020221</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06343301701085431</v>
+        <v>0.06399314860307488</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04412862380195033</v>
+        <v>0.1045577078993954</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05871059380076993</v>
+        <v>0.06307353353850727</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1069523942670925</v>
+        <v>0.1646892776879246</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05887462251043261</v>
+        <v>0.06282437301355008</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1708211028420442</v>
+        <v>0.04281733051020221</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06066376737130995</v>
+        <v>0.06399314860307488</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01906045218081921</v>
+        <v>0.04280409403261684</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06422592972348999</v>
+        <v>0.06479306296061331</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04436135411410774</v>
+        <v>0.1036698018514319</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05944447622327955</v>
+        <v>0.0638619527077386</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1071317737849252</v>
+        <v>0.1655538380822388</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05961055529181302</v>
+        <v>0.06360967767621944</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1723620617772014</v>
+        <v>0.04280409403261684</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06142206446345132</v>
+        <v>0.06479306296061331</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0192276874744302</v>
+        <v>0.04268894806747636</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06501884243612566</v>
+        <v>0.06559297731815175</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04435431489353357</v>
+        <v>0.1032750161759257</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06017835864578918</v>
+        <v>0.06465037187696994</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1080974593456943</v>
+        <v>0.1651079827888552</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06034648807319344</v>
+        <v>0.06439498233888882</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1712612410487</v>
+        <v>0.04268894806747636</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0621803615555927</v>
+        <v>0.06559297731815175</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02039549391626027</v>
+        <v>0.04267206952298651</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06581175514876134</v>
+        <v>0.06639289167569018</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04471194541298491</v>
+        <v>0.1029736867733118</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0609122410682988</v>
+        <v>0.06543879104620128</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1085370035950932</v>
+        <v>0.1634522345642378</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06108242085457385</v>
+        <v>0.0651802870015582</v>
       </c>
       <c r="N148" t="n">
-        <v>0.170959123126163</v>
+        <v>0.04267206952298651</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06293865864773407</v>
+        <v>0.06639289167569018</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01956304360649416</v>
+        <v>0.04235363530735296</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06660466786139702</v>
+        <v>0.06719280603322862</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04431181722829088</v>
+        <v>0.1025661495440253</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06164612349080843</v>
+        <v>0.06622721021543261</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1075369331677364</v>
+        <v>0.1641871161648502</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06181835363595425</v>
+        <v>0.06596559166422757</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1718557041857021</v>
+        <v>0.04235363530735296</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06369695573987545</v>
+        <v>0.06719280603322862</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01972950864531664</v>
+        <v>0.04223382232878145</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06739758057403269</v>
+        <v>0.06799272039076705</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04461052922752548</v>
+        <v>0.1029527403885009</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06238000591331806</v>
+        <v>0.06701562938466396</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1080365582896652</v>
+        <v>0.1628131503471563</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06255428641733465</v>
+        <v>0.06675089632689696</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1709509897159595</v>
+        <v>0.04223382232878145</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06445525283201682</v>
+        <v>0.06799272039076705</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01989406113291244</v>
+        <v>0.04201280749547773</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06819049328666837</v>
+        <v>0.06879263474830549</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04440787795559967</v>
+        <v>0.1017337952071736</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06311388833582768</v>
+        <v>0.0678040485538953</v>
       </c>
       <c r="L151" t="n">
-        <v>0.107835858805211</v>
+        <v>0.16303085986762</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06329021919871507</v>
+        <v>0.06753620098956632</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1710449852055777</v>
+        <v>0.04201280749547773</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0652135499241582</v>
+        <v>0.06879263474830549</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02005587316946632</v>
+        <v>0.04209076771564745</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06898340599930405</v>
+        <v>0.06959254910584393</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04460388959248943</v>
+        <v>0.1022096499004784</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06384777075833731</v>
+        <v>0.06859246772312665</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1080348330118111</v>
+        <v>0.1617407674827049</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06402615198009548</v>
+        <v>0.0683215056522357</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1720376961431991</v>
+        <v>0.04209076771564745</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06597184701629957</v>
+        <v>0.06959254910584393</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02121411685516303</v>
+        <v>0.04166787989749636</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06977631871193973</v>
+        <v>0.07039246346338236</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04469859031817074</v>
+        <v>0.1015806403688503</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06458165318084692</v>
+        <v>0.06938088689235798</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1083334792069029</v>
+        <v>0.161843395948875</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06476208476147588</v>
+        <v>0.06910681031490508</v>
       </c>
       <c r="N153" t="n">
-        <v>0.171329128017466</v>
+        <v>0.04166787989749636</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06673014410844096</v>
+        <v>0.07039246346338236</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02036796429018729</v>
+        <v>0.04194432094923016</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07056923142457541</v>
+        <v>0.0711923778209208</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04469200631261958</v>
+        <v>0.1017471025127239</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06531553560335655</v>
+        <v>0.07016930606158933</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1077317956879236</v>
+        <v>0.161739268022594</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06549801754285629</v>
+        <v>0.06989211497757446</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1716192863170207</v>
+        <v>0.04194432094923016</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06748844120058232</v>
+        <v>0.0711923778209208</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02051658757472388</v>
+        <v>0.04142026777905458</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07136214413721109</v>
+        <v>0.07199229217845923</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04428416375581193</v>
+        <v>0.1013093722325345</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06604941802586618</v>
+        <v>0.07095772523082067</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1076297807523107</v>
+        <v>0.1609289064603258</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06623395032423669</v>
+        <v>0.07067741964024382</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1717081765305056</v>
+        <v>0.04142026777905458</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06824673829272369</v>
+        <v>0.07199229217845923</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02165915880895754</v>
+        <v>0.04159589729517532</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07215505684984676</v>
+        <v>0.07279220653599767</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04427508882772377</v>
+        <v>0.1007677854287167</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0667833004483758</v>
+        <v>0.071746144400052</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1080274326975013</v>
+        <v>0.1609128340185341</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06696988310561709</v>
+        <v>0.07146272430291321</v>
       </c>
       <c r="N156" t="n">
-        <v>0.170595804146563</v>
+        <v>0.04159589729517532</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06900503538486506</v>
+        <v>0.07279220653599767</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.020794850093073</v>
+        <v>0.04127138640579811</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07294796956248244</v>
+        <v>0.07359212089353612</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04446480770833107</v>
+        <v>0.1000226780017058</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06751718287088541</v>
+        <v>0.07253456356928335</v>
       </c>
       <c r="L157" t="n">
-        <v>0.107524749820933</v>
+        <v>0.1596915734536828</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06770581588699752</v>
+        <v>0.07224802896558258</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1710821746538354</v>
+        <v>0.04127138640579811</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06976333247700643</v>
+        <v>0.07359212089353612</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02292283352725503</v>
+        <v>0.04114691201912866</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07374088227511813</v>
+        <v>0.07439203525107455</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04455334657760983</v>
+        <v>0.09937438585193636</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06825106529339504</v>
+        <v>0.07332298273851469</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1075217304200429</v>
+        <v>0.1587656475222356</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06844174866837792</v>
+        <v>0.07303333362825196</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1711672935409649</v>
+        <v>0.04114691201912866</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07052162956914781</v>
+        <v>0.07439203525107455</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02204228121168837</v>
+        <v>0.04102265104337267</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07453379498775381</v>
+        <v>0.07519194960861297</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04424073161553603</v>
+        <v>0.09912324487984353</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06898494771590467</v>
+        <v>0.07411140190774604</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1084183727922684</v>
+        <v>0.1585355789806565</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06917768144975833</v>
+        <v>0.07381863829092133</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1717511662965941</v>
+        <v>0.04102265104337267</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07127992666128918</v>
+        <v>0.07519194960861297</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02315236524655775</v>
+        <v>0.04119829475404245</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07532670770038949</v>
+        <v>0.07599186396615142</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04442698900208561</v>
+        <v>0.09866959098586214</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06971883013841429</v>
+        <v>0.07489982107697737</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1085146752350468</v>
+        <v>0.1587018905854091</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06991361423113873</v>
+        <v>0.0746039429535907</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1717337984093653</v>
+        <v>0.04119829475404245</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07203822375343057</v>
+        <v>0.07599186396615142</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02325225773204795</v>
+        <v>0.04076649104660933</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07611962041302517</v>
+        <v>0.07679177832368986</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04441214491723459</v>
+        <v>0.09851376007042717</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07045271256092392</v>
+        <v>0.07568824024620871</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1082106360458156</v>
+        <v>0.1573651050929574</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07064954701251915</v>
+        <v>0.07538924761626008</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1719151953679208</v>
+        <v>0.04076649104660933</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07279652084557194</v>
+        <v>0.07679177832368986</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02134113076834368</v>
+        <v>0.04062507676069331</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07691253312566085</v>
+        <v>0.0775916926812283</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04439622554095894</v>
+        <v>0.09865608803397355</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07118659498343355</v>
+        <v>0.07647665941544006</v>
       </c>
       <c r="L162" t="n">
-        <v>0.107506253522012</v>
+        <v>0.1572257452597651</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07138547979389956</v>
+        <v>0.07617455227892947</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1718953626609029</v>
+        <v>0.04062507676069331</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07355481793771332</v>
+        <v>0.0775916926812283</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02141815645562972</v>
+        <v>0.0407745317286663</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07770544583829653</v>
+        <v>0.07839160703876673</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04427925705323466</v>
+        <v>0.09769691077693612</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07192047740594316</v>
+        <v>0.0772650785846714</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1078015259610733</v>
+        <v>0.156184333842296</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07212141257527996</v>
+        <v>0.07695985694159883</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1709743057769542</v>
+        <v>0.0407745317286663</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07431311502985469</v>
+        <v>0.07839160703876673</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02348250689409081</v>
+        <v>0.04021533578290025</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07849835855093219</v>
+        <v>0.07919152139630516</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04446126563403768</v>
+        <v>0.09823656419974991</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07265435982845279</v>
+        <v>0.07805349775390273</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1081964516604368</v>
+        <v>0.1552413935970139</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07285734535666037</v>
+        <v>0.07774516160426821</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1710520302047168</v>
+        <v>0.04021533578290025</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07507141212199607</v>
+        <v>0.07919152139630516</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02153335418391168</v>
+        <v>0.0400479687557671</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07929127126356787</v>
+        <v>0.0799914357538436</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04444227746334402</v>
+        <v>0.09727538420284981</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07338824225096242</v>
+        <v>0.07884191692313407</v>
       </c>
       <c r="L165" t="n">
-        <v>0.10839102891754</v>
+        <v>0.1556974472803827</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07359327813804077</v>
+        <v>0.07853046626693759</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1707285414328331</v>
+        <v>0.0400479687557671</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07582970921413744</v>
+        <v>0.0799914357538436</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02156987042527709</v>
+        <v>0.03997291047963883</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08008418397620355</v>
+        <v>0.08079135011138204</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04432231872112964</v>
+        <v>0.09659189427653575</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07412212467347205</v>
+        <v>0.07963033609236542</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1078852560298201</v>
+        <v>0.1553530176488661</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07432921091942118</v>
+        <v>0.07931577092960695</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1712038449499456</v>
+        <v>0.03997291047963883</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07658800630627882</v>
+        <v>0.08079135011138204</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0235912277183718</v>
+        <v>0.03989064078688731</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08087709668883923</v>
+        <v>0.08159126446892047</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04450141558737054</v>
+        <v>0.09614539905892355</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07485600709598166</v>
+        <v>0.08041875526159675</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1078791312947145</v>
+        <v>0.154008627458928</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0750651437008016</v>
+        <v>0.08010107559227635</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1716779462446965</v>
+        <v>0.03989064078688731</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07734630339842019</v>
+        <v>0.08159126446892047</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02159642524002491</v>
+        <v>0.03980163950988454</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08167000940147491</v>
+        <v>0.0823911788264589</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04407959424204268</v>
+        <v>0.09593875920150058</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07558988951849129</v>
+        <v>0.08120717443082809</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1080726530096605</v>
+        <v>0.1538647994670321</v>
       </c>
       <c r="M168" t="n">
-        <v>0.075801076482182</v>
+        <v>0.08088638025494573</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1713508508057282</v>
+        <v>0.03980163950988454</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07810460049056156</v>
+        <v>0.0823911788264589</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02257778378938371</v>
+        <v>0.03960638648100241</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08246292211411059</v>
+        <v>0.08319109318399734</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04415688086512205</v>
+        <v>0.09517601350806015</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07632377194100091</v>
+        <v>0.08199559360005944</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1074658194720954</v>
+        <v>0.1532220564296424</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0765370092635624</v>
+        <v>0.08167168491761509</v>
       </c>
       <c r="N169" t="n">
-        <v>0.170522564121683</v>
+        <v>0.03960638648100241</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07886289758270293</v>
+        <v>0.08319109318399734</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02353272803820187</v>
+        <v>0.03940536153261291</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08325583482674627</v>
+        <v>0.08399100754153578</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04423330163658462</v>
+        <v>0.09456120078239563</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07705765436351053</v>
+        <v>0.08278401276929077</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1076586289794564</v>
+        <v>0.152157295760041</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07727294204494281</v>
+        <v>0.08245698958028447</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1708930916812034</v>
+        <v>0.03940536153261291</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0796211946748443</v>
+        <v>0.08399100754153578</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02346290881499687</v>
+        <v>0.03909904449708794</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08404874753938195</v>
+        <v>0.08479092189907422</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04440888273640639</v>
+        <v>0.09429835982830029</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07779153678602016</v>
+        <v>0.08357243193852212</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1074510798291811</v>
+        <v>0.1528476990231313</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07800887482632322</v>
+        <v>0.08324229424295385</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1712624389729317</v>
+        <v>0.03909904449708794</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08037949176698568</v>
+        <v>0.08479092189907422</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02336997694828609</v>
+        <v>0.03908791520679944</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08484166025201763</v>
+        <v>0.08559083625661264</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04398365034456332</v>
+        <v>0.09329152944956748</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07852541920852979</v>
+        <v>0.08436085110775346</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1079431703187067</v>
+        <v>0.1522958356987735</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07874480760770364</v>
+        <v>0.08402759890562321</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1708306114855102</v>
+        <v>0.03908791520679944</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08113778885912705</v>
+        <v>0.08559083625661264</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02225558326658701</v>
+        <v>0.03877245349411937</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08563457296465331</v>
+        <v>0.08639075061415108</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04425763064103139</v>
+        <v>0.09294474844999062</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07925930163103941</v>
+        <v>0.08514927027698481</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1074348987454705</v>
+        <v>0.1500042783051547</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07948074038908404</v>
+        <v>0.0848129035682926</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1706976147075813</v>
+        <v>0.03877245349411937</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08189608595126843</v>
+        <v>0.08639075061415108</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02112137859841704</v>
+        <v>0.03825313919141966</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08642748567728899</v>
+        <v>0.08719066497168952</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04413084980578658</v>
+        <v>0.0919620556333629</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07999318405354904</v>
+        <v>0.08593768944621615</v>
       </c>
       <c r="L174" t="n">
-        <v>0.10752626340691</v>
+        <v>0.1499755993604623</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08021667317046444</v>
+        <v>0.08559820823096198</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1701634541277873</v>
+        <v>0.03825313919141966</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0826543830434098</v>
+        <v>0.08719066497168952</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02196901377229363</v>
+        <v>0.03813045213107225</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08722039838992467</v>
+        <v>0.08799057932922796</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04430333401880489</v>
+        <v>0.09064748980347775</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08072706647605866</v>
+        <v>0.08672610861544748</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1080172626004622</v>
+        <v>0.1493123713828838</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08095260595184485</v>
+        <v>0.08638351289363135</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1704281352347706</v>
+        <v>0.03813045213107225</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08341268013555118</v>
+        <v>0.08799057932922796</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02080013961673421</v>
+        <v>0.03800487214544906</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08801331110256035</v>
+        <v>0.08879049368676639</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04427510946006227</v>
+        <v>0.09050508976412847</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08146094889856829</v>
+        <v>0.08751452778467883</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1080078946235648</v>
+        <v>0.1477171668906064</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08168853873322526</v>
+        <v>0.08716881755630072</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1708916635171736</v>
+        <v>0.03800487214544906</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08417097722769255</v>
+        <v>0.08879049368676639</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0226164069602562</v>
+        <v>0.03757687906692206</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08880622381519603</v>
+        <v>0.08959040804430482</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04414620230953473</v>
+        <v>0.08973889431910836</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08219483132107791</v>
+        <v>0.08830294695391017</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1082981577736549</v>
+        <v>0.1467925584018174</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08242447151460568</v>
+        <v>0.0879541222189701</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1706540444636386</v>
+        <v>0.03757687906692206</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08492927431983394</v>
+        <v>0.08959040804430482</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02041946663137705</v>
+        <v>0.03744695272786319</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0895991365278317</v>
+        <v>0.09039032240184326</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04391663874719823</v>
+        <v>0.08885294227221074</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08292871374358753</v>
+        <v>0.0890913661231415</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1074880503481698</v>
+        <v>0.1475411184347043</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08316040429598608</v>
+        <v>0.08873942688163947</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1713152835628079</v>
+        <v>0.03744695272786319</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08568757141197531</v>
+        <v>0.09039032240184326</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02121096945861419</v>
+        <v>0.03731557296064435</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09039204924046738</v>
+        <v>0.0911902367593817</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04388644495302875</v>
+        <v>0.08785127242722904</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08366259616609716</v>
+        <v>0.08987978529237284</v>
       </c>
       <c r="L179" t="n">
-        <v>0.107577570644547</v>
+        <v>0.1462654195074542</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08389633707736648</v>
+        <v>0.08952473154430886</v>
       </c>
       <c r="N179" t="n">
-        <v>0.169975386303324</v>
+        <v>0.03731557296064435</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08644586850411669</v>
+        <v>0.0911902367593817</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01999256627048506</v>
+        <v>0.03688321959763752</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09118496195310306</v>
+        <v>0.09199015111692015</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04415564710700227</v>
+        <v>0.08643792358795646</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08439647858860677</v>
+        <v>0.09066820446160419</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1082667169602238</v>
+        <v>0.1444680341382546</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08463226985874689</v>
+        <v>0.09031003620697824</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1705316816759077</v>
+        <v>0.03688321959763752</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08720416559625806</v>
+        <v>0.09199015111692015</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02076590789550709</v>
+        <v>0.03665037247121462</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09197787466573874</v>
+        <v>0.09279006547445857</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04372427138909478</v>
+        <v>0.0860169345581864</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0851303610111164</v>
+        <v>0.09145662363083552</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1074554875926373</v>
+        <v>0.1436515348452929</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0853682026401273</v>
+        <v>0.0910953408696476</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1705192456425427</v>
+        <v>0.03665037247121462</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08796246268839943</v>
+        <v>0.09279006547445857</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02153264516219771</v>
+        <v>0.0366175114137476</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09277078737837441</v>
+        <v>0.093589979831997</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04389234397928224</v>
+        <v>0.0846923441417122</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08586424343362603</v>
+        <v>0.09224504280006686</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1081438808392252</v>
+        <v>0.1440184941467562</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0861041354215077</v>
+        <v>0.09188064553231698</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1696151419159353</v>
+        <v>0.0366175114137476</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08872075978054079</v>
+        <v>0.093589979831997</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02029442889907436</v>
+        <v>0.03638511625760839</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09356370009101009</v>
+        <v>0.09438989418953544</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04365989105754067</v>
+        <v>0.08396819114232709</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08659812585613565</v>
+        <v>0.09303346196929821</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1081318949974245</v>
+        <v>0.141971484560832</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08684006820288812</v>
+        <v>0.09266595019498636</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1710258543097485</v>
+        <v>0.03638511625760839</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08947905687268216</v>
+        <v>0.09438989418953544</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01905290993465446</v>
+        <v>0.03635366683516893</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09435661280364577</v>
+        <v>0.09518980854707389</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04362693880384601</v>
+        <v>0.08294851436382455</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08733200827864528</v>
+        <v>0.09382188113852954</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1077195283646727</v>
+        <v>0.1405130786057076</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08757600098426851</v>
+        <v>0.09345125485765572</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1689578666376453</v>
+        <v>0.03635366683516893</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09023735396482355</v>
+        <v>0.09518980854707389</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01880973909745547</v>
+        <v>0.03592364297880116</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09514952551628145</v>
+        <v>0.09598972290461232</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04389351339817425</v>
+        <v>0.08203735260999781</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08806589070115491</v>
+        <v>0.09461030030776089</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1082067792384071</v>
+        <v>0.1395458487995703</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08831193376564893</v>
+        <v>0.09423655952032511</v>
       </c>
       <c r="N185" t="n">
-        <v>0.170017662713289</v>
+        <v>0.03592364297880116</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09099565105696492</v>
+        <v>0.09598972290461232</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01856656721599481</v>
+        <v>0.03569552452087701</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09594243822891714</v>
+        <v>0.09678963726215074</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04385964102050138</v>
+        <v>0.0810387446846402</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08879977312366454</v>
+        <v>0.09539871947699223</v>
       </c>
       <c r="L186" t="n">
-        <v>0.107493645916065</v>
+        <v>0.1396723676606075</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08904786654702934</v>
+        <v>0.09502186418299448</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1692117263503423</v>
+        <v>0.03569552452087701</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0917539481491063</v>
+        <v>0.09678963726215074</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01932504511878992</v>
+        <v>0.03546979129376845</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09673535094155282</v>
+        <v>0.09758955161968919</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04382383202189007</v>
+        <v>0.0800567293915451</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08953365554617415</v>
+        <v>0.09618713864622357</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1080801266950839</v>
+        <v>0.1379952077070065</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08978379932840974</v>
+        <v>0.09580716884566386</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1684465413624684</v>
+        <v>0.03546979129376845</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09251224524124767</v>
+        <v>0.09758955161968919</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01908682363435822</v>
+        <v>0.03544692312984739</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0975282636541885</v>
+        <v>0.09838946597722763</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04387924974231779</v>
+        <v>0.07929534553450571</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09026753796868377</v>
+        <v>0.09697555781545492</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1077512909478471</v>
+        <v>0.1377169414569546</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09051973210979015</v>
+        <v>0.09659247350833323</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1679285915633304</v>
+        <v>0.03544692312984739</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09327054233338905</v>
+        <v>0.09838946597722763</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01785355359121717</v>
+        <v>0.03492739986148578</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09832117636682418</v>
+        <v>0.09918938033476606</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04342553504211476</v>
+        <v>0.07905863191731557</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0910014203911934</v>
+        <v>0.09776397698468625</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1078846228178236</v>
+        <v>0.1360401414286392</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09125566489117055</v>
+        <v>0.09737777817100261</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1661643607665912</v>
+        <v>0.03492739986148578</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09402883942553042</v>
+        <v>0.09918938033476606</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01862688581788417</v>
+        <v>0.03490890097088527</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09911408907945984</v>
+        <v>0.0999892946923045</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04376324291156518</v>
+        <v>0.07775062734376784</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09173530281370301</v>
+        <v>0.0985523961539176</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1078813742475049</v>
+        <v>0.1360673801402476</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09199159767255097</v>
+        <v>0.09816308283367198</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1656603327859139</v>
+        <v>0.03490890097088527</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0947871365176718</v>
+        <v>0.0999892946923045</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01740847114287669</v>
+        <v>0.03448169261654535</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09990700179209552</v>
+        <v>0.1007892090498429</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04339292834095322</v>
+        <v>0.0775753706176559</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09246918523621264</v>
+        <v>0.09934081532314894</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1076430830565717</v>
+        <v>0.1351012301099671</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09272753045393138</v>
+        <v>0.09894838749634137</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1657229914349616</v>
+        <v>0.03448169261654535</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09554543360981317</v>
+        <v>0.1007892090498429</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01719996039471215</v>
+        <v>0.03414594689553345</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1006999145047312</v>
+        <v>0.1015891234073814</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04321514632056306</v>
+        <v>0.0762369005427731</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09320306765872227</v>
+        <v>0.1001292344923803</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1072712870647048</v>
+        <v>0.133344263855985</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09346346323531178</v>
+        <v>0.09973369215901073</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1645588205273972</v>
+        <v>0.03414594689553345</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09630373070195455</v>
+        <v>0.1015891234073814</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01700300440190797</v>
+        <v>0.03420286084035654</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1014928272173669</v>
+        <v>0.1023890377649198</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04353045184067891</v>
+        <v>0.07583925592291274</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09393695008123189</v>
+        <v>0.1009176536616116</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1075675240915847</v>
+        <v>0.1316990538964888</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09419939601669219</v>
+        <v>0.1005189968216801</v>
       </c>
       <c r="N193" t="n">
-        <v>0.164274303876884</v>
+        <v>0.03420286084035654</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09706202779409592</v>
+        <v>0.1023890377649198</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01681925399298161</v>
+        <v>0.03365363148352153</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1022857399300026</v>
+        <v>0.1031889521224582</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04323939989158493</v>
+        <v>0.07448647556186816</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09467083250374152</v>
+        <v>0.1017060728308429</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1073333319568922</v>
+        <v>0.1316681727496657</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09493532879807259</v>
+        <v>0.1013043014843495</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1623759252970847</v>
+        <v>0.03365363148352153</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09782032488623729</v>
+        <v>0.1031889521224582</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01865035999645048</v>
+        <v>0.03349945585753542</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1030786526426382</v>
+        <v>0.1039888664799967</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04294254546356535</v>
+        <v>0.07428259826343267</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09540471492625115</v>
+        <v>0.1024944920000743</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1062702484803076</v>
+        <v>0.1300541929337031</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09567126157945301</v>
+        <v>0.1020896061470189</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1627701686016625</v>
+        <v>0.03349945585753542</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09857862197837867</v>
+        <v>0.1039888664799967</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01749797324083203</v>
+        <v>0.03344153099490507</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1038715653552739</v>
+        <v>0.1047887808375351</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04294044354690434</v>
+        <v>0.07433166283139961</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09613859734876078</v>
+        <v>0.1032829111693056</v>
       </c>
       <c r="L196" t="n">
-        <v>0.106479811481512</v>
+        <v>0.1290596869667883</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09640719436083342</v>
+        <v>0.1028749108096882</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1614635176042806</v>
+        <v>0.03344153099490507</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09933691907052004</v>
+        <v>0.1047887808375351</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01836374455464369</v>
+        <v>0.0330810539281375</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1046644780679096</v>
+        <v>0.1055886951950736</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04293364913188605</v>
+        <v>0.07323770806956234</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09687247977127039</v>
+        <v>0.104071330338537</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1054635587801858</v>
+        <v>0.1285872273671087</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09714312714221382</v>
+        <v>0.1036602154723576</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1606624561186017</v>
+        <v>0.0330810539281375</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1000952161626614</v>
+        <v>0.1055886951950736</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0182493247664029</v>
+        <v>0.03281922168973961</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1054573907805453</v>
+        <v>0.106388609552612</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04292271720879472</v>
+        <v>0.07340477278171414</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09760636219378002</v>
+        <v>0.1048597495077683</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1057230281960098</v>
+        <v>0.1280371923969507</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09787905992359423</v>
+        <v>0.104445520135027</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1601734679582892</v>
+        <v>0.03281922168973961</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1008535132548028</v>
+        <v>0.106388609552612</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01615636470462709</v>
+        <v>0.03275723131221833</v>
       </c>
       <c r="G199" t="n">
-        <v>0.106250303493181</v>
+        <v>0.1071885239101504</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04260820276791451</v>
+        <v>0.07223689577164838</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09834024461628964</v>
+        <v>0.1056481686769997</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1055597575486645</v>
+        <v>0.1273865471874994</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09861499270497463</v>
+        <v>0.1052308247976964</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1599030369370059</v>
+        <v>0.03275723131221833</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1016118103469442</v>
+        <v>0.1071885239101504</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01808651519783369</v>
+        <v>0.03249627982808063</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1070432162058166</v>
+        <v>0.1079884382676889</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04249066079952958</v>
+        <v>0.07183811584315836</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09907412703879925</v>
+        <v>0.106436587846231</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1050752846578306</v>
+        <v>0.1272293427276882</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09935092548635505</v>
+        <v>0.1060161294603658</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1589576468684147</v>
+        <v>0.03249627982808063</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1023701074390855</v>
+        <v>0.1079884382676889</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01804142707454014</v>
+        <v>0.03183756426983345</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1078361289184523</v>
+        <v>0.1087883526252273</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04247064629392416</v>
+        <v>0.07161247180003741</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09980800946130888</v>
+        <v>0.1072250070154624</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1044711473431887</v>
+        <v>0.1258666587878465</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1000868582677355</v>
+        <v>0.1068014341230351</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1585437815661791</v>
+        <v>0.03183756426983345</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1031284045312269</v>
+        <v>0.1087883526252273</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01802275116326388</v>
+        <v>0.03178228166998368</v>
       </c>
       <c r="G202" t="n">
-        <v>0.108629041631088</v>
+        <v>0.1095882669827657</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04214871424138245</v>
+        <v>0.07235173999487243</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1005418918838185</v>
+        <v>0.1080134261846937</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1039488834244195</v>
+        <v>0.1245995751383044</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1008227910491159</v>
+        <v>0.1075867387857045</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1568679248439618</v>
+        <v>0.03178228166998368</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1038867016233683</v>
+        <v>0.1095882669827657</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0160223243216577</v>
+        <v>0.03163162906103834</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1094219543437237</v>
+        <v>0.1103881813403041</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04232541963218857</v>
+        <v>0.07190920126265254</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1012757743063281</v>
+        <v>0.108801845353925</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1040100307212038</v>
+        <v>0.1246291715493915</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1015587238304963</v>
+        <v>0.1083720434483739</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1563365605154259</v>
+        <v>0.03163162906103834</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1046449987155097</v>
+        <v>0.1103881813403041</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01702235268952363</v>
+        <v>0.0310868034755043</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1102148670563594</v>
+        <v>0.1111880956978426</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04200131745662679</v>
+        <v>0.07107893461361078</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1020096567288378</v>
+        <v>0.1095902645231564</v>
       </c>
       <c r="L204" t="n">
-        <v>0.103456127053222</v>
+        <v>0.1237565277914375</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1022946566118767</v>
+        <v>0.1091573481110432</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1560561723942345</v>
+        <v>0.0310868034755043</v>
       </c>
       <c r="O204" t="n">
-        <v>0.105403295807651</v>
+        <v>0.1111880956978426</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01702243733272804</v>
+        <v>0.03084900194588854</v>
       </c>
       <c r="G205" t="n">
-        <v>0.111007779768995</v>
+        <v>0.111988010055381</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04187696270498122</v>
+        <v>0.07105988344392938</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1027435391513474</v>
+        <v>0.1103786836923877</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1026887102401549</v>
+        <v>0.1213827236347721</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1030305893932571</v>
+        <v>0.1099426527737126</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1557332442940506</v>
+        <v>0.03084900194588854</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1061615928997924</v>
+        <v>0.111988010055381</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01802260907707508</v>
+        <v>0.03061942150469797</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1118006924816307</v>
+        <v>0.1127879244129195</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04195291036753608</v>
+        <v>0.07115099114979079</v>
       </c>
       <c r="K206" t="n">
-        <v>0.103477421573857</v>
+        <v>0.1111671028616191</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1018093181016831</v>
+        <v>0.120508838849725</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1037665221746375</v>
+        <v>0.110727957436382</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1555742600285372</v>
+        <v>0.03061942150469797</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1069198899919338</v>
+        <v>0.1127879244129195</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01802289874836892</v>
+        <v>0.03079925918443957</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1125936051942664</v>
+        <v>0.1135878387704579</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04192971543457558</v>
+        <v>0.07095120112737716</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1042113039963666</v>
+        <v>0.1119555220308504</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1018194884574873</v>
+        <v>0.121135953206626</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1045024549560179</v>
+        <v>0.1115132620990514</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1545857034113575</v>
+        <v>0.03079925918443957</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1076781870840752</v>
+        <v>0.1135878387704579</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01602333717241373</v>
+        <v>0.03028971201762025</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1133865179069021</v>
+        <v>0.1143877531279963</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04170793289638387</v>
+        <v>0.07075945677287088</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1049451864188763</v>
+        <v>0.1127439412000817</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1007207591272482</v>
+        <v>0.1202651464758048</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1052383877373983</v>
+        <v>0.1122985667617207</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1548740582561744</v>
+        <v>0.03028971201762025</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1084364841762165</v>
+        <v>0.1143877531279963</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01702395517501364</v>
+        <v>0.03009197703674697</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1141794306195377</v>
+        <v>0.1151876674855348</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04128811774324516</v>
+        <v>0.07117470148245419</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1056790688413859</v>
+        <v>0.1135323603693131</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1004146679306462</v>
+        <v>0.118197498427591</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1059743205187787</v>
+        <v>0.1130838714243901</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1543458083766509</v>
+        <v>0.03009197703674697</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1091947812683579</v>
+        <v>0.1151876674855348</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01602478358197284</v>
+        <v>0.02990725127432667</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1149723433321734</v>
+        <v>0.1159875818430732</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04127082496544364</v>
+        <v>0.07119587865230947</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1064129512638955</v>
+        <v>0.1143207795385444</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1001027526873624</v>
+        <v>0.1175340888323144</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1067102533001591</v>
+        <v>0.1138691760870595</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1530074375864501</v>
+        <v>0.02990725127432667</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1099530783604993</v>
+        <v>0.1159875818430732</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01702585321909547</v>
+        <v>0.02973673176286626</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1157652560448091</v>
+        <v>0.1167874962006117</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04135660955326345</v>
+        <v>0.07112193167861897</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1071468336864051</v>
+        <v>0.1151091987077758</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09978655121707691</v>
+        <v>0.1161759974603048</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1074461860815395</v>
+        <v>0.1146544807497289</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1546651198759668</v>
+        <v>0.02973673176286626</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1107113754526407</v>
+        <v>0.1167874962006117</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0160271949121857</v>
+        <v>0.02958161553487272</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1165581687574448</v>
+        <v>0.1175874105581501</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04124602649698883</v>
+        <v>0.07065180395756498</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1078807161089148</v>
+        <v>0.1158976178770071</v>
       </c>
       <c r="L212" t="n">
-        <v>0.09886760133947078</v>
+        <v>0.1160243040818918</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1081821188629199</v>
+        <v>0.1154397854123983</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1544702147977745</v>
+        <v>0.02958161553487272</v>
       </c>
       <c r="O212" t="n">
-        <v>0.111469672544782</v>
+        <v>0.1175874105581501</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01602883948704768</v>
+        <v>0.02944309962285296</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1173510814700805</v>
+        <v>0.1183873249156885</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04103963078690395</v>
+        <v>0.07108443888532984</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1086145985314244</v>
+        <v>0.1166860370462384</v>
       </c>
       <c r="L213" t="n">
-        <v>0.09824744087422449</v>
+        <v>0.1147800884674051</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1089180516443004</v>
+        <v>0.1162250900750676</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1535843644823742</v>
+        <v>0.02944309962285296</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1122279696369234</v>
+        <v>0.1183873249156885</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01803081776948558</v>
+        <v>0.02951751228177989</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1181439941827161</v>
+        <v>0.119187239273227</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04083797741329302</v>
+        <v>0.07081877985809584</v>
       </c>
       <c r="K214" t="n">
-        <v>0.109348480953934</v>
+        <v>0.1174744562154698</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09862760764101877</v>
+        <v>0.1144444303871746</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1096539844256808</v>
+        <v>0.117010394737737</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1533079713239336</v>
+        <v>0.02951751228177989</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1129862667290648</v>
+        <v>0.119187239273227</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01803316058530355</v>
+        <v>0.02919304864558077</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1189369068953518</v>
+        <v>0.1199871536307654</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04074162136644019</v>
+        <v>0.07085377027204534</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1100823633764436</v>
+        <v>0.1182628753847011</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09710963945953421</v>
+        <v>0.1138184096115298</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1103899172070612</v>
+        <v>0.1177956994004064</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1545414377166207</v>
+        <v>0.02919304864558077</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1137445638212062</v>
+        <v>0.1199871536307654</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01803589876030575</v>
+        <v>0.02936918054043886</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1197298196079875</v>
+        <v>0.1207870679883038</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04085111763662964</v>
+        <v>0.07108835352336051</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1108162457989533</v>
+        <v>0.1190512945539325</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09679447798427765</v>
+        <v>0.1121031059108005</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1111258499884416</v>
+        <v>0.1185810040630758</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1544851660546028</v>
+        <v>0.02936918054043886</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1145028609133475</v>
+        <v>0.1207870679883038</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01603906312029633</v>
+        <v>0.02884598709841377</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1205227323206232</v>
+        <v>0.1215869823458423</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04056702121414563</v>
+        <v>0.07052147300822376</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1115501282214629</v>
+        <v>0.1198397137231638</v>
       </c>
       <c r="L217" t="n">
-        <v>0.09636578241546412</v>
+        <v>0.1112995990553164</v>
       </c>
       <c r="M217" t="n">
-        <v>0.111861782769822</v>
+        <v>0.1193663087257451</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1540395587320479</v>
+        <v>0.02884598709841377</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1152611580054889</v>
+        <v>0.1215869823458423</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01704268449107948</v>
+        <v>0.02902354745156509</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1213156450332588</v>
+        <v>0.1223868967033807</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04038988708927226</v>
+        <v>0.07005207212281736</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1122840106439725</v>
+        <v>0.1206281328923951</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09561574484486715</v>
+        <v>0.1110089688154073</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1125977155512024</v>
+        <v>0.1201516133884145</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1535050181431237</v>
+        <v>0.02902354745156509</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1160194550976303</v>
+        <v>0.1223868967033807</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01804679369845934</v>
+        <v>0.02870194073195245</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1221085577458945</v>
+        <v>0.1231868110609192</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04051981167068418</v>
+        <v>0.06997909426332358</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1130178930664821</v>
+        <v>0.1214165520616265</v>
       </c>
       <c r="L219" t="n">
-        <v>0.09494455956179831</v>
+        <v>0.1109322949614029</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1133336483325828</v>
+        <v>0.1209369180510839</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1533819466819978</v>
+        <v>0.02870194073195245</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1167777521897716</v>
+        <v>0.1231868110609192</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01605142156824006</v>
+        <v>0.02868124607163537</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1229014704585302</v>
+        <v>0.1239867254184576</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04035164590558707</v>
+        <v>0.06980148282592483</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1137517754889917</v>
+        <v>0.1222049712308578</v>
       </c>
       <c r="L220" t="n">
-        <v>0.09485242085556908</v>
+        <v>0.1091706572636329</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1140695811139632</v>
+        <v>0.1217222227137533</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1540707467428379</v>
+        <v>0.02868124607163537</v>
       </c>
       <c r="O220" t="n">
-        <v>0.117536049281913</v>
+        <v>0.1239867254184576</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0170565989262258</v>
+        <v>0.02866154260267352</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1236943831711659</v>
+        <v>0.124786639775996</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04058382890644419</v>
+        <v>0.07041818120680329</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1144856579115014</v>
+        <v>0.1229933904000892</v>
       </c>
       <c r="L221" t="n">
-        <v>0.09473952301549102</v>
+        <v>0.1089251354924269</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1148055138953436</v>
+        <v>0.1225075273764226</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1546718207198118</v>
+        <v>0.02866154260267352</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1182943463740544</v>
+        <v>0.124786639775996</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01806235659822075</v>
+        <v>0.02854290945712647</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1244872958838016</v>
+        <v>0.1255865541335345</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04051639198996386</v>
+        <v>0.07062813280214134</v>
       </c>
       <c r="K222" t="n">
-        <v>0.115219540334011</v>
+        <v>0.1237818095693205</v>
       </c>
       <c r="L222" t="n">
-        <v>0.09400606033087572</v>
+        <v>0.1080968094181147</v>
       </c>
       <c r="M222" t="n">
-        <v>0.115541446676724</v>
+        <v>0.123292832039092</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1543855710070871</v>
+        <v>0.02854290945712647</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1190526434661958</v>
+        <v>0.1255865541335345</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01606872541002903</v>
+        <v>0.02842542576705377</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1252802085964373</v>
+        <v>0.1263864684910729</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04004936647285437</v>
+        <v>0.0705302810081212</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1159534227565206</v>
+        <v>0.1245702287385518</v>
       </c>
       <c r="L223" t="n">
-        <v>0.09275222709103464</v>
+        <v>0.1075867588110261</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1162773794581044</v>
+        <v>0.1240781367017614</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1538123999988317</v>
+        <v>0.02842542576705377</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1198109405583371</v>
+        <v>0.1263864684910729</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01707573618745482</v>
+        <v>0.02840917066451508</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1260731213090729</v>
+        <v>0.1271863828486113</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03998278367182402</v>
+        <v>0.06962356922092527</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1166873051790303</v>
+        <v>0.1253586479077832</v>
       </c>
       <c r="L224" t="n">
-        <v>0.09177821758527943</v>
+        <v>0.1070960634414907</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1170133122394848</v>
+        <v>0.1248634413644308</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1543527100892131</v>
+        <v>0.02840917066451508</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1205692376504785</v>
+        <v>0.1271863828486113</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01708341975630228</v>
+        <v>0.02799422328156996</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1268660340217086</v>
+        <v>0.1279862972061498</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04001667490358107</v>
+        <v>0.06990694083673576</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1174211876015399</v>
+        <v>0.1261470670770145</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09178422610292161</v>
+        <v>0.1054246656900929</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1177492450208652</v>
+        <v>0.1256487460271002</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1552069036723991</v>
+        <v>0.02799422328156996</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1213275347426199</v>
+        <v>0.1279862972061498</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01609180694237556</v>
+        <v>0.027980662750278</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1276589467343443</v>
+        <v>0.1287862115636882</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03995107148483387</v>
+        <v>0.07017933925173511</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1181550700240495</v>
+        <v>0.1269354862462459</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09117044693327267</v>
+        <v>0.1047605654894026</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1184851778022456</v>
+        <v>0.1264340506897695</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1543753831425575</v>
+        <v>0.027980662750278</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1220858318347613</v>
+        <v>0.1287862115636882</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01610092857147882</v>
+        <v>0.02776856820269882</v>
       </c>
       <c r="G227" t="n">
-        <v>0.12845185944698</v>
+        <v>0.1295861259212266</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03978600473229063</v>
+        <v>0.06913966250567641</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1188889524465591</v>
+        <v>0.1277239054154772</v>
       </c>
       <c r="L227" t="n">
-        <v>0.08963707436564419</v>
+        <v>0.1046004097265794</v>
       </c>
       <c r="M227" t="n">
-        <v>0.119221110583626</v>
+        <v>0.1272193553524389</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1557585508938559</v>
+        <v>0.02776856820269882</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1228441289269026</v>
+        <v>0.1295861259212266</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01611081546941623</v>
+        <v>0.02755801877089199</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1292447721596156</v>
+        <v>0.1303860402787651</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03972150596265966</v>
+        <v>0.06968676261005707</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1196228348690687</v>
+        <v>0.1285123245847085</v>
       </c>
       <c r="L228" t="n">
-        <v>0.08898430268934771</v>
+        <v>0.1041443680183136</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1199570433650065</v>
+        <v>0.1280046600151083</v>
       </c>
       <c r="N228" t="n">
-        <v>0.155556809320462</v>
+        <v>0.02755801877089199</v>
       </c>
       <c r="O228" t="n">
-        <v>0.123602426019044</v>
+        <v>0.1303860402787651</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01612149846199194</v>
+        <v>0.0278490935869171</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1300376848722513</v>
+        <v>0.1311859546363035</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03995760649264928</v>
+        <v>0.06962064461761561</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1203567172915784</v>
+        <v>0.1293007437539399</v>
       </c>
       <c r="L229" t="n">
-        <v>0.08831232619369486</v>
+        <v>0.1027926099812959</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1206929761463869</v>
+        <v>0.1287899646777776</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1552705608165436</v>
+        <v>0.0278490935869171</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1243607231111854</v>
+        <v>0.1311859546363035</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01813300837501012</v>
+        <v>0.02734187178283377</v>
       </c>
       <c r="G230" t="n">
-        <v>0.130830597584887</v>
+        <v>0.1319858689938419</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03959433763896776</v>
+        <v>0.06954153268656293</v>
       </c>
       <c r="K230" t="n">
-        <v>0.121090599714088</v>
+        <v>0.1300891629231712</v>
       </c>
       <c r="L230" t="n">
-        <v>0.08792133916799708</v>
+        <v>0.1026453052322167</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1214289089277673</v>
+        <v>0.129575269340447</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1551002077762683</v>
+        <v>0.02734187178283377</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1251190202033268</v>
+        <v>0.1319858689938419</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01814537603427491</v>
+        <v>0.02733643249070158</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1316235102975227</v>
+        <v>0.1327857833513804</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03953173071832337</v>
+        <v>0.06934965097510995</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1218244821365976</v>
+        <v>0.1308775820924026</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08711153590156601</v>
+        <v>0.1012026233877666</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1221648417091477</v>
+        <v>0.1303605740031164</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1561461525938038</v>
+        <v>0.02733643249070158</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1258773172954681</v>
+        <v>0.1327857833513804</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01615863226559049</v>
+        <v>0.02713285484258014</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1324164230101584</v>
+        <v>0.1335856977089188</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03966981704742442</v>
+        <v>0.06904522364146756</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1225583645591072</v>
+        <v>0.1316660012616339</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0863831106837131</v>
+        <v>0.1016647340646361</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1229007744905281</v>
+        <v>0.1311458786657858</v>
       </c>
       <c r="N232" t="n">
-        <v>0.157208797663318</v>
+        <v>0.02713285484258014</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1266356143876095</v>
+        <v>0.1335856977089188</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.018172807894761</v>
+        <v>0.027031217970529</v>
       </c>
       <c r="G233" t="n">
-        <v>0.133209335722794</v>
+        <v>0.1343856120664572</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03940862794297921</v>
+        <v>0.06872847484384659</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1232922469816169</v>
+        <v>0.1324544204308652</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08543625780374997</v>
+        <v>0.1000318068795156</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1236367072719085</v>
+        <v>0.1319311833284551</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1566885453789784</v>
+        <v>0.027031217970529</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1273939114797509</v>
+        <v>0.1343856120664572</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01618793374759061</v>
+        <v>0.0271316010066078</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1340022484354297</v>
+        <v>0.1351855264239957</v>
       </c>
       <c r="J234" t="n">
-        <v>0.039548194721696</v>
+        <v>0.06849962874045806</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1240261294041265</v>
+        <v>0.1332428396000966</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08477117155098812</v>
+        <v>0.09990401144909583</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1243726400532889</v>
+        <v>0.1327164879911245</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1573857981349529</v>
+        <v>0.0271316010066078</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1281522085718923</v>
+        <v>0.1351855264239957</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01720404064988348</v>
+        <v>0.02703408308287612</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1347951611480654</v>
+        <v>0.1359854407815341</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0393885487002831</v>
+        <v>0.06765890948951281</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1247600118266361</v>
+        <v>0.1340312587693279</v>
       </c>
       <c r="L235" t="n">
-        <v>0.08338804621473914</v>
+        <v>0.1002815173900672</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1251085728346693</v>
+        <v>0.1335017926537939</v>
       </c>
       <c r="N235" t="n">
-        <v>0.157600958325409</v>
+        <v>0.02703408308287612</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1289105056640336</v>
+        <v>0.1359854407815341</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01722115942744377</v>
+        <v>0.02683874333139358</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1355880738607011</v>
+        <v>0.1367853551390726</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03922972119544878</v>
+        <v>0.06770654124922165</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1254938942491457</v>
+        <v>0.1348196779385593</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08248707608431455</v>
+        <v>0.0993644943191202</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1258445056160497</v>
+        <v>0.1342870973164633</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1580344283445146</v>
+        <v>0.02683874333139358</v>
       </c>
       <c r="O236" t="n">
-        <v>0.129668802756175</v>
+        <v>0.1367853551390726</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01723932090607563</v>
+        <v>0.02674566088421972</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1363809865733367</v>
+        <v>0.137585269496611</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03947174352390133</v>
+        <v>0.06754274817779563</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1262277766716554</v>
+        <v>0.1356080971077906</v>
       </c>
       <c r="L237" t="n">
-        <v>0.08146845544902589</v>
+        <v>0.09905311185294552</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1265804383974301</v>
+        <v>0.1350724019791326</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1576866105864373</v>
+        <v>0.02674566088421972</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1304270998483164</v>
+        <v>0.137585269496611</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01625855591158323</v>
+        <v>0.02665491487341416</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1371738992859724</v>
+        <v>0.1383851838541494</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03941464700234905</v>
+        <v>0.06726775443344554</v>
       </c>
       <c r="K238" t="n">
-        <v>0.126961659094165</v>
+        <v>0.1363965162770219</v>
       </c>
       <c r="L238" t="n">
-        <v>0.08033237859818473</v>
+        <v>0.09714753960823336</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1273163711788106</v>
+        <v>0.135857706641802</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1591579074453448</v>
+        <v>0.02665491487341416</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1311853969404578</v>
+        <v>0.1383851838541494</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01827889526977072</v>
+        <v>0.02666658443103649</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1379668119986081</v>
+        <v>0.1391850982116879</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03925846294750023</v>
+        <v>0.0669817841743823</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1276955415166746</v>
+        <v>0.1371849354462533</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08017903982110261</v>
+        <v>0.09634794720167456</v>
       </c>
       <c r="M239" t="n">
-        <v>0.128052303960191</v>
+        <v>0.1366430113044714</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1594487213154049</v>
+        <v>0.02666658443103649</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1319436940325991</v>
+        <v>0.1391850982116879</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01730036980644227</v>
+        <v>0.02678074868914633</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1387597247112438</v>
+        <v>0.1399850125692263</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03900322267606315</v>
+        <v>0.06698506155881689</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1284294239391842</v>
+        <v>0.1379733546154846</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07940863340709112</v>
+        <v>0.09665450424995953</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1287882367415714</v>
+        <v>0.1374283159671408</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1584594545907853</v>
+        <v>0.02678074868914633</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1327019911247405</v>
+        <v>0.1399850125692263</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01732301034740204</v>
+        <v>0.02629748677980327</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1395526374238795</v>
+        <v>0.1407849269267647</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0391489575047461</v>
+        <v>0.06607781074496008</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1291633063616938</v>
+        <v>0.138761773784716</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07772135364546173</v>
+        <v>0.0964673803697787</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1295241695229518</v>
+        <v>0.1382136206298102</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1601905096656536</v>
+        <v>0.02629748677980327</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1334602882168819</v>
+        <v>0.1407849269267647</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01634684771845417</v>
+        <v>0.02661687783506686</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1403455501365151</v>
+        <v>0.1415848412843032</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03929569875025736</v>
+        <v>0.06606025589102282</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1298971887842035</v>
+        <v>0.1395501929539473</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07681739482552605</v>
+        <v>0.09618674517782266</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1302601023043322</v>
+        <v>0.1389989252924795</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1591422889341776</v>
+        <v>0.02661687783506686</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1342185853090233</v>
+        <v>0.1415848412843032</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01737191274540283</v>
+        <v>0.02623900098699673</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1411384628491508</v>
+        <v>0.1423847556418416</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03924347772930524</v>
+        <v>0.06603262115521602</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1306310712067131</v>
+        <v>0.1403386121231787</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07539695123659559</v>
+        <v>0.09461276829078197</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1309960350857126</v>
+        <v>0.1397842299551489</v>
       </c>
       <c r="N243" t="n">
-        <v>0.160215194790525</v>
+        <v>0.02623900098699673</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1349768824011646</v>
+        <v>0.1423847556418416</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01839823625405219</v>
+        <v>0.02626393536765245</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1419313755617865</v>
+        <v>0.14318466999938</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03909232575859801</v>
+        <v>0.06559513069575057</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1313649536292227</v>
+        <v>0.14112703129241</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0752602171679819</v>
+        <v>0.09444561932534712</v>
       </c>
       <c r="M244" t="n">
-        <v>0.131731967867093</v>
+        <v>0.1405695346178183</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1605096296288634</v>
+        <v>0.02626393536765245</v>
       </c>
       <c r="O244" t="n">
-        <v>0.135735179493306</v>
+        <v>0.14318466999938</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0164258490702064</v>
+        <v>0.02619176010909367</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1427242882744222</v>
+        <v>0.1439845843569185</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03884227415484397</v>
+        <v>0.06514800867083737</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1320988360517324</v>
+        <v>0.1419154504616413</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07360738690899651</v>
+        <v>0.09278546789820863</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1324679006484734</v>
+        <v>0.1413548392804876</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1607259958433608</v>
+        <v>0.02619176010909367</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1364934765854474</v>
+        <v>0.1439845843569185</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01745478201966962</v>
+        <v>0.02602255434337994</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1435172009870579</v>
+        <v>0.1447844987144569</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03899335423475138</v>
+        <v>0.06429147923868728</v>
       </c>
       <c r="K246" t="n">
-        <v>0.132832718474242</v>
+        <v>0.1427038696308727</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07303865474895108</v>
+        <v>0.09383248362605701</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1332038334298538</v>
+        <v>0.142140143943157</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1626646958281847</v>
+        <v>0.02602255434337994</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1372517736775888</v>
+        <v>0.1447844987144569</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01748506592824601</v>
+        <v>0.02625639720257085</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1443101136996935</v>
+        <v>0.1455844130719953</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03904559731502857</v>
+        <v>0.06392576655751125</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1335666008967516</v>
+        <v>0.143492288800104</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07135421497715702</v>
+        <v>0.09198683612558262</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1339397662112342</v>
+        <v>0.1429254486058264</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1623261319775027</v>
+        <v>0.02625639720257085</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1380100707697301</v>
+        <v>0.1455844130719953</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01651673162173972</v>
+        <v>0.025893367818726</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1451030264123292</v>
+        <v>0.1463843274295338</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0386990347123838</v>
+        <v>0.06425109478552013</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1343004833192612</v>
+        <v>0.1442807079693354</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07075426188292588</v>
+        <v>0.09224869501347638</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1346756989926146</v>
+        <v>0.1437107532684958</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1628107066854828</v>
+        <v>0.025893367818726</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1387683678618715</v>
+        <v>0.1463843274295338</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01754980992595492</v>
+        <v>0.02603354532390499</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1458959391249649</v>
+        <v>0.1471842417870722</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03875369774352537</v>
+        <v>0.06366768808092482</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1350343657417708</v>
+        <v>0.1450691271385667</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06943898975556934</v>
+        <v>0.09161822990642848</v>
       </c>
       <c r="M249" t="n">
-        <v>0.135411631773995</v>
+        <v>0.1444960579311652</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1632188223462924</v>
+        <v>0.02603354532390499</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1395266649540129</v>
+        <v>0.1471842417870722</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01758433166669578</v>
+        <v>0.02607700885016742</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1466888518376006</v>
+        <v>0.1479841561446106</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03890961772516156</v>
+        <v>0.06337577060193628</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1357682481642805</v>
+        <v>0.145857546307798</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06830859288439883</v>
+        <v>0.09179561042112955</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1361475645553754</v>
+        <v>0.1452813625938345</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1639508813540995</v>
+        <v>0.02607700885016742</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1402849620461543</v>
+        <v>0.1479841561446106</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01762032766976643</v>
+        <v>0.02562383752957288</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1474817645502363</v>
+        <v>0.1487840705021491</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03856682597400067</v>
+        <v>0.06267556650676537</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1365021305867901</v>
+        <v>0.1466459654770294</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06766326555872595</v>
+        <v>0.09128100617426999</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1368834973367558</v>
+        <v>0.1460666672565039</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1649072861030716</v>
+        <v>0.02562383752957288</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1410432591382956</v>
+        <v>0.1487840705021491</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01765782876097105</v>
+        <v>0.02597411049418097</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1482746772628719</v>
+        <v>0.1495839848596875</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03852535380675097</v>
+        <v>0.06206729995362295</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1372360130092997</v>
+        <v>0.1474343846462607</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06550320206786223</v>
+        <v>0.09067458678254053</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1376194301181362</v>
+        <v>0.1468519719191733</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1656884389873765</v>
+        <v>0.02597411049418097</v>
       </c>
       <c r="O252" t="n">
-        <v>0.141801556230437</v>
+        <v>0.1495839848596875</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0166968657661138</v>
+        <v>0.02592790687605127</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1490675899755076</v>
+        <v>0.1503838992172259</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03848523254012079</v>
+        <v>0.06195119510071995</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1379698954318093</v>
+        <v>0.1482228038154921</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06432859670111921</v>
+        <v>0.08967652186263159</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1383553628995167</v>
+        <v>0.1476372765818427</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1664947424011819</v>
+        <v>0.02592790687605127</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1425598533225784</v>
+        <v>0.1503838992172259</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01873746951099883</v>
+        <v>0.02588530580724339</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1498605026881433</v>
+        <v>0.1511838135747644</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03854649349081835</v>
+        <v>0.0615274761062673</v>
       </c>
       <c r="K254" t="n">
-        <v>0.138703777854319</v>
+        <v>0.1490112229847234</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06403964374780846</v>
+        <v>0.08858698103123364</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1390912956808971</v>
+        <v>0.148422581244512</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1677265987386555</v>
+        <v>0.02588530580724339</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1433181504147198</v>
+        <v>0.1511838135747644</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0177796708214303</v>
+        <v>0.02554638641981691</v>
       </c>
       <c r="G255" t="n">
-        <v>0.150653415400779</v>
+        <v>0.1519837279323028</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03850916797555197</v>
+        <v>0.06149636712847584</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1394376602768286</v>
+        <v>0.1497996421539547</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06233653749724152</v>
+        <v>0.0876061339050373</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1398272284622775</v>
+        <v>0.1492078859071814</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1673844103939651</v>
+        <v>0.02554638641981691</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1440764475068611</v>
+        <v>0.1519837279323028</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01682350052321237</v>
+        <v>0.02571122784583142</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1514463281134147</v>
+        <v>0.1527836422898413</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03847328731102997</v>
+        <v>0.06075809232555648</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1401715426993382</v>
+        <v>0.1505880613231861</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06141947223872993</v>
+        <v>0.08883415010073298</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1405631612436579</v>
+        <v>0.1499931905698508</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1692685797612783</v>
+        <v>0.02571122784583142</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1448347445990025</v>
+        <v>0.1527836422898413</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0168689894421492</v>
+        <v>0.02557990921734654</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1522392408260503</v>
+        <v>0.1535835566473797</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0384388828139606</v>
+        <v>0.06001287585572015</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1409054251218478</v>
+        <v>0.1513764804924174</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0602886422615852</v>
+        <v>0.08687119923501124</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1412990940250383</v>
+        <v>0.1507784952325202</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1698795092347628</v>
+        <v>0.02557990921734654</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1455930416911439</v>
+        <v>0.1535835566473797</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01791616840404496</v>
+        <v>0.02545250966642185</v>
       </c>
       <c r="G258" t="n">
-        <v>0.153032153538686</v>
+        <v>0.1543834710049181</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03820598580105218</v>
+        <v>0.05936094187717766</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1416393075443575</v>
+        <v>0.1521648996616488</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05854424185511894</v>
+        <v>0.08741745092456266</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1420350268064187</v>
+        <v>0.1515637998951896</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1712176012085864</v>
+        <v>0.02545250966642185</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1463513387832852</v>
+        <v>0.1543834710049181</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01696506823470379</v>
+        <v>0.02532910832511694</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1538250662513217</v>
+        <v>0.1551833853624566</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03827462758901297</v>
+        <v>0.05960251454814006</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1423731899668671</v>
+        <v>0.1529533188308801</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05768646530864271</v>
+        <v>0.08707307478607762</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1427709595877991</v>
+        <v>0.1523491045578589</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1705832580769167</v>
+        <v>0.02532910832511694</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1471096358754266</v>
+        <v>0.1551833853624566</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01701571975992987</v>
+        <v>0.02550978432549139</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1546179789639574</v>
+        <v>0.155983299719995</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03834483949455127</v>
+        <v>0.0592378180268181</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1431070723893767</v>
+        <v>0.1537417380001115</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05571550691146801</v>
+        <v>0.08543824043624693</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1435068923691795</v>
+        <v>0.1531344092205283</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1715768822339215</v>
+        <v>0.02550978432549139</v>
       </c>
       <c r="O260" t="n">
-        <v>0.147867932967568</v>
+        <v>0.155983299719995</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01806815380552734</v>
+        <v>0.02569461679960484</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1554108916765931</v>
+        <v>0.1567832140775335</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03821665283437538</v>
+        <v>0.0578670764714227</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1438409548118863</v>
+        <v>0.1545301571693428</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05473156095290641</v>
+        <v>0.08491311749176078</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1442428251505599</v>
+        <v>0.1539197138831977</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1738988760737685</v>
+        <v>0.02569461679960484</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1486262300597094</v>
+        <v>0.1567832140775335</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01712240119730037</v>
+        <v>0.02568368487951685</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1562038043892287</v>
+        <v>0.1575831284350719</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03809009892519354</v>
+        <v>0.05779051404016486</v>
       </c>
       <c r="K262" t="n">
-        <v>0.144574837234396</v>
+        <v>0.1553185763385741</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05333482172226942</v>
+        <v>0.08609787556930987</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1449787579319403</v>
+        <v>0.154705018545867</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1731496419906254</v>
+        <v>0.02568368487951685</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1493845271518507</v>
+        <v>0.1575831284350719</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01817849276105312</v>
+        <v>0.02567706769728702</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1569967171018644</v>
+        <v>0.1583830427926103</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03846520908371409</v>
+        <v>0.05700835489125541</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1453087196569056</v>
+        <v>0.1561069955078055</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05282548350886862</v>
+        <v>0.08469268428558463</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1457146907133207</v>
+        <v>0.1554903232085364</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1758295823786599</v>
+        <v>0.02567706769728702</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1501428242439921</v>
+        <v>0.1583830427926103</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01823645932258974</v>
+        <v>0.02557484438497493</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1577896298145001</v>
+        <v>0.1591829571501488</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03824201462664528</v>
+        <v>0.05642082318290517</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1460426020794152</v>
+        <v>0.1568954146770368</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0505037406020156</v>
+        <v>0.08379771325727564</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1464506234947011</v>
+        <v>0.1562756278712058</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1752390996320397</v>
+        <v>0.02557484438497493</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1509011213361335</v>
+        <v>0.1591829571501488</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1090.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1090.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.7580781044003323</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03790390522001662</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03790390522001662</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06064624835202659</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08674234313200997</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02235597270649246</v>
+        <v>0.03674234313200997</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01618783023692942</v>
+        <v>0.01837111825168876</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001911196988446828</v>
+        <v>0.001552220061905044</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000799914357538436</v>
+        <v>0.0005893042247645327</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005125305154923848</v>
+        <v>0.00203471663750654</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007884191692313407</v>
+        <v>0.000799914357538436</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01119153961574998</v>
+        <v>0.005030740923825383</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007853046626693759</v>
+        <v>0.0007906501898587072</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001911196988446828</v>
+        <v>0.007134427590373416</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000799914357538436</v>
+        <v>0.0007913433871412452</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003652143339854107</v>
+        <v>0.003081906369889975</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001599828715076872</v>
+        <v>0.001178608449529065</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01142819718440946</v>
+        <v>0.004599914014287332</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001576838338462681</v>
+        <v>0.001599828715076872</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02337883833159438</v>
+        <v>0.01155084714802576</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001570609325338752</v>
+        <v>0.001581300379717414</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003652143339854107</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001599828715076872</v>
+        <v>0.00143227424749164</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.004588590810605454</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002606739130434782</v>
+        <v>0.001767912674293598</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01699999999999999</v>
+        <v>0.006764626020154513</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002413647342995168</v>
+        <v>0.002399743072615308</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03363835059618175</v>
+        <v>0.01594369134276052</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002355913988008127</v>
+        <v>0.002371950569576121</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.02230317090613465</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002606739130434782</v>
+        <v>0.002374030161423736</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006688867113999249</v>
+        <v>0.006071805270702162</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003199657430153744</v>
+        <v>0.002357216899058131</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01966350008939405</v>
+        <v>0.00899788654492021</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003153676676925363</v>
+        <v>0.003199657430153744</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04344653085816108</v>
+        <v>0.01999999999999999</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003141218650677504</v>
+        <v>0.00298595547587031</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006688867113999249</v>
+        <v>0.02702261946962148</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003199657430153744</v>
+        <v>0.003165373548564981</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002606739130434782</v>
+        <v>0.009880559293330855</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.02274234313200997</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008261815491122239</v>
+        <v>0.007531081636830785</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00399957178769218</v>
+        <v>0.002946521123822664</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02425093199953141</v>
+        <v>0.01076872947839655</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003942095846156704</v>
+        <v>0.00399957178769218</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.05047983356618085</v>
+        <v>0.02365537146137228</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00392652331334688</v>
+        <v>0.003953250949293535</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.008261815491122239</v>
+        <v>0.03377814936571877</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00399957178769218</v>
+        <v>0.003956716935706227</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009268950317117976</v>
+        <v>0.00896595179564199</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004799486145230616</v>
+        <v>0.003535825348587197</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02752783860766725</v>
+        <v>0.01264618871039566</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004730515015388044</v>
+        <v>0.004799486145230616</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.059</v>
+        <v>0.02716708458735759</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004882463768115942</v>
+        <v>0.004743901139152243</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009268950317117976</v>
+        <v>0.03808034492969581</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004799486145230616</v>
+        <v>0.004748060322847472</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01061510855113956</v>
+        <v>0.01037594763378646</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005599400502769051</v>
+        <v>0.00412512957335173</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.03080639113141229</v>
+        <v>0.01419929813072969</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005518934184619385</v>
+        <v>0.005599400502769051</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.06082730760278826</v>
+        <v>0.03047303814400479</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005497132638685631</v>
+        <v>0.00553455132901095</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01061510855113956</v>
+        <v>0.04353979049682222</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005599400502769051</v>
+        <v>0.005539403709988716</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01130512715234008</v>
+        <v>0.01176060103791489</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006399314860307488</v>
+        <v>0.004714433798116262</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03379876078837724</v>
+        <v>0.01569709162921072</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006307353353850726</v>
+        <v>0.006399314860307488</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.06490960180519834</v>
+        <v>0.03268959514974273</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006282437301355007</v>
+        <v>0.006325201518869657</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01130512715234008</v>
+        <v>0.04896707040236736</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006399314860307488</v>
+        <v>0.006330747097129961</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01244384307987261</v>
+        <v>0.01311944389467793</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007199229217845924</v>
+        <v>0.005303738022880794</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03661711879617283</v>
+        <v>0.017</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007095772523082067</v>
+        <v>0.007385760869565218</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06949327855615522</v>
+        <v>0.0355331186230001</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007067741964024383</v>
+        <v>0.007115851708728364</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01244384307987261</v>
+        <v>0.05387276898160059</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007199229217845924</v>
+        <v>0.007122090484271207</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01353609329289023</v>
+        <v>0.01445200809072627</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00799914357538436</v>
+        <v>0.005893042247645327</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03957363637240971</v>
+        <v>0.01756709314633532</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007884191692313408</v>
+        <v>0.00799914357538436</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.07207481759720569</v>
+        <v>0.03871997158220578</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00785304662669376</v>
+        <v>0.007906501898587071</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01353609329289023</v>
+        <v>0.05836747056979158</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00799914357538436</v>
+        <v>0.007913433871412454</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01428671475054608</v>
+        <v>0.01575782551271059</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008799057932922795</v>
+        <v>0.00648234647240986</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.04178048473469861</v>
+        <v>0.01821515267121492</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008672610861544748</v>
+        <v>0.008799057932922795</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.07495069866989662</v>
+        <v>0.04046651704578846</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008638351289363135</v>
+        <v>0.008697152088445778</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01428671475054608</v>
+        <v>0.06296175950220956</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008799057932922795</v>
+        <v>0.008704777258553698</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01550054441199318</v>
+        <v>0.01703642804728156</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007071650697174393</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01867587535001042</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009598972290461232</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.04484983510065024</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009461030030776089</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.07791740151577475</v>
+        <v>0.0428891180321769</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00942365595203251</v>
+        <v>0.009487802278304485</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01550054441199318</v>
+        <v>0.06536622011412407</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009598972290461232</v>
+        <v>0.009496120645694944</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01628241923638467</v>
+        <v>0.01828734758108987</v>
       </c>
       <c r="G78" t="n">
+        <v>0.007660954921938926</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01886685535073752</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01039888664799967</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.04689385868787529</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01024944920000743</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.08037140587638691</v>
+        <v>0.0455041375597999</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01020896061470189</v>
+        <v>0.01027845246816319</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01628241923638467</v>
+        <v>0.0703914367408045</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01039888664799967</v>
+        <v>0.01028746403283619</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01723717618287357</v>
+        <v>0.01951011600078618</v>
       </c>
       <c r="G79" t="n">
+        <v>0.00825025914670346</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0196056868414119</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.0111988010055381</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.0490247267139845</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01103786836923877</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.08160919149327989</v>
+        <v>0.04812793864708625</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01099426527737126</v>
+        <v>0.0110691026580219</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01723717618287357</v>
+        <v>0.0740479937175203</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0111988010055381</v>
+        <v>0.01107880741997743</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01816965221061304</v>
+        <v>0.02070426519302121</v>
       </c>
       <c r="G80" t="n">
+        <v>0.008839563371467992</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01990996399004914</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01199871536307654</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.05125461039658857</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01182628753847011</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.08618103088860068</v>
+        <v>0.0496768843124647</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01188632092690604</v>
+        <v>0.01185975284788061</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01816965221061304</v>
+        <v>0.07754647537954085</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01199871536307654</v>
+        <v>0.01187015080711868</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01858468427875612</v>
+        <v>0.02186932704444558</v>
       </c>
       <c r="G81" t="n">
+        <v>0.009428867596232524</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.02039728096466495</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01279862972061498</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.05426850179754658</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01284166913450753</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.08686259858644052</v>
+        <v>0.05166733757436395</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01256487460271001</v>
+        <v>0.01265040303773931</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01858468427875612</v>
+        <v>0.0815974660621358</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01279862972061498</v>
+        <v>0.01266149419425992</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01968710934645591</v>
+        <v>0.02274234313200997</v>
       </c>
       <c r="G82" t="n">
+        <v>0.009880559293330855</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.02078523193327496</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01359854407815341</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.05468086734119537</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01340312587693279</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.09065396726574032</v>
+        <v>0.05426850179754658</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01335017926537939</v>
+        <v>0.01350361084247184</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01968710934645591</v>
+        <v>0.08618103088860068</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01359854407815341</v>
+        <v>0.01371498568489158</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0205817643728655</v>
+        <v>0.02412219549959394</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01060747604576159</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.02099141106389484</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01439845843569185</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.05737250997389345</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01419154504616413</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.09369394292757527</v>
+        <v>0.0555558656537822</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01413548392804877</v>
+        <v>0.01423170341745673</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0205817643728655</v>
+        <v>0.08833159141405916</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01439845843569185</v>
+        <v>0.01424418096854241</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02127348631713798</v>
+        <v>0.02522329105475303</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01119678027052612</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.02153341252454019</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01519837279323028</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.05937094246966604</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01497996421539547</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.09497627879687748</v>
+        <v>0.05771567295709201</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01492078859071814</v>
+        <v>0.01502235360731544</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02127348631713798</v>
+        <v>0.09136468640483808</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01519837279323028</v>
+        <v>0.01503552435568366</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
+        <v>0.02630692930960782</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01178608449529065</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.02235597270649246</v>
       </c>
-      <c r="G85" t="n">
+      <c r="K85" t="n">
         <v>0.01618783023692942</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.06097289316020649</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01576838338462682</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.09809472809857861</v>
+        <v>0.05969130062565356</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01570609325338752</v>
+        <v>0.01581300379717414</v>
       </c>
       <c r="N85" t="n">
-        <v>0.02235597270649246</v>
+        <v>0.09351315848878577</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01618783023692942</v>
+        <v>0.01582686774282491</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0228710358023607</v>
+        <v>0.02737148320309769</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01237538872005519</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02258682704417456</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01679820150830716</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.06267509037720803</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01655680255385815</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.102343044057611</v>
+        <v>0.06097881447456924</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01649139791605689</v>
+        <v>0.01660365398703285</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0228710358023607</v>
+        <v>0.09797110842630474</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01679820150830716</v>
+        <v>0.01661821112996615</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02359452298190746</v>
+        <v>0.02841532567416208</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01296469294481972</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02309410091430852</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01759811586584559</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.06487426245236394</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.0173452217230895</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.1039149798989064</v>
+        <v>0.0630742803189413</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01727670257872627</v>
+        <v>0.01739430417689156</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02359452298190746</v>
+        <v>0.1000326369777974</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01759811586584559</v>
+        <v>0.0174095545171074</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02443531575033041</v>
+        <v>0.02943682966174033</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01355399716958425</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02404606128189894</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01839803022338403</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.06756713771736747</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01813364089232084</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.106904288847397</v>
+        <v>0.06587376397387218</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01806200724139564</v>
+        <v>0.01818495436675027</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02443531575033041</v>
+        <v>0.1040918449036664</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01839803022338403</v>
+        <v>0.01820089790424864</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02539074290597093</v>
+        <v>0.03043436810477185</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01414330139434879</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02453872858378472</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01919794458092246</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.06865044450391192</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01892206006155218</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1101047241280145</v>
+        <v>0.0673733312544641</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01884731190406502</v>
+        <v>0.01897560455660897</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02539074290597093</v>
+        <v>0.1061428329643139</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01919794458092246</v>
+        <v>0.01899224129138989</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02625813324717054</v>
+        <v>0.03140631394219602</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01473260561911332</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02546812325680482</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.0199978589384609</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.07112091114369054</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01971047923078352</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1129100389656912</v>
+        <v>0.06906904797581942</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0196326165667344</v>
+        <v>0.01976625474646768</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02625813324717054</v>
+        <v>0.1096797019201428</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0199978589384609</v>
+        <v>0.01978358467853113</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02693481557227061</v>
+        <v>0.03235104011295224</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01532190984387785</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02613026573779816</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02079777329599933</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.0734752659683966</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02049889840001486</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1151139865853589</v>
+        <v>0.07145697995304051</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02041792122940377</v>
+        <v>0.02055690493632639</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02693481557227061</v>
+        <v>0.1125965525315552</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02079777329599933</v>
+        <v>0.02057492806567238</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02771811867961263</v>
+        <v>0.03326691955597991</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01591121406864239</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02672117646360365</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02159768765353777</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.07521023730972332</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.0212873175692462</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1188103202119495</v>
+        <v>0.07323319300122969</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02120322589207315</v>
+        <v>0.02134755512618509</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02771811867961263</v>
+        <v>0.1174874855589538</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02159768765353777</v>
+        <v>0.02136627145281362</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02860537136753802</v>
+        <v>0.03415232521021841</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01650051829340692</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02783687587106022</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02239760201107621</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.07642255349936403</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02207573673847754</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1222927930703951</v>
+        <v>0.07489375293548928</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02198853055474253</v>
+        <v>0.0221382053160438</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02860537136753802</v>
+        <v>0.1203466017627411</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02239760201107621</v>
+        <v>0.02215761483995487</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02989390243438822</v>
+        <v>0.03500563001460712</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01708982251817145</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02837338439700686</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02319751636861464</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.07870894286901203</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02286415590770888</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1245551583856278</v>
+        <v>0.07723472557092156</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0227738352174119</v>
+        <v>0.02292885550590251</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02989390243438822</v>
+        <v>0.1237680019033196</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02319751636861464</v>
+        <v>0.02294895822709611</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03058104067850466</v>
+        <v>0.03582520690808545</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01767912674293598</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02952672247828241</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02399743072615308</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.08106613375036054</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02365257507694022</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1273911693825793</v>
+        <v>0.07915217672262895</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02355913988008128</v>
+        <v>0.02371950569576121</v>
       </c>
       <c r="N95" t="n">
-        <v>0.03058104067850466</v>
+        <v>0.1251457867410917</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02399743072615308</v>
+        <v>0.02374030161423736</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03156411489822879</v>
+        <v>0.03674234313200997</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01837111825168876</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02999291055172586</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02479734508369151</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.08199085447510279</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02444099424617156</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1294945792861818</v>
+        <v>0.0812421722057137</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02434444454275065</v>
+        <v>0.02451015588561992</v>
       </c>
       <c r="N96" t="n">
-        <v>0.03156411489822879</v>
+        <v>0.1287740570364598</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02479734508369151</v>
+        <v>0.0245316450013786</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03214045389190207</v>
+        <v>0.0373715285552641</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01885773519246505</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.0312679690541761</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02559725944122995</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.08477983337493211</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.0252294134154029</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1336591413213671</v>
+        <v>0.08250077783527815</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02512974920542003</v>
+        <v>0.02530080607547863</v>
       </c>
       <c r="N97" t="n">
-        <v>0.03214045389190207</v>
+        <v>0.1311469135498265</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02559725944122995</v>
+        <v>0.02532298838851985</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03320738645786589</v>
+        <v>0.03813664960839111</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01944703941722958</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.03194791842247209</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02639717379876839</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.08642979878154175</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02601783258463424</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1360786087130675</v>
+        <v>0.08472405942642466</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02591505386808941</v>
+        <v>0.02609145626533733</v>
       </c>
       <c r="N98" t="n">
-        <v>0.03320738645786589</v>
+        <v>0.1349584570415944</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02639717379876839</v>
+        <v>0.02611433177566109</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03386224139446173</v>
+        <v>0.03890150919485165</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02003634364199411</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.03282877909345273</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02719708815630683</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.08793747902662499</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02680625175386559</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1383467346862147</v>
+        <v>0.08670808279425557</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02670035853075878</v>
+        <v>0.02688210645519604</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03386224139446173</v>
+        <v>0.1371027882721658</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02719708815630683</v>
+        <v>0.02690567516280233</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03470234750003102</v>
+        <v>0.03966215101517018</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02062564786675864</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.03360657150395699</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02799700251384526</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.0894996024418751</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02759467092309693</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1403572724657407</v>
+        <v>0.08884891375387322</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02748566319342816</v>
+        <v>0.02767275664505475</v>
       </c>
       <c r="N100" t="n">
-        <v>0.03470234750003102</v>
+        <v>0.1399740080019432</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02799700251384526</v>
+        <v>0.02769701854994358</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03572503357291519</v>
+        <v>0.04041461876987115</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02121495209152318</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.03437731609082377</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.0287969168713837</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.09111289735898526</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02838309009232827</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1443039752765775</v>
+        <v>0.09004261812037986</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02827096785609753</v>
+        <v>0.02846340683491346</v>
       </c>
       <c r="N101" t="n">
-        <v>0.03572503357291519</v>
+        <v>0.1437662169913292</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0287969168713837</v>
+        <v>0.02848836193708483</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03632762841145569</v>
+        <v>0.04115495615947905</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02180425631628771</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03563703329089199</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02959683122892213</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.09237409210964892</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02917150926155961</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1456805963436573</v>
+        <v>0.09208526170887787</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02905627251876691</v>
+        <v>0.02925405702477216</v>
       </c>
       <c r="N102" t="n">
-        <v>0.03632762841145569</v>
+        <v>0.1460735160007263</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02959683122892213</v>
+        <v>0.02927970532422607</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03720746081399397</v>
+        <v>0.04187920688451831</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02239356054105224</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03648174354100059</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03039674558646057</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.09417991502555917</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02995992843079095</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1481808888919117</v>
+        <v>0.0930729103344696</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02984157718143628</v>
+        <v>0.03004470721463088</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03720746081399397</v>
+        <v>0.1489900057905368</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03039674558646057</v>
+        <v>0.03007104871136732</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03796185957887144</v>
+        <v>0.04258341464551338</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02298286476581678</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.03690746727798852</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03119665994399901</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.09592709443840941</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03074834760002229</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.150198606146273</v>
+        <v>0.09430162981225731</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03062688184410566</v>
+        <v>0.03083535740448958</v>
       </c>
       <c r="N104" t="n">
-        <v>0.03796185957887144</v>
+        <v>0.1502097871211633</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03119665994399901</v>
+        <v>0.03086239209850856</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03868815350442953</v>
+        <v>0.04326362314298871</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02357216899058131</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.03771022493869468</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03199657430153744</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.09661235867989285</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03153676676925363</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.153227501331673</v>
+        <v>0.09666748595734342</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03141218650677504</v>
+        <v>0.03162600759434828</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03868815350442953</v>
+        <v>0.1537269607530083</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03199657430153744</v>
+        <v>0.03165373548564981</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03968367138900973</v>
+        <v>0.04391587607746877</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02416147321534584</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.038886036959958</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03279648865907588</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.09813243608170277</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03232518593848497</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1558613276730438</v>
+        <v>0.09716654458483021</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03219749116944441</v>
+        <v>0.03241665778420699</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03968367138900973</v>
+        <v>0.1552356274464742</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03279648865907588</v>
+        <v>0.03244507887279106</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04014574203095343</v>
+        <v>0.04453621714947803</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02475077744011038</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.03933092377861742</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03359640301661431</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.09998405497553237</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03311360510771631</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1570938383953173</v>
+        <v>0.09909487150982002</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03298279583211378</v>
+        <v>0.0332073079740657</v>
       </c>
       <c r="N107" t="n">
-        <v>0.04014574203095343</v>
+        <v>0.1579298879619637</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03359640301661431</v>
+        <v>0.0332364222599323</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04087169422860212</v>
+        <v>0.04512069005954093</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02534008166487491</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03994090583151187</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03439631737415275</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.100163943693075</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03390202427694765</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1589187867234256</v>
+        <v>0.09984853254741516</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03376810049478316</v>
+        <v>0.03399795816392441</v>
       </c>
       <c r="N108" t="n">
-        <v>0.04087169422860212</v>
+        <v>0.1596038430598791</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03439631737415275</v>
+        <v>0.03402776564707354</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04135885678029717</v>
+        <v>0.04566533850818191</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02592938588963944</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.04071200355548028</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03519623173169118</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.1019688305660238</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03469044344617899</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1600299258823005</v>
+        <v>0.101723593512718</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03455340515745254</v>
+        <v>0.03478860835378311</v>
       </c>
       <c r="N109" t="n">
-        <v>0.04135885678029717</v>
+        <v>0.1617515935006228</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03519623173169118</v>
+        <v>0.03481910903421479</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0419045584843801</v>
+        <v>0.04616620619592546</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02651869011440397</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.04124023738736156</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03599614608922962</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.1022954439260724</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03547886261541033</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1623210090968741</v>
+        <v>0.1027161202208308</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03533870982012191</v>
+        <v>0.03557925854364182</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0419045584843801</v>
+        <v>0.1620672400445976</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03599614608922962</v>
+        <v>0.03561045242135603</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04230612813919232</v>
+        <v>0.04661933682329598</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02710799433916851</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.04222162776399466</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03679606044676806</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.1040405121049137</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03626728178464168</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1643857895920784</v>
+        <v>0.103022178486856</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03612401448279129</v>
+        <v>0.03636990873350053</v>
       </c>
       <c r="N111" t="n">
-        <v>0.04230612813919232</v>
+        <v>0.1640448834522056</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03679606044676806</v>
+        <v>0.03640179580849728</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04296089454307522</v>
+        <v>0.04702077409081798</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02769729856393304</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.04235219512221849</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03759597480430649</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.104300763434241</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03705570095387302</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1653180205928453</v>
+        <v>0.1044378341258957</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03690931914546067</v>
+        <v>0.03716055892335924</v>
       </c>
       <c r="N112" t="n">
-        <v>0.04296089454307522</v>
+        <v>0.1652786244838496</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03759597480430649</v>
+        <v>0.03719313919563853</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0430661864943703</v>
+        <v>0.04736656169901589</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02828660278869757</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.043127959898872</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03839588916184493</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.1051729262457478</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03784412012310436</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1676114553241068</v>
+        <v>0.1051591529530526</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03769462380813004</v>
+        <v>0.03795120911321794</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0430661864943703</v>
+        <v>0.167562563899932</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03839588916184493</v>
+        <v>0.03798448258277978</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04341933279141898</v>
+        <v>0.04765376115941287</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02887590701346211</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.04354494253079411</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03919580351938336</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.1064537288711271</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.0386325392923357</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.168459847010795</v>
+        <v>0.1063822007834287</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03847992847079942</v>
+        <v>0.03874185930307665</v>
       </c>
       <c r="N114" t="n">
-        <v>0.04341933279141898</v>
+        <v>0.1681908024608552</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03919580351938336</v>
+        <v>0.03877582596992102</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04391766223256267</v>
+        <v>0.04791816154781546</v>
       </c>
       <c r="G115" t="n">
+        <v>0.02946521123822664</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04389916345482374</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.0399957178769218</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.1070398996420723</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03942095846156703</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1686569488778417</v>
+        <v>0.1070030434321265</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0392652331334688</v>
+        <v>0.03953250949293535</v>
       </c>
       <c r="N115" t="n">
-        <v>0.04391766223256267</v>
+        <v>0.1685574409270217</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0399957178769218</v>
+        <v>0.03956716935706226</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04435850361614285</v>
+        <v>0.04817909939587567</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03005451546299117</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.04388664310779983</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04079563223446023</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.1066281668902767</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04020937763079838</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.169096514150179</v>
+        <v>0.1072177467142482</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04005053779613817</v>
+        <v>0.04032315968279407</v>
       </c>
       <c r="N116" t="n">
-        <v>0.04435850361614285</v>
+        <v>0.1703565800588342</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04079563223446023</v>
+        <v>0.0403585127442035</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04443918574050096</v>
+        <v>0.04843649722124847</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03064381968775571</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.04410340192656131</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04159554659199867</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.1076152589474335</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04099779680002972</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1710722960527388</v>
+        <v>0.1079223764448963</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04083584245880754</v>
+        <v>0.04111380987265277</v>
       </c>
       <c r="N117" t="n">
-        <v>0.04443918574050096</v>
+        <v>0.1705823206166949</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04159554659199867</v>
+        <v>0.04114985613134475</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04445703740397842</v>
+        <v>0.04869027754158886</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03123312391252023</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.04444546034794711</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04239546094953711</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.108297904145236</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04178621596926106</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1718780478104532</v>
+        <v>0.107612998439173</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04162114712147692</v>
+        <v>0.04190446006251148</v>
       </c>
       <c r="N118" t="n">
-        <v>0.04445703740397842</v>
+        <v>0.1703287633610064</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04239546094953711</v>
+        <v>0.041941199518486</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04894036287455185</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03182242813728477</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.04471194541298491</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04319537530707554</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.1085370035950932</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.0425746351384924</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.1721075226482541</v>
-      </c>
       <c r="M119" t="n">
-        <v>0.0424064517841463</v>
+        <v>0.04269511025237019</v>
       </c>
       <c r="N119" t="n">
-        <v>0.04471194541298491</v>
+        <v>0.1723620617772014</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04319537530707554</v>
+        <v>0.04273254290562725</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04431020249271225</v>
+        <v>0.04918667573779241</v>
       </c>
       <c r="G120" t="n">
+        <v>0.0324117323620493</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.04450896524920465</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04399528966461398</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.1082367672895512</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04336305430772374</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1723620617772014</v>
+        <v>0.1084368577146033</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04319175644681567</v>
+        <v>0.0434857604422289</v>
       </c>
       <c r="N120" t="n">
-        <v>0.04431020249271225</v>
+        <v>0.1723617790929644</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04399528966461398</v>
+        <v>0.04352388629276849</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04450219837086174</v>
+        <v>0.04942913864896556</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03300103658681384</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.04459531591850317</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04479520402215241</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.107830223656938</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04415147347695508</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1715559551091598</v>
+        <v>0.107516334542372</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04397706110948505</v>
+        <v>0.0442764106320876</v>
       </c>
       <c r="N121" t="n">
-        <v>0.04450219837086174</v>
+        <v>0.1720432906722175</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04479520402215241</v>
+        <v>0.04431522967990973</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04448786205631326</v>
+        <v>0.04966767412572629</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03359034081157836</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.04467094887048893</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04559511837969085</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.1078081988004743</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04493989264618642</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1713273189473624</v>
+        <v>0.1080620248281726</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04476236577215443</v>
+        <v>0.04506706082194631</v>
       </c>
       <c r="N122" t="n">
-        <v>0.04448786205631326</v>
+        <v>0.1708964410055553</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04559511837969085</v>
+        <v>0.04510657306705098</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04466737045727254</v>
+        <v>0.04990220468572956</v>
       </c>
       <c r="G123" t="n">
+        <v>0.0341796450363429</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.04453624034582677</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04639503273722929</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.1078712327060299</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04572831181541776</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1707757209427359</v>
+        <v>0.1074752160943268</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0455476704348238</v>
+        <v>0.04585771101180501</v>
       </c>
       <c r="N123" t="n">
-        <v>0.04466737045727254</v>
+        <v>0.1716219762901416</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04639503273722929</v>
+        <v>0.04589791645419222</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04424090048194528</v>
+        <v>0.05013265284663043</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03476894926110743</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.04429156658518162</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04719494709476772</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.1076196612740395</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.0465167309846491</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.171701683851744</v>
+        <v>0.1078571958631557</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04633297509749318</v>
+        <v>0.04664836120166373</v>
       </c>
       <c r="N124" t="n">
-        <v>0.04424090048194528</v>
+        <v>0.1721206427231405</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04719494709476772</v>
+        <v>0.04668925984133347</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04430862903853718</v>
+        <v>0.05035894112608386</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03535825348587197</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.04423730382921827</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04799486145230616</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.1079538204049383</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04730515015388045</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1715057304308505</v>
+        <v>0.107709251656981</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04711827976016256</v>
+        <v>0.04743901139152243</v>
       </c>
       <c r="N125" t="n">
-        <v>0.04430862903853718</v>
+        <v>0.1709931865017158</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04799486145230616</v>
+        <v>0.04748060322847471</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04447073303525395</v>
+        <v>0.05058099204174483</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03594755771063649</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.04447382831860164</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04879477580984459</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.107274045999161</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04809356932311178</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1713883834365194</v>
+        <v>0.106932670998124</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04790358442283193</v>
+        <v>0.04822966158138114</v>
       </c>
       <c r="N126" t="n">
-        <v>0.04447073303525395</v>
+        <v>0.1712403538230315</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04879477580984459</v>
+        <v>0.04827194661561596</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04442738938030136</v>
+        <v>0.05079872811126837</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03653686193540103</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.04430151629399656</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04959469016738303</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.1076806739571425</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04888198849234313</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1701501656252143</v>
+        <v>0.1077287414089061</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04868888908550131</v>
+        <v>0.04902031177123985</v>
       </c>
       <c r="N127" t="n">
-        <v>0.04442738938030136</v>
+        <v>0.1707628908842517</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04959469016738303</v>
+        <v>0.0490632900027572</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04407877498188507</v>
+        <v>0.05101207185230944</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03712616616016556</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.04422074399606794</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05039460452492146</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.1075740401793179</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04967040766157447</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1702915997533991</v>
+        <v>0.1068987504116488</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04947419374817068</v>
+        <v>0.04981096196109856</v>
       </c>
       <c r="N128" t="n">
-        <v>0.04407877498188507</v>
+        <v>0.1714615438825401</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05039460452492146</v>
+        <v>0.04985463338989845</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04442506674821081</v>
+        <v>0.05122094578252306</v>
       </c>
       <c r="G129" t="n">
+        <v>0.0377154703849301</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.04423188766548063</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05119451888245991</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.107254480566122</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.0504588268308058</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1711132085775376</v>
+        <v>0.1070439855286734</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05025949841084006</v>
+        <v>0.05060161215095726</v>
       </c>
       <c r="N129" t="n">
-        <v>0.04442506674821081</v>
+        <v>0.1706370590150609</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05119451888245991</v>
+        <v>0.05064597677703969</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04406644158748431</v>
+        <v>0.05142527241956421</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03830477460969463</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.04383532354289947</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05199443323999834</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.1068223310179897</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05124724600003715</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1703155148540936</v>
+        <v>0.1064657342823014</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05104480307350943</v>
+        <v>0.05139226234081597</v>
       </c>
       <c r="N130" t="n">
-        <v>0.04406644158748431</v>
+        <v>0.1707901824789778</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05199443323999834</v>
+        <v>0.05143732016418094</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04420307640791124</v>
+        <v>0.05162497428108791</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03889407883445916</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.04403142786898935</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05279434759753678</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.106777927435356</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05203566516926849</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1693990413395309</v>
+        <v>0.1057652841948543</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05183010773617881</v>
+        <v>0.05218291253067467</v>
       </c>
       <c r="N131" t="n">
-        <v>0.04420307640791124</v>
+        <v>0.1696216604714549</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05279434759753678</v>
+        <v>0.05222866355132218</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04413514811769738</v>
+        <v>0.05181997388474913</v>
       </c>
       <c r="G132" t="n">
+        <v>0.0394833830592237</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.04362057688441515</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05359426195507521</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.1072216057186558</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05282408433849983</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1704643107903133</v>
+        <v>0.1054439227886536</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05261541239884818</v>
+        <v>0.05297356272053338</v>
       </c>
       <c r="N132" t="n">
-        <v>0.04413514811769738</v>
+        <v>0.1704322391896562</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05359426195507521</v>
+        <v>0.05302000693846343</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0441628336250484</v>
+        <v>0.05201019374820287</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04007268728398822</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.04380314682984168</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05439417631261365</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.1073537017683242</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05361250350773118</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1699118459629047</v>
+        <v>0.1055029375860204</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05340071706151756</v>
+        <v>0.05376421291039208</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0441628336250484</v>
+        <v>0.1696226648307456</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05439417631261365</v>
+        <v>0.05381135032560467</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04368630983817003</v>
+        <v>0.05219555638910411</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04066199150875276</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.04367951394593386</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05519409067015207</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.1071745514847958</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05440092267696251</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1700421696137687</v>
+        <v>0.1047436161092764</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05418602172418694</v>
+        <v>0.0545548631002508</v>
       </c>
       <c r="N134" t="n">
-        <v>0.04368630983817003</v>
+        <v>0.1695936835918869</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05519409067015207</v>
+        <v>0.05460269371274592</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04360575366526796</v>
+        <v>0.0523759843251079</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04125129573351729</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.04335005447335655</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05599400502769052</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.1064844907685057</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05518934184619386</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1696558044993694</v>
+        <v>0.105267245880743</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05497132638685631</v>
+        <v>0.0553455132901095</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04360575366526796</v>
+        <v>0.1685460416702443</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05599400502769052</v>
+        <v>0.05539403709988716</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04392134201454795</v>
+        <v>0.05255140007386919</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04184059995828183</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.04311514465277461</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05679391938522895</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.106683855519889</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.0559777610154252</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1683532733761705</v>
+        <v>0.1047751144227416</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05575663104952568</v>
+        <v>0.05613616347996821</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04392134201454795</v>
+        <v>0.1680804852629816</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05679391938522895</v>
+        <v>0.05618538048702841</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04373325179421567</v>
+        <v>0.05272172615304296</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04242990418304635</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.04307516072485286</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05759383374276739</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.1065729816393802</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05676618018465653</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1690350990006356</v>
+        <v>0.1036685092575935</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05654193571219506</v>
+        <v>0.05692681366982692</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04373325179421567</v>
+        <v>0.1682977605672628</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05759383374276739</v>
+        <v>0.05697672387416965</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04364165991247686</v>
+        <v>0.05288688508028425</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04301920840781089</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04283047893025625</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05839374810030583</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.1063522050274146</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05755459935388788</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1679018041292289</v>
+        <v>0.1032487179076204</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05732724037486445</v>
+        <v>0.05771746385968562</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04364165991247686</v>
+        <v>0.1678986137802518</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05839374810030583</v>
+        <v>0.0577680672613109</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04324674327753723</v>
+        <v>0.05304679937324804</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04360851263257542</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0426814755096496</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05919366245784426</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.1059218615844271</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05834301852311921</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1679539115184138</v>
+        <v>0.1033170278951435</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05811254503753382</v>
+        <v>0.05850811404954433</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04324674327753723</v>
+        <v>0.1662837910991126</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05919366245784426</v>
+        <v>0.05855941064845215</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04334867879760249</v>
+        <v>0.05320139154958931</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04419781685733996</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.04252852670369778</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.0599935768153827</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.1052822872108524</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05913143769235056</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1682919439246544</v>
+        <v>0.1026747267424844</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0588978497002032</v>
+        <v>0.05929876423940304</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04334867879760249</v>
+        <v>0.1664540387210091</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0599935768153827</v>
+        <v>0.05935075403559339</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04314764338087837</v>
+        <v>0.05335058412696307</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04478712108210449</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.04257200875306563</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06079349117292113</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.1052338178071256</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.0599198568615819</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1666164241044144</v>
+        <v>0.1017231019719643</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05968315436287257</v>
+        <v>0.06008941442926175</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04314764338087837</v>
+        <v>0.1654101028431054</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06079349117292113</v>
+        <v>0.06014209742273464</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04334381393557055</v>
+        <v>0.05349429962302432</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04537642530686902</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.04221229789841807</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06159340553045958</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.1044767892736815</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06070827603081323</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1662278748141576</v>
+        <v>0.1019634411059048</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06046845902554194</v>
+        <v>0.06088006461912045</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04334381393557055</v>
+        <v>0.1665527296625652</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06159340553045958</v>
+        <v>0.06093344080987589</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04313736736988479</v>
+        <v>0.05363246055542804</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04596572953163355</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.04204977038041993</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06239331988799801</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.1050115375109552</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06149669520004458</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1658268188103478</v>
+        <v>0.1011970316666274</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06125376368821132</v>
+        <v>0.06167071480897916</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04313736736988479</v>
+        <v>0.1645826653765527</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06239331988799801</v>
+        <v>0.06172478419701713</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04312848059202677</v>
+        <v>0.05376498944182923</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04655503375639809</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.04218480243973607</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06319323424553644</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.1048383984193816</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06228511436927592</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1655137788494489</v>
+        <v>0.1011251611764533</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0620390683508807</v>
+        <v>0.06246136499883786</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04312848059202677</v>
+        <v>0.1654006561822317</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06319323424553644</v>
+        <v>0.06251612758415838</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04281733051020221</v>
+        <v>0.0538918087998829</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04714433798116262</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.04191777031703139</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06399314860307488</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.1045577078993954</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06307353353850727</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1646892776879246</v>
+        <v>0.1000491171577041</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06282437301355008</v>
+        <v>0.06325201518869657</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04281733051020221</v>
+        <v>0.1650074482767662</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06399314860307488</v>
+        <v>0.06330747097129963</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04280409403261684</v>
+        <v>0.05401284114724401</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04773364220592715</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.04164905025297073</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06479306296061331</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.1036698018514319</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.0638619527077386</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1655538380822388</v>
+        <v>0.09977018713270119</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06360967767621944</v>
+        <v>0.06404266537855528</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04280409403261684</v>
+        <v>0.1639037878573202</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06479306296061331</v>
+        <v>0.06409881435844086</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04268894806747636</v>
+        <v>0.05412800900156758</v>
       </c>
       <c r="G147" t="n">
+        <v>0.04832294643069169</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.04137901848821898</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06559297731815175</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.1032750161759257</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06465037187696994</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1651079827888552</v>
+        <v>0.09958965862376595</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06439498233888882</v>
+        <v>0.06483331556841399</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04268894806747636</v>
+        <v>0.1630904211210575</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06559297731815175</v>
+        <v>0.06489015774558211</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04267206952298651</v>
+        <v>0.05423723488050862</v>
       </c>
       <c r="G148" t="n">
+        <v>0.04891225065545621</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.04130805126344096</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06639289167569018</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.1029736867733118</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06543879104620128</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1634522345642378</v>
+        <v>0.09940881915321986</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0651802870015582</v>
+        <v>0.0656239657582727</v>
       </c>
       <c r="N148" t="n">
-        <v>0.04267206952298651</v>
+        <v>0.1627680942651422</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06639289167569018</v>
+        <v>0.06568150113272335</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04235363530735296</v>
+        <v>0.05434044130172211</v>
       </c>
       <c r="G149" t="n">
+        <v>0.04950155488022075</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.0412365248193016</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06719280603322862</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.1025661495440253</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06622721021543261</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1641871161648502</v>
+        <v>0.09882895624338434</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06596559166422757</v>
+        <v>0.0664146159481314</v>
       </c>
       <c r="N149" t="n">
-        <v>0.04235363530735296</v>
+        <v>0.1623375534867382</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06719280603322862</v>
+        <v>0.0664728445198646</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04223382232878145</v>
+        <v>0.05443755078286303</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05009085910498529</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.04086481539646572</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06799272039076705</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.1029527403885009</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06701562938466396</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1628131503471563</v>
+        <v>0.09765135741658079</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06675089632689696</v>
+        <v>0.06720526613799011</v>
       </c>
       <c r="N150" t="n">
-        <v>0.04223382232878145</v>
+        <v>0.1621995449830094</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06799272039076705</v>
+        <v>0.06726418790700583</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04201280749547773</v>
+        <v>0.05452848584158639</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05068016332974982</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.04059329923559818</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06879263474830549</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.1017337952071736</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.0678040485538953</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.16303085986762</v>
+        <v>0.09777731019513067</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06753620098956632</v>
+        <v>0.06799591632784882</v>
       </c>
       <c r="N151" t="n">
-        <v>0.04201280749547773</v>
+        <v>0.1608548149511199</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06879263474830549</v>
+        <v>0.06805553129414708</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04209076771564745</v>
+        <v>0.05461316899554719</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05126946755451435</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.04042235257736386</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06959254910584393</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.1022096499004784</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06859246772312665</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1617407674827049</v>
+        <v>0.09720810210135544</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0683215056522357</v>
+        <v>0.06878656651770752</v>
       </c>
       <c r="N152" t="n">
-        <v>0.04209076771564745</v>
+        <v>0.1598041095882335</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06959254910584393</v>
+        <v>0.06884687468128833</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04166787989749636</v>
+        <v>0.05469152276240041</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05185877177927888</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.04025235166242765</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.07039246346338236</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.1015806403688503</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06938088689235798</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.161843395948875</v>
+        <v>0.09644502065757649</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06910681031490508</v>
+        <v>0.06957721670756623</v>
       </c>
       <c r="N153" t="n">
-        <v>0.04166787989749636</v>
+        <v>0.1608481750915142</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07039246346338236</v>
+        <v>0.06963821806842958</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04194432094923016</v>
+        <v>0.05476346965980107</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05244807600404341</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.04008367273145438</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.0711923778209208</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.1017471025127239</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.07016930606158933</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.161739268022594</v>
+        <v>0.09568935338611517</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06989211497757446</v>
+        <v>0.07036786689742494</v>
       </c>
       <c r="N154" t="n">
-        <v>0.04194432094923016</v>
+        <v>0.159487757658126</v>
       </c>
       <c r="O154" t="n">
-        <v>0.0711923778209208</v>
+        <v>0.07042956145557082</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04142026777905458</v>
+        <v>0.05482893220540414</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05303738022880795</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.04001669202510896</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07199229217845923</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.1013093722325345</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07095772523082067</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1609289064603258</v>
+        <v>0.09574238780929306</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07067741964024382</v>
+        <v>0.07115851708728364</v>
       </c>
       <c r="N155" t="n">
-        <v>0.04142026777905458</v>
+        <v>0.1584236034852327</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07199229217845923</v>
+        <v>0.07122090484271207</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04159589729517532</v>
+        <v>0.05488783291686462</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05362668445357249</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.0400517857840562</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07279220653599767</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.1007677854287167</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.071746144400052</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1609128340185341</v>
+        <v>0.0948054114494315</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07146272430291321</v>
+        <v>0.07194916727714236</v>
       </c>
       <c r="N156" t="n">
-        <v>0.04159589729517532</v>
+        <v>0.1585564587699985</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07279220653599767</v>
+        <v>0.07201224822985332</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04127138640579811</v>
+        <v>0.05494009431183754</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05421598867833701</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03958933024896101</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07359212089353612</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.1000226780017058</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07253456356928335</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1596915734536828</v>
+        <v>0.09437971182885194</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07224802896558258</v>
+        <v>0.07273981746700106</v>
       </c>
       <c r="N157" t="n">
-        <v>0.04127138640579811</v>
+        <v>0.1584870697095871</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07359212089353612</v>
+        <v>0.07280359161699457</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04114691201912866</v>
+        <v>0.05498563890797785</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05480529290310154</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03942469882578124</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07439203525107455</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.09937438585193636</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07332298273851469</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1587656475222356</v>
+        <v>0.09435974223833735</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07303333362825196</v>
+        <v>0.07353046765685976</v>
       </c>
       <c r="N158" t="n">
-        <v>0.04114691201912866</v>
+        <v>0.1563780790794276</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07439203525107455</v>
+        <v>0.0735949350041358</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04102265104337267</v>
+        <v>0.05502438922294055</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05539459712786608</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.0394500286037309</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07519194960861297</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.09912324487984353</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07411140190774604</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1585355789806565</v>
+        <v>0.09393472617188633</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07381863829092133</v>
+        <v>0.07432111784671848</v>
       </c>
       <c r="N159" t="n">
-        <v>0.04102265104337267</v>
+        <v>0.1555698589895125</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07519194960861297</v>
+        <v>0.07438627839127705</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04119829475404245</v>
+        <v>0.05505626777438065</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05598390135263061</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03926580709684963</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07599186396615142</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.09866959098586214</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07489982107697737</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1587018905854091</v>
+        <v>0.09390454069995319</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0746039429535907</v>
+        <v>0.07511176803657718</v>
       </c>
       <c r="N160" t="n">
-        <v>0.04119829475404245</v>
+        <v>0.1552673902700462</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07599186396615142</v>
+        <v>0.0751776217784183</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04076649104660933</v>
+        <v>0.05508119707995315</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05657320557739515</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03917265418438654</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07679177832368986</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.09851376007042717</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07568824024620871</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1573651050929574</v>
+        <v>0.09336923118817597</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07538924761626008</v>
+        <v>0.07590241822643588</v>
       </c>
       <c r="N161" t="n">
-        <v>0.04076649104660933</v>
+        <v>0.1555766402992143</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07679177832368986</v>
+        <v>0.07596896516555955</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04062507676069331</v>
+        <v>0.05509909965731304</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05716250980215967</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.03897118974559076</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.0775916926812283</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.09865608803397355</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07647665941544006</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1572257452597651</v>
+        <v>0.09252884300219275</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07617455227892947</v>
+        <v>0.0766930684162946</v>
       </c>
       <c r="N162" t="n">
-        <v>0.04062507676069331</v>
+        <v>0.1531035764552028</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0775916926812283</v>
+        <v>0.07676030855270079</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0407745317286663</v>
+        <v>0.0551098980241153</v>
       </c>
       <c r="G163" t="n">
+        <v>0.05775181402692421</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.03846203365971146</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07839160703876673</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.09769691077693612</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.0772650785846714</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.156184333842296</v>
+        <v>0.09268342150764164</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07695985694159883</v>
+        <v>0.0774837186061533</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0407745317286663</v>
+        <v>0.1535541661161971</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07839160703876673</v>
+        <v>0.07755165193984204</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04021533578290025</v>
+        <v>0.05511351469801495</v>
       </c>
       <c r="G164" t="n">
+        <v>0.05834111825168874</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.03834580580599777</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07919152139630516</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.09823656419974991</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07805349775390273</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1552413935970139</v>
+        <v>0.09133301207016067</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07774516160426821</v>
+        <v>0.07827436879601202</v>
       </c>
       <c r="N164" t="n">
-        <v>0.04021533578290025</v>
+        <v>0.151834376660383</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07919152139630516</v>
+        <v>0.07834299532698329</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.0400479687557671</v>
+        <v>0.05511351469801495</v>
       </c>
       <c r="G165" t="n">
+        <v>0.05834111825168874</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.03802312606369877</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.0799914357538436</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.09727538420284981</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07884191692313407</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1556974472803827</v>
+        <v>0.09177766005538807</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07853046626693759</v>
+        <v>0.07906501898587071</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0400479687557671</v>
+        <v>0.151250175465946</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0799914357538436</v>
+        <v>0.07913433871412452</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03997291047963883</v>
+        <v>0.05420500025697371</v>
       </c>
       <c r="G166" t="n">
+        <v>0.05834084972322473</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.03799461431206368</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08079135011138204</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.09659189427653575</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07963033609236542</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1553530176488661</v>
+        <v>0.09081741082896172</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07931577092960695</v>
+        <v>0.07985566917572942</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03997291047963883</v>
+        <v>0.1496075299110721</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08079135011138204</v>
+        <v>0.07992568210126576</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03989064078688731</v>
+        <v>0.05330646223550656</v>
       </c>
       <c r="G167" t="n">
+        <v>0.05834058119476072</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.03796089043034159</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08159126446892047</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.09614539905892355</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08041875526159675</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.154008627458928</v>
+        <v>0.09055230975651984</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08010107559227635</v>
+        <v>0.08064631936558814</v>
       </c>
       <c r="N167" t="n">
-        <v>0.03989064078688731</v>
+        <v>0.1484124073739468</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08159126446892047</v>
+        <v>0.08071702548840701</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03980163950988454</v>
+        <v>0.05241833314133439</v>
       </c>
       <c r="G168" t="n">
+        <v>0.05834031266629669</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.03762257429778167</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.0823911788264589</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.09593875920150058</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08120717443082809</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1538647994670321</v>
+        <v>0.08948240220370043</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08088638025494573</v>
+        <v>0.08143696955544684</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03980163950988454</v>
+        <v>0.1462707752327558</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0823911788264589</v>
+        <v>0.08150836887554826</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03960638648100241</v>
+        <v>0.05154104548229387</v>
       </c>
       <c r="G169" t="n">
+        <v>0.05834004413783268</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.03708028579363302</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08319109318399734</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.09517601350806015</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08199559360005944</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1532220564296424</v>
+        <v>0.08890773353614165</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08167168491761509</v>
+        <v>0.08222761974530554</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03960638648100241</v>
+        <v>0.1447886008656848</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08319109318399734</v>
+        <v>0.08229971226268951</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03940536153261291</v>
+        <v>0.05067503176610538</v>
       </c>
       <c r="G170" t="n">
+        <v>0.05833977560936866</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0369346447971448</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08399100754153578</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.09456120078239563</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08278401276929077</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.152157295760041</v>
+        <v>0.08932834911948151</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08245698958028447</v>
+        <v>0.08301826993516426</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03940536153261291</v>
+        <v>0.1432718516509195</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08399100754153578</v>
+        <v>0.08309105564983074</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03909904449708794</v>
+        <v>0.04982072450052827</v>
       </c>
       <c r="G171" t="n">
+        <v>0.05833950708090465</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.03668627118756615</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08479092189907422</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.09429835982830029</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08357243193852212</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1528476990231313</v>
+        <v>0.08874429431935818</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08324229424295385</v>
+        <v>0.08380892012502296</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03909904449708794</v>
+        <v>0.1420264949666457</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08479092189907422</v>
+        <v>0.08388239903697199</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03908791520679944</v>
+        <v>0.04897855619328548</v>
       </c>
       <c r="G172" t="n">
+        <v>0.05833923855244062</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.03653578484414617</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08559083625661264</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.09329152944956748</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08436085110775346</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1522958356987735</v>
+        <v>0.08825561450140962</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08402759890562321</v>
+        <v>0.08459957031488168</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03908791520679944</v>
+        <v>0.1401584981910488</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08559083625661264</v>
+        <v>0.08467374242411324</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03877245349411937</v>
+        <v>0.0481489593522096</v>
       </c>
       <c r="G173" t="n">
+        <v>0.05833897002397661</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.03618380564613406</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08639075061415108</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.09294474844999062</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08514927027698481</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1500042783051547</v>
+        <v>0.08746235503127403</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0848129035682926</v>
+        <v>0.08539022050474038</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03877245349411937</v>
+        <v>0.1395738287023148</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08639075061415108</v>
+        <v>0.08546508581125449</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03825313919141966</v>
+        <v>0.04733236648502306</v>
       </c>
       <c r="G174" t="n">
+        <v>0.05833870149551259</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.03613095347277892</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08719066497168952</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.0919620556333629</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08593768944621615</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1499755993604623</v>
+        <v>0.08656456127458945</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08559820823096198</v>
+        <v>0.08618087069459908</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03825313919141966</v>
+        <v>0.1372784538786291</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08719066497168952</v>
+        <v>0.08625642919839573</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03813045213107225</v>
+        <v>0.04652921009948516</v>
       </c>
       <c r="G175" t="n">
+        <v>0.05833843296704858</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.03587784820332988</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08799057932922796</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.09064748980347775</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08672610861544748</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1493123713828838</v>
+        <v>0.08656227859699395</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08638351289363135</v>
+        <v>0.0869715208844578</v>
       </c>
       <c r="N175" t="n">
-        <v>0.03813045213107225</v>
+        <v>0.1368783410981776</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08799057932922796</v>
+        <v>0.08704777258553698</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03800487214544906</v>
+        <v>0.04573992270332117</v>
       </c>
       <c r="G176" t="n">
+        <v>0.05833816443858455</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.0355251097170361</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08879049368676639</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.09050508976412847</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08751452778467883</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1477171668906064</v>
+        <v>0.08625555236412558</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08716881755630072</v>
+        <v>0.0877621710743165</v>
       </c>
       <c r="N176" t="n">
-        <v>0.03800487214544906</v>
+        <v>0.134479457739146</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08879049368676639</v>
+        <v>0.08783911597267823</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03757687906692206</v>
+        <v>0.04496493680435913</v>
       </c>
       <c r="G177" t="n">
+        <v>0.05833789591012054</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.03537335789314672</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08959040804430482</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.08973889431910836</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08830294695391017</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1467925584018174</v>
+        <v>0.08574442794162249</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0879541222189701</v>
+        <v>0.0885528212641752</v>
       </c>
       <c r="N177" t="n">
-        <v>0.03757687906692206</v>
+        <v>0.1338877711797198</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08959040804430482</v>
+        <v>0.08863045935981946</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03744695272786319</v>
+        <v>0.0442046849103237</v>
       </c>
       <c r="G178" t="n">
+        <v>0.05833762738165652</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.03492321261091086</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09039032240184326</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.08885294227221074</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.0890913661231415</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1475411184347043</v>
+        <v>0.08462895069512277</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08873942688163947</v>
+        <v>0.08934347145403392</v>
       </c>
       <c r="N178" t="n">
-        <v>0.03744695272786319</v>
+        <v>0.131609248798085</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09039032240184326</v>
+        <v>0.08942180274696071</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03731557296064435</v>
+        <v>0.04345959952897417</v>
       </c>
       <c r="G179" t="n">
+        <v>0.05833735885319251</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.03497529374957765</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.0911902367593817</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.08785127242722904</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08987978529237284</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1462654195074542</v>
+        <v>0.08400916599026442</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08952473154430886</v>
+        <v>0.09013412164389262</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03731557296064435</v>
+        <v>0.1311498579724269</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0911902367593817</v>
+        <v>0.09021314613410196</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03688321959763752</v>
+        <v>0.04273011316803847</v>
       </c>
       <c r="G180" t="n">
+        <v>0.05833709032472848</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.03453022118839626</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09199015111692015</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.08643792358795646</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09066820446160419</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1444680341382546</v>
+        <v>0.08398511919268559</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09031003620697824</v>
+        <v>0.09092477183375132</v>
       </c>
       <c r="N180" t="n">
-        <v>0.03688321959763752</v>
+        <v>0.1281155660809315</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09199015111692015</v>
+        <v>0.09100448952124321</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03665037247121462</v>
+        <v>0.04201665833533941</v>
       </c>
       <c r="G181" t="n">
+        <v>0.05833682179626447</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.03438861480661579</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09279006547445857</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.0860169345581864</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09145662363083552</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1436515348452929</v>
+        <v>0.08385685566802434</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0910953408696476</v>
+        <v>0.09171542202361002</v>
       </c>
       <c r="N181" t="n">
-        <v>0.03665037247121462</v>
+        <v>0.1269123405017843</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09279006547445857</v>
+        <v>0.09179583290838444</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0366175114137476</v>
+        <v>0.04131966753860425</v>
       </c>
       <c r="G182" t="n">
+        <v>0.05833655326780045</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.03425109448348543</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.093589979831997</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.0846923441417122</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09224504280006686</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1440184941467562</v>
+        <v>0.0832244207819188</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09188064553231698</v>
+        <v>0.09250607221346874</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0366175114137476</v>
+        <v>0.125546148613171</v>
       </c>
       <c r="O182" t="n">
-        <v>0.093589979831997</v>
+        <v>0.09258717629552569</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03638511625760839</v>
+        <v>0.04063957328559226</v>
       </c>
       <c r="G183" t="n">
+        <v>0.05833628473933644</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.03371828009825426</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09438989418953544</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.08396819114232709</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09303346196929821</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.141971484560832</v>
+        <v>0.08218785990000693</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09266595019498636</v>
+        <v>0.09329672240332745</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03638511625760839</v>
+        <v>0.1245229577932775</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09438989418953544</v>
+        <v>0.09337851968266694</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03635366683516893</v>
+        <v>0.03997680808403431</v>
       </c>
       <c r="G184" t="n">
+        <v>0.05833601621087241</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.03369079153017142</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09518980854707389</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.08294851436382455</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09382188113852954</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1405130786057076</v>
+        <v>0.08194721838792693</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09345125485765572</v>
+        <v>0.09408737259318616</v>
       </c>
       <c r="N184" t="n">
-        <v>0.03635366683516893</v>
+        <v>0.1242487354202893</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09518980854707389</v>
+        <v>0.09416986306980818</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03592364297880116</v>
+        <v>0.03933180444174743</v>
       </c>
       <c r="G185" t="n">
+        <v>0.0583357476824084</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.03316924865848611</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09598972290461232</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.08203735260999781</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09461030030776089</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1395458487995703</v>
+        <v>0.08080254161131681</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09423655952032511</v>
+        <v>0.09487802278304486</v>
       </c>
       <c r="N185" t="n">
-        <v>0.03592364297880116</v>
+        <v>0.122929448872392</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09598972290461232</v>
+        <v>0.09496120645694943</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03569552452087701</v>
+        <v>0.0387049948664617</v>
       </c>
       <c r="G186" t="n">
+        <v>0.05833547915394438</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.03295427136244741</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09678963726215074</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.0810387446846402</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09539871947699223</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1396723676606075</v>
+        <v>0.08065387493581472</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09502186418299448</v>
+        <v>0.09566867297290357</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03569552452087701</v>
+        <v>0.1207710655277715</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09678963726215074</v>
+        <v>0.09575254984409066</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03546979129376845</v>
+        <v>0.03809681186593641</v>
       </c>
       <c r="G187" t="n">
+        <v>0.05833521062548037</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.03314647952130448</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09758955161968919</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.0800567293915451</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09618713864622357</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1379952077070065</v>
+        <v>0.08020126372705871</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09580716884566386</v>
+        <v>0.09645932316276228</v>
       </c>
       <c r="N187" t="n">
-        <v>0.03546979129376845</v>
+        <v>0.1200795527646134</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09758955161968919</v>
+        <v>0.09654389323123191</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03544692312984739</v>
+        <v>0.03750768794790568</v>
       </c>
       <c r="G188" t="n">
+        <v>0.05833494209701634</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.03264649301430647</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09838946597722763</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.07929534553450571</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09697555781545492</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1377169414569546</v>
+        <v>0.07914475335068685</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09659247350833323</v>
+        <v>0.09724997335262098</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03544692312984739</v>
+        <v>0.1184608779611033</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09838946597722763</v>
+        <v>0.09733523661837316</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03492739986148578</v>
+        <v>0.03693805562018011</v>
       </c>
       <c r="G189" t="n">
+        <v>0.05833467356855233</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.03265493172070247</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09918938033476606</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.07905863191731557</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09776397698468625</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1360401414286392</v>
+        <v>0.0785843891723372</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09737777817100261</v>
+        <v>0.09804062354247969</v>
       </c>
       <c r="N189" t="n">
-        <v>0.03492739986148578</v>
+        <v>0.1183210084954271</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09918938033476606</v>
+        <v>0.0981265800055144</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03490890097088527</v>
+        <v>0.03638658131714258</v>
       </c>
       <c r="G190" t="n">
+        <v>0.05833440504008831</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.03257241551974166</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.0999892946923045</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.07775062734376784</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.0985523961539176</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1360673801402476</v>
+        <v>0.07792021655764791</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09816308283367198</v>
+        <v>0.0988312737323384</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03490890097088527</v>
+        <v>0.1165659117457703</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0999892946923045</v>
+        <v>0.09891792339265565</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03448169261654535</v>
+        <v>0.03584310110644905</v>
       </c>
       <c r="G191" t="n">
+        <v>0.0583341365116243</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.03219956429067317</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1007892090498429</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.0775753706176559</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09934081532314894</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.1351012301099671</v>
+        <v>0.07765228087225703</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09894838749634137</v>
+        <v>0.09962192392219711</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03448169261654535</v>
+        <v>0.1159015550903186</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1007892090498429</v>
+        <v>0.0997092667797969</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03414594689553345</v>
+        <v>0.03530628142248494</v>
       </c>
       <c r="G192" t="n">
+        <v>0.05833386798316027</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.03223699791274612</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1015891234073814</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.0762369005427731</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.1001292344923803</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.133344263855985</v>
+        <v>0.07758062748180264</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09973369215901073</v>
+        <v>0.1004125741120558</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03414594689553345</v>
+        <v>0.1156339059072579</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1015891234073814</v>
+        <v>0.1005006101669381</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03420286084035654</v>
+        <v>0.03477655477305634</v>
       </c>
       <c r="G193" t="n">
+        <v>0.05833359945469626</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.0320816721755869</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1023890377649198</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.07583925592291274</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1009176536616116</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1316990538964888</v>
+        <v>0.07669443275856072</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1005189968216801</v>
+        <v>0.1012032243019145</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03420286084035654</v>
+        <v>0.1157351616596656</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1023890377649198</v>
+        <v>0.1012919535540794</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03365363148352153</v>
+        <v>0.034254353665899</v>
       </c>
       <c r="G194" t="n">
+        <v>0.05833333092623225</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.03182928848901669</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1031889521224582</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.07448647556186816</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1017060728308429</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1316681727496657</v>
+        <v>0.07568110977180989</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1013043014843495</v>
+        <v>0.1019938744917732</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03365363148352153</v>
+        <v>0.1146635654874015</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1031889521224582</v>
+        <v>0.1020832969412206</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03349945585753542</v>
+        <v>0.03374011060877227</v>
       </c>
       <c r="G195" t="n">
+        <v>0.05833306239776823</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.03177974933553993</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1039888664799967</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.07428259826343267</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1024944920000743</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1300541929337031</v>
+        <v>0.07574247887975469</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1020896061470189</v>
+        <v>0.1027845246816319</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03349945585753542</v>
+        <v>0.1135175789594736</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1039888664799967</v>
+        <v>0.1028746403283619</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03344153099490507</v>
+        <v>0.03323425810941362</v>
       </c>
       <c r="G196" t="n">
+        <v>0.05833279386930421</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.03133296770010342</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1047887808375351</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.07433166283139961</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1032829111693056</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.1290596869667883</v>
+        <v>0.07498040856388488</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1028749108096882</v>
+        <v>0.1035751748714906</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03344153099490507</v>
+        <v>0.1136958153954818</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1047887808375351</v>
+        <v>0.1036659837155031</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0330810539281375</v>
+        <v>0.03273722867562641</v>
       </c>
       <c r="G197" t="n">
+        <v>0.05833252534084019</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.03108885656765388</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1055886951950736</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.07323770806956234</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.104071330338537</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.1285872273671087</v>
+        <v>0.07399676730569027</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1036602154723576</v>
+        <v>0.1043658250613493</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0330810539281375</v>
+        <v>0.1123968881150255</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1055886951950736</v>
+        <v>0.1044573271026444</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03281922168973961</v>
+        <v>0.03224945481514778</v>
       </c>
       <c r="G198" t="n">
+        <v>0.05833225681237617</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.03134732892313807</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.106388609552612</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.07340477278171414</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1048597495077683</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1280371923969507</v>
+        <v>0.07309342358666057</v>
       </c>
       <c r="M198" t="n">
-        <v>0.104445520135027</v>
+        <v>0.1051564752512081</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03281922168973961</v>
+        <v>0.111819410437704</v>
       </c>
       <c r="O198" t="n">
-        <v>0.106388609552612</v>
+        <v>0.1052486704897856</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03275723131221833</v>
+        <v>0.031771369035737</v>
       </c>
       <c r="G199" t="n">
+        <v>0.05833198828391216</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.0311082977515028</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1071885239101504</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.07223689577164838</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1056481686769997</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.1273865471874994</v>
+        <v>0.07217224588828558</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1052308247976964</v>
+        <v>0.1059471254410668</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03275723131221833</v>
+        <v>0.1124619956831174</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1071885239101504</v>
+        <v>0.1060400138769269</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03249627982808063</v>
+        <v>0.0313034038451333</v>
       </c>
       <c r="G200" t="n">
+        <v>0.05833171975544813</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03107167603769478</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1079884382676889</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.07183811584315836</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.106436587846231</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1272293427276882</v>
+        <v>0.07213510269205514</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1060161294603658</v>
+        <v>0.1067377756309255</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03249627982808063</v>
+        <v>0.1116232571708649</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1079884382676889</v>
+        <v>0.1068313572640681</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03183756426983345</v>
+        <v>0.03084599175113671</v>
       </c>
       <c r="G201" t="n">
+        <v>0.05833145122698412</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.03093737676666086</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1087883526252273</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.07161247180003741</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1072250070154624</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1258666587878465</v>
+        <v>0.07148386247945901</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1068014341230351</v>
+        <v>0.1075284258207842</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03183756426983345</v>
+        <v>0.1114018082205461</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1087883526252273</v>
+        <v>0.1076227006512093</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03178228166998368</v>
+        <v>0.03039956526148596</v>
       </c>
       <c r="G202" t="n">
+        <v>0.05833118269852011</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03080531292334773</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1095882669827657</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.07235173999487243</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1080134261846937</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.1245995751383044</v>
+        <v>0.06992039373198689</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1075867387857045</v>
+        <v>0.1083190760106429</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03178228166998368</v>
+        <v>0.1100962621517608</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1095882669827657</v>
+        <v>0.1084140440383506</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03163162906103834</v>
+        <v>0.02996455688394035</v>
       </c>
       <c r="G203" t="n">
+        <v>0.05833091417005609</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.03037539749270216</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1103881813403041</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.07190920126265254</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.108801845353925</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.1246291715493915</v>
+        <v>0.06924656493112863</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1083720434483739</v>
+        <v>0.1091097262005016</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03163162906103834</v>
+        <v>0.1107052322841083</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1103881813403041</v>
+        <v>0.1092053874254918</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0310868034755043</v>
+        <v>0.02954139912624107</v>
       </c>
       <c r="G204" t="n">
+        <v>0.05833064564159206</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.03024754345967094</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1111880956978426</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.07107893461361078</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1095902645231564</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.1237565277914375</v>
+        <v>0.06876424455837402</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1091573481110432</v>
+        <v>0.1099003763903603</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0310868034755043</v>
+        <v>0.1105273319371883</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1111880956978426</v>
+        <v>0.1099967308126331</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03084900194588854</v>
+        <v>0.02913052449618427</v>
       </c>
       <c r="G205" t="n">
+        <v>0.05833037711312805</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.03002166380920084</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.111988010055381</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.07105988344392938</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1103786836923877</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.1213827236347721</v>
+        <v>0.06787530109521275</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1099426527737126</v>
+        <v>0.110691026580219</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03084900194588854</v>
+        <v>0.1093611744306002</v>
       </c>
       <c r="O205" t="n">
-        <v>0.111988010055381</v>
+        <v>0.1107880741997743</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03061942150469797</v>
+        <v>0.02873236550151059</v>
       </c>
       <c r="G206" t="n">
+        <v>0.05833010858466404</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02999767152623858</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1127879244129195</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.07115099114979079</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1111671028616191</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.120508838849725</v>
+        <v>0.06678160302313471</v>
       </c>
       <c r="M206" t="n">
-        <v>0.110727957436382</v>
+        <v>0.1114816767700777</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03061942150469797</v>
+        <v>0.109605373083944</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1127879244129195</v>
+        <v>0.1115794175869156</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03079925918443957</v>
+        <v>0.02834735464997934</v>
       </c>
       <c r="G207" t="n">
+        <v>0.05832984005620002</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02997547959573099</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1135878387704579</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.07095120112737716</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1119555220308504</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.121135953206626</v>
+        <v>0.06598501882362967</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1115132620990514</v>
+        <v>0.1122723269599364</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03079925918443957</v>
+        <v>0.1086585412168187</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1135878387704579</v>
+        <v>0.1123707609740568</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03028971201762025</v>
+        <v>0.02797592444933399</v>
       </c>
       <c r="G208" t="n">
+        <v>0.058329571527736</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02975500100262478</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1143877531279963</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.07075945677287088</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1127439412000817</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.1202651464758048</v>
+        <v>0.06598741697818727</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1122985667617207</v>
+        <v>0.1130629771497951</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03028971201762025</v>
+        <v>0.1095192921488243</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1143877531279963</v>
+        <v>0.1131621043611981</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03009197703674697</v>
+        <v>0.02761850740736616</v>
       </c>
       <c r="G209" t="n">
+        <v>0.05832930299927198</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.02963614873186675</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1151876674855348</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.07117470148245419</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1135323603693131</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.118197498427591</v>
+        <v>0.06489066596829743</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1130838714243901</v>
+        <v>0.1138536273396538</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03009197703674697</v>
+        <v>0.1085862391995602</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1151876674855348</v>
+        <v>0.1139534477483393</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02990725127432667</v>
+        <v>0.02727553603181875</v>
       </c>
       <c r="G210" t="n">
+        <v>0.05832903447080797</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02971883576840362</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1159875818430732</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.07119587865230947</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1143207795385444</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.1175340888323144</v>
+        <v>0.06389663427544989</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1138691760870595</v>
+        <v>0.1146442775295125</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02990725127432667</v>
+        <v>0.1074579956886259</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1159875818430732</v>
+        <v>0.1147447911354806</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02973673176286626</v>
+        <v>0.02694744283045104</v>
       </c>
       <c r="G211" t="n">
+        <v>0.05832876594234395</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02940297509718222</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1167874962006117</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.07112193167861897</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1151091987077758</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.1161759974603048</v>
+        <v>0.06380719038113442</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1146544807497289</v>
+        <v>0.1154349277193712</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02973673176286626</v>
+        <v>0.1081331749356211</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1167874962006117</v>
+        <v>0.1155361345226218</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02958161553487272</v>
+        <v>0.02663466031100908</v>
       </c>
       <c r="G212" t="n">
+        <v>0.05832849741387993</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.02928847970314927</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1175874105581501</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.07065180395756498</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1158976178770071</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.1160243040818918</v>
+        <v>0.06282420276684081</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1154397854123983</v>
+        <v>0.1162255779092299</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02958161553487272</v>
+        <v>0.1079103902601454</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1175874105581501</v>
+        <v>0.116327477909763</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02944309962285296</v>
+        <v>0.02633762098127944</v>
       </c>
       <c r="G213" t="n">
+        <v>0.05832822888541591</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.02947526257125153</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1183873249156885</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.07108443888532984</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1166860370462384</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.1147800884674051</v>
+        <v>0.06124953991405876</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1162250900750676</v>
+        <v>0.1170162280990887</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02944309962285296</v>
+        <v>0.1069882549817982</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1183873249156885</v>
+        <v>0.1171188212969043</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02951751228177989</v>
+        <v>0.02605675734900748</v>
       </c>
       <c r="G214" t="n">
+        <v>0.0583279603569519</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02926323668643581</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.119187239273227</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.07081877985809584</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1174744562154698</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.1144444303871746</v>
+        <v>0.06088507030427817</v>
       </c>
       <c r="M214" t="n">
-        <v>0.117010394737737</v>
+        <v>0.1178068782889474</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02951751228177989</v>
+        <v>0.1061653824201793</v>
       </c>
       <c r="O214" t="n">
-        <v>0.119187239273227</v>
+        <v>0.1179101646840455</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02919304864558077</v>
+        <v>0.02605675734900748</v>
       </c>
       <c r="G215" t="n">
+        <v>0.0583279603569519</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02895231503364884</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1199871536307654</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.07085377027204534</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1182628753847011</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.1138184096115298</v>
+        <v>0.06053266241898875</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1177956994004064</v>
+        <v>0.1185975284788061</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02919304864558077</v>
+        <v>0.1063403858948879</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1199871536307654</v>
+        <v>0.1187015080711868</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02936918054043886</v>
+        <v>0.02541230417123302</v>
       </c>
       <c r="G216" t="n">
+        <v>0.05823750742807712</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02894241059783736</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1207870679883038</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.07108835352336051</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1190512945539325</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.1121031059108005</v>
+        <v>0.05989418473968028</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1185810040630758</v>
+        <v>0.1193881786686648</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02936918054043886</v>
+        <v>0.1053118787255239</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1207870679883038</v>
+        <v>0.119492851458328</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02884598709841377</v>
+        <v>0.02477477042528502</v>
       </c>
       <c r="G217" t="n">
+        <v>0.05814705449920235</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.0290334363639482</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1215869823458423</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.07052147300822376</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1198397137231638</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.1112995990553164</v>
+        <v>0.05847150574784254</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1193663087257451</v>
+        <v>0.1201788288585235</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02884598709841377</v>
+        <v>0.1054784742316868</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1215869823458423</v>
+        <v>0.1202841948454693</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02902354745156509</v>
+        <v>0.02414443270276243</v>
       </c>
       <c r="G218" t="n">
+        <v>0.05805660157032758</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02872530531692806</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1223868967033807</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.07005207212281736</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1206281328923951</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.1110089688154073</v>
+        <v>0.05846649392496539</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1201516133884145</v>
+        <v>0.1209694790483822</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02902354745156509</v>
+        <v>0.1057387857329761</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1223868967033807</v>
+        <v>0.1210755382326105</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02870194073195245</v>
+        <v>0.02352156759526437</v>
       </c>
       <c r="G219" t="n">
+        <v>0.05796614864145282</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02861793044172375</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1231868110609192</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.06997909426332358</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1214165520616265</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.1109322949614029</v>
+        <v>0.05718101775253845</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1209369180510839</v>
+        <v>0.1217601292382409</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02870194073195245</v>
+        <v>0.1043914265489915</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1231868110609192</v>
+        <v>0.1218668816197518</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02868124607163537</v>
+        <v>0.02290645169438965</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05787569571257804</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02851122472328202</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1239867254184576</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.06980148282592483</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1222049712308578</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.1091706572636329</v>
+        <v>0.05641694571205161</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1217222227137533</v>
+        <v>0.1225507794280996</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02868124607163537</v>
+        <v>0.1055350099993324</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1239867254184576</v>
+        <v>0.122658225006893</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02866154260267352</v>
+        <v>0.02229936159173736</v>
       </c>
       <c r="G221" t="n">
+        <v>0.05778524278370327</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02830510114654966</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.124786639775996</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.07041818120680329</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1229933904000892</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.1089251354924269</v>
+        <v>0.0563761462849946</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1225075273764226</v>
+        <v>0.1233414296179583</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02866154260267352</v>
+        <v>0.1035681494035984</v>
       </c>
       <c r="O221" t="n">
-        <v>0.124786639775996</v>
+        <v>0.1234495683940343</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02854290945712647</v>
+        <v>0.02170057387890648</v>
       </c>
       <c r="G222" t="n">
+        <v>0.0576947898548285</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02849947269647338</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1255865541335345</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.07062813280214134</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1237818095693205</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.1080968094181147</v>
+        <v>0.05516048795285725</v>
       </c>
       <c r="M222" t="n">
-        <v>0.123292832039092</v>
+        <v>0.124132079807817</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02854290945712647</v>
+        <v>0.1046894580813891</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1255865541335345</v>
+        <v>0.1242409117811755</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02842542576705377</v>
+        <v>0.02111036514749603</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05760433692595372</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.028394252358</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1263864684910729</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.0705302810081212</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1245702287385518</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.1075867588110261</v>
+        <v>0.0547718391971293</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1240781367017614</v>
+        <v>0.1249227299976757</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02842542576705377</v>
+        <v>0.1043975493523042</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1263864684910729</v>
+        <v>0.1250322551683168</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02840917066451508</v>
+        <v>0.02052901198910498</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05751388399707895</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02788935311607622</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1271863828486113</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.06962356922092527</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1253586479077832</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.1070960634414907</v>
+        <v>0.05401206849930054</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1248634413644308</v>
+        <v>0.1257133801875344</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02840917066451508</v>
+        <v>0.103691036535943</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1271863828486113</v>
+        <v>0.125823598555458</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02799422328156996</v>
+        <v>0.01995679099533235</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05742343106820418</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02778468795564888</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1279862972061498</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.06990694083673576</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1261470670770145</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.1054246656900929</v>
+        <v>0.05348304434086074</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1256487460271002</v>
+        <v>0.1265040303773931</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02799422328156996</v>
+        <v>0.1032685329519053</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1279862972061498</v>
+        <v>0.1266149419425993</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.027980662750278</v>
+        <v>0.01939397875777719</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05733297813932942</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02768016986166469</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1287862115636882</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.07017933925173511</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1269354862462459</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.1047605654894026</v>
+        <v>0.05288663520329964</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1264340506897695</v>
+        <v>0.1272946805672518</v>
       </c>
       <c r="N226" t="n">
-        <v>0.027980662750278</v>
+        <v>0.1025286519197906</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1287862115636882</v>
+        <v>0.1274062853297405</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02776856820269882</v>
+        <v>0.01884085186803836</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05724252521045464</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02797571181907044</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1295861259212266</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.06913966250567641</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1277239054154772</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.1046004097265794</v>
+        <v>0.05232470956810709</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1272193553524389</v>
+        <v>0.1280853307571106</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02776856820269882</v>
+        <v>0.1020700067591984</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1295861259212266</v>
+        <v>0.1281976287168817</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02755801877089199</v>
+        <v>0.01829768691771493</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05715207228157987</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02747122681281289</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1303860402787651</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.06968676261005707</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1285123245847085</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.1041443680183136</v>
+        <v>0.05269913591677286</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1280046600151083</v>
+        <v>0.1288759809469693</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02755801877089199</v>
+        <v>0.1017912107897283</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1303860402787651</v>
+        <v>0.128988972104023</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0278490935869171</v>
+        <v>0.0177647604984059</v>
       </c>
       <c r="G229" t="n">
+        <v>0.0570616193527051</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.0276666278278388</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1311859546363035</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.06962064461761561</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1293007437539399</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.1027926099812959</v>
+        <v>0.05251178273078672</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1287899646777776</v>
+        <v>0.129666631136828</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0278490935869171</v>
+        <v>0.10059087733098</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1311859546363035</v>
+        <v>0.1297803154911642</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02734187178283377</v>
+        <v>0.01724234920171024</v>
       </c>
       <c r="G230" t="n">
+        <v>0.05697116642383032</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02766183313340076</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1319858689938419</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.06954153268656293</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1300891629231712</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.1026453052322167</v>
+        <v>0.05186425159784239</v>
       </c>
       <c r="M230" t="n">
-        <v>0.129575269340447</v>
+        <v>0.1304572813266867</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02734187178283377</v>
+        <v>0.1007676556118572</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1319858689938419</v>
+        <v>0.1305716588783055</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02733643249070158</v>
+        <v>0.016730729619227</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05688071349495555</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02715730577321829</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1327857833513804</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.06934965097510995</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1308775820924026</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.1012026233877666</v>
+        <v>0.05173316857890381</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1303605740031164</v>
+        <v>0.1312479315165454</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02733643249070158</v>
+        <v>0.1007247764222978</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1327857833513804</v>
+        <v>0.1313630022654467</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02713285484258014</v>
+        <v>0.01623017834255512</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05679026056608077</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.0273533926958507</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1335856977089188</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.06904522364146756</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1316660012616339</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.1016647340646361</v>
+        <v>0.05060290482956245</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1311458786657858</v>
+        <v>0.1320385817064041</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02713285484258014</v>
+        <v>0.1000652620041221</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1335856977089188</v>
+        <v>0.132154345652588</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.027031217970529</v>
+        <v>0.01574097196329369</v>
       </c>
       <c r="G233" t="n">
+        <v>0.05669980763720601</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02695010032334362</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1343856120664572</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.06872847484384659</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1324544204308652</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.1000318068795156</v>
+        <v>0.05017400507192873</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1319311833284551</v>
+        <v>0.1328292318962628</v>
       </c>
       <c r="N233" t="n">
-        <v>0.027031217970529</v>
+        <v>0.09898942453919402</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1343856120664572</v>
+        <v>0.1329456890397292</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0271316010066078</v>
+        <v>0.01526338707304158</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05660935470833123</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02714743507774267</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1351855264239957</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.06849962874045806</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1332428396000966</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.09990401144909583</v>
+        <v>0.05084701402811295</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1327164879911245</v>
+        <v>0.1336198820861215</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0271316010066078</v>
+        <v>0.09789757620937739</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1351855264239957</v>
+        <v>0.1337370324268704</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02703408308287612</v>
+        <v>0.01479770026339782</v>
       </c>
       <c r="G235" t="n">
+        <v>0.05651890177945646</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02714540338109346</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1359854407815341</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.06765890948951281</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1340312587693279</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.1002815173900672</v>
+        <v>0.04962247642022552</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1335017926537939</v>
+        <v>0.1344105322759802</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02703408308287612</v>
+        <v>0.09839002919653633</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1359854407815341</v>
+        <v>0.1345283758140117</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02683874333139358</v>
+        <v>0.01434418812596146</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05642844885058169</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.02674401165544163</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1367853551390726</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.06770654124922165</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1348196779385593</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.0993644943191202</v>
+        <v>0.04930093697037677</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1342870973164633</v>
+        <v>0.1352011824658389</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02683874333139358</v>
+        <v>0.09626709568253466</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1367853551390726</v>
+        <v>0.1353197192011529</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02674566088421972</v>
+        <v>0.01390312725233146</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05633799592170691</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.02674326632283273</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.137585269496611</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.06754274817779563</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1356080971077906</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.09905311185294552</v>
+        <v>0.04928294040067713</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1350724019791326</v>
+        <v>0.1359918326556976</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02674566088421972</v>
+        <v>0.09652908784923653</v>
       </c>
       <c r="O237" t="n">
-        <v>0.137585269496611</v>
+        <v>0.1361110625882942</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02665491487341416</v>
+        <v>0.0134747942341068</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05624754299283214</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02664317380531245</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1383851838541494</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.06726775443344554</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1363965162770219</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.09714753960823336</v>
+        <v>0.04856903143323682</v>
       </c>
       <c r="M238" t="n">
-        <v>0.135857706641802</v>
+        <v>0.1367824828455564</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02665491487341416</v>
+        <v>0.09547631787850569</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1383851838541494</v>
+        <v>0.1369024059754354</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02666658443103649</v>
+        <v>0.01305946566288652</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05615709006395737</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02664374052492637</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1391850982116879</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.0669817841743823</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1371849354462533</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.09634794720167456</v>
+        <v>0.04905975479016633</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1366430113044714</v>
+        <v>0.137573133035415</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02666658443103649</v>
+        <v>0.09490909795220615</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1391850982116879</v>
+        <v>0.1376937493625767</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02678074868914633</v>
+        <v>0.01265628871457374</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05606663713508261</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02634497290372011</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1399850125692263</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.06698506155881689</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1379733546154846</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.09665450424995953</v>
+        <v>0.04895565519357598</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1374283159671408</v>
+        <v>0.1383637832252738</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02678074868914633</v>
+        <v>0.095127740252202</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1399850125692263</v>
+        <v>0.1384850927497179</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02629748677980327</v>
+        <v>0.01225876348659193</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05597618420620783</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02644687736373925</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1407849269267647</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.06607781074496008</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.138761773784716</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.0964673803697787</v>
+        <v>0.04825727736557611</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1382136206298102</v>
+        <v>0.1391544334151325</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02629748677980327</v>
+        <v>0.09283255696035714</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1407849269267647</v>
+        <v>0.1392764361368592</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02661687783506686</v>
+        <v>0.01186603715484427</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05588573127733306</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02604946032702947</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1415848412843032</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.06606025589102282</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1395501929539473</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.09618674517782266</v>
+        <v>0.04756516602827712</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1389989252924795</v>
+        <v>0.1399450836049912</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02661687783506686</v>
+        <v>0.09292386025853533</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1415848412843032</v>
+        <v>0.1400677795240004</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02623900098699673</v>
+        <v>0.01147838631092973</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05579527834845829</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02625272821563633</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1423847556418416</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.06603262115521602</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1403386121231787</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.09461276829078197</v>
+        <v>0.04747986590378933</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1397842299551489</v>
+        <v>0.1407357337948499</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02623900098699673</v>
+        <v>0.09260196232860074</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1423847556418416</v>
+        <v>0.1408591229111416</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02626393536765245</v>
+        <v>0.01109608754644732</v>
       </c>
       <c r="G244" t="n">
+        <v>0.05570482541958351</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02605668745160547</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.14318466999938</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.06559513069575057</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.14112703129241</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.09444561932534712</v>
+        <v>0.04700192171422313</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1405695346178183</v>
+        <v>0.1415263839847086</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02626393536765245</v>
+        <v>0.09056717535241737</v>
       </c>
       <c r="O244" t="n">
-        <v>0.14318466999938</v>
+        <v>0.1416504662982829</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02619176010909367</v>
+        <v>0.01071941745299604</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05561437249070874</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.0257613444569825</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1439845843569185</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.06514800867083737</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1419154504616413</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.09278546789820863</v>
+        <v>0.04703187818168883</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1413548392804876</v>
+        <v>0.1423170341745673</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02619176010909367</v>
+        <v>0.08991981151184897</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1439845843569185</v>
+        <v>0.1424418096854241</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02602255434337994</v>
+        <v>0.01034865262217487</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05552391956183397</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02596670565381302</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1447844987144569</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.06429147923868728</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1427038696308727</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.09383248362605701</v>
+        <v>0.04727028002829686</v>
       </c>
       <c r="M246" t="n">
-        <v>0.142140143943157</v>
+        <v>0.143107684364426</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02602255434337994</v>
+        <v>0.08906018298875962</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1447844987144569</v>
+        <v>0.1432331530725654</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02625639720257085</v>
+        <v>0.009984069645582863</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05543346663295921</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02567277746414269</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1455844130719953</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.06392576655751125</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.143492288800104</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.09198683612558262</v>
+        <v>0.04611767197615754</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1429254486058264</v>
+        <v>0.1438983345542847</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02625639720257085</v>
+        <v>0.08918860196501327</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1455844130719953</v>
+        <v>0.1440244964597066</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.025893367818726</v>
+        <v>0.009625945114818915</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05534301370408443</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02577956631001706</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1463843274295338</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.06425109478552013</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1442807079693354</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.09224869501347638</v>
+        <v>0.04607459874738126</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1437107532684958</v>
+        <v>0.1446889847441434</v>
       </c>
       <c r="N248" t="n">
-        <v>0.025893367818726</v>
+        <v>0.08920538062247385</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1463843274295338</v>
+        <v>0.1448158398468479</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02603354532390499</v>
+        <v>0.009274555621482078</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05525256077520966</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.0253870786134818</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1471842417870722</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.06366768808092482</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1450691271385667</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.09161822990642848</v>
+        <v>0.04574160506407834</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1444960579311652</v>
+        <v>0.1454796349340021</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02603354532390499</v>
+        <v>0.08821083114300543</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1471842417870722</v>
+        <v>0.1456071832339891</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02607700885016742</v>
+        <v>0.008930177757171337</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05516210784633489</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02559532079658249</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1479841561446106</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.06337577060193628</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.145857546307798</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.09179561042112955</v>
+        <v>0.04591923564835917</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1452813625938345</v>
+        <v>0.1462702851238608</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02607700885016742</v>
+        <v>0.08660526570847182</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1479841561446106</v>
+        <v>0.1463985266211304</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02562383752957288</v>
+        <v>0.008593088113485706</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05507165491746011</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02560429928136478</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1487840705021491</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.06267556650676537</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1466459654770294</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.09128100617426999</v>
+        <v>0.04530803522233415</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1460666672565039</v>
+        <v>0.1470609353137195</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02562383752957288</v>
+        <v>0.08668899650073697</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1487840705021491</v>
+        <v>0.1471898700082716</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02597411049418097</v>
+        <v>0.008263563282024176</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05498120198858534</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02511402048987424</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1495839848596875</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.06206729995362295</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1474343846462607</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.09067458678254053</v>
+        <v>0.04570854850811354</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1468519719191733</v>
+        <v>0.1478515855035782</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02597411049418097</v>
+        <v>0.08426233570166497</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1495839848596875</v>
+        <v>0.1479812133954128</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02592790687605127</v>
+        <v>0.007941879854385728</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05489074905971057</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02542449084415652</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1503838992172259</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.06195119510071995</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1482228038154921</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.08967652186263159</v>
+        <v>0.0450213202278078</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1476372765818427</v>
+        <v>0.148642235693437</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02592790687605127</v>
+        <v>0.0837255954931197</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1503838992172259</v>
+        <v>0.1487725567825541</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02588530580724339</v>
+        <v>0.007628314422169422</v>
       </c>
       <c r="G254" t="n">
+        <v>0.0548002961308358</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02533571676625722</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1511838135747644</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.0615274761062673</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1490112229847234</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.08858698103123364</v>
+        <v>0.04534689510352721</v>
       </c>
       <c r="M254" t="n">
-        <v>0.148422581244512</v>
+        <v>0.1494328858832957</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02588530580724339</v>
+        <v>0.08347908805696508</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1511838135747644</v>
+        <v>0.1495639001696953</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02554638641981691</v>
+        <v>0.007323143576974146</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05470984320196103</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.02484770467822195</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1519837279323028</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.06149636712847584</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1497996421539547</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.0876061339050373</v>
+        <v>0.04538581785738219</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1492078859071814</v>
+        <v>0.1502235360731544</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02554638641981691</v>
+        <v>0.0834231255750652</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1519837279323028</v>
+        <v>0.1503552435568366</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02571122784583142</v>
+        <v>0.007026643910398957</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05461939027308625</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02476046100209633</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1527836422898413</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.06075809232555648</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1505880613231861</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.08883415010073298</v>
+        <v>0.04443863321148306</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1499931905698508</v>
+        <v>0.1510141862630131</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02571122784583142</v>
+        <v>0.0808580202292839</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1527836422898413</v>
+        <v>0.1511465869439778</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02557990921734654</v>
+        <v>0.006739092014042845</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05452893734421148</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.02477399215992598</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1535835566473797</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.06001287585572015</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1513764804924174</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.08687119923501124</v>
+        <v>0.04440588588794023</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1507784952325202</v>
+        <v>0.1518048364528718</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02557990921734654</v>
+        <v>0.07998408420148512</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1535835566473797</v>
+        <v>0.1519379303311191</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02545250966642185</v>
+        <v>0.006460764479504812</v>
       </c>
       <c r="G258" t="n">
+        <v>0.0544384844153367</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.02488830457375651</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1543834710049181</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.05936094187717766</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1521648996616488</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.08741745092456266</v>
+        <v>0.04468812060886398</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1515637998951896</v>
+        <v>0.1525954866427305</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02545250966642185</v>
+        <v>0.07930162967353288</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1543834710049181</v>
+        <v>0.1527292737182603</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02532910832511694</v>
+        <v>0.006191937898383848</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05434803148646193</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.02490340466563354</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1551833853624566</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.05960251454814006</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1529533188308801</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.08707307478607762</v>
+        <v>0.04418588209636479</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1523491045578589</v>
+        <v>0.1533861368325892</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02532910832511694</v>
+        <v>0.07831096882729116</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1551833853624566</v>
+        <v>0.1535206171054016</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02550978432549139</v>
+        <v>0.005932888862278954</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05425757855758716</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.02471929885760267</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.155983299719995</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.0592378180268181</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1537417380001115</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.08543824043624693</v>
+        <v>0.04389971507255286</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1531344092205283</v>
+        <v>0.1541767870224479</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02550978432549139</v>
+        <v>0.07741241384462388</v>
       </c>
       <c r="O260" t="n">
-        <v>0.155983299719995</v>
+        <v>0.1543119604925428</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02569461679960484</v>
+        <v>0.005683893962789149</v>
       </c>
       <c r="G261" t="n">
+        <v>0.0541671256287124</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.02443599357170954</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1567832140775335</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.0578670764714227</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1545301571693428</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.08491311749176078</v>
+        <v>0.04393016425953875</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1539197138831977</v>
+        <v>0.1549674372123066</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02569461679960484</v>
+        <v>0.07640627690739499</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1567832140775335</v>
+        <v>0.1551033038796841</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02568368487951685</v>
+        <v>0.005445229791513378</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05407667269983762</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.02465349522999974</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1575831284350719</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.05779051404016486</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1553185763385741</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.08609787556930987</v>
+        <v>0.04397777437943262</v>
       </c>
       <c r="M262" t="n">
-        <v>0.154705018545867</v>
+        <v>0.1557580874021653</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02568368487951685</v>
+        <v>0.07679287019746844</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1575831284350719</v>
+        <v>0.1558946472668253</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02567706769728702</v>
+        <v>0.005217172940050661</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05398621977096285</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.02417181025451889</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1583830427926103</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.05700835489125541</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1561069955078055</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.08469268428558463</v>
+        <v>0.04384309015434501</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1554903232085364</v>
+        <v>0.156548737592024</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02567706769728702</v>
+        <v>0.07487250589670819</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1583830427926103</v>
+        <v>0.1566859906539666</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02557484438497493</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05389576684208808</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.02419094506731263</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1591829571501488</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.05642082318290517</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1568954146770368</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.08379771325727564</v>
+        <v>0.04382665630638613</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1562756278712058</v>
+        <v>0.1573393877818827</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02557484438497493</v>
+        <v>0.0745454961869782</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1591829571501488</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1574773340411078</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05388260894735123</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005684993549035185</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05388287747581524</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006366425410926538</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05388314600427926</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007044258534014324</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05388341453274328</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.0077184558665504</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0538836830612073</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008388980356875186</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05388395158967132</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009055794953299529</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05388422011813533</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009718862604163082</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05388448864659936</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01037814625771895</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05388475717506337</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01103360886230694</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05388502570352739</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01168521336623791</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0538852942319914</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01233292271785079</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05388556276045543</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01297669986540008</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05388583128891944</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01361650775722489</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05388609981738345</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01425230934163607</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05388636834584747</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01488406756697189</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05388663687431149</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01551174538148819</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05388690540277551</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01613530573352343</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05388717393123952</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01675471157138844</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05388744245970354</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01736992584342077</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05388771098816756</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01798091149787771</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05388797951663158</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01858763148309697</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05388824804509559</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01919004874738942</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05388851657355961</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01978812623909184</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05388878510202363</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02038182690646301</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05388905363048765</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02097126499223727</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05388932215895166</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02155731121110961</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05388959068741567</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02214007980581355</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0538898592158797</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02271953372460921</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05389012774434371</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02329563591583288</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05389039627280773</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02386834932779542</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05389066480127175</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02443763690883236</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05389093332973577</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02500346160720501</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05389120185819979</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02556578637124907</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0538914703866638</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.0261245741492754</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05389173891512782</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0266797878896189</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05389200744359184</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02723139054054215</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05389227597205586</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.0277793450503802</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05389254450051987</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02832361436744392</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05389281302898388</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02886416144006761</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05389308155744791</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02940094921651505</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05389335008591192</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02993394064512071</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05389361861437594</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03046309867419544</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05389388714283996</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03098838625207288</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05389415567130398</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03150976632701813</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.053894424199768</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03202720184736503</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05389469272823201</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03254065576142437</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05389496125669602</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03305009101752912</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05389522978516005</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.0335554705639458</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05389549831362406</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.0340567573490075</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05389576684208808</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03405675734900748</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05388260894735123</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03459763521715811</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05397359893315403</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.0351338334167649</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05406458891895684</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03566524255373271</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05415557890475965</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.0361917532339666</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05424656889056245</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03671325606337165</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05433755887636527</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03722964164785272</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05442854886216807</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03774080059331486</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05451953884797087</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03824662350566317</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05461052883377369</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03874700099080247</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05470151881957649</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03924182365463785</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05479250880537929</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03973098210307439</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0548834987911821</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04021436694201694</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05497448877698491</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04069186877737063</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05506547876278772</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04116337821504033</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05515646874859052</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04162878586093111</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05524745873439332</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04208798232094801</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05533844872019614</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04254085820099592</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05542943870599894</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04298730410697993</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05552042869180174</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04342721064480506</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05561141867760456</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04386046842037618</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05570240866340736</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04428696803959839</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05579339864921016</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04470660010837671</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05588438863501297</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04511925523261605</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05597537862081578</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04552482401822146</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05606636860661858</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04592364376365256</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05615735859242139</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.0463182852301418</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05624834857822419</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.0467090857161488</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.056339338564027</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04709593582757861</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05643032854982982</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04747872617033613</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05652131853563262</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04785734735032639</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05661230852143542</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04823168997345449</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05670329850723823</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04860164464562526</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05679428849304104</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04896710197274383</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05688527847884384</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04932795256071519</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05697626846464665</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04968408701544424</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05706725845044945</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05003539594283606</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05715824843625226</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05038176994879566</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05724923842205507</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05072309963922798</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05734022840785787</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05105927562003806</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05743121839366067</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05139018849713092</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05752220837946349</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05171572887641147</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05761319836526629</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05203578736378485</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05770418835106911</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05235025456515589</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05779517833687191</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0526590210864297</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05788616832267471</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05296197753351128</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05797715830847752</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05325901451230559</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05806814829428033</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05355002262871764</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05815913828008313</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05383489248865243</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05825012826588594</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05411351469801495</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05834111825168874</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.05074234313200997</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05834111825168874</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05422218911376572</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05996773693173642</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05432269032852166</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06159435561178409</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05441533785964139</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06322097429183175</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05450045122448356</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06484759297187943</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05457834994040682</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.0664742116519271</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05464935352476977</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06810083033197477</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05471378149493102</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06972744901202244</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05477195336824925</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07135406769207012</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05482418866208305</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07298068637211778</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05487080689379108</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07460730505216545</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05491212758073195</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07623392373221312</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05494847024026428</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.0778605424122608</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05498015438974675</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07948716109230847</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05500749954653796</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08111377977235613</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.0550308252279965</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08274039845240382</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05505045095148105</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08436701713245148</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05506669623435025</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08599363581249916</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05507988059396268</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08762025449254682</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05509032354767701</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.0892468731725945</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05509834461285185</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09087349185264217</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05510426330684584</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09250011053268985</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05510839914701761</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.0941267292127375</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05511107165072579</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09575334789278518</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.055112600335329</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09737996657283285</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05511330471818589</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09900658525288053</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05511350431665506</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1006332039329282</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05510760589427019</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1022598226129759</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05504740320959724</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1038864412930235</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05492556701243477</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1055130599730712</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05474624288422084</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1071396786531189</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05451357640639348</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1087662973331666</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05423171316039077</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1103929160132142</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05390479872765075</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1120195346932619</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05353697868961146</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1136461533733096</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05313239862771096</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1152727720533572</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.0526952041233873</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1168993907334049</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05222954075807854</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1185260094134526</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05173955411322272</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1201526280935002</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05122938977025789</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1217792467735479</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05070319331062209</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1234058654535956</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05016511031575339</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1250324841336433</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04961928636708987</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1266591028136909</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04906986704606953</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1282857214937386</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04852099793413044</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1299123401737863</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04797682461271065</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.131538958853834</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04744149266324822</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1331655775338816</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04691914766718119</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1347921962139293</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04641393520594761</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.136418814893977</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04593000086098553</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1380454335740246</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04547149021373302</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1396720522540723</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04502197312298085</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.14129867093412</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04453701972684886</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1429252896141676</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04401907656771264</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1445519082942153</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.0434726664858245</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.146178526974263</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04290231232143669</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1478051456543107</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04231253691480159</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04170786310617144</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.151058383014406</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04109281373579855</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1526850016944536</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.0404719116439352</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1543116203745013</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03984967967083368</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.155938239054549</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03923064065674632</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1575648577345967</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03861931744192541</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1591914764146443</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03802023286662322</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.160818095094692</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03743790977109206</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1624447137747397</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03687687099558422</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1640713324547874</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03634163938035199</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.165697951134835</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03583673776564769</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1673245698148827</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03536668899172357</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1689511884949304</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03493601589883197</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1705778071749781</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03454924132722519</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1722044258550257</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03421088811715547</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1738310445350734</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03392547910887517</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1754576632151211</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03369753714263654</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1770842818951687</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0335315850586919</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1787109005752164</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03343214569729352</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1803375192552641</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03340324895019725</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1819641379353118</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03340330519348909</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1835907566153594</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03340363341554994</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1852173752954071</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03340447765352389</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1868439939754548</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03340608194455508</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1884706126555024</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03340869032578761</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1900972313355501</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03341254683436562</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1917238500155978</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03341789550743324</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1933504686956455</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03342498038213457</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1949770873756931</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03343404549561374</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1966037060557408</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03344533488501487</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1982303247357885</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.0334590925874821</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1998569434158361</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03347556264015952</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2014835620958838</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03349498908019129</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2031101807759315</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.0335176159447215</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2047367994559791</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03354368727089428</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2063634181360268</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03357344709585375</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2079900368160745</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03360713945674404</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2096166554961222</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03364500839070927</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2112432741761699</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03368729793489356</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2128698928562175</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03373425212644103</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2144965115362652</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03378611500249581</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2161231302163129</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03384313060020201</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2177497488963605</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03390554295670375</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2193763675764082</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1090.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1090.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08674234313200997</v>
+        <v>0.06023405440940448</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03674234313200997</v>
+        <v>0.01023405440940448</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01837111825168876</v>
+        <v>0.007410419469998136</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001552220061905044</v>
+        <v>0.003152621997179271</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005893042247645327</v>
+        <v>0.001619460442146978</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00203471663750654</v>
+        <v>0.003561931768744593</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000799914357538436</v>
+        <v>0.001631344121891361</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005030740923825383</v>
+        <v>0.01275232057113954</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007906501898587072</v>
+        <v>0.001628130535164554</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.007134427590373416</v>
+        <v>0.01746253056577501</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007913433871412452</v>
+        <v>0.001636802118395622</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003081906369889975</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001178608449529065</v>
+        <v>0.002470139823332712</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004599914014287332</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001599828715076872</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01155084714802576</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001581300379717414</v>
+        <v>0.003045255993498577</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01500000000000001</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00143227424749164</v>
+        <v>0.003620471014492751</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004588590810605454</v>
+        <v>0.007374911673476724</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001767912674293598</v>
+        <v>0.004858381326440934</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.006764626020154513</v>
+        <v>0.01143188829062595</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002399743072615308</v>
+        <v>0.004894032365674083</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01594369134276052</v>
+        <v>0.03369736470503334</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002371950569576121</v>
+        <v>0.00488439160549366</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02230317090613465</v>
+        <v>0.04658895550662234</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002374030161423736</v>
+        <v>0.004910406355186865</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006071805270702162</v>
+        <v>0.00964401835874245</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002357216899058131</v>
+        <v>0.006477841768587912</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00899788654492021</v>
+        <v>0.01573323403536504</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003199657430153744</v>
+        <v>0.006525376487565445</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01999999999999999</v>
+        <v>0.04197680497811854</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00298595547587031</v>
+        <v>0.006512522140658215</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02702261946962148</v>
+        <v>0.05925396824342349</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003165373548564981</v>
+        <v>0.006547208473582487</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.009880559293330855</v>
+        <v>0.002470139823332712</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02274234313200997</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007531081636830785</v>
+        <v>0.01023405440940448</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.002946521123822664</v>
+        <v>0.007410419469998136</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01076872947839655</v>
+        <v>0.01913864058693368</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00399957178769218</v>
+        <v>0.008156720609456807</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02365537146137228</v>
+        <v>0.05013887629689598</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003953250949293535</v>
+        <v>0.008140652675822769</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03377814936571877</v>
+        <v>0.07093867286428124</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003956716935706227</v>
+        <v>0.008184010591978109</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.00896595179564199</v>
+        <v>0.01154754491971061</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003535825348587197</v>
+        <v>0.009716762652881869</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01264618871039566</v>
+        <v>0.02235597270649246</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004799486145230616</v>
+        <v>0.009775271739130427</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02716708458735759</v>
+        <v>0.05426850179754658</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004743901139152243</v>
+        <v>0.009135767980495731</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03808034492969581</v>
+        <v>0.07980212238732787</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004748060322847472</v>
+        <v>0.00982081271037373</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01037594763378646</v>
+        <v>0.01041159296763441</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00412512957335173</v>
+        <v>0.01133622309502885</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01419929813072969</v>
+        <v>0.02427938419134357</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005599400502769051</v>
+        <v>0.01141940885323953</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03047303814400479</v>
+        <v>0.06088162635952854</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00553455132901095</v>
+        <v>0.01139691374615188</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04353979049682222</v>
+        <v>0.08618103088860068</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005539403709988716</v>
+        <v>0.01086141304347825</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01176060103791489</v>
+        <v>0.01122611308443158</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004714433798116262</v>
+        <v>0.01295568353717582</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01569709162921072</v>
+        <v>0.02636196150160584</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006399314860307488</v>
+        <v>0.01305075297513089</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03268959514974273</v>
+        <v>0.06582914204865253</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006325201518869657</v>
+        <v>0.01302504428131643</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04896707040236736</v>
+        <v>0.09486906719295879</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006330747097129961</v>
+        <v>0.01309441694716497</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01311944389467793</v>
+        <v>0.0119898207790043</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005303738022880794</v>
+        <v>0.0145751439793228</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.017</v>
+        <v>0.02812022249502076</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007385760869565218</v>
+        <v>0.01468209709702225</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0355331186230001</v>
+        <v>0.06999525782793811</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007115851708728364</v>
+        <v>0.01465317481648098</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05387276898160059</v>
+        <v>0.1028581599094091</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007122090484271207</v>
+        <v>0.0147312190655606</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01445200809072627</v>
+        <v>0.01370143156025472</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.005893042247645327</v>
+        <v>0.01619460442146978</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01756709314633532</v>
+        <v>0.02965367856857264</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00799914357538436</v>
+        <v>0.01631344121891361</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03871997158220578</v>
+        <v>0.07337563993424348</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007906501898587071</v>
+        <v>0.01628130535164554</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05836747056979158</v>
+        <v>0.1088526149857154</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007913433871412454</v>
+        <v>0.01636802118395622</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01575782551271059</v>
+        <v>0.01435966093708501</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00648234647240986</v>
+        <v>0.01781406486361676</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01821515267121492</v>
+        <v>0.03136184111924586</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008799057932922795</v>
+        <v>0.01794478534080497</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04046651704578846</v>
+        <v>0.07796595460442685</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008697152088445778</v>
+        <v>0.01790943588681009</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06296175950220956</v>
+        <v>0.1157201358913654</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008704777258553698</v>
+        <v>0.01800482330235184</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01703642804728156</v>
+        <v>0.01396322441839735</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007071650697174393</v>
+        <v>0.01943352530576374</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01867587535001042</v>
+        <v>0.03294422154402477</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009598972290461232</v>
+        <v>0.01957612946269633</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0428891180321769</v>
+        <v>0.08126186807534633</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009487802278304485</v>
+        <v>0.01953756642197464</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06536622011412407</v>
+        <v>0.1221284260958467</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009496120645694944</v>
+        <v>0.01964162542074746</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01828734758108987</v>
+        <v>0.01451083751309391</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007660954921938926</v>
+        <v>0.02105298574791071</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01886685535073752</v>
+        <v>0.03440033123989372</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01039888664799967</v>
+        <v>0.0212074735845877</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0455041375597999</v>
+        <v>0.08425904658386019</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01027845246816319</v>
+        <v>0.0211656969571392</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0703914367408045</v>
+        <v>0.1283451890686464</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01028746403283619</v>
+        <v>0.02127842753914308</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01951011600078618</v>
+        <v>0.01600121573007684</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00825025914670346</v>
+        <v>0.02267244619005769</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0196056868414119</v>
+        <v>0.03562968160383707</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0111988010055381</v>
+        <v>0.02283881770647906</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04812793864708625</v>
+        <v>0.08755315636682659</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0110691026580219</v>
+        <v>0.02279382749230375</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0740479937175203</v>
+        <v>0.1324381282792522</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01107880741997743</v>
+        <v>0.0229152296575387</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02070426519302121</v>
+        <v>0.01743307457824832</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008839563371467992</v>
+        <v>0.02429190663220467</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01990996399004914</v>
+        <v>0.03663178403283919</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01199871536307654</v>
+        <v>0.02447016182837042</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0496768843124647</v>
+        <v>0.08993986366110368</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01185975284788061</v>
+        <v>0.02442195802746831</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07754647537954085</v>
+        <v>0.1385749471971516</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01187015080711868</v>
+        <v>0.02455203177593433</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02186932704444558</v>
+        <v>0.01580512956651053</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009428867596232524</v>
+        <v>0.02591136707435165</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02039728096466495</v>
+        <v>0.0378061499238844</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01279862972061498</v>
+        <v>0.02610150595026178</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05166733757436395</v>
+        <v>0.09191483470354975</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01265040303773931</v>
+        <v>0.02605008856263286</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0815974660621358</v>
+        <v>0.1418233492918321</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01266149419425992</v>
+        <v>0.02618883389432995</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02274234313200997</v>
+        <v>0.01611609620376561</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009880559293330855</v>
+        <v>0.02753082751649863</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02078523193327496</v>
+        <v>0.03855229067395706</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01359854407815341</v>
+        <v>0.02773285007215314</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05426850179754658</v>
+        <v>0.09367373573102283</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01350361084247184</v>
+        <v>0.02767821909779741</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08618103088860068</v>
+        <v>0.1460510380327812</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01371498568489158</v>
+        <v>0.02782563601272557</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02412219549959394</v>
+        <v>0.01637021735532215</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01060747604576159</v>
+        <v>0.0291502879586456</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02099141106389484</v>
+        <v>0.03916971768004156</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01439845843569185</v>
+        <v>0.0293641941940445</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0555558656537822</v>
+        <v>0.09521223298038123</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01423170341745673</v>
+        <v>0.02930634963296196</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08833159141405916</v>
+        <v>0.1484257168894864</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01424418096854241</v>
+        <v>0.02946243813112119</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02522329105475303</v>
+        <v>0.01660921265575131</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01119678027052612</v>
+        <v>0.03076974840079258</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02153341252454019</v>
+        <v>0.03955873173116176</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01519837279323028</v>
+        <v>0.03099553831593586</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05771567295709201</v>
+        <v>0.09705908943999</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01502235360731544</v>
+        <v>0.03093448016812652</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09136468640483808</v>
+        <v>0.151815089331435</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01503552435568366</v>
+        <v>0.03109924024951681</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02630692930960782</v>
+        <v>0.01784068490345535</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01178608449529065</v>
+        <v>0.03238920884293956</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02235597270649246</v>
+        <v>0.04048917664360416</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01618783023692942</v>
+        <v>0.03262688243782723</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05969130062565356</v>
+        <v>0.098631790195429</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01581300379717414</v>
+        <v>0.03256261070329108</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09351315848878577</v>
+        <v>0.1536652778261653</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01582686774282491</v>
+        <v>0.03273604236791244</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02737148320309769</v>
+        <v>0.01906308395133532</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01237538872005519</v>
+        <v>0.03400866928508654</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02258682704417456</v>
+        <v>0.04060402287469646</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01679820150830716</v>
+        <v>0.03425822655971859</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06097881447456924</v>
+        <v>0.09986382352393905</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01660365398703285</v>
+        <v>0.03419074123845563</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09797110842630474</v>
+        <v>0.1562942596429132</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01661821112996615</v>
+        <v>0.03437284448630806</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02841532567416208</v>
+        <v>0.01727485965229225</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01296469294481972</v>
+        <v>0.03562812972723352</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02309410091430852</v>
+        <v>0.04119980908272808</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01759811586584559</v>
+        <v>0.03588957068160994</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0630742803189413</v>
+        <v>0.100746836672227</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01739430417689156</v>
+        <v>0.03581887177362018</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1000326369777974</v>
+        <v>0.1575572733138642</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0174095545171074</v>
+        <v>0.03600964660470368</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02943682966174033</v>
+        <v>0.01847446185922721</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01355399716958425</v>
+        <v>0.03724759016938049</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02404606128189894</v>
+        <v>0.04177307392598838</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01839803022338403</v>
+        <v>0.03752091480350131</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06587376397387218</v>
+        <v>0.1022724768869995</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01818495436675027</v>
+        <v>0.03744700230878473</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1040918449036664</v>
+        <v>0.1595408411826903</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01820089790424864</v>
+        <v>0.0376464487230993</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03043436810477185</v>
+        <v>0.01766034042504126</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01414330139434879</v>
+        <v>0.03886705061152747</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02453872858378472</v>
+        <v>0.04232035606276678</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01919794458092246</v>
+        <v>0.03915225892539267</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0673733312544641</v>
+        <v>0.1027323914149634</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01897560455660897</v>
+        <v>0.03907513284394928</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1061428329643139</v>
+        <v>0.1612314855930632</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01899224129138989</v>
+        <v>0.03928325084149492</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03140631394219602</v>
+        <v>0.01983094520263542</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01473260561911332</v>
+        <v>0.04048651105367446</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02546812325680482</v>
+        <v>0.0425381941513527</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0199978589384609</v>
+        <v>0.04078360304728403</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06906904797581942</v>
+        <v>0.1033182275028255</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01976625474646768</v>
+        <v>0.04070326337911384</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1096797019201428</v>
+        <v>0.1629157288886549</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01978358467853113</v>
+        <v>0.04092005295989055</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03235104011295224</v>
+        <v>0.01998472604491076</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01532190984387785</v>
+        <v>0.04210597149582142</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02613026573779816</v>
+        <v>0.04292312685003548</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02079777329599933</v>
+        <v>0.0424149471691754</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07145697995304051</v>
+        <v>0.1045216323972925</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02055690493632639</v>
+        <v>0.0423313939142784</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1125965525315552</v>
+        <v>0.1648800934131371</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02057492806567238</v>
+        <v>0.04255685507828617</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03326691955597991</v>
+        <v>0.01912013280476834</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01591121406864239</v>
+        <v>0.04372543193796841</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02672117646360365</v>
+        <v>0.04347169281710458</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02159768765353777</v>
+        <v>0.04404629129106676</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07323319300122969</v>
+        <v>0.1050342533450708</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02134755512618509</v>
+        <v>0.04395952444944295</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1174874855589538</v>
+        <v>0.1671111015101819</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02136627145281362</v>
+        <v>0.04419365719668179</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03415232521021841</v>
+        <v>0.01823561533510919</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01650051829340692</v>
+        <v>0.04534489238011539</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02783687587106022</v>
+        <v>0.04388043071084939</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02239760201107621</v>
+        <v>0.04567763541295811</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07489375293548928</v>
+        <v>0.1063477375928677</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0221382053160438</v>
+        <v>0.0455876549846075</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1203466017627411</v>
+        <v>0.1684952755234611</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02215761483995487</v>
+        <v>0.04583045931507741</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03500563001460712</v>
+        <v>0.01832962348883438</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01708982251817145</v>
+        <v>0.04696435282226236</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02837338439700686</v>
+        <v>0.04384587918955928</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02319751636861464</v>
+        <v>0.04730897953484948</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07723472557092156</v>
+        <v>0.1067537323873897</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02292885550590251</v>
+        <v>0.04721578551977205</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1237680019033196</v>
+        <v>0.1683191377966465</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02294895822709611</v>
+        <v>0.04746726143347303</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03582520690808545</v>
+        <v>0.02040060711884495</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01767912674293598</v>
+        <v>0.04858381326440934</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02952672247828241</v>
+        <v>0.04416457691152365</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02399743072615308</v>
+        <v>0.04894032365674084</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07915217672262895</v>
+        <v>0.1069438849753436</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02371950569576121</v>
+        <v>0.04884391605493661</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1251457867410917</v>
+        <v>0.16896921067341</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02374030161423736</v>
+        <v>0.04910406355186865</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03674234313200997</v>
+        <v>0.02046810881880896</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01837111825168876</v>
+        <v>0.05020327370655632</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02999291055172586</v>
+        <v>0.04413306253503192</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02479734508369151</v>
+        <v>0.0505716677786322</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0812421722057137</v>
+        <v>0.107309842603436</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02451015588561992</v>
+        <v>0.05047204659010116</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1287740570364598</v>
+        <v>0.1700320164974234</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0245316450013786</v>
+        <v>0.05074086567026428</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0373715285552641</v>
+        <v>0.01946730021932643</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01885773519246505</v>
+        <v>0.05182273414870329</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0312679690541761</v>
+        <v>0.04424787471837352</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02559725944122995</v>
+        <v>0.05220301190052356</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08250077783527815</v>
+        <v>0.1085370035950932</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02530080607547863</v>
+        <v>0.05210017712526572</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1311469135498265</v>
+        <v>0.1713940776123588</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02532298838851985</v>
+        <v>0.0523776677886599</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03813664960839111</v>
+        <v>0.01946420507768194</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01944703941722958</v>
+        <v>0.05344219459085028</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03194791842247209</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02639717379876839</v>
+        <v>0.05383435602241492</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08472405942642466</v>
+        <v>0.1075357619668637</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02609145626533733</v>
+        <v>0.05372830766043028</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1349584570415944</v>
+        <v>0.1723620617772014</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02611433177566109</v>
+        <v>0.05401446990705552</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03890150919485165</v>
+        <v>0.02044757444476583</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02003634364199411</v>
+        <v>0.05506165503299725</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03282877909345273</v>
+        <v>0.04440747605795871</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02719708815630683</v>
+        <v>0.05546570014430627</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08670808279425557</v>
+        <v>0.1078095197814296</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02688210645519604</v>
+        <v>0.05535643819559483</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1371027882721658</v>
+        <v>0.1706620550896824</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02690567516280233</v>
+        <v>0.05565127202545114</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03966215101517018</v>
+        <v>0.01841863390889034</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02062564786675864</v>
+        <v>0.05668111547514423</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03360657150395699</v>
+        <v>0.0444767163522751</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02799700251384526</v>
+        <v>0.05709704426619764</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08884891375387322</v>
+        <v>0.1074128025927786</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02767275664505475</v>
+        <v>0.05698456873075938</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1399740080019432</v>
+        <v>0.1718049675662798</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02769701854994358</v>
+        <v>0.05728807414384676</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04041461876987115</v>
+        <v>0.0203782004422804</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02121495209152318</v>
+        <v>0.05830057591729121</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03437731609082377</v>
+        <v>0.04461830153316833</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0287969168713837</v>
+        <v>0.058728388388089</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09004261812037986</v>
+        <v>0.1079506425917701</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02846340683491346</v>
+        <v>0.05861269926592393</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1437662169913292</v>
+        <v>0.1707366687018569</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02848836193708483</v>
+        <v>0.05892487626224238</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04115495615947905</v>
+        <v>0.0203270910171609</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02180425631628771</v>
+        <v>0.05992003635943818</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03563703329089199</v>
+        <v>0.04453405582753946</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02959683122892213</v>
+        <v>0.06035973250998036</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09208526170887787</v>
+        <v>0.1073274419202699</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02925405702477216</v>
+        <v>0.06024082980108849</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1460735160007263</v>
+        <v>0.1705642650187795</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02927970532422607</v>
+        <v>0.06056167838063801</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04187920688451831</v>
+        <v>0.01826612260575674</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02239356054105224</v>
+        <v>0.06153949680158517</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03648174354100059</v>
+        <v>0.04442580346228953</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03039674558646057</v>
+        <v>0.06199107663187173</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0930729103344696</v>
+        <v>0.1076476027201433</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03004470721463088</v>
+        <v>0.06186896033625305</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1489900057905368</v>
+        <v>0.1714948596306065</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03007104871136732</v>
+        <v>0.06219848049903363</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04258341464551338</v>
+        <v>0.01919611218029286</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02298286476581678</v>
+        <v>0.06315895724373215</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03690746727798852</v>
+        <v>0.04399536866431958</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03119665994399901</v>
+        <v>0.06362242075376309</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09430162981225731</v>
+        <v>0.1064155271332561</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03083535740448958</v>
+        <v>0.0634970908714176</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1502097871211633</v>
+        <v>0.1693355556508969</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03086239209850856</v>
+        <v>0.06383528261742925</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04326362314298871</v>
+        <v>0.01911787671299415</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02357216899058131</v>
+        <v>0.06477841768587912</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03771022493869468</v>
+        <v>0.04384457566053067</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03199657430153744</v>
+        <v>0.06525376487565446</v>
       </c>
       <c r="L105" t="n">
-        <v>0.09666748595734342</v>
+        <v>0.1061356173014738</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03162600759434828</v>
+        <v>0.06512522140658215</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1537269607530083</v>
+        <v>0.1702934561932096</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03165373548564981</v>
+        <v>0.06547208473582487</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04391587607746877</v>
+        <v>0.01903223317608552</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02416147321534584</v>
+        <v>0.0663978781280261</v>
       </c>
       <c r="J106" t="n">
-        <v>0.038886036959958</v>
+        <v>0.04357524867782385</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03279648865907588</v>
+        <v>0.06688510899754581</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09716654458483021</v>
+        <v>0.1056122753666621</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03241665778420699</v>
+        <v>0.0667533519417467</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1552356274464742</v>
+        <v>0.1688756643711036</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03244507887279106</v>
+        <v>0.06710888685422049</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04453621714947803</v>
+        <v>0.0189399985417919</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02475077744011038</v>
+        <v>0.06801733857017307</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03933092377861742</v>
+        <v>0.04338921194310014</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03359640301661431</v>
+        <v>0.06851645311943717</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09909487150982002</v>
+        <v>0.1060499034706864</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0332073079740657</v>
+        <v>0.06838148247691125</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1579298879619637</v>
+        <v>0.1674892832981381</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0332364222599323</v>
+        <v>0.06874568897261611</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04512069005954093</v>
+        <v>0.01984198978233818</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02534008166487491</v>
+        <v>0.06963679901232006</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03994090583151187</v>
+        <v>0.04318828968326061</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03439631737415275</v>
+        <v>0.07014779724132854</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09984853254741516</v>
+        <v>0.1056529037554125</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03399795816392441</v>
+        <v>0.07000961301207581</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1596038430598791</v>
+        <v>0.1684414160878718</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03402776564707354</v>
+        <v>0.07038249109101173</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04566533850818191</v>
+        <v>0.01773902386994926</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02592938588963944</v>
+        <v>0.07125625945446704</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04071200355548028</v>
+        <v>0.0430743061252063</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03519623173169118</v>
+        <v>0.07177914136321989</v>
       </c>
       <c r="L109" t="n">
-        <v>0.101723593512718</v>
+        <v>0.1042256783627059</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03478860835378311</v>
+        <v>0.07163774354724035</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1617515935006228</v>
+        <v>0.1670391658538639</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03481910903421479</v>
+        <v>0.07201929320940736</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04616620619592546</v>
+        <v>0.01763191777685008</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02651869011440397</v>
+        <v>0.07287571989661401</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04124023738736156</v>
+        <v>0.04314908549583826</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03599614608922962</v>
+        <v>0.07341048548511125</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1027161202208308</v>
+        <v>0.1038726294344322</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03557925854364182</v>
+        <v>0.07326587408240492</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1620672400445976</v>
+        <v>0.1655896357096732</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03561045242135603</v>
+        <v>0.07365609532780297</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04661933682329598</v>
+        <v>0.01852148847526554</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02710799433916851</v>
+        <v>0.07449518033876099</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04222162776399466</v>
+        <v>0.04291445202205754</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03679606044676806</v>
+        <v>0.07504182960700262</v>
       </c>
       <c r="L111" t="n">
-        <v>0.103022178486856</v>
+        <v>0.1031981591124569</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03636990873350053</v>
+        <v>0.07489400461756947</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1640448834522056</v>
+        <v>0.1657999287688589</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03640179580849728</v>
+        <v>0.0752928974461986</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04702077409081798</v>
+        <v>0.01740855293742053</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02769729856393304</v>
+        <v>0.07611464078090796</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04235219512221849</v>
+        <v>0.04227222993076518</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03759597480430649</v>
+        <v>0.07667317372889397</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1044378341258957</v>
+        <v>0.1026066695386457</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03716055892335924</v>
+        <v>0.07652213515273402</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1652786244838496</v>
+        <v>0.1646771481449797</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03719313919563853</v>
+        <v>0.07692969956459422</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04736656169901589</v>
+        <v>0.01829392813553998</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02828660278869757</v>
+        <v>0.07773410122305495</v>
       </c>
       <c r="J113" t="n">
-        <v>0.043127959898872</v>
+        <v>0.04212424344886224</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03839588916184493</v>
+        <v>0.07830451785078534</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1051591529530526</v>
+        <v>0.1028025628548642</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03795120911321794</v>
+        <v>0.07815026568789857</v>
       </c>
       <c r="N113" t="n">
-        <v>0.167562563899932</v>
+        <v>0.1627283969515949</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03798448258277978</v>
+        <v>0.07856650168298984</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04765376115941287</v>
+        <v>0.0191784310418488</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02887590701346211</v>
+        <v>0.07935356166520192</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04354494253079411</v>
+        <v>0.04197231680324974</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03919580351938336</v>
+        <v>0.0799358619726767</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1063822007834287</v>
+        <v>0.101590241202978</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03874185930307665</v>
+        <v>0.07977839622306312</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1681908024608552</v>
+        <v>0.1629607783022632</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03877582596992102</v>
+        <v>0.08020330380138546</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04791816154781546</v>
+        <v>0.01706287862857189</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02946521123822664</v>
+        <v>0.08097302210734891</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04389916345482374</v>
+        <v>0.04161827422082877</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0399957178769218</v>
+        <v>0.08156720609456806</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1070030434321265</v>
+        <v>0.1007741067248526</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03953250949293535</v>
+        <v>0.08140652675822768</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1685574409270217</v>
+        <v>0.1613813953105439</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03956716935706226</v>
+        <v>0.08184010591978109</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04817909939587567</v>
+        <v>0.01694808786793417</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03005451546299117</v>
+        <v>0.08259248254949587</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04388664310779983</v>
+        <v>0.04166393992850033</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04079563223446023</v>
+        <v>0.08319855021645943</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1072177467142482</v>
+        <v>0.1000585615623537</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04032315968279407</v>
+        <v>0.08303465729339224</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1703565800588342</v>
+        <v>0.1601973510899956</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0403585127442035</v>
+        <v>0.08347690803817671</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04843649722124847</v>
+        <v>0.01883375628544056</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03064381968775571</v>
+        <v>0.08421194299164285</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04410340192656131</v>
+        <v>0.04131113815316548</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04159554659199867</v>
+        <v>0.08482989433835079</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1079223764448963</v>
+        <v>0.09984800785734682</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04111380987265277</v>
+        <v>0.0846627878285568</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1705823206166949</v>
+        <v>0.1586157487541776</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04114985613134475</v>
+        <v>0.08511371015657233</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04869027754158886</v>
+        <v>0.01670610748147819</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03123312391252023</v>
+        <v>0.08583140343378984</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04444546034794711</v>
+        <v>0.04116019711501223</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04239546094953711</v>
+        <v>0.08646123846024215</v>
       </c>
       <c r="L118" t="n">
-        <v>0.107612998439173</v>
+        <v>0.09913041501226835</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04190446006251148</v>
+        <v>0.08629091836372134</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1703287633610064</v>
+        <v>0.1575436914166486</v>
       </c>
       <c r="O118" t="n">
-        <v>0.041941199518486</v>
+        <v>0.08675051227496795</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04894036287455185</v>
+        <v>0.01856289287534084</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03182242813728477</v>
+        <v>0.08745086387593681</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04471194541298491</v>
+        <v>0.04088183976646768</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04319537530707554</v>
+        <v>0.08809258258213351</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1085370035950932</v>
+        <v>0.09893034535642317</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04269511025237019</v>
+        <v>0.0879190488988859</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1723620617772014</v>
+        <v>0.1576359944332271</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04273254290562725</v>
+        <v>0.08838731439336357</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04918667573779241</v>
+        <v>0.01840677426019426</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0324117323620493</v>
+        <v>0.08907032431808379</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04450896524920465</v>
+        <v>0.04056860082911401</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04399528966461398</v>
+        <v>0.08972392670402488</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1084368577146033</v>
+        <v>0.09805003975896132</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0434857604422289</v>
+        <v>0.08954717943405045</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1723617790929644</v>
+        <v>0.1560867976961433</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04352388629276849</v>
+        <v>0.09002411651175919</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04942913864896556</v>
+        <v>0.01624041342920413</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03300103658681384</v>
+        <v>0.09068978476023078</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04459531591850317</v>
+        <v>0.03992642385225421</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04479520402215241</v>
+        <v>0.09135527082591623</v>
       </c>
       <c r="L121" t="n">
-        <v>0.107516334542372</v>
+        <v>0.09670384092429191</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0442764106320876</v>
+        <v>0.09117530996921501</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1720432906722175</v>
+        <v>0.1556141861298097</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04431522967990973</v>
+        <v>0.09166091863015481</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04966767412572629</v>
+        <v>0.01806647217553618</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03359034081157836</v>
+        <v>0.09230924520237775</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04467094887048893</v>
+        <v>0.03966125238519126</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04559511837969085</v>
+        <v>0.09298661494780759</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1080620248281726</v>
+        <v>0.09570609155682402</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04506706082194631</v>
+        <v>0.09280344050437957</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1708964410055553</v>
+        <v>0.1541413025272736</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04510657306705098</v>
+        <v>0.09329772074855044</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04990220468572956</v>
+        <v>0.01588761229235613</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0341796450363429</v>
+        <v>0.09392870564452473</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04453624034582677</v>
+        <v>0.03937902997722814</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04639503273722929</v>
+        <v>0.09461795906969896</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1074752160943268</v>
+        <v>0.09487113436096681</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04585771101180501</v>
+        <v>0.09443157103954411</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1716219762901416</v>
+        <v>0.1522912896815827</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04589791645419222</v>
+        <v>0.09493452286694606</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05013265284663043</v>
+        <v>0.01770649557282971</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03476894926110743</v>
+        <v>0.0955481660866717</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04429156658518162</v>
+        <v>0.03868570017766784</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04719494709476772</v>
+        <v>0.09624930319159032</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1078571958631557</v>
+        <v>0.09371331204112932</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04664836120166373</v>
+        <v>0.09605970157470867</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1721206427231405</v>
+        <v>0.1497872903857842</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04668925984133347</v>
+        <v>0.09657132498534168</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05035894112608386</v>
+        <v>0.0165257838101226</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03535825348587197</v>
+        <v>0.09716762652881868</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04423730382921827</v>
+        <v>0.03848720653581336</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04799486145230616</v>
+        <v>0.09788064731348167</v>
       </c>
       <c r="L125" t="n">
-        <v>0.107709251656981</v>
+        <v>0.0935469673017208</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04743901139152243</v>
+        <v>0.09768783210987322</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1709931865017158</v>
+        <v>0.1491524474329258</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04748060322847471</v>
+        <v>0.0982081271037373</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05058099204174483</v>
+        <v>0.01534813879740052</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03594755771063649</v>
+        <v>0.09878708697096567</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04447382831860164</v>
+        <v>0.03788949260096766</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04879477580984459</v>
+        <v>0.09951199143537304</v>
       </c>
       <c r="L126" t="n">
-        <v>0.106932670998124</v>
+        <v>0.09188644284715022</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04822966158138114</v>
+        <v>0.09931596264503777</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1712403538230315</v>
+        <v>0.1469099036160546</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04827194661561596</v>
+        <v>0.09984492922213294</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05079872811126837</v>
+        <v>0.01717622232782922</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03653686193540103</v>
+        <v>0.1004065474131126</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04430151629399656</v>
+        <v>0.03769850192243371</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04959469016738303</v>
+        <v>0.1011433355572644</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1077287414089061</v>
+        <v>0.09084608138182679</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04902031177123985</v>
+        <v>0.1009440931802023</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1707628908842517</v>
+        <v>0.1467828017282184</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0490632900027572</v>
+        <v>0.1014817313405286</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05101207185230944</v>
+        <v>0.01501238936833486</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03712616616016556</v>
+        <v>0.1020260078552596</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04422074399606794</v>
+        <v>0.03752017804951453</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05039460452492146</v>
+        <v>0.1027746796791558</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1068987504116488</v>
+        <v>0.09064022561015958</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04981096196109856</v>
+        <v>0.1025722237153669</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1714615438825401</v>
+        <v>0.1439942845624644</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04985463338989845</v>
+        <v>0.1031185334589242</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05122094578252306</v>
+        <v>0.01684108053707943</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0377154703849301</v>
+        <v>0.1036454682974066</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04423188766548063</v>
+        <v>0.03675970429853959</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05119451888245991</v>
+        <v>0.1044060238010471</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1070439855286734</v>
+        <v>0.08906932994374109</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05060161215095726</v>
+        <v>0.1042003542505314</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1706370590150609</v>
+        <v>0.1433674949118401</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05064597677703969</v>
+        <v>0.1047553355773198</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05142527241956421</v>
+        <v>0.01665510351284183</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03830477460969463</v>
+        <v>0.1052649287395536</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04383532354289947</v>
+        <v>0.03678227003245206</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05199443323999834</v>
+        <v>0.1060373679229385</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1064657342823014</v>
+        <v>0.08833213286321132</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05139226234081597</v>
+        <v>0.105828484785696</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1707901824789778</v>
+        <v>0.140863302300524</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05143732016418094</v>
+        <v>0.1063921376957154</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05162497428108791</v>
+        <v>0.01445826865331855</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03889407883445916</v>
+        <v>0.1068843891817006</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04403142786898935</v>
+        <v>0.03627246264036287</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05279434759753678</v>
+        <v>0.1076687120448298</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1057652841948543</v>
+        <v>0.08752209057718582</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05218291253067467</v>
+        <v>0.1074566153208606</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1696216604714549</v>
+        <v>0.1408301016868143</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05222866355132218</v>
+        <v>0.108028939814111</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05181997388474913</v>
+        <v>0.0152543863162061</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0394833830592237</v>
+        <v>0.1085038496238475</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04362057688441515</v>
+        <v>0.03593879031484042</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05359426195507521</v>
+        <v>0.1093000561667212</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1054439227886536</v>
+        <v>0.08685973467122809</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05297356272053338</v>
+        <v>0.1090847458560251</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1704322391896562</v>
+        <v>0.1376895939487053</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05302000693846343</v>
+        <v>0.1096657419325067</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05201019374820287</v>
+        <v>0.01404726685920096</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04007268728398822</v>
+        <v>0.1101233100659945</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04380314682984168</v>
+        <v>0.03548976124845307</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05439417631261365</v>
+        <v>0.1109314002886125</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1055029375860204</v>
+        <v>0.08566559673090143</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05376421291039208</v>
+        <v>0.1107128763911897</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1696226648307456</v>
+        <v>0.1370749080012241</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05381135032560467</v>
+        <v>0.1113025440509023</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05219555638910411</v>
+        <v>0.01584072063999965</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04066199150875276</v>
+        <v>0.1117427705081415</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04367951394593386</v>
+        <v>0.03463388363376925</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05519409067015207</v>
+        <v>0.1125627444105039</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1047436161092764</v>
+        <v>0.0847602083417692</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0545548631002508</v>
+        <v>0.1123410069263542</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1695936835918869</v>
+        <v>0.1342191727593979</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05460269371274592</v>
+        <v>0.1129393461692979</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0523759843251079</v>
+        <v>0.01363855801629863</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04125129573351729</v>
+        <v>0.1133622309502885</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04335005447335655</v>
+        <v>0.03427966566335731</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05599400502769052</v>
+        <v>0.1141940885323953</v>
       </c>
       <c r="L135" t="n">
-        <v>0.105267245880743</v>
+        <v>0.08366410108939482</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0553455132901095</v>
+        <v>0.1139691374615188</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1685460416702443</v>
+        <v>0.1327555171382538</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05539403709988716</v>
+        <v>0.1145761482876935</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05255140007386919</v>
+        <v>0.01344458934579444</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04184059995828183</v>
+        <v>0.1149816913924354</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04311514465277461</v>
+        <v>0.03373561552978568</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05679391938522895</v>
+        <v>0.1158254326542866</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1047751144227416</v>
+        <v>0.0817978065593416</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05613616347996821</v>
+        <v>0.1155972679966833</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1680804852629816</v>
+        <v>0.1319170700528188</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05618538048702841</v>
+        <v>0.1162129504060892</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05272172615304296</v>
+        <v>0.01326262498618355</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04242990418304635</v>
+        <v>0.1166011518345824</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04307516072485286</v>
+        <v>0.0336102414256227</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05759383374276739</v>
+        <v>0.117456776776178</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1036685092575935</v>
+        <v>0.0813818563371729</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05692681366982692</v>
+        <v>0.1172253985318479</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1682977605672628</v>
+        <v>0.1306369604181203</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05697672387416965</v>
+        <v>0.1178497525244848</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05288688508028425</v>
+        <v>0.01409647529516245</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04301920840781089</v>
+        <v>0.1182206122767294</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04283047893025625</v>
+        <v>0.03291205154343683</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05839374810030583</v>
+        <v>0.1190881208980694</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1032487179076204</v>
+        <v>0.0803367820084521</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05771746385968562</v>
+        <v>0.1188535290670124</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1678986137802518</v>
+        <v>0.1278483171491852</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0577680672613109</v>
+        <v>0.1194865546428804</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05304679937324804</v>
+        <v>0.01294995063042766</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04360851263257542</v>
+        <v>0.1198400727188764</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0426814755096496</v>
+        <v>0.0329495540757964</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05919366245784426</v>
+        <v>0.1207194650199607</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1033170278951435</v>
+        <v>0.07948311515874257</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05850811404954433</v>
+        <v>0.120481659602177</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1662837910991126</v>
+        <v>0.1259842691610407</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05855941064845215</v>
+        <v>0.121123356761276</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05320139154958931</v>
+        <v>0.01382686134967566</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04419781685733996</v>
+        <v>0.1214595331610234</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04252852670369778</v>
+        <v>0.03233125721526982</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0599935768153827</v>
+        <v>0.1223508091418521</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1026747267424844</v>
+        <v>0.07894138737360767</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05929876423940304</v>
+        <v>0.1221097901373415</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1664540387210091</v>
+        <v>0.126077945368714</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05935075403559339</v>
+        <v>0.1227601588796716</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05335058412696307</v>
+        <v>0.01273101781060294</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04478712108210449</v>
+        <v>0.1230789936031703</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04257200875306563</v>
+        <v>0.03196566915442547</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06079349117292113</v>
+        <v>0.1239821532637435</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1017231019719643</v>
+        <v>0.07783213023861077</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06008941442926175</v>
+        <v>0.1237379206725061</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1654101028431054</v>
+        <v>0.123762474687232</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06014209742273464</v>
+        <v>0.1243969609980673</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05349429962302432</v>
+        <v>0.01466623037090602</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04537642530686902</v>
+        <v>0.1246984540453173</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04221229789841807</v>
+        <v>0.03216129808583176</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06159340553045958</v>
+        <v>0.1256134973856348</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1019634411059048</v>
+        <v>0.07737587533931517</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06088006461912045</v>
+        <v>0.1253660512076706</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1665527296625652</v>
+        <v>0.1231709860316221</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06093344080987589</v>
+        <v>0.1260337631164629</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05363246055542804</v>
+        <v>0.01263630938828137</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04596572953163355</v>
+        <v>0.1263179144874643</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04204977038041993</v>
+        <v>0.03162665220205707</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06239331988799801</v>
+        <v>0.1272448415075262</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1011970316666274</v>
+        <v>0.07769315426128434</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06167071480897916</v>
+        <v>0.1269941817428352</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1645826653765527</v>
+        <v>0.1225366083169112</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06172478419701713</v>
+        <v>0.1276705652348585</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05376498944182923</v>
+        <v>0.01363615888439081</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04655503375639809</v>
+        <v>0.1279373749296113</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04218480243973607</v>
+        <v>0.0319702396956698</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06319323424553644</v>
+        <v>0.1288761856294175</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1011251611764533</v>
+        <v>0.07690403619113489</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06246136499883786</v>
+        <v>0.1286223122779997</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1654006561822317</v>
+        <v>0.1227924704581266</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06251612758415838</v>
+        <v>0.1293073673532541</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0538918087998829</v>
+        <v>0.01264298054085241</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04714433798116262</v>
+        <v>0.1295568353717582</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04191777031703139</v>
+        <v>0.03157345752396461</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06399314860307488</v>
+        <v>0.1305075297513089</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1000491171577041</v>
+        <v>0.07682147882875379</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06325201518869657</v>
+        <v>0.1302504428131643</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1650074482767662</v>
+        <v>0.1230435613123758</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06330747097129963</v>
+        <v>0.1309441694716497</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05401284114724401</v>
+        <v>0.01465512104940062</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04773364220592715</v>
+        <v>0.1311762958139052</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04164905025297073</v>
+        <v>0.03189002983268584</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06479306296061331</v>
+        <v>0.1321388738732003</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09977018713270119</v>
+        <v>0.07766838477497276</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06404266537855528</v>
+        <v>0.1318785733483288</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1639037878573202</v>
+        <v>0.1227890383437251</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06409881435844086</v>
+        <v>0.1325809715900454</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05412800900156758</v>
+        <v>0.01467230042633991</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04832294643069169</v>
+        <v>0.1327957562560522</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04137901848821898</v>
+        <v>0.0319183089210493</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06559297731815175</v>
+        <v>0.1337702179950916</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09958965862376595</v>
+        <v>0.07694324537636363</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06483331556841399</v>
+        <v>0.1335067038834934</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1630904211210575</v>
+        <v>0.1219809046816474</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06489015774558211</v>
+        <v>0.134217773708441</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05423723488050862</v>
+        <v>0.01469423868797472</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04891225065545621</v>
+        <v>0.1344152166981992</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04130805126344096</v>
+        <v>0.03165766961016435</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06639289167569018</v>
+        <v>0.135401562116983</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09940881915321986</v>
+        <v>0.07784455197949822</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0656239657582727</v>
+        <v>0.135134834418658</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1627680942651422</v>
+        <v>0.1219167260255343</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06568150113272335</v>
+        <v>0.1358545758268366</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05434044130172211</v>
+        <v>0.01272065585060952</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04950155488022075</v>
+        <v>0.1360346771403461</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0412365248193016</v>
+        <v>0.03170748672114031</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06719280603322862</v>
+        <v>0.1370329062388743</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09882895624338434</v>
+        <v>0.07787079593094826</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0664146159481314</v>
+        <v>0.1367629649538225</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1623375534867382</v>
+        <v>0.1229940680747774</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0664728445198646</v>
+        <v>0.1374913779452322</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05443755078286303</v>
+        <v>0.01275127193054876</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05009085910498529</v>
+        <v>0.1376541375824931</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04086481539646572</v>
+        <v>0.03216713507508651</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06799272039076705</v>
+        <v>0.1386642503607657</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09765135741658079</v>
+        <v>0.07792046857728563</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06720526613799011</v>
+        <v>0.1383910954889871</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1621995449830094</v>
+        <v>0.1230104965287682</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06726418790700583</v>
+        <v>0.1391281800636278</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05452848584158639</v>
+        <v>0.01278580694409688</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05068016332974982</v>
+        <v>0.1392735980246401</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04059329923559818</v>
+        <v>0.03193598949311231</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06879263474830549</v>
+        <v>0.1402955944826571</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09777731019513067</v>
+        <v>0.07799206126508212</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06799591632784882</v>
+        <v>0.1400192260241516</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1608548149511199</v>
+        <v>0.1224635770868986</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06805553129414708</v>
+        <v>0.1407649821820235</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05461316899554719</v>
+        <v>0.01382398090755834</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05126946755451435</v>
+        <v>0.1408930584667871</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04042235257736386</v>
+        <v>0.03221342479632704</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06959254910584393</v>
+        <v>0.1419269386045484</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09720810210135544</v>
+        <v>0.07748406534090951</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06878656651770752</v>
+        <v>0.1416473565593162</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1598041095882335</v>
+        <v>0.12385087544856</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06884687468128833</v>
+        <v>0.1424017843004191</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05469152276240041</v>
+        <v>0.0148655138372376</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05185877177927888</v>
+        <v>0.1425125189089341</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04025235166242765</v>
+        <v>0.03199881580584003</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07039246346338236</v>
+        <v>0.1435582827264398</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09644502065757649</v>
+        <v>0.07809497215133965</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06957721670756623</v>
+        <v>0.1432754870944807</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1608481750915142</v>
+        <v>0.123969957313144</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06963821806842958</v>
+        <v>0.1440385864188147</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05476346965980107</v>
+        <v>0.0129101257494391</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05244807600404341</v>
+        <v>0.144131979351081</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04008367273145438</v>
+        <v>0.03219153734276063</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0711923778209208</v>
+        <v>0.1451896268483312</v>
       </c>
       <c r="L154" t="n">
-        <v>0.09568935338611517</v>
+        <v>0.07812327304294431</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07036786689742494</v>
+        <v>0.1449036176296453</v>
       </c>
       <c r="N154" t="n">
-        <v>0.159487757658126</v>
+        <v>0.1244183883800424</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07042956145557082</v>
+        <v>0.1456753885372103</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05482893220540414</v>
+        <v>0.01495753666046731</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05303738022880795</v>
+        <v>0.145751439793228</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04001669202510896</v>
+        <v>0.03249096422819815</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07199229217845923</v>
+        <v>0.1468209709702225</v>
       </c>
       <c r="L155" t="n">
-        <v>0.09574238780929306</v>
+        <v>0.07906745936229531</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07115851708728364</v>
+        <v>0.1465317481648098</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1584236034852327</v>
+        <v>0.1253937343486466</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07122090484271207</v>
+        <v>0.1473121906556059</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05488783291686462</v>
+        <v>0.01401549864842114</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05362668445357249</v>
+        <v>0.147370900235375</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0400517857840562</v>
+        <v>0.03249647128326195</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07279220653599767</v>
+        <v>0.1484523150921139</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0948054114494315</v>
+        <v>0.07852602245596441</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07194916727714236</v>
+        <v>0.1481598786999744</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1585564587699985</v>
+        <v>0.1244935609183483</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07201224822985332</v>
+        <v>0.1489489927740016</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05494009431183754</v>
+        <v>0.01311678823653195</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05421598867833701</v>
+        <v>0.148990360677522</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03958933024896101</v>
+        <v>0.03284020337151825</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07359212089353612</v>
+        <v>0.1500836592140052</v>
       </c>
       <c r="L157" t="n">
-        <v>0.09437971182885194</v>
+        <v>0.07982411975387885</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07273981746700106</v>
+        <v>0.1497880092351389</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1584870697095871</v>
+        <v>0.1263533398239544</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07280359161699457</v>
+        <v>0.1505857948923972</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05498563890797785</v>
+        <v>0.01525765998252047</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05480529290310154</v>
+        <v>0.150609821119669</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03942469882578124</v>
+        <v>0.03288369873579307</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07439203525107455</v>
+        <v>0.1517150033358966</v>
       </c>
       <c r="L158" t="n">
-        <v>0.09435974223833735</v>
+        <v>0.08026031065572833</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07353046765685976</v>
+        <v>0.1514161397703035</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1563780790794276</v>
+        <v>0.1260622975880425</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0735949350041358</v>
+        <v>0.1522225970107928</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05502438922294055</v>
+        <v>0.01342966185438286</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05539459712786608</v>
+        <v>0.1522292815618159</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0394500286037309</v>
+        <v>0.03301077139723926</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07519194960861297</v>
+        <v>0.1533463474577879</v>
       </c>
       <c r="L159" t="n">
-        <v>0.09393472617188633</v>
+        <v>0.08088905609521593</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07432111784671848</v>
+        <v>0.153044270305468</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1555698589895125</v>
+        <v>0.1281215750674066</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07438627839127705</v>
+        <v>0.1538593991291884</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05505626777438065</v>
+        <v>0.01562434182011532</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05598390135263061</v>
+        <v>0.1538487420039629</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03926580709684963</v>
+        <v>0.03360254871407074</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07599186396615142</v>
+        <v>0.1549776915796793</v>
       </c>
       <c r="L160" t="n">
-        <v>0.09390454069995319</v>
+        <v>0.08226481346660924</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07511176803657718</v>
+        <v>0.1546724008406326</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1552673902700462</v>
+        <v>0.1294576866020731</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0751776217784183</v>
+        <v>0.1554962012475841</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05508119707995315</v>
+        <v>0.01383324784771403</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05657320557739515</v>
+        <v>0.1554682024461099</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03917265418438654</v>
+        <v>0.03384015804450147</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07679177832368986</v>
+        <v>0.1566090357015707</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09336923118817597</v>
+        <v>0.08234204016417598</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07590241822643588</v>
+        <v>0.1563005313757971</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1555766402992143</v>
+        <v>0.1306971465320691</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07596896516555955</v>
+        <v>0.1571330033659797</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05509909965731304</v>
+        <v>0.01504792790517517</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05716250980215967</v>
+        <v>0.1570876628882568</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03897118974559076</v>
+        <v>0.03450472674674539</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0775916926812283</v>
+        <v>0.158240379823462</v>
       </c>
       <c r="L162" t="n">
-        <v>0.09252884300219275</v>
+        <v>0.08437519358218387</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0766930684162946</v>
+        <v>0.1579286619109617</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1531035764552028</v>
+        <v>0.1323664691974212</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07676030855270079</v>
+        <v>0.1587698054843753</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0551098980241153</v>
+        <v>0.01525992996049491</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05775181402692421</v>
+        <v>0.1587071233304038</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03846203365971146</v>
+        <v>0.03487738217901648</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07839160703876673</v>
+        <v>0.1598717239453534</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09268342150764164</v>
+        <v>0.08561873111490051</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0774837186061533</v>
+        <v>0.1595567924461262</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1535541661161971</v>
+        <v>0.1349921689381563</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07755165193984204</v>
+        <v>0.1604066076027709</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05511351469801495</v>
+        <v>0.01646080198166944</v>
       </c>
       <c r="G164" t="n">
-        <v>0.05834111825168874</v>
+        <v>0.1603265837725508</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03834580580599777</v>
+        <v>0.03563925169952868</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07919152139630516</v>
+        <v>0.1615030680672448</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09133301207016067</v>
+        <v>0.0864271101565936</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07827436879601202</v>
+        <v>0.1611849229812908</v>
       </c>
       <c r="N164" t="n">
-        <v>0.151834376660383</v>
+        <v>0.1355007600943012</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07834299532698329</v>
+        <v>0.1620434097211666</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05511351469801495</v>
+        <v>0.01464209193669496</v>
       </c>
       <c r="G165" t="n">
-        <v>0.05834111825168874</v>
+        <v>0.1619460442146978</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03802312606369877</v>
+        <v>0.03577146266649595</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0799914357538436</v>
+        <v>0.1631344121891361</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09177766005538807</v>
+        <v>0.08775478810153084</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07906501898587071</v>
+        <v>0.1628130535164554</v>
       </c>
       <c r="N165" t="n">
-        <v>0.151250175465946</v>
+        <v>0.1384187570058827</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07913433871412452</v>
+        <v>0.1636802118395622</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05420500025697371</v>
+        <v>0.01479854185450673</v>
       </c>
       <c r="G166" t="n">
-        <v>0.05834084972322473</v>
+        <v>0.1635655046568448</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03799461431206368</v>
+        <v>0.03615514243813225</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08079135011138204</v>
+        <v>0.1647657563110275</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09081741082896172</v>
+        <v>0.08825622234397987</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07985566917572942</v>
+        <v>0.1644411840516199</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1496075299110721</v>
+        <v>0.1394726740129276</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07992568210126576</v>
+        <v>0.1653170139579578</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05330646223550656</v>
+        <v>0.01594722097305297</v>
       </c>
       <c r="G167" t="n">
-        <v>0.05834058119476072</v>
+        <v>0.1651849650989917</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03796089043034159</v>
+        <v>0.03639033501379688</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08159126446892047</v>
+        <v>0.1663971004329189</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09055230975651984</v>
+        <v>0.08895969900499764</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08064631936558814</v>
+        <v>0.1660693145867845</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1484124073739468</v>
+        <v>0.1398115186870694</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08071702548840701</v>
+        <v>0.1669538160763534</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05241833314133439</v>
+        <v>0.01609231230697297</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05834031266629669</v>
+        <v>0.1668044255411388</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03762257429778167</v>
+        <v>0.03671513823412845</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0823911788264589</v>
+        <v>0.1680284445548102</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08948240220370043</v>
+        <v>0.0895429029948383</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08143696955544684</v>
+        <v>0.167697445121949</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1462707752327558</v>
+        <v>0.1414780132916396</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08150836887554826</v>
+        <v>0.168590618194749</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05154104548229387</v>
+        <v>0.01523408398016066</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05834004413783268</v>
+        <v>0.1684238859832857</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03708028579363302</v>
+        <v>0.0371321642606401</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08319109318399734</v>
+        <v>0.1696597886767016</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08890773353614165</v>
+        <v>0.09010757612541456</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08222761974530554</v>
+        <v>0.1693255756571136</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1447886008656848</v>
+        <v>0.1422135800467066</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08229971226268951</v>
+        <v>0.1702274203131447</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05067503176610538</v>
+        <v>0.01537280411651001</v>
       </c>
       <c r="G170" t="n">
-        <v>0.05833977560936866</v>
+        <v>0.1700433464254327</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0369346447971448</v>
+        <v>0.03774201179033185</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08399100754153578</v>
+        <v>0.1712911327985929</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08932834911948151</v>
+        <v>0.09125516314525381</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08301826993516426</v>
+        <v>0.1709537061922781</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1432718516509195</v>
+        <v>0.1436205501385808</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08309105564983074</v>
+        <v>0.1718642224315403</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04982072450052827</v>
+        <v>0.01750874083991497</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05833950708090465</v>
+        <v>0.1716628068675797</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03668627118756615</v>
+        <v>0.0379452795202037</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08479092189907422</v>
+        <v>0.1729224769204843</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08874429431935818</v>
+        <v>0.09248710880288313</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08380892012502296</v>
+        <v>0.1725818367274427</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1420264949666457</v>
+        <v>0.1455012547535723</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08388239903697199</v>
+        <v>0.1735010245499359</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04897855619328548</v>
+        <v>0.01764216227426946</v>
       </c>
       <c r="G172" t="n">
-        <v>0.05833923855244062</v>
+        <v>0.1732822673097267</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03653578484414617</v>
+        <v>0.03834256614725572</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08559083625661264</v>
+        <v>0.1745538210423757</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08825561450140962</v>
+        <v>0.09260485784682984</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08459957031488168</v>
+        <v>0.1742099672626073</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1401584981910488</v>
+        <v>0.1468580250779917</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08467374242411324</v>
+        <v>0.1751378266683315</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0481489593522096</v>
+        <v>0.01777333654346747</v>
       </c>
       <c r="G173" t="n">
-        <v>0.05833897002397661</v>
+        <v>0.1749017277518736</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03618380564613406</v>
+        <v>0.03853447036848789</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08639075061415108</v>
+        <v>0.176185165164267</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08746235503127403</v>
+        <v>0.09320985502562104</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08539022050474038</v>
+        <v>0.1758380977977718</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1395738287023148</v>
+        <v>0.147393192298149</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08546508581125449</v>
+        <v>0.1767746287867271</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04733236648502306</v>
+        <v>0.01790253177140291</v>
       </c>
       <c r="G174" t="n">
-        <v>0.05833870149551259</v>
+        <v>0.1765211881940206</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03613095347277892</v>
+        <v>0.03882159088090026</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08719066497168952</v>
+        <v>0.1778165092861584</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08656456127458945</v>
+        <v>0.09430354508778407</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08618087069459908</v>
+        <v>0.1774662283329363</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1372784538786291</v>
+        <v>0.1481090876003546</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08625642919839573</v>
+        <v>0.1784114309051228</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04652921009948516</v>
+        <v>0.01803001608196976</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05833843296704858</v>
+        <v>0.1781406486361676</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03587784820332988</v>
+        <v>0.03910452638149284</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08799057932922796</v>
+        <v>0.1794478534080498</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08656227859699395</v>
+        <v>0.0944873727818461</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0869715208844578</v>
+        <v>0.1790943588681009</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1368783410981776</v>
+        <v>0.1504080421709189</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08704777258553698</v>
+        <v>0.1800482330235184</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04573992270332117</v>
+        <v>0.01715605759906195</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05833816443858455</v>
+        <v>0.1797601090783146</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0355251097170361</v>
+        <v>0.03908387556726566</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08879049368676639</v>
+        <v>0.1810791975299411</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08625555236412558</v>
+        <v>0.0952627828563343</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0877621710743165</v>
+        <v>0.1807224894032655</v>
       </c>
       <c r="N176" t="n">
-        <v>0.134479457739146</v>
+        <v>0.151892387196152</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08783911597267823</v>
+        <v>0.181685035141914</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04496493680435913</v>
+        <v>0.0172809561239481</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05833789591012054</v>
+        <v>0.1813795695204616</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03537335789314672</v>
+        <v>0.03946023713521868</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08959040804430482</v>
+        <v>0.1827105416518325</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08574442794162249</v>
+        <v>0.09563122005977598</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0885528212641752</v>
+        <v>0.18235061993843</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1338877711797198</v>
+        <v>0.1528644538623642</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08863045935981946</v>
+        <v>0.1833218372603096</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0442046849103237</v>
+        <v>0.01641084710384869</v>
       </c>
       <c r="G178" t="n">
-        <v>0.05833762738165652</v>
+        <v>0.1829990299626085</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03492321261091086</v>
+        <v>0.03993663577277574</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09039032240184326</v>
+        <v>0.1843418857737238</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08462895069512277</v>
+        <v>0.09700517327438776</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08934347145403392</v>
+        <v>0.1839787504735946</v>
       </c>
       <c r="N178" t="n">
-        <v>0.131609248798085</v>
+        <v>0.1534277237398764</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08942180274696071</v>
+        <v>0.1849586393787053</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04345959952897417</v>
+        <v>0.01754697728583876</v>
       </c>
       <c r="G179" t="n">
-        <v>0.05833735885319251</v>
+        <v>0.1846184904047555</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03497529374957765</v>
+        <v>0.04032875463255214</v>
       </c>
       <c r="K179" t="n">
-        <v>0.0911902367593817</v>
+        <v>0.1859732298956152</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08400916599026442</v>
+        <v>0.09741871155204296</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09013412164389262</v>
+        <v>0.1856068810087591</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1311498579724269</v>
+        <v>0.1539392134834605</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09021314613410196</v>
+        <v>0.1865954414971009</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04273011316803847</v>
+        <v>0.01668474077431797</v>
       </c>
       <c r="G180" t="n">
-        <v>0.05833709032472848</v>
+        <v>0.1862379508469025</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03453022118839626</v>
+        <v>0.04023086205539926</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09199015111692015</v>
+        <v>0.1876045740175065</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08398511919268559</v>
+        <v>0.09805223754781583</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09092477183375132</v>
+        <v>0.1872350115439237</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1281155660809315</v>
+        <v>0.1558008170782455</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09100448952124321</v>
+        <v>0.1882322436154965</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04201665833533941</v>
+        <v>0.01781953167368598</v>
       </c>
       <c r="G181" t="n">
-        <v>0.05833682179626447</v>
+        <v>0.1878574112890495</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03438861480661579</v>
+        <v>0.04073267348279554</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09279006547445857</v>
+        <v>0.1892359181393979</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08385685566802434</v>
+        <v>0.09888093303015266</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09171542202361002</v>
+        <v>0.1888631420790882</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1269123405017843</v>
+        <v>0.157272488855</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09179583290838444</v>
+        <v>0.1898690457338921</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04131966753860425</v>
+        <v>0.01794674408834246</v>
       </c>
       <c r="G182" t="n">
-        <v>0.05833655326780045</v>
+        <v>0.1894768717311964</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03425109448348543</v>
+        <v>0.04082390435621944</v>
       </c>
       <c r="K182" t="n">
-        <v>0.093589979831997</v>
+        <v>0.1908672622612892</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0832244207819188</v>
+        <v>0.1001799797674997</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09250607221346874</v>
+        <v>0.1904912726142528</v>
       </c>
       <c r="N182" t="n">
-        <v>0.125546148613171</v>
+        <v>0.1572141831444924</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09258717629552569</v>
+        <v>0.1915058478522877</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04063957328559226</v>
+        <v>0.01706177212268703</v>
       </c>
       <c r="G183" t="n">
-        <v>0.05833628473933644</v>
+        <v>0.1910963321733434</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03371828009825426</v>
+        <v>0.04109427011714945</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09438989418953544</v>
+        <v>0.1924986063831806</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08218785990000693</v>
+        <v>0.1001245595283031</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09329672240332745</v>
+        <v>0.1921194031494173</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1245229577932775</v>
+        <v>0.1579858542774913</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09337851968266694</v>
+        <v>0.1931426499706834</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03997680808403431</v>
+        <v>0.01716000988111939</v>
       </c>
       <c r="G184" t="n">
-        <v>0.05833601621087241</v>
+        <v>0.1927157926154904</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03369079153017142</v>
+        <v>0.04163348620706399</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09518980854707389</v>
+        <v>0.194129950505072</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08194721838792693</v>
+        <v>0.1011898540810091</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09408737259318616</v>
+        <v>0.1937475336845819</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1242487354202893</v>
+        <v>0.1605474565847652</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09416986306980818</v>
+        <v>0.194779452089079</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03933180444174743</v>
+        <v>0.01923685146803918</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0583357476824084</v>
+        <v>0.1943352530576374</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03316924865848611</v>
+        <v>0.04183126806744154</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09598972290461232</v>
+        <v>0.1957612946269633</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08080254161131681</v>
+        <v>0.1010510451940639</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09487802278304486</v>
+        <v>0.1953756642197464</v>
       </c>
       <c r="N185" t="n">
-        <v>0.122929448872392</v>
+        <v>0.1612589443970827</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09496120645694943</v>
+        <v>0.1964162542074746</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0387049948664617</v>
+        <v>0.01829097565923943</v>
       </c>
       <c r="G186" t="n">
-        <v>0.05833547915394438</v>
+        <v>0.1959547134997843</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03295427136244741</v>
+        <v>0.0419773311397606</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09678963726215074</v>
+        <v>0.1973926387488547</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08065387493581472</v>
+        <v>0.1021836336966595</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09566867297290357</v>
+        <v>0.197003794754911</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1207710655277715</v>
+        <v>0.1608802720452121</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09575254984409066</v>
+        <v>0.1980530563258702</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03809681186593641</v>
+        <v>0.01934050053583869</v>
       </c>
       <c r="G187" t="n">
-        <v>0.05833521062548037</v>
+        <v>0.1975741739419313</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03314647952130448</v>
+        <v>0.04208788019587259</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09758955161968919</v>
+        <v>0.1990239828707461</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08020126372705871</v>
+        <v>0.1020500229181717</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09645932316276228</v>
+        <v>0.1986319252900755</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1200795527646134</v>
+        <v>0.1619232449381754</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09654389323123191</v>
+        <v>0.1996898584442659</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03750768794790568</v>
+        <v>0.01738894382774226</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05833494209701634</v>
+        <v>0.1991936343840783</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03264649301430647</v>
+        <v>0.04199582021181153</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09838946597722763</v>
+        <v>0.2006553269926374</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07914475335068685</v>
+        <v>0.1022106526558086</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09724997335262098</v>
+        <v>0.2002600558252401</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1184608779611033</v>
+        <v>0.1629431061531595</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09733523661837316</v>
+        <v>0.2013266605626615</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03693805562018011</v>
+        <v>0.01943628858463109</v>
       </c>
       <c r="G189" t="n">
-        <v>0.05833467356855233</v>
+        <v>0.2008130948262253</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03265493172070247</v>
+        <v>0.04230134611866279</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09918938033476606</v>
+        <v>0.2022866711145288</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0785843891723372</v>
+        <v>0.1027654315751199</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09804062354247969</v>
+        <v>0.2018881863604046</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1183210084954271</v>
+        <v>0.1628536360840102</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0981265800055144</v>
+        <v>0.2029634626810571</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03638658131714258</v>
+        <v>0.01848251785618612</v>
       </c>
       <c r="G190" t="n">
-        <v>0.05833440504008831</v>
+        <v>0.2024325552683723</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03257241551974166</v>
+        <v>0.04220442006785941</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0999892946923045</v>
+        <v>0.2039180152364202</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07792021655764791</v>
+        <v>0.1025142683416549</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0988312737323384</v>
+        <v>0.2035163168955692</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1165659117457703</v>
+        <v>0.1622546873572458</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09891792339265565</v>
+        <v>0.2046002647994527</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03584310110644905</v>
+        <v>0.01852761469208827</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0583341365116243</v>
+        <v>0.2040520157105192</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03219956429067317</v>
+        <v>0.04260500421083425</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1007892090498429</v>
+        <v>0.2055493593583115</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07765228087225703</v>
+        <v>0.1027570716209634</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09962192392219711</v>
+        <v>0.2051444474307338</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1159015550903186</v>
+        <v>0.1628461125993846</v>
       </c>
       <c r="O191" t="n">
-        <v>0.0997092667797969</v>
+        <v>0.2062370669178483</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03530628142248494</v>
+        <v>0.01857156214201847</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05833386798316027</v>
+        <v>0.2056714761526662</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03223699791274612</v>
+        <v>0.04260306069902038</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1015891234073814</v>
+        <v>0.2071807034802029</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07758062748180264</v>
+        <v>0.1035937500785948</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1004125741120558</v>
+        <v>0.2067725779658983</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1156339059072579</v>
+        <v>0.1640277644369451</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1005006101669381</v>
+        <v>0.207873869036244</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03477655477305634</v>
+        <v>0.01861434325565767</v>
       </c>
       <c r="G193" t="n">
-        <v>0.05833359945469626</v>
+        <v>0.2072909365948132</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0320816721755869</v>
+        <v>0.04249855168385071</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1023890377649198</v>
+        <v>0.2088120476020942</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07669443275856072</v>
+        <v>0.1035242123800987</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1012032243019145</v>
+        <v>0.2084007085010629</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1157351616596656</v>
+        <v>0.1637994954964455</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1012919535540794</v>
+        <v>0.2095106711546396</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.034254353665899</v>
+        <v>0.0176559410826868</v>
       </c>
       <c r="G194" t="n">
-        <v>0.05833333092623225</v>
+        <v>0.2089103970369602</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03182928848901669</v>
+        <v>0.04289143931675822</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1031889521224582</v>
+        <v>0.2104433917239856</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07568110977180989</v>
+        <v>0.1041483671910248</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1019938744917732</v>
+        <v>0.2100288390362274</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1146635654874015</v>
+        <v>0.1635611584044043</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1020832969412206</v>
+        <v>0.2111474732730352</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03374011060877227</v>
+        <v>0.01869633867278681</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05833306239776823</v>
+        <v>0.2105298574791071</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03177974933553993</v>
+        <v>0.04268168574917588</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1039888664799967</v>
+        <v>0.2120747358458769</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07574247887975469</v>
+        <v>0.1034661231769224</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1027845246816319</v>
+        <v>0.211656969571392</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1135175789594736</v>
+        <v>0.1644126057873398</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1028746403283619</v>
+        <v>0.2127842753914308</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03323425810941362</v>
+        <v>0.0177355190756386</v>
       </c>
       <c r="G196" t="n">
-        <v>0.05833279386930421</v>
+        <v>0.2121493179212541</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03133296770010342</v>
+        <v>0.04276925313253663</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1047887808375351</v>
+        <v>0.2137060799677684</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07498040856388488</v>
+        <v>0.1035773890033412</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1035751748714906</v>
+        <v>0.2132851001065565</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1136958153954818</v>
+        <v>0.1647536902717704</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1036659837155031</v>
+        <v>0.2144210775098265</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03273722867562641</v>
+        <v>0.01977346534092314</v>
       </c>
       <c r="G197" t="n">
-        <v>0.05833252534084019</v>
+        <v>0.2137687783634011</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03108885656765388</v>
+        <v>0.04275410361827343</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1055886951950736</v>
+        <v>0.2153374240896597</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07399676730569027</v>
+        <v>0.1043820733358308</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1043658250613493</v>
+        <v>0.2149132306417211</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1123968881150255</v>
+        <v>0.1646842644842145</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1044573271026444</v>
+        <v>0.2160578796282221</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03224945481514778</v>
+        <v>0.01981016051832134</v>
       </c>
       <c r="G198" t="n">
-        <v>0.05833225681237617</v>
+        <v>0.2153882388055481</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03134732892313807</v>
+        <v>0.0430361993578193</v>
       </c>
       <c r="K198" t="n">
-        <v>0.106388609552612</v>
+        <v>0.2169687682115511</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07309342358666057</v>
+        <v>0.1043800848399407</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1051564752512081</v>
+        <v>0.2165413611768856</v>
       </c>
       <c r="N198" t="n">
-        <v>0.111819410437704</v>
+        <v>0.1651041810511903</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1052486704897856</v>
+        <v>0.2176946817466177</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.031771369035737</v>
+        <v>0.01784558765751414</v>
       </c>
       <c r="G199" t="n">
-        <v>0.05833198828391216</v>
+        <v>0.2170076992476951</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0311082977515028</v>
+        <v>0.04291550250260716</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1071885239101504</v>
+        <v>0.2186001123334424</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07217224588828558</v>
+        <v>0.1046713321812203</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1059471254410668</v>
+        <v>0.2181694917120502</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1124619956831174</v>
+        <v>0.1662132925992164</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1060400138769269</v>
+        <v>0.2193314838650133</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0313034038451333</v>
+        <v>0.01887972980818248</v>
       </c>
       <c r="G200" t="n">
-        <v>0.05833171975544813</v>
+        <v>0.218627159689842</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03107167603769478</v>
+        <v>0.04329197520406998</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1079884382676889</v>
+        <v>0.2202314564553338</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07213510269205514</v>
+        <v>0.1049557240252194</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1067377756309255</v>
+        <v>0.2197976222472148</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1116232571708649</v>
+        <v>0.166311451754811</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1068313572640681</v>
+        <v>0.2209682859834089</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03084599175113671</v>
+        <v>0.01891257002000729</v>
       </c>
       <c r="G201" t="n">
-        <v>0.05833145122698412</v>
+        <v>0.220246620131989</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03093737676666086</v>
+        <v>0.04346557961364071</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1087883526252273</v>
+        <v>0.2218628005772251</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07148386247945901</v>
+        <v>0.1051331690374874</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1075284258207842</v>
+        <v>0.2214257527823793</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1114018082205461</v>
+        <v>0.1673985111444926</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1076227006512093</v>
+        <v>0.2226050881018045</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03039956526148596</v>
+        <v>0.01794409134266951</v>
       </c>
       <c r="G202" t="n">
-        <v>0.05833118269852011</v>
+        <v>0.221866080574136</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03080531292334773</v>
+        <v>0.04313627788275237</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1095882669827657</v>
+        <v>0.2234941446991165</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06992039373198689</v>
+        <v>0.105003575883574</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1083190760106429</v>
+        <v>0.2230538833175439</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1100962621517608</v>
+        <v>0.1664743233947794</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1084140440383506</v>
+        <v>0.2242418902202002</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02996455688394035</v>
+        <v>0.01797427682585007</v>
       </c>
       <c r="G203" t="n">
-        <v>0.05833091417005609</v>
+        <v>0.223485541016283</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03037539749270216</v>
+        <v>0.04350403216283788</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1103881813403041</v>
+        <v>0.2251254888210079</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06924656493112863</v>
+        <v>0.1058668532290284</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1091097262005016</v>
+        <v>0.2246820138527084</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1107052322841083</v>
+        <v>0.16653874113219</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1092053874254918</v>
+        <v>0.2258786923385958</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02954139912624107</v>
+        <v>0.01900310951922991</v>
       </c>
       <c r="G204" t="n">
-        <v>0.05833064564159206</v>
+        <v>0.2251050014584299</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03024754345967094</v>
+        <v>0.04336880460533021</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1111880956978426</v>
+        <v>0.2267568329428992</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06876424455837402</v>
+        <v>0.1057229097394006</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1099003763903603</v>
+        <v>0.2263101443878729</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1105273319371883</v>
+        <v>0.1668916169832425</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1099967308126331</v>
+        <v>0.2275154944569914</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02913052449618427</v>
+        <v>0.02003057247248997</v>
       </c>
       <c r="G205" t="n">
-        <v>0.05833037711312805</v>
+        <v>0.2267244619005769</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03002166380920084</v>
+        <v>0.04343055736166233</v>
       </c>
       <c r="K205" t="n">
-        <v>0.111988010055381</v>
+        <v>0.2283881770647906</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06787530109521275</v>
+        <v>0.1056716540802398</v>
       </c>
       <c r="M205" t="n">
-        <v>0.110691026580219</v>
+        <v>0.2279382749230375</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1093611744306002</v>
+        <v>0.1681328035744554</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1107880741997743</v>
+        <v>0.229152296575387</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02873236550151059</v>
+        <v>0.02005664873531116</v>
       </c>
       <c r="G206" t="n">
-        <v>0.05833010858466404</v>
+        <v>0.2283439223427239</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02999767152623858</v>
+        <v>0.04358925258326721</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1127879244129195</v>
+        <v>0.2300195211866819</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06678160302313471</v>
+        <v>0.1053129949170958</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1114816767700777</v>
+        <v>0.2295664054582021</v>
       </c>
       <c r="N206" t="n">
-        <v>0.109605373083944</v>
+        <v>0.1684621535323471</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1115794175869156</v>
+        <v>0.2307890986937827</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02834735464997934</v>
+        <v>0.02008132135737443</v>
       </c>
       <c r="G207" t="n">
-        <v>0.05832984005620002</v>
+        <v>0.2299633827848709</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02997547959573099</v>
+        <v>0.0435448524215778</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1135878387704579</v>
+        <v>0.2316508653085733</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06598501882362967</v>
+        <v>0.1057468409155182</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1122723269599364</v>
+        <v>0.2311945359933666</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1086585412168187</v>
+        <v>0.1676795194834359</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1123707609740568</v>
+        <v>0.2324259008121783</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02797592444933399</v>
+        <v>0.02010457338836073</v>
       </c>
       <c r="G208" t="n">
-        <v>0.058329571527736</v>
+        <v>0.2315828432270179</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02975500100262478</v>
+        <v>0.04389731902802707</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1143877531279963</v>
+        <v>0.2332822094304647</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06598741697818727</v>
+        <v>0.1060731007410561</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1130629771497951</v>
+        <v>0.2328226665285312</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1095192921488243</v>
+        <v>0.1689847540542402</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1131621043611981</v>
+        <v>0.2340627029305739</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02761850740736616</v>
+        <v>0.02012638787795096</v>
       </c>
       <c r="G209" t="n">
-        <v>0.05832930299927198</v>
+        <v>0.2332023036691648</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02963614873186675</v>
+        <v>0.04364661455404802</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1151876674855348</v>
+        <v>0.234913553552356</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06489066596829743</v>
+        <v>0.1062916830592596</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1138536273396538</v>
+        <v>0.2344507970636957</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1085862391995602</v>
+        <v>0.1681777098712784</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1139534477483393</v>
+        <v>0.2356995050489695</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02727553603181875</v>
+        <v>0.02014674787582609</v>
       </c>
       <c r="G210" t="n">
-        <v>0.05832903447080797</v>
+        <v>0.2348217641113118</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02971883576840362</v>
+        <v>0.04359270115107355</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1159875818430732</v>
+        <v>0.2365448976742474</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06389663427544989</v>
+        <v>0.1060024965356779</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1146442775295125</v>
+        <v>0.2360789275988603</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1074579956886259</v>
+        <v>0.1687582395610688</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1147447911354806</v>
+        <v>0.2373363071673652</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02694744283045104</v>
+        <v>0.02016563643166704</v>
       </c>
       <c r="G211" t="n">
-        <v>0.05832876594234395</v>
+        <v>0.2364412245534588</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02940297509718222</v>
+        <v>0.04403554097053666</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1167874962006117</v>
+        <v>0.2381762417961387</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06380719038113442</v>
+        <v>0.1059054498358608</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1154349277193712</v>
+        <v>0.2377070581340248</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1081331749356211</v>
+        <v>0.1684261957501298</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1155361345226218</v>
+        <v>0.2389731092857608</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02663466031100908</v>
+        <v>0.01818303659515474</v>
       </c>
       <c r="G212" t="n">
-        <v>0.05832849741387993</v>
+        <v>0.2380606849956058</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02928847970314927</v>
+        <v>0.04377509616387032</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1175874105581501</v>
+        <v>0.2398075859180301</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06282420276684081</v>
+        <v>0.1069004516253576</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1162255779092299</v>
+        <v>0.2393351886691894</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1079103902601454</v>
+        <v>0.1689814310649798</v>
       </c>
       <c r="O212" t="n">
-        <v>0.116327477909763</v>
+        <v>0.2406099114041564</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02633762098127944</v>
+        <v>0.02019893141597012</v>
       </c>
       <c r="G213" t="n">
-        <v>0.05832822888541591</v>
+        <v>0.2396801454377527</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02947526257125153</v>
+        <v>0.04411132888250749</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1183873249156885</v>
+        <v>0.2414389300399215</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06124953991405876</v>
+        <v>0.106887410569718</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1170162280990887</v>
+        <v>0.240963319204354</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1069882549817982</v>
+        <v>0.1684237981321371</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1171188212969043</v>
+        <v>0.242246713522552</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02605675734900748</v>
+        <v>0.01821330394379413</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0583279603569519</v>
+        <v>0.2412996058798997</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02926323668643581</v>
+        <v>0.04404420127788113</v>
       </c>
       <c r="K214" t="n">
-        <v>0.119187239273227</v>
+        <v>0.2430702741618128</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06088507030427817</v>
+        <v>0.1061662353344915</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1178068782889474</v>
+        <v>0.2425914497395185</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1061653824201793</v>
+        <v>0.1684531495781201</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1179101646840455</v>
+        <v>0.2438835156409477</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02605675734900748</v>
+        <v>0.0182261372283077</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0583279603569519</v>
+        <v>0.2429190663220467</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02895231503364884</v>
+        <v>0.04417367550142422</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1199871536307654</v>
+        <v>0.2447016182837042</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06053266241898875</v>
+        <v>0.1062368345852277</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1185975284788061</v>
+        <v>0.244219580274683</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1063403858948879</v>
+        <v>0.1702693380294472</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1187015080711868</v>
+        <v>0.2455203177593432</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02541230417123302</v>
+        <v>0.01823741431919176</v>
       </c>
       <c r="G216" t="n">
-        <v>0.05823750742807712</v>
+        <v>0.2445385267641937</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02894241059783736</v>
+        <v>0.04389971370456972</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1207870679883038</v>
+        <v>0.2463329624055955</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05989418473968028</v>
+        <v>0.1063991169874761</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1193881786686648</v>
+        <v>0.2458477108098476</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1053118787255239</v>
+        <v>0.1690722161126367</v>
       </c>
       <c r="O216" t="n">
-        <v>0.119492851458328</v>
+        <v>0.2471571198777389</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02477477042528502</v>
+        <v>0.01824711826612724</v>
       </c>
       <c r="G217" t="n">
-        <v>0.05814705449920235</v>
+        <v>0.2461579872063407</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0290334363639482</v>
+        <v>0.04402227803875053</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1215869823458423</v>
+        <v>0.2479643065274869</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05847150574784254</v>
+        <v>0.1068529912067863</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1201788288585235</v>
+        <v>0.2474758413450122</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1054784742316868</v>
+        <v>0.169361636454207</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1202841948454693</v>
+        <v>0.2487939219961345</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02414443270276243</v>
+        <v>0.01925523211879509</v>
       </c>
       <c r="G218" t="n">
-        <v>0.05805660157032758</v>
+        <v>0.2477774476484876</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02872530531692806</v>
+        <v>0.04394133065539975</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1223868967033807</v>
+        <v>0.2495956506493782</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05846649392496539</v>
+        <v>0.1063983659087079</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1209694790483822</v>
+        <v>0.2491039718801767</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1057387857329761</v>
+        <v>0.1705374516806765</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1210755382326105</v>
+        <v>0.2504307241145302</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02352156759526437</v>
+        <v>0.01826173892687623</v>
       </c>
       <c r="G219" t="n">
-        <v>0.05796614864145282</v>
+        <v>0.2493969080906346</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02861793044172375</v>
+        <v>0.04395683370595023</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1231868110609192</v>
+        <v>0.2512269947712696</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05718101775253845</v>
+        <v>0.1066351497587903</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1217601292382409</v>
+        <v>0.2507321024153413</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1043914265489915</v>
+        <v>0.1695995144185635</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1218668816197518</v>
+        <v>0.2520675262329258</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02290645169438965</v>
+        <v>0.01926662174005161</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05787569571257804</v>
+        <v>0.2510163685327816</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02851122472328202</v>
+        <v>0.04426874934183497</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1239867254184576</v>
+        <v>0.252858338893161</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05641694571205161</v>
+        <v>0.1071632514225833</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1225507794280996</v>
+        <v>0.2523602329505059</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1055350099993324</v>
+        <v>0.1701476772943864</v>
       </c>
       <c r="O220" t="n">
-        <v>0.122658225006893</v>
+        <v>0.2537043283513213</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02229936159173736</v>
+        <v>0.01826986360800215</v>
       </c>
       <c r="G221" t="n">
-        <v>0.05778524278370327</v>
+        <v>0.2526358289749286</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02830510114654966</v>
+        <v>0.04427703971448695</v>
       </c>
       <c r="K221" t="n">
-        <v>0.124786639775996</v>
+        <v>0.2544896830150524</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0563761462849946</v>
+        <v>0.1074825795656362</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1233414296179583</v>
+        <v>0.2539883634856704</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1035681494035984</v>
+        <v>0.1692817929346637</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1234495683940343</v>
+        <v>0.255341130469717</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02170057387890648</v>
+        <v>0.02027144758040879</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0576947898548285</v>
+        <v>0.2542552894170756</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02849947269647338</v>
+        <v>0.0442816669753391</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1255865541335345</v>
+        <v>0.2561210271369437</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05516048795285725</v>
+        <v>0.1067930428534987</v>
       </c>
       <c r="M222" t="n">
-        <v>0.124132079807817</v>
+        <v>0.2556164940208349</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1046894580813891</v>
+        <v>0.1690017139659135</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1242409117811755</v>
+        <v>0.2569779325881126</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02111036514749603</v>
+        <v>0.0202636067507878</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05760433692595372</v>
+        <v>0.2558747498592225</v>
       </c>
       <c r="J223" t="n">
-        <v>0.028394252358</v>
+        <v>0.0438790279138121</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1263864684910729</v>
+        <v>0.257752371258835</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0547718391971293</v>
+        <v>0.1074794681536679</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1249227299976757</v>
+        <v>0.2572446245559994</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1043975493523042</v>
+        <v>0.1701044562659398</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1250322551683168</v>
+        <v>0.2586147347065082</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02052901198910498</v>
+        <v>0.02021066767187946</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05751388399707895</v>
+        <v>0.2574942103013695</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02788935311607622</v>
+        <v>0.04399423229875488</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1271863828486113</v>
+        <v>0.2593837153807264</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05401206849930054</v>
+        <v>0.1072530232390904</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1257133801875344</v>
+        <v>0.258872755091164</v>
       </c>
       <c r="N224" t="n">
-        <v>0.103691036535943</v>
+        <v>0.168934118897967</v>
       </c>
       <c r="O224" t="n">
-        <v>0.125823598555458</v>
+        <v>0.2602515368249039</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01995679099533235</v>
+        <v>0.01811269845208912</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05742343106820418</v>
+        <v>0.2591136707435165</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02778468795564888</v>
+        <v>0.04390618275689367</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1279862972061498</v>
+        <v>0.2610150595026178</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05348304434086074</v>
+        <v>0.1067791667940632</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1265040303773931</v>
+        <v>0.2605008856263286</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1032685329519053</v>
+        <v>0.1682569475671644</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1266149419425993</v>
+        <v>0.2618883389432995</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01939397875777719</v>
+        <v>0.01897498324121679</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05733297813932942</v>
+        <v>0.2607331311856635</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02768016986166469</v>
+        <v>0.04332667832853905</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1287862115636882</v>
+        <v>0.2626464036245092</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05288663520329964</v>
+        <v>0.1055863717291083</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1272946805672518</v>
+        <v>0.2621290161614931</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1025286519197906</v>
+        <v>0.167418884981188</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1274062853297405</v>
+        <v>0.2635251410616951</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01884085186803836</v>
+        <v>0.01780280618906248</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05724252521045464</v>
+        <v>0.2623525916278104</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02797571181907044</v>
+        <v>0.04316751805400157</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1295861259212266</v>
+        <v>0.2642777477464005</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05232470956810709</v>
+        <v>0.1047031109547474</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1280853307571106</v>
+        <v>0.2637571466966577</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1020700067591984</v>
+        <v>0.1657658738476939</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1281976287168817</v>
+        <v>0.2651619431800907</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01829768691771493</v>
+        <v>0.01760145144542619</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05715207228157987</v>
+        <v>0.2639720520699574</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02747122681281289</v>
+        <v>0.04254050097359184</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1303860402787651</v>
+        <v>0.2659090918682919</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05269913591677286</v>
+        <v>0.1039578573815023</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1288759809469693</v>
+        <v>0.2653852772318223</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1017912107897283</v>
+        <v>0.164743856874338</v>
       </c>
       <c r="O228" t="n">
-        <v>0.128988972104023</v>
+        <v>0.2667987452984864</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0177647604984059</v>
+        <v>0.01937620316010794</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0570616193527051</v>
+        <v>0.2655915125121044</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0276666278278388</v>
+        <v>0.0422574261276204</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1311859546363035</v>
+        <v>0.2675404359901832</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05251178273078672</v>
+        <v>0.1025790839198949</v>
       </c>
       <c r="M229" t="n">
-        <v>0.129666631136828</v>
+        <v>0.2670134077669868</v>
       </c>
       <c r="N229" t="n">
-        <v>0.10059087733098</v>
+        <v>0.1631987767687765</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1297803154911642</v>
+        <v>0.268435547416882</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01724234920171024</v>
+        <v>0.01713234548290772</v>
       </c>
       <c r="G230" t="n">
-        <v>0.05697116642383032</v>
+        <v>0.2672109729542513</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02766183313340076</v>
+        <v>0.04173009255639787</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1319858689938419</v>
+        <v>0.2691717801120746</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05186425159784239</v>
+        <v>0.101195263480447</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1304572813266867</v>
+        <v>0.2686415383021514</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1007676556118572</v>
+        <v>0.1601765762386653</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1305716588783055</v>
+        <v>0.2700723495352776</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.016730729619227</v>
+        <v>0.01887516256362554</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05688071349495555</v>
+        <v>0.2688304333963984</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02715730577321829</v>
+        <v>0.04137029930023478</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1327857833513804</v>
+        <v>0.270803124233966</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05173316857890381</v>
+        <v>0.1000348689736804</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1312479315165454</v>
+        <v>0.2702696688373159</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1007247764222978</v>
+        <v>0.1581231979916604</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1313630022654467</v>
+        <v>0.2717091516536732</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01623017834255512</v>
+        <v>0.01760993855206142</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05679026056608077</v>
+        <v>0.2704498938385453</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0273533926958507</v>
+        <v>0.04038984539944176</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1335856977089188</v>
+        <v>0.2724344683558573</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05060290482956245</v>
+        <v>0.09812637331011687</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1320385817064041</v>
+        <v>0.2718977993724804</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1000652620041221</v>
+        <v>0.1574845847354179</v>
       </c>
       <c r="O232" t="n">
-        <v>0.132154345652588</v>
+        <v>0.2733459537720688</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01574097196329369</v>
+        <v>0.01734195759801536</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05669980763720601</v>
+        <v>0.2720693542806923</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02695010032334362</v>
+        <v>0.04000052989432935</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1343856120664572</v>
+        <v>0.2740658124777487</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05017400507192873</v>
+        <v>0.09749824940027832</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1328292318962628</v>
+        <v>0.273525929907645</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09898942453919402</v>
+        <v>0.1539066791775939</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1329456890397292</v>
+        <v>0.2749827558904644</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01526338707304158</v>
+        <v>0.01807650385128735</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05660935470833123</v>
+        <v>0.2736888147228393</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02714743507774267</v>
+        <v>0.03921415182520814</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1351855264239957</v>
+        <v>0.2756971565996401</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05084701402811295</v>
+        <v>0.0950789701546865</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1336198820861215</v>
+        <v>0.2751540604428096</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09789757620937739</v>
+        <v>0.1529354240258443</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1337370324268704</v>
+        <v>0.2766195580088601</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01479770026339782</v>
+        <v>0.01781886146167744</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05651890177945646</v>
+        <v>0.2753082751649862</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02714540338109346</v>
+        <v>0.03904251023238872</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1359854407815341</v>
+        <v>0.2773285007215314</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04962247642022552</v>
+        <v>0.09379700848386335</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1344105322759802</v>
+        <v>0.2767821909779741</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09839002919653633</v>
+        <v>0.1507167619878252</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1345283758140117</v>
+        <v>0.2782563601272557</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01434418812596146</v>
+        <v>0.01557431457898559</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05642844885058169</v>
+        <v>0.2769277356071332</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02674401165544163</v>
+        <v>0.03849740415618165</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1367853551390726</v>
+        <v>0.2789598448434227</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04930093697037677</v>
+        <v>0.09268083729833057</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1352011824658389</v>
+        <v>0.2784103215131387</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09626709568253466</v>
+        <v>0.1483966357711927</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1353197192011529</v>
+        <v>0.2798931622456513</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01390312725233146</v>
+        <v>0.01734814735301184</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05633799592170691</v>
+        <v>0.2785471960492802</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02674326632283273</v>
+        <v>0.03789063263689751</v>
       </c>
       <c r="K237" t="n">
-        <v>0.137585269496611</v>
+        <v>0.2805911889653142</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04928294040067713</v>
+        <v>0.09125892950861</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1359918326556976</v>
+        <v>0.2800384520483032</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09652908784923653</v>
+        <v>0.1457209880836026</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1361110625882942</v>
+        <v>0.2815299643640469</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0134747942341068</v>
+        <v>0.01713740760513475</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05624754299283214</v>
+        <v>0.2801666564914272</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02664317380531245</v>
+        <v>0.03712384377980293</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1383851838541494</v>
+        <v>0.2822225330872055</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04856903143323682</v>
+        <v>0.09043052478487901</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1367824828455564</v>
+        <v>0.2816665825834678</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09547631787850569</v>
+        <v>0.1437075440096158</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1369024059754354</v>
+        <v>0.2831667664824426</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01305946566288652</v>
+        <v>0.01692648520250208</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05615709006395737</v>
+        <v>0.2817861169335741</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02664374052492637</v>
+        <v>0.03686003443907934</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1391850982116879</v>
+        <v>0.2838538772090969</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04905975479016633</v>
+        <v>0.08950664563664507</v>
       </c>
       <c r="M239" t="n">
-        <v>0.137573133035415</v>
+        <v>0.2832947131186324</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09490909795220615</v>
+        <v>0.142514179096318</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1376937493625767</v>
+        <v>0.2848035686008382</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01265628871457374</v>
+        <v>0.0147147657837783</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05606663713508261</v>
+        <v>0.2834055773757211</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02634497290372011</v>
+        <v>0.03639446348643044</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1399850125692263</v>
+        <v>0.2854852213309882</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04895565519357598</v>
+        <v>0.0886785037270425</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1383637832252738</v>
+        <v>0.2849228436537969</v>
       </c>
       <c r="N240" t="n">
-        <v>0.095127740252202</v>
+        <v>0.1395139868235489</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1384850927497179</v>
+        <v>0.2864403707192338</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01225876348659193</v>
+        <v>0.01650223683061662</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05597618420620783</v>
+        <v>0.2850250378178681</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02644687736373925</v>
+        <v>0.03572710296949222</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1407849269267647</v>
+        <v>0.2871165654528796</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04825727736557611</v>
+        <v>0.08704603160269031</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1391544334151325</v>
+        <v>0.2865509741889614</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09283255696035714</v>
+        <v>0.1385068583513305</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1392764361368592</v>
+        <v>0.2880771728376295</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01186603715484427</v>
+        <v>0.01428888582467018</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05588573127733306</v>
+        <v>0.2866444982600151</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02604946032702947</v>
+        <v>0.03525792493590058</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1415848412843032</v>
+        <v>0.2887479095747709</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04756516602827712</v>
+        <v>0.08620916181020763</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1399450836049912</v>
+        <v>0.288179104724126</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09292386025853533</v>
+        <v>0.1365926848396846</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1400677795240004</v>
+        <v>0.289713974956025</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01147838631092973</v>
+        <v>0.01407470024759216</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05579527834845829</v>
+        <v>0.2882639587021621</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02625272821563633</v>
+        <v>0.03518690143329149</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1423847556418416</v>
+        <v>0.2903792536966623</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04747986590378933</v>
+        <v>0.08496782689621363</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1407357337948499</v>
+        <v>0.2898072352592905</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09260196232860074</v>
+        <v>0.135571357448633</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1408591229111416</v>
+        <v>0.2913507770744207</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01109608754644732</v>
+        <v>0.01485966758103574</v>
       </c>
       <c r="G244" t="n">
-        <v>0.05570482541958351</v>
+        <v>0.289883419144309</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02605668745160547</v>
+        <v>0.03471400450930093</v>
       </c>
       <c r="K244" t="n">
-        <v>0.14318466999938</v>
+        <v>0.2920105978185537</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04700192171422313</v>
+        <v>0.08402195940732732</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1415263839847086</v>
+        <v>0.2914353657944551</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09056717535241737</v>
+        <v>0.1331427673381975</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1416504662982829</v>
+        <v>0.2929875791928163</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01071941745299604</v>
+        <v>0.01564377530665405</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05561437249070874</v>
+        <v>0.291502879586456</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0257613444569825</v>
+        <v>0.03383920621156483</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1439845843569185</v>
+        <v>0.293641941940445</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04703187818168883</v>
+        <v>0.08227149189016786</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1423170341745673</v>
+        <v>0.2930634963296197</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08991981151184897</v>
+        <v>0.1317068056684</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1424418096854241</v>
+        <v>0.2946243813112119</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01034865262217487</v>
+        <v>0.01342701090610031</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05552391956183397</v>
+        <v>0.293122340028603</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02596670565381302</v>
+        <v>0.03336247858771917</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1447844987144569</v>
+        <v>0.2952732860623364</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04727028002829686</v>
+        <v>0.08171635689135429</v>
       </c>
       <c r="M246" t="n">
-        <v>0.143107684364426</v>
+        <v>0.2946916268647842</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08906018298875962</v>
+        <v>0.1298633635992623</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1432331530725654</v>
+        <v>0.2962611834296076</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009984069645582863</v>
+        <v>0.01320936186102765</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05543346663295921</v>
+        <v>0.29474180047075</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02567277746414269</v>
+        <v>0.03328379368539987</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1455844130719953</v>
+        <v>0.2969046301842277</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04611767197615754</v>
+        <v>0.07995648695750579</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1438983345542847</v>
+        <v>0.2963197573999488</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08918860196501327</v>
+        <v>0.1284123322908064</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1440244964597066</v>
+        <v>0.2978979855480032</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009625945114818915</v>
+        <v>0.01399081565308927</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05534301370408443</v>
+        <v>0.296361260912897</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02577956631001706</v>
+        <v>0.03270312355224292</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1463843274295338</v>
+        <v>0.2985359743061191</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04607459874738126</v>
+        <v>0.07869181463524136</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1446889847441434</v>
+        <v>0.2979478879351133</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08920538062247385</v>
+        <v>0.126253602903054</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1448158398468479</v>
+        <v>0.2995347876663987</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009274555621482078</v>
+        <v>0.01477135976393831</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05525256077520966</v>
+        <v>0.2979807213550439</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0253870786134818</v>
+        <v>0.03222044023588423</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1471842417870722</v>
+        <v>0.3001673184280105</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04574160506407834</v>
+        <v>0.0781222724711802</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1454796349340021</v>
+        <v>0.2995760184702779</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08821083114300543</v>
+        <v>0.1243870665960269</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1456071832339891</v>
+        <v>0.3011715897847944</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008930177757171337</v>
+        <v>0.01355098167522795</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05516210784633489</v>
+        <v>0.2996001817971909</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02559532079658249</v>
+        <v>0.0317357157839598</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1479841561446106</v>
+        <v>0.3017986625499018</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04591923564835917</v>
+        <v>0.07624779301194132</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1462702851238608</v>
+        <v>0.3012041490054425</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08660526570847182</v>
+        <v>0.1225126145297472</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1463985266211304</v>
+        <v>0.30280839190319</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008593088113485706</v>
+        <v>0.01232966886861137</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05507165491746011</v>
+        <v>0.3012196422393379</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02560429928136478</v>
+        <v>0.03134892224410557</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1487840705021491</v>
+        <v>0.3034300066717932</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04530803522233415</v>
+        <v>0.07566830880414385</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1470609353137195</v>
+        <v>0.302832279540607</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08668899650073697</v>
+        <v>0.1195301378642364</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1471898700082716</v>
+        <v>0.3044451940215857</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008263563282024176</v>
+        <v>0.01210740882574172</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05498120198858534</v>
+        <v>0.3028391026814849</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02511402048987424</v>
+        <v>0.03066003166395749</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1495839848596875</v>
+        <v>0.3050613507936846</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04570854850811354</v>
+        <v>0.07398375239440691</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1478515855035782</v>
+        <v>0.3044604100757715</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08426233570166497</v>
+        <v>0.1182395277595166</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1479812133954128</v>
+        <v>0.3060819961399813</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007941879854385728</v>
+        <v>0.01288418902827219</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05489074905971057</v>
+        <v>0.3044585631236318</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02542449084415652</v>
+        <v>0.02996901609115153</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1503838992172259</v>
+        <v>0.3066926949155759</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0450213202278078</v>
+        <v>0.07269405632934961</v>
       </c>
       <c r="M253" t="n">
-        <v>0.148642235693437</v>
+        <v>0.3060885406109361</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0837255954931197</v>
+        <v>0.1154406753756098</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1487725567825541</v>
+        <v>0.3077187982583769</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007628314422169422</v>
+        <v>0.01165999695785593</v>
       </c>
       <c r="G254" t="n">
-        <v>0.0548002961308358</v>
+        <v>0.3060780235657788</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02533571676625722</v>
+        <v>0.02977584757332362</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1511838135747644</v>
+        <v>0.3083240390374672</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04534689510352721</v>
+        <v>0.07199915315559099</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1494328858832957</v>
+        <v>0.3077166711461007</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08347908805696508</v>
+        <v>0.1147334718725373</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1495639001696953</v>
+        <v>0.3093556003767725</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007323143576974146</v>
+        <v>0.01143482009614612</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05470984320196103</v>
+        <v>0.3076974840079258</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02484770467822195</v>
+        <v>0.02898049815810971</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1519837279323028</v>
+        <v>0.3099553831593587</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04538581785738219</v>
+        <v>0.07089897541975021</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1502235360731544</v>
+        <v>0.3093448016812652</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0834231255750652</v>
+        <v>0.1129178084103215</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1503552435568366</v>
+        <v>0.3109924024951681</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007026643910398957</v>
+        <v>0.01320864592479593</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05461939027308625</v>
+        <v>0.3093169444500728</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02476046100209633</v>
+        <v>0.02848293989314578</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1527836422898413</v>
+        <v>0.31158672728125</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04443863321148306</v>
+        <v>0.06989345566844635</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1510141862630131</v>
+        <v>0.3109729322164297</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0808580202292839</v>
+        <v>0.1108935761489839</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1511465869439778</v>
+        <v>0.3126292046135637</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006739092014042845</v>
+        <v>0.01198146192545851</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05452893734421148</v>
+        <v>0.3109364048922198</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02477399215992598</v>
+        <v>0.02798314482606779</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1535835566473797</v>
+        <v>0.3132180714031413</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04440588588794023</v>
+        <v>0.0684825264482985</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1518048364528718</v>
+        <v>0.3126010627515943</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07998408420148512</v>
+        <v>0.1081606662485464</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1519379303311191</v>
+        <v>0.3142660067319594</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006460764479504812</v>
+        <v>0.01275325557978706</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0544384844153367</v>
+        <v>0.3125558653343667</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02488830457375651</v>
+        <v>0.02778108500451168</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1543834710049181</v>
+        <v>0.3148494155250327</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04468812060886398</v>
+        <v>0.06746612030592578</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1525954866427305</v>
+        <v>0.3142291932867589</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07930162967353288</v>
+        <v>0.1073189698690311</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1527292737182603</v>
+        <v>0.315902808850355</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006191937898383848</v>
+        <v>0.01152401436943474</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05434803148646193</v>
+        <v>0.3141753257765137</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02490340466563354</v>
+        <v>0.02717673247611339</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1551833853624566</v>
+        <v>0.3164807596469241</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04418588209636479</v>
+        <v>0.06554416978794722</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1533861368325892</v>
+        <v>0.3158573238219234</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07831096882729116</v>
+        <v>0.1054683781704596</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1535206171054016</v>
+        <v>0.3175396109687506</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005932888862278954</v>
+        <v>0.0112937257760547</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05425757855758716</v>
+        <v>0.3157947862186608</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02471929885760267</v>
+        <v>0.0265700592885089</v>
       </c>
       <c r="K260" t="n">
-        <v>0.155983299719995</v>
+        <v>0.3181121037688155</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04389971507255286</v>
+        <v>0.06481660744098203</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1541767870224479</v>
+        <v>0.317485454357088</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07741241384462388</v>
+        <v>0.1027087823128537</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1543119604925428</v>
+        <v>0.3191764130871462</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005683893962789149</v>
+        <v>0.01206237728130012</v>
       </c>
       <c r="G261" t="n">
-        <v>0.0541671256287124</v>
+        <v>0.3174142466608077</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02443599357170954</v>
+        <v>0.02636103748933413</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1567832140775335</v>
+        <v>0.3197434478907068</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04393016425953875</v>
+        <v>0.0635833658116492</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1549674372123066</v>
+        <v>0.3191135848922525</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07640627690739499</v>
+        <v>0.1003400734562354</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1551033038796841</v>
+        <v>0.3208132152055418</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005445229791513378</v>
+        <v>0.01082995636682418</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05407667269983762</v>
+        <v>0.3190337071029546</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02465349522999974</v>
+        <v>0.02564963912622509</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1575831284350719</v>
+        <v>0.3213747920125982</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04397777437943262</v>
+        <v>0.06274437744656788</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1557580874021653</v>
+        <v>0.3207417154274171</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07679287019746844</v>
+        <v>0.0982621427606265</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1558946472668253</v>
+        <v>0.3224500173239375</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005217172940050661</v>
+        <v>0.01059645051428003</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05398621977096285</v>
+        <v>0.3206531675451016</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02417181025451889</v>
+        <v>0.0252358362468177</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1583830427926103</v>
+        <v>0.3230061361344895</v>
       </c>
       <c r="L263" t="n">
-        <v>0.04384309015434501</v>
+        <v>0.06049957489235722</v>
       </c>
       <c r="M263" t="n">
-        <v>0.156548737592024</v>
+        <v>0.3223698459625816</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07487250589670819</v>
+        <v>0.09707488138604897</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1566859906539666</v>
+        <v>0.3240868194423331</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.009361847205320857</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05389576684208808</v>
+        <v>0.3222726279872486</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02419094506731263</v>
+        <v>0.02451960089874794</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1591829571501488</v>
+        <v>0.3246374802563809</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04382665630638613</v>
+        <v>0.05924889069563621</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1573393877818827</v>
+        <v>0.3239979764977462</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0745454961869782</v>
+        <v>0.09567818049252452</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1574773340411078</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05388260894735123</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005684993549035185</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05388287747581524</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006366425410926538</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05388314600427926</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007044258534014324</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05388341453274328</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.0077184558665504</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.0538836830612073</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008388980356875186</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05388395158967132</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009055794953299529</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05388422011813533</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009718862604163082</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05388448864659936</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01037814625771895</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05388475717506337</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01103360886230694</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05388502570352739</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01168521336623791</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.0538852942319914</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01233292271785079</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05388556276045543</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01297669986540008</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05388583128891944</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01361650775722489</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05388609981738345</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01425230934163607</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05388636834584747</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01488406756697189</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05388663687431149</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01551174538148819</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05388690540277551</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01613530573352343</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05388717393123952</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01675471157138844</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05388744245970354</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01736992584342077</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05388771098816756</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01798091149787771</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05388797951663158</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01858763148309697</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05388824804509559</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01919004874738942</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05388851657355961</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01978812623909184</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05388878510202363</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02038182690646301</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05388905363048765</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02097126499223727</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05388932215895166</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02155731121110961</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05388959068741567</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02214007980581355</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.0538898592158797</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02271953372460921</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05389012774434371</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02329563591583288</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05389039627280773</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02386834932779542</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05389066480127175</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02443763690883236</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05389093332973577</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02500346160720501</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05389120185819979</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02556578637124907</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0538914703866638</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.0261245741492754</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05389173891512782</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.0266797878896189</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05389200744359184</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02723139054054215</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05389227597205586</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.0277793450503802</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05389254450051987</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02832361436744392</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05389281302898388</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02886416144006761</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05389308155744791</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02940094921651505</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05389335008591192</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02993394064512071</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05389361861437594</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03046309867419544</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05389388714283996</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03098838625207288</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05389415567130398</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03150976632701813</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.053894424199768</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03202720184736503</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05389469272823201</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03254065576142437</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05389496125669602</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03305009101752912</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05389522978516005</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.0335554705639458</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05389549831362406</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.0340567573490075</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05389576684208808</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03405675734900748</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05388260894735123</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03459763521715811</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05397359893315403</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.0351338334167649</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05406458891895684</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03566524255373271</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05415557890475965</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.0361917532339666</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05424656889056245</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03671325606337165</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05433755887636527</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03722964164785272</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05442854886216807</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03774080059331486</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05451953884797087</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03824662350566317</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05461052883377369</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03874700099080247</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05470151881957649</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03924182365463785</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05479250880537929</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03973098210307439</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.0548834987911821</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04021436694201694</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05497448877698491</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04069186877737063</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05506547876278772</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04116337821504033</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05515646874859052</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04162878586093111</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05524745873439332</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04208798232094801</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05533844872019614</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04254085820099592</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05542943870599894</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04298730410697993</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05552042869180174</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04342721064480506</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05561141867760456</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04386046842037618</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05570240866340736</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04428696803959839</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05579339864921016</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04470660010837671</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05588438863501297</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04511925523261605</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.05597537862081578</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04552482401822146</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05606636860661858</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04592364376365256</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05615735859242139</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.0463182852301418</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.05624834857822419</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.0467090857161488</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.056339338564027</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04709593582757861</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.05643032854982982</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04747872617033613</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05652131853563262</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04785734735032639</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05661230852143542</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04823168997345449</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05670329850723823</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04860164464562526</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05679428849304104</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04896710197274383</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.05688527847884384</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04932795256071519</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05697626846464665</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04968408701544424</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.05706725845044945</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05003539594283606</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05715824843625226</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05038176994879566</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.05724923842205507</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05072309963922798</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.05734022840785787</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05105927562003806</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05743121839366067</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05139018849713092</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.05752220837946349</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05171572887641147</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05761319836526629</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05203578736378485</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05770418835106911</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05235025456515589</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05779517833687191</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.0526590210864297</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.05788616832267471</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05296197753351128</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.05797715830847752</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05325901451230559</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.05806814829428033</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05355002262871764</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.05815913828008313</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05383489248865243</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.05825012826588594</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05411351469801495</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.05834111825168874</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.05074234313200997</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.05834111825168874</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05422218911376572</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.05996773693173642</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05432269032852166</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06159435561178409</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05441533785964139</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06322097429183175</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05450045122448356</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06484759297187943</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05457834994040682</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.0664742116519271</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05464935352476977</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.06810083033197477</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05471378149493102</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.06972744901202244</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05477195336824925</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07135406769207012</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05482418866208305</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07298068637211778</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05487080689379108</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.07460730505216545</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05491212758073195</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07623392373221312</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05494847024026428</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.0778605424122608</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05498015438974675</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.07948716109230847</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05500749954653796</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08111377977235613</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.0550308252279965</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.08274039845240382</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05505045095148105</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.08436701713245148</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05506669623435025</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08599363581249916</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05507988059396268</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.08762025449254682</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05509032354767701</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.0892468731725945</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05509834461285185</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.09087349185264217</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05510426330684584</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.09250011053268985</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05510839914701761</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.0941267292127375</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05511107165072579</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.09575334789278518</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.055112600335329</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.09737996657283285</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05511330471818589</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.09900658525288053</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05511350431665506</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1006332039329282</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05510760589427019</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1022598226129759</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05504740320959724</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1038864412930235</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05492556701243477</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1055130599730712</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05474624288422084</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1071396786531189</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05451357640639348</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1087662973331666</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05423171316039077</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1103929160132142</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05390479872765075</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1120195346932619</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05353697868961146</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1136461533733096</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05313239862771096</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1152727720533572</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.0526952041233873</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1168993907334049</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05222954075807854</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1185260094134526</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05173955411322272</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1201526280935002</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05122938977025789</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1217792467735479</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.05070319331062209</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1234058654535956</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.05016511031575339</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1250324841336433</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04961928636708987</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1266591028136909</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04906986704606953</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1282857214937386</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04852099793413044</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1299123401737863</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04797682461271065</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.131538958853834</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04744149266324822</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1331655775338816</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04691914766718119</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1347921962139293</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04641393520594761</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.136418814893977</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04593000086098553</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1380454335740246</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04547149021373302</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1396720522540723</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04502197312298085</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.14129867093412</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04453701972684886</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1429252896141676</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04401907656771264</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1445519082942153</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.0434726664858245</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.146178526974263</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04290231232143669</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1478051456543107</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04231253691480159</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04170786310617144</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.151058383014406</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04109281373579855</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1526850016944536</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.0404719116439352</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1543116203745013</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03984967967083368</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.155938239054549</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03923064065674632</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1575648577345967</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03861931744192541</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1591914764146443</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03802023286662322</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.160818095094692</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03743790977109206</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1624447137747397</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03687687099558422</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1640713324547874</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03634163938035199</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.165697951134835</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03583673776564769</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1673245698148827</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03536668899172357</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1689511884949304</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03493601589883197</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1705778071749781</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03454924132722519</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1722044258550257</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03421088811715547</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1738310445350734</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03392547910887517</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1754576632151211</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03369753714263654</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1770842818951687</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.0335315850586919</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1787109005752164</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03343214569729352</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1803375192552641</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03340324895019725</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1819641379353118</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03340330519348909</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1835907566153594</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03340363341554994</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1852173752954071</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03340447765352389</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1868439939754548</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03340608194455508</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1884706126555024</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03340869032578761</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1900972313355501</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03341254683436562</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1917238500155978</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03341789550743324</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1933504686956455</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03342498038213457</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1949770873756931</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03343404549561374</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1966037060557408</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03344533488501487</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1982303247357885</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.0334590925874821</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1998569434158361</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03347556264015952</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2014835620958838</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03349498908019129</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2031101807759315</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.0335176159447215</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2047367994559791</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03354368727089428</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2063634181360268</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03357344709585375</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2079900368160745</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03360713945674404</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2096166554961222</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03364500839070927</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2112432741761699</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03368729793489356</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2128698928562175</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03373425212644103</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2144965115362652</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03378611500249581</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2161231302163129</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03384313060020201</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2177497488963605</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03390554295670375</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2193763675764082</v>
-      </c>
-    </row>
+        <v>0.3257236215607287</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1090.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1090.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003152621997179271</v>
+        <v>0.001313629589951945</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001619460442146978</v>
+        <v>0.0004785900956565468</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003561931768744593</v>
+        <v>0.002019568638920069</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001631344121891361</v>
+        <v>0.0008685423912535269</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01275232057113954</v>
+        <v>0.005453523927443887</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001628130535164554</v>
+        <v>0.0008579724468911414</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01746253056577501</v>
+        <v>0.009966276747819802</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001636802118395622</v>
+        <v>0.0008486835388128103</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.002577636185142271</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002470139823332712</v>
+        <v>0.0009571801913130936</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004071370048162978</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003258423913043476</v>
+        <v>0.001737084782507054</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01148506537815044</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003045255993498577</v>
+        <v>0.001715944893782283</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.0206888931996832</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003620471014492751</v>
+        <v>0.001697367077625621</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.007374911673476724</v>
+        <v>0.003742396790809385</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004858381326440934</v>
+        <v>0.00143577028696964</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01143188829062595</v>
+        <v>0.005997069674298437</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004894032365674083</v>
+        <v>0.002605627173760581</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03369736470503334</v>
+        <v>0.01771968506024071</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00488439160549366</v>
+        <v>0.002573917340673424</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04658895550662234</v>
+        <v>0.03016511228610119</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004910406355186865</v>
+        <v>0.002546050616438431</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00964401835874245</v>
+        <v>0.004758288412191662</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006477841768587912</v>
+        <v>0.001914360382626187</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01573323403536504</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006525376487565445</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04197680497811854</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006512522140658215</v>
+        <v>0.003503681626928469</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05925396824342349</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006547208473582487</v>
+        <v>0.00319453324808184</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.005685585783002489</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01023405440940448</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007410419469998136</v>
+        <v>0.002470139823332712</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01913864058693368</v>
+        <v>0.00889802719330688</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008156720609456807</v>
+        <v>0.004342711956267634</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.05013887629689598</v>
+        <v>0.02538380157169973</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008140652675822769</v>
+        <v>0.004289862234455708</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.07093867286428124</v>
+        <v>0.04413488493432066</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008184010591978109</v>
+        <v>0.004243417694064051</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01154754491971061</v>
+        <v>0.006230331747124097</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009716762652881869</v>
+        <v>0.00287154057393928</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02235597270649246</v>
+        <v>0.01024819112317821</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009775271739130427</v>
+        <v>0.005211254347521161</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.05426850179754658</v>
+        <v>0.02806886766179287</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009135767980495731</v>
+        <v>0.005147834681346848</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07980212238732787</v>
+        <v>0.04953688469444201</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00982081271037373</v>
+        <v>0.005092101232876862</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01041159296763441</v>
+        <v>0.006851989583745187</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01133622309502885</v>
+        <v>0.003350130669595828</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02427938419134357</v>
+        <v>0.01121200555432836</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01141940885323953</v>
+        <v>0.006079796738774689</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.06088162635952854</v>
+        <v>0.03208012202087909</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01139691374615188</v>
+        <v>0.006005807128237989</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.08618103088860068</v>
+        <v>0.05483949109498237</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01086141304347825</v>
+        <v>0.005940784771689672</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01122611308443158</v>
+        <v>0.007438757653973227</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01295568353717582</v>
+        <v>0.003828720765252374</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02636196150160584</v>
+        <v>0.01250008846488147</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01305075297513089</v>
+        <v>0.006948339130028215</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.06582914204865253</v>
+        <v>0.03485647999684938</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01302504428131643</v>
+        <v>0.006863779575129131</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.09486906719295879</v>
+        <v>0.05972416461080016</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01309441694716497</v>
+        <v>0.006789468310502482</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0119898207790043</v>
+        <v>0.007985769573744958</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0145751439793228</v>
+        <v>0.00430731086090892</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02812022249502076</v>
+        <v>0.01332305783296178</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01468209709702225</v>
+        <v>0.007816881521281743</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06999525782793811</v>
+        <v>0.03673685693759465</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01465317481648098</v>
+        <v>0.007721752022020273</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.1028581599094091</v>
+        <v>0.06427236571675432</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.0147312190655606</v>
+        <v>0.007638151849315293</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01370143156025472</v>
+        <v>0.008488158958997093</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01619460442146978</v>
+        <v>0.004785900956565468</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02965367856857264</v>
+        <v>0.01469153163669336</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01631344121891361</v>
+        <v>0.008685423912535269</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.07337563993424348</v>
+        <v>0.03946016819100592</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01628130535164554</v>
+        <v>0.008579724468911415</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1088526149857154</v>
+        <v>0.06766555488770332</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01636802118395622</v>
+        <v>0.008486835388128102</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01435966093708501</v>
+        <v>0.008941059425666385</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01781406486361676</v>
+        <v>0.005264491052222015</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03136184111924586</v>
+        <v>0.01531612785420042</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01794478534080497</v>
+        <v>0.009553966303788797</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.07796595460442685</v>
+        <v>0.04146532910497411</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01790943588681009</v>
+        <v>0.009437696915802554</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1157201358913654</v>
+        <v>0.07148519259850583</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01800482330235184</v>
+        <v>0.009335518926940914</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01396322441839735</v>
+        <v>0.009339604589689555</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01943352530576374</v>
+        <v>0.005743081147878561</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03294422154402477</v>
+        <v>0.01610746446360714</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01957612946269633</v>
+        <v>0.01042250869504232</v>
       </c>
       <c r="L77" t="n">
-        <v>0.08126186807534633</v>
+        <v>0.04419125502739016</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01953756642197464</v>
+        <v>0.0102956693626937</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1221284260958467</v>
+        <v>0.07541273932402054</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01964162542074746</v>
+        <v>0.01018420246575372</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01451083751309391</v>
+        <v>0.00967892806700333</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02105298574791071</v>
+        <v>0.006221671243535109</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03440033123989372</v>
+        <v>0.01697615944303767</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0212074735845877</v>
+        <v>0.01129105108629585</v>
       </c>
       <c r="L78" t="n">
-        <v>0.08425904658386019</v>
+        <v>0.04577686130614508</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0211656969571392</v>
+        <v>0.01115364180958484</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1283451890686464</v>
+        <v>0.07922965553910605</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02127842753914308</v>
+        <v>0.01103288600456653</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01600121573007684</v>
+        <v>0.009954163473544449</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02267244619005769</v>
+        <v>0.006700261339191656</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03562968160383707</v>
+        <v>0.01783283077061618</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02283881770647906</v>
+        <v>0.01215959347754938</v>
       </c>
       <c r="L79" t="n">
-        <v>0.08755315636682659</v>
+        <v>0.04806106328912976</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02279382749230375</v>
+        <v>0.01201161425647598</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1324381282792522</v>
+        <v>0.08618103088860068</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0229152296575387</v>
+        <v>0.0122359186012268</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01743307457824832</v>
+        <v>0.01023405440940448</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02429190663220467</v>
+        <v>0.007410419469998136</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03663178403283919</v>
+        <v>0.01898809642446683</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02447016182837042</v>
+        <v>0.0130281358688029</v>
       </c>
       <c r="L80" t="n">
-        <v>0.08993986366110368</v>
+        <v>0.05038277632423521</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02442195802746831</v>
+        <v>0.01286958670336712</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1385749471971516</v>
+        <v>0.08745484934874204</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02455203177593433</v>
+        <v>0.01273025308219215</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01580512956651053</v>
+        <v>0.0103028952118827</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02591136707435165</v>
+        <v>0.007657441530504749</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0378061499238844</v>
+        <v>0.01955257438271381</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02610150595026178</v>
+        <v>0.01389667826005643</v>
       </c>
       <c r="L81" t="n">
-        <v>0.09191483470354975</v>
+        <v>0.05426850179754658</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02605008856263286</v>
+        <v>0.01408441130881471</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1418233492918321</v>
+        <v>0.09206617973470943</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02618883389432995</v>
+        <v>0.01357893662100496</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01611609620376561</v>
+        <v>0.01043475054872724</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02753082751649863</v>
+        <v>0.008136031626161295</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03855229067395706</v>
+        <v>0.02053688262348127</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02773285007215314</v>
+        <v>0.01476522065130996</v>
       </c>
       <c r="L82" t="n">
-        <v>0.09367373573102283</v>
+        <v>0.05519554621071024</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02767821909779741</v>
+        <v>0.0145855315971494</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1460510380327812</v>
+        <v>0.09552465894217022</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02782563601272557</v>
+        <v>0.01442762015981777</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01637021735532215</v>
+        <v>0.01056460965586993</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0291502879586456</v>
+        <v>0.008614621721817841</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03916971768004156</v>
+        <v>0.02145163912489334</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0293641941940445</v>
+        <v>0.01563376304256349</v>
       </c>
       <c r="L83" t="n">
-        <v>0.09521223298038123</v>
+        <v>0.05774586777445576</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02930634963296196</v>
+        <v>0.01544350404404055</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1484257168894864</v>
+        <v>0.1007016854992065</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02946243813112119</v>
+        <v>0.01527630369863059</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01660921265575131</v>
+        <v>0.01069248229989058</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03076974840079258</v>
+        <v>0.009093211817474389</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03955873173116176</v>
+        <v>0.02235597270649246</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03099553831593586</v>
+        <v>0.01618783023692942</v>
       </c>
       <c r="L84" t="n">
-        <v>0.09705908943999</v>
+        <v>0.06051397239297027</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03093448016812652</v>
+        <v>0.01630147649093169</v>
       </c>
       <c r="N84" t="n">
-        <v>0.151815089331435</v>
+        <v>0.1046686579339003</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03109924024951681</v>
+        <v>0.0161249872374434</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01784068490345535</v>
+        <v>0.010818378247369</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03238920884293956</v>
+        <v>0.009571801913130937</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04048917664360416</v>
+        <v>0.02372698142857714</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03262688243782723</v>
+        <v>0.01737084782507054</v>
       </c>
       <c r="L85" t="n">
-        <v>0.098631790195429</v>
+        <v>0.06277966492681503</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03256261070329108</v>
+        <v>0.01715944893782283</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1536652778261653</v>
+        <v>0.1100969747743338</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03273604236791244</v>
+        <v>0.0169736707762562</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01906308395133532</v>
+        <v>0.01094230726488498</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03400866928508654</v>
+        <v>0.01005039200878748</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04060402287469646</v>
+        <v>0.02440263176975099</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03425822655971859</v>
+        <v>0.01823939021632406</v>
       </c>
       <c r="L86" t="n">
-        <v>0.09986382352393905</v>
+        <v>0.06572275023655125</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03419074123845563</v>
+        <v>0.01801742138471397</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1562942596429132</v>
+        <v>0.1146580345485891</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03437284448630806</v>
+        <v>0.01782235431506902</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01727485965229225</v>
+        <v>0.01106427911901836</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03562812972723352</v>
+        <v>0.01052898210444403</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04119980908272808</v>
+        <v>0.02552665905192972</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03588957068160994</v>
+        <v>0.01910793260757759</v>
       </c>
       <c r="L87" t="n">
-        <v>0.100746836672227</v>
+        <v>0.0684230331827401</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03581887177362018</v>
+        <v>0.01887539383160511</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1575572733138642</v>
+        <v>0.1187232357847482</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03600964660470368</v>
+        <v>0.01867103785388183</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01847446185922721</v>
+        <v>0.01118430357634893</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03724759016938049</v>
+        <v>0.01100757220010058</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04177307392598838</v>
+        <v>0.02669003125424299</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03752091480350131</v>
+        <v>0.01997647499883112</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1022724768869995</v>
+        <v>0.07226031862594284</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03744700230878473</v>
+        <v>0.01973336627849625</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1595408411826903</v>
+        <v>0.1243639770108935</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0376464487230993</v>
+        <v>0.01951972139269463</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01766034042504126</v>
+        <v>0.01130239040345651</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03886705061152747</v>
+        <v>0.01148616229575712</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04232035606276678</v>
+        <v>0.02828371635582047</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03915225892539267</v>
+        <v>0.02084501739008465</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1027323914149634</v>
+        <v>0.0752144114267207</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03907513284394928</v>
+        <v>0.02059133872538739</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1612314855930632</v>
+        <v>0.1284516567551068</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03928325084149492</v>
+        <v>0.02036840493150745</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01983094520263542</v>
+        <v>0.01141854936692091</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04048651105367446</v>
+        <v>0.01196475239141367</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0425381941513527</v>
+        <v>0.02949868233579184</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04078360304728403</v>
+        <v>0.02171355978133818</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1033182275028255</v>
+        <v>0.07736511644563485</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04070326337911384</v>
+        <v>0.02144931117227853</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1629157288886549</v>
+        <v>0.1332576735454704</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04092005295989055</v>
+        <v>0.02121708847032026</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01998472604491076</v>
+        <v>0.01153279023332193</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04210597149582142</v>
+        <v>0.01244334248707022</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04292312685003548</v>
+        <v>0.03042589717328678</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0424149471691754</v>
+        <v>0.0225821021725917</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1045216323972925</v>
+        <v>0.08099223854324655</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0423313939142784</v>
+        <v>0.02230728361916968</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1648800934131371</v>
+        <v>0.1368534259100663</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04255685507828617</v>
+        <v>0.02206577200913307</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01912013280476834</v>
+        <v>0.01164512276923939</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04372543193796841</v>
+        <v>0.01292193258272676</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04347169281710458</v>
+        <v>0.03155632884743495</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04404629129106676</v>
+        <v>0.02345064456384523</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1050342533450708</v>
+        <v>0.08307558258011702</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04395952444944295</v>
+        <v>0.02316525606606082</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1671111015101819</v>
+        <v>0.1418103123769766</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04419365719668179</v>
+        <v>0.02291445554794588</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01823561533510919</v>
+        <v>0.01175555674125309</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04534489238011539</v>
+        <v>0.01340052267838331</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04388043071084939</v>
+        <v>0.03278094533736603</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04567763541295811</v>
+        <v>0.02431918695509876</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1063477375928677</v>
+        <v>0.08679495341680751</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0455876549846075</v>
+        <v>0.02402322851295196</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1684952755234611</v>
+        <v>0.1449997314742835</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04583045931507741</v>
+        <v>0.02376313908675869</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01832962348883438</v>
+        <v>0.01186410191594287</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04696435282226236</v>
+        <v>0.01387911277403986</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04384587918955928</v>
+        <v>0.03429071462220969</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04730897953484948</v>
+        <v>0.02518772934635228</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1067537323873897</v>
+        <v>0.08893015591387912</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04721578551977205</v>
+        <v>0.0248812009598431</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1683191377966465</v>
+        <v>0.150393081730069</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04746726143347303</v>
+        <v>0.0246118226255715</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02040060711884495</v>
+        <v>0.0119707680598885</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04858381326440934</v>
+        <v>0.0143577028696964</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04416457691152365</v>
+        <v>0.0351766046810956</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04894032365674084</v>
+        <v>0.02605627173760581</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1069438849753436</v>
+        <v>0.09136099493189317</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04884391605493661</v>
+        <v>0.02573917340673424</v>
       </c>
       <c r="N95" t="n">
-        <v>0.16896921067341</v>
+        <v>0.1529617616724154</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04910406355186865</v>
+        <v>0.02546050616438431</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02046810881880896</v>
+        <v>0.0120755649396698</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05020327370655632</v>
+        <v>0.01483629296535295</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04413306253503192</v>
+        <v>0.03662958349315344</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0505716677786322</v>
+        <v>0.02692481412885933</v>
       </c>
       <c r="L96" t="n">
-        <v>0.107309842603436</v>
+        <v>0.09476727533141091</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05047204659010116</v>
+        <v>0.02659714585362538</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1700320164974234</v>
+        <v>0.1562771698294046</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05074086567026428</v>
+        <v>0.02630918970319712</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01946730021932643</v>
+        <v>0.01217850232186661</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05182273414870329</v>
+        <v>0.0153148830610095</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04424787471837352</v>
+        <v>0.0378406190375129</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05220301190052356</v>
+        <v>0.02779335652011286</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1085370035950932</v>
+        <v>0.09672880197299347</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05210017712526572</v>
+        <v>0.02745511830051653</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1713940776123588</v>
+        <v>0.1594107047291188</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0523776677886599</v>
+        <v>0.02715787324200993</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01946420507768194</v>
+        <v>0.0122795899730587</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05344219459085028</v>
+        <v>0.01579347315666604</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04471194541298491</v>
+        <v>0.03850067929330364</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05383435602241492</v>
+        <v>0.02866189891136639</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1075357619668637</v>
+        <v>0.09922537971720208</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05372830766043028</v>
+        <v>0.02831309074740767</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1723620617772014</v>
+        <v>0.16313376489964</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05401446990705552</v>
+        <v>0.02800655678082274</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02044757444476583</v>
+        <v>0.01237883765982591</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05506165503299725</v>
+        <v>0.01627206325232259</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04440747605795871</v>
+        <v>0.03960073223965531</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05546570014430627</v>
+        <v>0.02953044130261992</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1078095197814296</v>
+        <v>0.1007368134245981</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05535643819559483</v>
+        <v>0.02917106319429881</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1706620550896824</v>
+        <v>0.1646177488690506</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05565127202545114</v>
+        <v>0.02885524031963555</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01841863390889034</v>
+        <v>0.01247625514874804</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05668111547514423</v>
+        <v>0.01675065334797914</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0444767163522751</v>
+        <v>0.04063174585569759</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05709704426619764</v>
+        <v>0.03039898369387344</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1074128025927786</v>
+        <v>0.1031429079557425</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05698456873075938</v>
+        <v>0.03002903564118995</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1718049675662798</v>
+        <v>0.1678340551654324</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05728807414384676</v>
+        <v>0.02970392385844836</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0203782004422804</v>
+        <v>0.01257185220640489</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05830057591729121</v>
+        <v>0.01722924344363568</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04461830153316833</v>
+        <v>0.04168468812056018</v>
       </c>
       <c r="K101" t="n">
-        <v>0.058728388388089</v>
+        <v>0.03126752608512697</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1079506425917701</v>
+        <v>0.1042234681711967</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05861269926592393</v>
+        <v>0.03088700808808109</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1707366687018569</v>
+        <v>0.1691540823168677</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05892487626224238</v>
+        <v>0.03055260739726117</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0203270910171609</v>
+        <v>0.01266563859937628</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05992003635943818</v>
+        <v>0.01770783353929223</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04453405582753946</v>
+        <v>0.04245052701337278</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06035973250998036</v>
+        <v>0.03213606847638049</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1073274419202699</v>
+        <v>0.1055582989315218</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06024082980108849</v>
+        <v>0.03174498053497223</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1705642650187795</v>
+        <v>0.1707492288514385</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06056167838063801</v>
+        <v>0.03140129093607398</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.01826612260575674</v>
+        <v>0.01275762409424203</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06153949680158517</v>
+        <v>0.01818642363494878</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04442580346228953</v>
+        <v>0.04272023051326497</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06199107663187173</v>
+        <v>0.03300461086763402</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1076476027201433</v>
+        <v>0.1066272050972791</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06186896033625305</v>
+        <v>0.03260295298186337</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1714948596306065</v>
+        <v>0.1711908932972269</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06219848049903363</v>
+        <v>0.03224997447488679</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01919611218029286</v>
+        <v>0.01284781845758192</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06315895724373215</v>
+        <v>0.01866501373060532</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04399536866431958</v>
+        <v>0.0434847665993665</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06362242075376309</v>
+        <v>0.03387315325888755</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1064155271332561</v>
+        <v>0.1076099915290298</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0634970908714176</v>
+        <v>0.03346092542875451</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1693355556508969</v>
+        <v>0.1723620617772014</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06383528261742925</v>
+        <v>0.0330986580136996</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01911787671299415</v>
+        <v>0.01293623145597579</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06477841768587912</v>
+        <v>0.01914360382626187</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04384457566053067</v>
+        <v>0.043835103250807</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06525376487565446</v>
+        <v>0.03474169565014108</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1061356173014738</v>
+        <v>0.1085370035950932</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06512522140658215</v>
+        <v>0.03431889787564566</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1702934561932096</v>
+        <v>0.1716620617772014</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06547208473582487</v>
+        <v>0.03394734155251241</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01903223317608552</v>
+        <v>0.01302287285600343</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0663978781280261</v>
+        <v>0.01962219392191842</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04357524867782385</v>
+        <v>0.04436220844671618</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06688510899754581</v>
+        <v>0.03561023804139461</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1056122753666621</v>
+        <v>0.1081370035950932</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0667533519417467</v>
+        <v>0.03517687032253679</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1688756643711036</v>
+        <v>0.1716620617772014</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06710888685422049</v>
+        <v>0.03479602509132522</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0189399985417919</v>
+        <v>0.01310775242424467</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06801733857017307</v>
+        <v>0.02010078401757497</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04338921194310014</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06851645311943717</v>
+        <v>0.03647878043264813</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1060499034706864</v>
+        <v>0.1078370035950932</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06838148247691125</v>
+        <v>0.03603484276942794</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1674892832981381</v>
+        <v>0.1719620617772014</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06874568897261611</v>
+        <v>0.03564470863013804</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01984198978233818</v>
+        <v>0.01319087992727931</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06963679901232006</v>
+        <v>0.02057937411323151</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04318828968326061</v>
+        <v>0.04461194541298491</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07014779724132854</v>
+        <v>0.03734732282390166</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1056529037554125</v>
+        <v>0.1078370035950932</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07000961301207581</v>
+        <v>0.03689281521631908</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1684414160878718</v>
+        <v>0.1720620617772013</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07038249109101173</v>
+        <v>0.03649339216895085</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01773902386994926</v>
+        <v>0.01327226513168716</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07125625945446704</v>
+        <v>0.02105796420888806</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0430743061252063</v>
+        <v>0.04441194541298492</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07177914136321989</v>
+        <v>0.03821586521515519</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1042256783627059</v>
+        <v>0.1082370035950931</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07163774354724035</v>
+        <v>0.03775078766321022</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1670391658538639</v>
+        <v>0.1715620617772013</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07201929320940736</v>
+        <v>0.03734207570776366</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01763191777685008</v>
+        <v>0.01335191780404802</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07287571989661401</v>
+        <v>0.02153655430454461</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04314908549583826</v>
+        <v>0.04431194541298492</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07341048548511125</v>
+        <v>0.03908440760640872</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1038726294344322</v>
+        <v>0.1084370035950932</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07326587408240492</v>
+        <v>0.03860876011010136</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1655896357096732</v>
+        <v>0.1706620617772014</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07365609532780297</v>
+        <v>0.03819075924657647</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01852148847526554</v>
+        <v>0.01342984771094172</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07449518033876099</v>
+        <v>0.02201514440020115</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04291445202205754</v>
+        <v>0.04461194541298491</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07504182960700262</v>
+        <v>0.03995294999766224</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1031981591124569</v>
+        <v>0.1084370035950932</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07489400461756947</v>
+        <v>0.03946673255699251</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1657999287688589</v>
+        <v>0.1712620617772014</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0752928974461986</v>
+        <v>0.03903944278538927</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01740855293742053</v>
+        <v>0.01350606461894806</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07611464078090796</v>
+        <v>0.0224937344958577</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04227222993076518</v>
+        <v>0.04431194541298492</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07667317372889397</v>
+        <v>0.04082149238891577</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1026066695386457</v>
+        <v>0.1078370035950932</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07652213515273402</v>
+        <v>0.04032470500388365</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1646771481449797</v>
+        <v>0.1713620617772014</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07692969956459422</v>
+        <v>0.03988812632420208</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01829392813553998</v>
+        <v>0.01358057829464684</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07773410122305495</v>
+        <v>0.02297232459151424</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04212424344886224</v>
+        <v>0.04431194541298492</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07830451785078534</v>
+        <v>0.04169003478016929</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1028025628548642</v>
+        <v>0.1082370035950931</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07815026568789857</v>
+        <v>0.04118267745077479</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1627283969515949</v>
+        <v>0.1713620617772014</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07856650168298984</v>
+        <v>0.04073680986301489</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0191784310418488</v>
+        <v>0.01365339850461789</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07935356166520192</v>
+        <v>0.02345091468717079</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04197231680324974</v>
+        <v>0.04441194541298492</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0799358619726767</v>
+        <v>0.04255857717142282</v>
       </c>
       <c r="L114" t="n">
-        <v>0.101590241202978</v>
+        <v>0.1084370035950932</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07977839622306312</v>
+        <v>0.04204064989766593</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1629607783022632</v>
+        <v>0.1713620617772014</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08020330380138546</v>
+        <v>0.0415854934018277</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01706287862857189</v>
+        <v>0.01372453501544101</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08097302210734891</v>
+        <v>0.02392950478282734</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04161827422082877</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08156720609456806</v>
+        <v>0.04342711956267635</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1007741067248526</v>
+        <v>0.1081370035950932</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08140652675822768</v>
+        <v>0.04289862234455707</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1613813953105439</v>
+        <v>0.1713620617772014</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08184010591978109</v>
+        <v>0.04243417694064051</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01694808786793417</v>
+        <v>0.01379399759369601</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08259248254949587</v>
+        <v>0.02440809487848388</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04166393992850033</v>
+        <v>0.04461194541298491</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08319855021645943</v>
+        <v>0.04429566195392987</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1000585615623537</v>
+        <v>0.1084370035950932</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08303465729339224</v>
+        <v>0.04375659479144821</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1601973510899956</v>
+        <v>0.1711620617772014</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08347690803817671</v>
+        <v>0.04328286047945332</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01883375628544056</v>
+        <v>0.01386179600596271</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08421194299164285</v>
+        <v>0.02488668497414043</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04131113815316548</v>
+        <v>0.04431194541298492</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08482989433835079</v>
+        <v>0.0451642043451834</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09984800785734682</v>
+        <v>0.1083370035950932</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0846627878285568</v>
+        <v>0.04461456723833936</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1586157487541776</v>
+        <v>0.1707620617772014</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08511371015657233</v>
+        <v>0.04413154401826613</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01670610748147819</v>
+        <v>0.0139279400188209</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08583140343378984</v>
+        <v>0.02536527506979698</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04116019711501223</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08646123846024215</v>
+        <v>0.04603274673643692</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09913041501226835</v>
+        <v>0.1081370035950932</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08629091836372134</v>
+        <v>0.04547253968523049</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1575436914166486</v>
+        <v>0.1718620617772014</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08675051227496795</v>
+        <v>0.04498022755707894</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01856289287534084</v>
+        <v>0.01399243939885039</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08745086387593681</v>
+        <v>0.02584386516545353</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04088183976646768</v>
+        <v>0.04431194541298492</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08809258258213351</v>
+        <v>0.04690128912769045</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09893034535642317</v>
+        <v>0.1075370035950932</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0879190488988859</v>
+        <v>0.04633051213212164</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1576359944332271</v>
+        <v>0.1722620617772014</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08838731439336357</v>
+        <v>0.04582891109589175</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01840677426019426</v>
+        <v>0.01405530391263102</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08907032431808379</v>
+        <v>0.02632245526111007</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04056860082911401</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08972392670402488</v>
+        <v>0.04776983151894398</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09805003975896132</v>
+        <v>0.1083370035950932</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08954717943405045</v>
+        <v>0.04718848457901278</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1560867976961433</v>
+        <v>0.1721620617772014</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09002411651175919</v>
+        <v>0.04667759463470457</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01624041342920413</v>
+        <v>0.01411654332674258</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09068978476023078</v>
+        <v>0.02680104535676662</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03992642385225421</v>
+        <v>0.04451194541298491</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09135527082591623</v>
+        <v>0.04863837391019751</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09670384092429191</v>
+        <v>0.1080370035950932</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09117530996921501</v>
+        <v>0.04804645702590391</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1556141861298097</v>
+        <v>0.1712620617772014</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09166091863015481</v>
+        <v>0.04752627817351738</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01806647217553618</v>
+        <v>0.01417616740776487</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09230924520237775</v>
+        <v>0.02727963545242317</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03966125238519126</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09298661494780759</v>
+        <v>0.04950691630145104</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09570609155682402</v>
+        <v>0.1084370035950932</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09280344050437957</v>
+        <v>0.04890442947279506</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1541413025272736</v>
+        <v>0.1715620617772013</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09329772074855044</v>
+        <v>0.04837496171233019</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01588761229235613</v>
+        <v>0.01423418592227772</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09392870564452473</v>
+        <v>0.02775822554807971</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03937902997722814</v>
+        <v>0.04461194541298491</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09461795906969896</v>
+        <v>0.05037545869270457</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09487113436096681</v>
+        <v>0.1078370035950932</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09443157103954411</v>
+        <v>0.0497624019196862</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1522912896815827</v>
+        <v>0.1709620617772014</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09493452286694606</v>
+        <v>0.049223645251143</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01770649557282971</v>
+        <v>0.01429060863686094</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0955481660866717</v>
+        <v>0.02823681564373626</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03868570017766784</v>
+        <v>0.04451194541298491</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09624930319159032</v>
+        <v>0.05124400108395809</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09371331204112932</v>
+        <v>0.1079370035950932</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09605970157470867</v>
+        <v>0.05062037436657735</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1497872903857842</v>
+        <v>0.1710620617772013</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09657132498534168</v>
+        <v>0.0500723287899558</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0165257838101226</v>
+        <v>0.01434544531809431</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09716762652881868</v>
+        <v>0.02871540573939281</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03848720653581336</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09788064731348167</v>
+        <v>0.05211254347521162</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0935469673017208</v>
+        <v>0.1085370035950932</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09768783210987322</v>
+        <v>0.05147834681346848</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1491524474329258</v>
+        <v>0.1721620617772014</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0982081271037373</v>
+        <v>0.05092101232876861</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01534813879740052</v>
+        <v>0.01439870573255769</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09878708697096567</v>
+        <v>0.02919399583504935</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03788949260096766</v>
+        <v>0.04431194541298492</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09951199143537304</v>
+        <v>0.05298108586646515</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09188644284715022</v>
+        <v>0.1079370035950932</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09931596264503777</v>
+        <v>0.05233631926035962</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1469099036160546</v>
+        <v>0.1721620617772014</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09984492922213294</v>
+        <v>0.05176969586758143</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01717622232782922</v>
+        <v>0.01445039964683083</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1004065474131126</v>
+        <v>0.0296725859307059</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03769850192243371</v>
+        <v>0.04451194541298491</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1011433355572644</v>
+        <v>0.05384962825771867</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09084608138182679</v>
+        <v>0.1081370035950932</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1009440931802023</v>
+        <v>0.05319429170725076</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1467828017282184</v>
+        <v>0.1714620617772014</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1014817313405286</v>
+        <v>0.05261837940639424</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01501238936833486</v>
+        <v>0.0145005368274936</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1020260078552596</v>
+        <v>0.03015117602636245</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03752017804951453</v>
+        <v>0.04441194541298492</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1027746796791558</v>
+        <v>0.0547181706489722</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09064022561015958</v>
+        <v>0.1079370035950932</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1025722237153669</v>
+        <v>0.0540522641541419</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1439942845624644</v>
+        <v>0.1721620617772014</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1031185334589242</v>
+        <v>0.05346706294520705</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01684108053707943</v>
+        <v>0.01454912704112577</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1036454682974066</v>
+        <v>0.03062976612201899</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03675970429853959</v>
+        <v>0.04451194541298491</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1044060238010471</v>
+        <v>0.05558671304022572</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08906932994374109</v>
+        <v>0.1077370035950931</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1042003542505314</v>
+        <v>0.05491023660103305</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1433674949118401</v>
+        <v>0.1716620617772014</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1047553355773198</v>
+        <v>0.05431574648401986</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01665510351284183</v>
+        <v>0.01459618005430717</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1052649287395536</v>
+        <v>0.03110835621767554</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03678227003245206</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1060373679229385</v>
+        <v>0.05645525543147924</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08833213286321132</v>
+        <v>0.1077370035950931</v>
       </c>
       <c r="M130" t="n">
-        <v>0.105828484785696</v>
+        <v>0.05576820904792419</v>
       </c>
       <c r="N130" t="n">
-        <v>0.140863302300524</v>
+        <v>0.1718620617772014</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1063921376957154</v>
+        <v>0.05516443002283267</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01445826865331855</v>
+        <v>0.0146417056336176</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1068843891817006</v>
+        <v>0.03158694631333209</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03627246264036287</v>
+        <v>0.04441194541298492</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1076687120448298</v>
+        <v>0.05732379782273278</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08752209057718582</v>
+        <v>0.1080370035950932</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1074566153208606</v>
+        <v>0.05662618149481533</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1408301016868143</v>
+        <v>0.1719620617772014</v>
       </c>
       <c r="O131" t="n">
-        <v>0.108028939814111</v>
+        <v>0.05601311356164548</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0152543863162061</v>
+        <v>0.01468571354563687</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1085038496238475</v>
+        <v>0.03206553640898863</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03593879031484042</v>
+        <v>0.04441194541298492</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1093000561667212</v>
+        <v>0.0581923402139863</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08685973467122809</v>
+        <v>0.1079370035950932</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1090847458560251</v>
+        <v>0.05748415394170648</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1376895939487053</v>
+        <v>0.1715620617772013</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1096657419325067</v>
+        <v>0.05686179710045829</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01404726685920096</v>
+        <v>0.0147282135569448</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1101233100659945</v>
+        <v>0.03254412650464518</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03548976124845307</v>
+        <v>0.04441194541298492</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1109314002886125</v>
+        <v>0.05906088260523984</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08566559673090143</v>
+        <v>0.1079370035950932</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1107128763911897</v>
+        <v>0.05834212638859761</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1370749080012241</v>
+        <v>0.1708620617772014</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1113025440509023</v>
+        <v>0.0577104806392711</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01584072063999965</v>
+        <v>0.01476921543412119</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1117427705081415</v>
+        <v>0.03302271660030173</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03463388363376925</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1125627444105039</v>
+        <v>0.05992942499649336</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0847602083417692</v>
+        <v>0.1076370035950932</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1123410069263542</v>
+        <v>0.05920009883548875</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1342191727593979</v>
+        <v>0.1722620617772014</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1129393461692979</v>
+        <v>0.05855916417808391</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01363855801629863</v>
+        <v>0.01480872894374585</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1133622309502885</v>
+        <v>0.03350130669595828</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03427966566335731</v>
+        <v>0.04461194541298491</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1141940885323953</v>
+        <v>0.06079796738774688</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08366410108939482</v>
+        <v>0.1078370035950932</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1139691374615188</v>
+        <v>0.06005807128237989</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1327555171382538</v>
+        <v>0.1711620617772014</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1145761482876935</v>
+        <v>0.05940784771689672</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01344458934579444</v>
+        <v>0.0148467638523986</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1149816913924354</v>
+        <v>0.03397989679161482</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03373561552978568</v>
+        <v>0.04431194541298492</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1158254326542866</v>
+        <v>0.06166650977900041</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0817978065593416</v>
+        <v>0.1077370035950931</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1155972679966833</v>
+        <v>0.06091604372927104</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1319170700528188</v>
+        <v>0.1712620617772014</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1162129504060892</v>
+        <v>0.06025653125570953</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01326262498618355</v>
+        <v>0.01488332992665924</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1166011518345824</v>
+        <v>0.03445848688727136</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0336102414256227</v>
+        <v>0.04441194541298492</v>
       </c>
       <c r="K137" t="n">
-        <v>0.117456776776178</v>
+        <v>0.06253505217025394</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0813818563371729</v>
+        <v>0.1083370035950932</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1172253985318479</v>
+        <v>0.06177401617616218</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1306369604181203</v>
+        <v>0.1717620617772014</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1178497525244848</v>
+        <v>0.06110521479452234</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01409647529516245</v>
+        <v>0.01491843693310758</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1182206122767294</v>
+        <v>0.03493707698292792</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03291205154343683</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1190881208980694</v>
+        <v>0.06340359456150747</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0803367820084521</v>
+        <v>0.1080370035950932</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1188535290670124</v>
+        <v>0.06263198862305333</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1278483171491852</v>
+        <v>0.1718620617772014</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1194865546428804</v>
+        <v>0.06195389833333515</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01294995063042766</v>
+        <v>0.01495209463832344</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1198400727188764</v>
+        <v>0.03541566707858446</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0329495540757964</v>
+        <v>0.04451194541298491</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1207194650199607</v>
+        <v>0.06427213695276099</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07948311515874257</v>
+        <v>0.1079370035950932</v>
       </c>
       <c r="M139" t="n">
-        <v>0.120481659602177</v>
+        <v>0.06348996106994446</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1259842691610407</v>
+        <v>0.1707620617772014</v>
       </c>
       <c r="O139" t="n">
-        <v>0.121123356761276</v>
+        <v>0.06280258187214796</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01382686134967566</v>
+        <v>0.01498431280888663</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1214595331610234</v>
+        <v>0.03589425717424101</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03233125721526982</v>
+        <v>0.04431194541298492</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1223508091418521</v>
+        <v>0.06514067934401452</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07894138737360767</v>
+        <v>0.1085370035950932</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1221097901373415</v>
+        <v>0.0643479335168356</v>
       </c>
       <c r="N140" t="n">
-        <v>0.126077945368714</v>
+        <v>0.1710620617772013</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1227601588796716</v>
+        <v>0.06365126541096078</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01273101781060294</v>
+        <v>0.01501510121137695</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1230789936031703</v>
+        <v>0.03637284726989756</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03196566915442547</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1239821532637435</v>
+        <v>0.06600922173526805</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07783213023861077</v>
+        <v>0.1078370035950932</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1237379206725061</v>
+        <v>0.06520590596372675</v>
       </c>
       <c r="N141" t="n">
-        <v>0.123762474687232</v>
+        <v>0.1710620617772013</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1243969609980673</v>
+        <v>0.06449994894977358</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01466623037090602</v>
+        <v>0.0150444696123742</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1246984540453173</v>
+        <v>0.0368514373655541</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03216129808583176</v>
+        <v>0.04461194541298491</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1256134973856348</v>
+        <v>0.06687776412652158</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07737587533931517</v>
+        <v>0.1075370035950932</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1253660512076706</v>
+        <v>0.06606387841061789</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1231709860316221</v>
+        <v>0.1708620617772014</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1260337631164629</v>
+        <v>0.0653486324885864</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01263630938828137</v>
+        <v>0.01507242777845822</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1263179144874643</v>
+        <v>0.03733002746121065</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03162665220205707</v>
+        <v>0.04451194541298491</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1272448415075262</v>
+        <v>0.06774630651777511</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07769315426128434</v>
+        <v>0.1078370035950932</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1269941817428352</v>
+        <v>0.06692185085750903</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1225366083169112</v>
+        <v>0.1717620617772014</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1276705652348585</v>
+        <v>0.0661973160273992</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01363615888439081</v>
+        <v>0.01509898547620881</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1279373749296113</v>
+        <v>0.03780861755686719</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0319702396956698</v>
+        <v>0.04461194541298491</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1288761856294175</v>
+        <v>0.06861484890902862</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07690403619113489</v>
+        <v>0.1079370035950932</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1286223122779997</v>
+        <v>0.06777982330440017</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1227924704581266</v>
+        <v>0.1714620617772014</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1293073673532541</v>
+        <v>0.067045999566212</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01264298054085241</v>
+        <v>0.01512415247220577</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1295568353717582</v>
+        <v>0.03828720765252375</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03157345752396461</v>
+        <v>0.04441194541298492</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1305075297513089</v>
+        <v>0.06948339130028215</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07682147882875379</v>
+        <v>0.1078370035950932</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1302504428131643</v>
+        <v>0.06863779575129132</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1230435613123758</v>
+        <v>0.1707620617772014</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1309441694716497</v>
+        <v>0.06789468310502482</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01465512104940062</v>
+        <v>0.01514793853302891</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1311762958139052</v>
+        <v>0.03876579774818029</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03189002983268584</v>
+        <v>0.04451194541298491</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1321388738732003</v>
+        <v>0.07035193369153568</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07766838477497276</v>
+        <v>0.1076370035950932</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1318785733483288</v>
+        <v>0.06949576819818244</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1227890383437251</v>
+        <v>0.1722620617772014</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1325809715900454</v>
+        <v>0.06874336664383762</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01467230042633991</v>
+        <v>0.01517035342525804</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1327957562560522</v>
+        <v>0.03924438784383683</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0319183089210493</v>
+        <v>0.04461194541298491</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1337702179950916</v>
+        <v>0.07122047608278921</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07694324537636363</v>
+        <v>0.1077370035950931</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1335067038834934</v>
+        <v>0.07035374064507359</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1219809046816474</v>
+        <v>0.1706620617772014</v>
       </c>
       <c r="O147" t="n">
-        <v>0.134217773708441</v>
+        <v>0.06959205018265044</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01469423868797472</v>
+        <v>0.01519140691547299</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1344152166981992</v>
+        <v>0.03972297793949339</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03165766961016435</v>
+        <v>0.04471194541298491</v>
       </c>
       <c r="K148" t="n">
-        <v>0.135401562116983</v>
+        <v>0.07208901847404274</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07784455197949822</v>
+        <v>0.1085370035950932</v>
       </c>
       <c r="M148" t="n">
-        <v>0.135134834418658</v>
+        <v>0.07121171309196474</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1219167260255343</v>
+        <v>0.1714620617772014</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1358545758268366</v>
+        <v>0.07044073372146324</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01272065585060952</v>
+        <v>0.01521110877025356</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1360346771403461</v>
+        <v>0.04020156803514993</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03170748672114031</v>
+        <v>0.04441194541298492</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1370329062388743</v>
+        <v>0.07295756086529626</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07787079593094826</v>
+        <v>0.1079370035950932</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1367629649538225</v>
+        <v>0.07206968553885588</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1229940680747774</v>
+        <v>0.1707589487991577</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1374913779452322</v>
+        <v>0.07128941726027607</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01275127193054876</v>
+        <v>0.01522946875617954</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1376541375824931</v>
+        <v>0.04068015813080648</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03216713507508651</v>
+        <v>0.04441194541298492</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1386642503607657</v>
+        <v>0.0738261032565498</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07792046857728563</v>
+        <v>0.1082361300658422</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1383910954889871</v>
+        <v>0.07292765798574702</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1230104965287682</v>
+        <v>0.1719451435376256</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1391281800636278</v>
+        <v>0.07213810079908888</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01278580694409688</v>
+        <v>0.01524649663983076</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1392735980246401</v>
+        <v>0.04115874822646302</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03193598949311231</v>
+        <v>0.04441193104158909</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1402955944826571</v>
+        <v>0.07469464564780331</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07799206126508212</v>
+        <v>0.1082290241751054</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1400192260241516</v>
+        <v>0.07378563043263817</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1224635770868986</v>
+        <v>0.1715206970404651</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1407649821820235</v>
+        <v>0.07298678433790169</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01382398090755834</v>
+        <v>0.01526220218778702</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1408930584667871</v>
+        <v>0.04163733832211957</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03221342479632704</v>
+        <v>0.04431011173722925</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1419269386045484</v>
+        <v>0.07556318803905684</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07748406534090951</v>
+        <v>0.1076150046304539</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1416473565593162</v>
+        <v>0.0746436028795293</v>
       </c>
       <c r="N152" t="n">
-        <v>0.12385087544856</v>
+        <v>0.1722860381046232</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1424017843004191</v>
+        <v>0.07383546787671449</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0148655138372376</v>
+        <v>0.01527659516662815</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1425125189089341</v>
+        <v>0.04211592841777612</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03199881580584003</v>
+        <v>0.04450532900649087</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1435582827264398</v>
+        <v>0.07643173043031037</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07809497215133965</v>
+        <v>0.1074943504102492</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1432754870944807</v>
+        <v>0.07550157532642043</v>
       </c>
       <c r="N153" t="n">
-        <v>0.123969957313144</v>
+        <v>0.1708415955270465</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1440385864188147</v>
+        <v>0.07468415141552731</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0129101257494391</v>
+        <v>0.01528968534293394</v>
       </c>
       <c r="G154" t="n">
-        <v>0.144131979351081</v>
+        <v>0.04259451851343266</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03219153734276063</v>
+        <v>0.04439770207491302</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1451896268483312</v>
+        <v>0.07730027282156389</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07812327304294431</v>
+        <v>0.1077673404928524</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1449036176296453</v>
+        <v>0.07635954777331158</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1244183883800424</v>
+        <v>0.1705877981046817</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1456753885372103</v>
+        <v>0.07553283495434011</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01495753666046731</v>
+        <v>0.0153014824832842</v>
       </c>
       <c r="G155" t="n">
-        <v>0.145751439793228</v>
+        <v>0.04307310860908922</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03249096422819815</v>
+        <v>0.04428735016803469</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1468209709702225</v>
+        <v>0.07816881521281743</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07906745936229531</v>
+        <v>0.1078342538566247</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1465317481648098</v>
+        <v>0.07721752022020273</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1253937343486466</v>
+        <v>0.1713250746344753</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1473121906556059</v>
+        <v>0.07638151849315293</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01401549864842114</v>
+        <v>0.01531199635425876</v>
       </c>
       <c r="G156" t="n">
-        <v>0.147370900235375</v>
+        <v>0.04355169870474575</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03249647128326195</v>
+        <v>0.04447439251139486</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1484523150921139</v>
+        <v>0.07903735760407095</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07852602245596441</v>
+        <v>0.1076953694799274</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1481598786999744</v>
+        <v>0.07807549266709386</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1244935609183483</v>
+        <v>0.1703538539133743</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1489489927740016</v>
+        <v>0.07723020203196573</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01311678823653195</v>
+        <v>0.01532123672243742</v>
       </c>
       <c r="G157" t="n">
-        <v>0.148990360677522</v>
+        <v>0.0440302888004023</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03284020337151825</v>
+        <v>0.04435894833053261</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1500836592140052</v>
+        <v>0.07990589999532448</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07982411975387885</v>
+        <v>0.1076509663411217</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1497880092351389</v>
+        <v>0.07893346511398501</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1263533398239544</v>
+        <v>0.1712745647383253</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1505857948923972</v>
+        <v>0.07807888557077854</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01525765998252047</v>
+        <v>0.01532921335439997</v>
       </c>
       <c r="G158" t="n">
-        <v>0.150609821119669</v>
+        <v>0.04450887889605885</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03288369873579307</v>
+        <v>0.04444113685098691</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1517150033358966</v>
+        <v>0.08077444238657801</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08026031065572833</v>
+        <v>0.108101323418569</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1514161397703035</v>
+        <v>0.07979143756087614</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1260622975880425</v>
+        <v>0.1712876359062749</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1522225970107928</v>
+        <v>0.07892756910959135</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01342966185438286</v>
+        <v>0.01533593601672625</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1522292815618159</v>
+        <v>0.0449874689917154</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03301077139723926</v>
+        <v>0.0445210772982968</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1533463474577879</v>
+        <v>0.08164298477783154</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08088905609521593</v>
+        <v>0.1082467196906303</v>
       </c>
       <c r="M159" t="n">
-        <v>0.153044270305468</v>
+        <v>0.08064941000776729</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1281215750674066</v>
+        <v>0.1714934962141698</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1538593991291884</v>
+        <v>0.07977625264840416</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01562434182011532</v>
+        <v>0.01534141447599604</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1538487420039629</v>
+        <v>0.04546605908737195</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03360254871407074</v>
+        <v>0.04449888889800128</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1549776915796793</v>
+        <v>0.08251152716908507</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08226481346660924</v>
+        <v>0.107387434135667</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1546724008406326</v>
+        <v>0.08150738245465843</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1294576866020731</v>
+        <v>0.1710925744589568</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1554962012475841</v>
+        <v>0.08062493618721697</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01383324784771403</v>
+        <v>0.01534565849878918</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1554682024461099</v>
+        <v>0.04594464918302849</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03384015804450147</v>
+        <v>0.04447469087563938</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1566090357015707</v>
+        <v>0.08338006956033858</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08234204016417598</v>
+        <v>0.1077237457320404</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1563005313757971</v>
+        <v>0.08236535490154957</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1306971465320691</v>
+        <v>0.1708852994375826</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1571330033659797</v>
+        <v>0.08147361972602979</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01504792790517517</v>
+        <v>0.01534867785168547</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1570876628882568</v>
+        <v>0.04642323927868504</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03450472674674539</v>
+        <v>0.04454860245675009</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158240379823462</v>
+        <v>0.08424861195159211</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08437519358218387</v>
+        <v>0.1074559334581117</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1579286619109617</v>
+        <v>0.08322332734844072</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1323664691974212</v>
+        <v>0.1701720999469938</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1587698054843753</v>
+        <v>0.08232230326484261</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01525992996049491</v>
+        <v>0.01535048230126471</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1587071233304038</v>
+        <v>0.04690182937434158</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03487738217901648</v>
+        <v>0.04442074286687243</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1598717239453534</v>
+        <v>0.08511715434284564</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08561873111490051</v>
+        <v>0.1069842762922421</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1595567924461262</v>
+        <v>0.08408129979533185</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1349921689381563</v>
+        <v>0.1702534047841374</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1604066076027709</v>
+        <v>0.08317098680365541</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01646080198166944</v>
+        <v>0.01535108161410673</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1603265837725508</v>
+        <v>0.04738041946999814</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03563925169952868</v>
+        <v>0.04419123133154546</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1615030680672448</v>
+        <v>0.08598569673409917</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0864271101565936</v>
+        <v>0.1077090532127929</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1611849229812908</v>
+        <v>0.084939272242223</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1355007600943012</v>
+        <v>0.1703296427459597</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1620434097211666</v>
+        <v>0.08401967034246823</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01464209193669496</v>
+        <v>0.01535108161410673</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1619460442146978</v>
+        <v>0.04738041946999814</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03577146266649595</v>
+        <v>0.04446018707630812</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1631344121891361</v>
+        <v>0.0868542391253527</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08775478810153084</v>
+        <v>0.1076305431981253</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1628130535164554</v>
+        <v>0.08579724468911414</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1384187570058827</v>
+        <v>0.1694012426294075</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1636802118395622</v>
+        <v>0.08486835388128103</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01479854185450673</v>
+        <v>0.01496717545353549</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1635655046568448</v>
+        <v>0.04738015094153412</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03615514243813225</v>
+        <v>0.04442772932669949</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1647657563110275</v>
+        <v>0.08772278151660622</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08825622234397987</v>
+        <v>0.1074490252266004</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1644411840516199</v>
+        <v>0.08665521713600528</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1394726740129276</v>
+        <v>0.1698686332314277</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1653170139579578</v>
+        <v>0.08571703742009384</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01594722097305297</v>
+        <v>0.01458760329423527</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1651849650989917</v>
+        <v>0.0473798824130701</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03639033501379688</v>
+        <v>0.04399397730825853</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1663971004329189</v>
+        <v>0.08859132390785975</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08895969900499764</v>
+        <v>0.1074647782765798</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1660693145867845</v>
+        <v>0.08751318958289642</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1398115186870694</v>
+        <v>0.1703322433489668</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1669538160763534</v>
+        <v>0.08656572095890665</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01609231230697297</v>
+        <v>0.01421289171620384</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1668044255411388</v>
+        <v>0.04737961388460608</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03671513823412845</v>
+        <v>0.04395905024652431</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1680284445548102</v>
+        <v>0.08945986629911327</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0895429029948383</v>
+        <v>0.1075780813264245</v>
       </c>
       <c r="M168" t="n">
-        <v>0.167697445121949</v>
+        <v>0.08837116202978756</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1414780132916396</v>
+        <v>0.1705925017789716</v>
       </c>
       <c r="O168" t="n">
-        <v>0.168590618194749</v>
+        <v>0.08741440449771946</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01523408398016066</v>
+        <v>0.01384356729940611</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1684238859832857</v>
+        <v>0.04737934535614206</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0371321642606401</v>
+        <v>0.04432306736703583</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1696597886767016</v>
+        <v>0.0903284086903668</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09010757612541456</v>
+        <v>0.1072892133544958</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1693255756571136</v>
+        <v>0.08922913447667871</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1422135800467066</v>
+        <v>0.1701498373183887</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1702274203131447</v>
+        <v>0.08826308803653227</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01537280411651001</v>
+        <v>0.0134801566238394</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1700433464254327</v>
+        <v>0.04737907682767805</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03774201179033185</v>
+        <v>0.04418614789533205</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1712911327985929</v>
+        <v>0.09119695108162033</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09125516314525381</v>
+        <v>0.1069984533391549</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1709537061922781</v>
+        <v>0.09008710692356985</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1436205501385808</v>
+        <v>0.169004678764165</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1718642224315403</v>
+        <v>0.08911177157534507</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01750874083991497</v>
+        <v>0.01312318626946916</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1716628068675797</v>
+        <v>0.04737880829921403</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0379452795202037</v>
+        <v>0.04404841105695205</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1729224769204843</v>
+        <v>0.09206549347287385</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09248710880288313</v>
+        <v>0.1072060802587632</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1725818367274427</v>
+        <v>0.09094507937046098</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1455012547535723</v>
+        <v>0.168957454913247</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1735010245499359</v>
+        <v>0.08996045511415789</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01764216227426946</v>
+        <v>0.01277318281629215</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1732822673097267</v>
+        <v>0.04737853977075002</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03834256614725572</v>
+        <v>0.04390997607743484</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1745538210423757</v>
+        <v>0.09293403586412738</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09260485784682984</v>
+        <v>0.1070123730916818</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1742099672626073</v>
+        <v>0.09180305181735213</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1468580250779917</v>
+        <v>0.1700085945625815</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1751378266683315</v>
+        <v>0.09080913865297069</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01777333654346747</v>
+        <v>0.01243067284427438</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1749017277518736</v>
+        <v>0.047378271242286</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03853447036848789</v>
+        <v>0.04377096218231941</v>
       </c>
       <c r="K173" t="n">
-        <v>0.176185165164267</v>
+        <v>0.09380257825538091</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09320985502562104</v>
+        <v>0.1062176108162719</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1758380977977718</v>
+        <v>0.09266102426424327</v>
       </c>
       <c r="N173" t="n">
-        <v>0.147393192298149</v>
+        <v>0.1690585265091151</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1767746287867271</v>
+        <v>0.09165782219178351</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01790253177140291</v>
+        <v>0.01209618293341202</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1765211881940206</v>
+        <v>0.04737800271382198</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03882159088090026</v>
+        <v>0.04373148859714476</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1778165092861584</v>
+        <v>0.09467112064663444</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09430354508778407</v>
+        <v>0.1070220724108949</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1774662283329363</v>
+        <v>0.09351899671113441</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1481090876003546</v>
+        <v>0.1690076795497947</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1784114309051228</v>
+        <v>0.09250650573059632</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01803001608196976</v>
+        <v>0.01177023966367174</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1781406486361676</v>
+        <v>0.04737773418535796</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03910452638149284</v>
+        <v>0.04389167454744994</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1794478534080498</v>
+        <v>0.09553966303788797</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0944873727818461</v>
+        <v>0.106926036853912</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1790943588681009</v>
+        <v>0.09437696915802556</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1504080421709189</v>
+        <v>0.1688435464875399</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1800482330235184</v>
+        <v>0.09335518926940914</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01715605759906195</v>
+        <v>0.01145336961504897</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1797601090783146</v>
+        <v>0.04737746565689395</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03908387556726566</v>
+        <v>0.04395163925877398</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1810791975299411</v>
+        <v>0.09640820542914148</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0952627828563343</v>
+        <v>0.1066208753141145</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1807224894032655</v>
+        <v>0.0952349416049167</v>
       </c>
       <c r="N176" t="n">
-        <v>0.151892387196152</v>
+        <v>0.1688415395351013</v>
       </c>
       <c r="O176" t="n">
-        <v>0.181685035141914</v>
+        <v>0.09420387280822194</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0172809561239481</v>
+        <v>0.01114609936751117</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1813795695204616</v>
+        <v>0.04737719712842993</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03946023713521868</v>
+        <v>0.04390843797671186</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1827105416518325</v>
+        <v>0.09727674782039503</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09563122005977598</v>
+        <v>0.1061912996996455</v>
       </c>
       <c r="M177" t="n">
-        <v>0.18235061993843</v>
+        <v>0.09609291405180782</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1528644538623642</v>
+        <v>0.1692052256949786</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1833218372603096</v>
+        <v>0.09505255634703476</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01641084710384869</v>
+        <v>0.01084895550105295</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1829990299626085</v>
+        <v>0.04737692859996592</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03993663577277574</v>
+        <v>0.04375504585322602</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1843418857737238</v>
+        <v>0.09814529021164854</v>
       </c>
       <c r="L178" t="n">
-        <v>0.09700517327438776</v>
+        <v>0.1062397825763286</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1839787504735946</v>
+        <v>0.09695088649869897</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1534277237398764</v>
+        <v>0.1685390652220027</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1849586393787053</v>
+        <v>0.09590123988584756</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01754697728583876</v>
+        <v>0.01056246459564261</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1846184904047555</v>
+        <v>0.0473766600715019</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04032875463255214</v>
+        <v>0.04349231793468618</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1859732298956152</v>
+        <v>0.09901383260290207</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09741871155204296</v>
+        <v>0.1062692258178665</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1856068810087591</v>
+        <v>0.09780885894559012</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1539392134834605</v>
+        <v>0.1674475183710046</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1865954414971009</v>
+        <v>0.09674992342466038</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01668474077431797</v>
+        <v>0.0102871532312739</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1862379508469025</v>
+        <v>0.04737639154303788</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04023086205539926</v>
+        <v>0.04352149437984452</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1876045740175065</v>
+        <v>0.0998823749941556</v>
       </c>
       <c r="L180" t="n">
-        <v>0.09805223754781583</v>
+        <v>0.1055825312979619</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1872350115439237</v>
+        <v>0.09866683139248127</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1558008170782455</v>
+        <v>0.1681350453968152</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1882322436154965</v>
+        <v>0.09759860696347318</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01781953167368598</v>
+        <v>0.01002354798791604</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1878574112890495</v>
+        <v>0.04737612301457386</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04073267348279554</v>
+        <v>0.0437438153474532</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1892359181393979</v>
+        <v>0.1007509173854091</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09888093303015266</v>
+        <v>0.1059826008903179</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1888631420790882</v>
+        <v>0.0995248038393724</v>
       </c>
       <c r="N181" t="n">
-        <v>0.157272488855</v>
+        <v>0.1665061065542655</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1898690457338921</v>
+        <v>0.098447290502286</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01794674408834246</v>
+        <v>0.009772175445561769</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1894768717311964</v>
+        <v>0.04737585448610984</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04082390435621944</v>
+        <v>0.04326052099626444</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1908672622612892</v>
+        <v>0.1016194597766627</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1001799797674997</v>
+        <v>0.1053723364686369</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1904912726142528</v>
+        <v>0.1003827762862635</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1572141831444924</v>
+        <v>0.1670651620981863</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1915058478522877</v>
+        <v>0.0992959740410988</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01706177212268703</v>
+        <v>0.009533562184186432</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1910963321733434</v>
+        <v>0.04737558595764583</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04109427011714945</v>
+        <v>0.04337285148503044</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1924986063831806</v>
+        <v>0.1024880021679162</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1001245595283031</v>
+        <v>0.1048546399066221</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1921194031494173</v>
+        <v>0.1012407487331547</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1579858542774913</v>
+        <v>0.1669166722834086</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1931426499706834</v>
+        <v>0.1001446575799116</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01716000988111939</v>
+        <v>0.009308234783766529</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1927157926154904</v>
+        <v>0.04737531742918181</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04163348620706399</v>
+        <v>0.04318204697250339</v>
       </c>
       <c r="K184" t="n">
-        <v>0.194129950505072</v>
+        <v>0.1033565445591697</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1011898540810091</v>
+        <v>0.104532413077976</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1937475336845819</v>
+        <v>0.1020987211800458</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1605474565847652</v>
+        <v>0.1663650973647635</v>
       </c>
       <c r="O184" t="n">
-        <v>0.194779452089079</v>
+        <v>0.1009933411187244</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01923685146803918</v>
+        <v>0.009096719824293061</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1943352530576374</v>
+        <v>0.04737504890071779</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04183126806744154</v>
+        <v>0.04308934761743544</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1957612946269633</v>
+        <v>0.1042250869504232</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1010510451940639</v>
+        <v>0.1041085578564017</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1953756642197464</v>
+        <v>0.102956693626937</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1612589443970827</v>
+        <v>0.1653148975970816</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1964162542074746</v>
+        <v>0.1018420246575372</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01829097565923943</v>
+        <v>0.008899543885738097</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1959547134997843</v>
+        <v>0.04737478037225377</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0419773311397606</v>
+        <v>0.04329599357857883</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1973926387488547</v>
+        <v>0.1050936293416768</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1021836336966595</v>
+        <v>0.1048859761156019</v>
       </c>
       <c r="M186" t="n">
-        <v>0.197003794754911</v>
+        <v>0.1038146660738281</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1608802720452121</v>
+        <v>0.1660705332351941</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1980530563258702</v>
+        <v>0.10269070819635</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01934050053583869</v>
+        <v>0.008717233548091445</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1975741739419313</v>
+        <v>0.04737451184378976</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04208788019587259</v>
+        <v>0.0428032250146857</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1990239828707461</v>
+        <v>0.1059621717329303</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1020500229181717</v>
+        <v>0.1045675697292792</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1986319252900755</v>
+        <v>0.1046726385207192</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1619232449381754</v>
+        <v>0.1649364645339318</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1996898584442659</v>
+        <v>0.1035393917351629</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01738894382774226</v>
+        <v>0.008550315391326446</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1991936343840783</v>
+        <v>0.04737424331532574</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04199582021181153</v>
+        <v>0.04281228208450827</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2006553269926374</v>
+        <v>0.1068307141241838</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1022106526558086</v>
+        <v>0.1044562405711368</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2002600558252401</v>
+        <v>0.1055306109676104</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1629431061531595</v>
+        <v>0.1654171517481258</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2013266605626615</v>
+        <v>0.1043880752739757</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01943628858463109</v>
+        <v>0.008399315995431568</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2008130948262253</v>
+        <v>0.04737397478686173</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04230134611866279</v>
+        <v>0.04302440494679871</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2022866711145288</v>
+        <v>0.1076992565154373</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1027654315751199</v>
+        <v>0.1040548905148772</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2018881863604046</v>
+        <v>0.1063885834145015</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1628536360840102</v>
+        <v>0.1650170551326069</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2029634626810571</v>
+        <v>0.1052367588127885</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01848251785618612</v>
+        <v>0.008262725549019335</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2024325552683723</v>
+        <v>0.04737370625839771</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04220442006785941</v>
+        <v>0.04284083376030923</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2039180152364202</v>
+        <v>0.1085677989066909</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1025142683416549</v>
+        <v>0.1038664214342033</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2035163168955692</v>
+        <v>0.1072465558613927</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1622546873572458</v>
+        <v>0.1639406349422061</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2046002647994527</v>
+        <v>0.1060854423516013</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01852761469208827</v>
+        <v>0.008128809605068336</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2040520157105192</v>
+        <v>0.04737343772993369</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04260500421083425</v>
+        <v>0.04246280868379201</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2055493593583115</v>
+        <v>0.1094363412979444</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1027570716209634</v>
+        <v>0.102993735202818</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2051444474307338</v>
+        <v>0.1081045283082838</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1628461125993846</v>
+        <v>0.1644923514317542</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2062370669178483</v>
+        <v>0.1069341258904141</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01857156214201847</v>
+        <v>0.007995949284056614</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2056714761526662</v>
+        <v>0.04737316920146967</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04260306069902038</v>
+        <v>0.04269156987599924</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2071807034802029</v>
+        <v>0.1103048836891979</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1035937500785948</v>
+        <v>0.103139733694424</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2067725779658983</v>
+        <v>0.108962500755175</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1640277644369451</v>
+        <v>0.1631766648560824</v>
       </c>
       <c r="O192" t="n">
-        <v>0.207873869036244</v>
+        <v>0.1077828094292269</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01861434325565767</v>
+        <v>0.007864557355743325</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2072909365948132</v>
+        <v>0.04737290067300565</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04249855168385071</v>
+        <v>0.04272835749568311</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2088120476020942</v>
+        <v>0.1111734260804514</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1035242123800987</v>
+        <v>0.1029073187827242</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2084007085010629</v>
+        <v>0.1098204732020661</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1637994954964455</v>
+        <v>0.1633980354700215</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2095106711546396</v>
+        <v>0.1086314929680397</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0176559410826868</v>
+        <v>0.007735046589876143</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2089103970369602</v>
+        <v>0.04737263214454163</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04289143931675822</v>
+        <v>0.04267441170159582</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2104433917239856</v>
+        <v>0.112041968471705</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1041483671910248</v>
+        <v>0.1028993923414213</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2100288390362274</v>
+        <v>0.1106784456489572</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1635611584044043</v>
+        <v>0.1637522291281607</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2111474732730352</v>
+        <v>0.1094801765068525</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01869633867278681</v>
+        <v>0.007607829756214088</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2105298574791071</v>
+        <v>0.04737236361607762</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04268168574917588</v>
+        <v>0.04253096009481776</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2120747358458769</v>
+        <v>0.1129105108629585</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1034661231769224</v>
+        <v>0.1033085091825691</v>
       </c>
       <c r="M195" t="n">
-        <v>0.211656969571392</v>
+        <v>0.1115364180958484</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1644126057873398</v>
+        <v>0.162813137999297</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2127842753914308</v>
+        <v>0.1103288600456653</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0177355190756386</v>
+        <v>0.007483319624505012</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2121493179212541</v>
+        <v>0.0473720950876136</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04276925313253663</v>
+        <v>0.04219330431143108</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2137060799677684</v>
+        <v>0.113779053254212</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1035773890033412</v>
+        <v>0.1027206814191239</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2132851001065565</v>
+        <v>0.1123943905427395</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1647536902717704</v>
+        <v>0.1628784946442168</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2144210775098265</v>
+        <v>0.1111775435844781</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01977346534092314</v>
+        <v>0.007361928964507707</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2137687783634011</v>
+        <v>0.04737182655914959</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04275410361827343</v>
+        <v>0.04215687989588331</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2153374240896597</v>
+        <v>0.1146475956454656</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1043820733358308</v>
+        <v>0.1022356925570417</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2149132306417211</v>
+        <v>0.1132523629896307</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1646842644842145</v>
+        <v>0.1625481561389936</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2160578796282221</v>
+        <v>0.112026227123291</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01981016051832134</v>
+        <v>0.007244070545972814</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2153882388055481</v>
+        <v>0.04737155803068557</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0430361993578193</v>
+        <v>0.0424216471086607</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2169687682115511</v>
+        <v>0.1155161380367191</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1043800848399407</v>
+        <v>0.1029534496089938</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2165413611768856</v>
+        <v>0.1141103354365218</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1651041810511903</v>
+        <v>0.1623219795597013</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2176946817466177</v>
+        <v>0.1128749106621038</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01784558765751414</v>
+        <v>0.007130157138651269</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2170076992476951</v>
+        <v>0.04737128950222155</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04291550250260716</v>
+        <v>0.04208756621024953</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2186001123334424</v>
+        <v>0.1163846804279726</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1046713321812203</v>
+        <v>0.1030738595876509</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2181694917120502</v>
+        <v>0.114968307883413</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1662132925992164</v>
+        <v>0.1629998219824135</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2193314838650133</v>
+        <v>0.1137235942009166</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01887972980818248</v>
+        <v>0.007020601512301404</v>
       </c>
       <c r="G200" t="n">
-        <v>0.218627159689842</v>
+        <v>0.04737102097375754</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04329197520406998</v>
+        <v>0.04215459746113605</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2202314564553338</v>
+        <v>0.1172532228192261</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1049557240252194</v>
+        <v>0.1021968295056841</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2197976222472148</v>
+        <v>0.1158262803303041</v>
       </c>
       <c r="N200" t="n">
-        <v>0.166311451754811</v>
+        <v>0.1629815404832036</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2209682859834089</v>
+        <v>0.1145722777397294</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01891257002000729</v>
+        <v>0.006915816436671843</v>
       </c>
       <c r="G201" t="n">
-        <v>0.220246620131989</v>
+        <v>0.04737075244529352</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04346557961364071</v>
+        <v>0.04222270112180648</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2218628005772251</v>
+        <v>0.1181217652104797</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1051331690374874</v>
+        <v>0.1021222663757645</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2214257527823793</v>
+        <v>0.1166842527771952</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1673985111444926</v>
+        <v>0.1629669921381455</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2226050881018045</v>
+        <v>0.1154209612785422</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01794409134266951</v>
+        <v>0.006816214681520542</v>
       </c>
       <c r="G202" t="n">
-        <v>0.221866080574136</v>
+        <v>0.0473704839168295</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04313627788275237</v>
+        <v>0.04199183745274714</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2234941446991165</v>
+        <v>0.1189903076017332</v>
       </c>
       <c r="L202" t="n">
-        <v>0.105003575883574</v>
+        <v>0.1019500772105631</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2230538833175439</v>
+        <v>0.1175422252240864</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1664743233947794</v>
+        <v>0.1628560340233128</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2242418902202002</v>
+        <v>0.116269644817355</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01797427682585007</v>
+        <v>0.00672220901659653</v>
       </c>
       <c r="G203" t="n">
-        <v>0.223485541016283</v>
+        <v>0.04737021538836548</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04350403216283788</v>
+        <v>0.04226196671444424</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2251254888210079</v>
+        <v>0.1198588499929867</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1058668532290284</v>
+        <v>0.1024801690227508</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2246820138527084</v>
+        <v>0.1184001976709775</v>
       </c>
       <c r="N203" t="n">
-        <v>0.16653874113219</v>
+        <v>0.1631485232147792</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2258786923385958</v>
+        <v>0.1171183283561678</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01900310951922991</v>
+        <v>0.006634212211657296</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2251050014584299</v>
+        <v>0.04736994685990147</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04336880460533021</v>
+        <v>0.04193304916738406</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2267568329428992</v>
+        <v>0.1207273923842402</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1057229097394006</v>
+        <v>0.1024124488249987</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2263101443878729</v>
+        <v>0.1192581701178687</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1668916169832425</v>
+        <v>0.1615443167886184</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2275154944569914</v>
+        <v>0.1179670118949806</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02003057247248997</v>
+        <v>0.006552637036452404</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2267244619005769</v>
+        <v>0.04736967833143745</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04343055736166233</v>
+        <v>0.04210504507205286</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2283881770647906</v>
+        <v>0.1215959347754938</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1056716540802398</v>
+        <v>0.1024468236299779</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2279382749230375</v>
+        <v>0.1201161425647598</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1681328035744554</v>
+        <v>0.1622432718209039</v>
       </c>
       <c r="O205" t="n">
-        <v>0.229152296575387</v>
+        <v>0.1188156954337934</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02005664873531116</v>
+        <v>0.006477896260738768</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2283439223427239</v>
+        <v>0.04736940980297343</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04358925258326721</v>
+        <v>0.04207791468893687</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2300195211866819</v>
+        <v>0.1224644771667473</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1053129949170958</v>
+        <v>0.1016832004503591</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2295664054582021</v>
+        <v>0.1209741150116509</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1684621535323471</v>
+        <v>0.1626452453877095</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2307890986937827</v>
+        <v>0.1196643789726063</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02008132135737443</v>
+        <v>0.006410402654266539</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2299633827848709</v>
+        <v>0.04736914127450941</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0435448524215778</v>
+        <v>0.04185161827852239</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2316508653085733</v>
+        <v>0.1233330195580008</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1057468409155182</v>
+        <v>0.1020214862988136</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2311945359933666</v>
+        <v>0.1218320874585421</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1676795194834359</v>
+        <v>0.1622500945651088</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2324259008121783</v>
+        <v>0.1205130625114191</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02010457338836073</v>
+        <v>0.006350568986792024</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2315828432270179</v>
+        <v>0.0473688727460454</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04389731902802707</v>
+        <v>0.04182611610129565</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2332822094304647</v>
+        <v>0.1242015619492544</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1060731007410561</v>
+        <v>0.1022615881880123</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2328226665285312</v>
+        <v>0.1226900599054332</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1689847540542402</v>
+        <v>0.1619576764291755</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2340627029305739</v>
+        <v>0.1213617460502319</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02012638787795096</v>
+        <v>0.006298808028066018</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2332023036691648</v>
+        <v>0.04736860421758138</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04364661455404802</v>
+        <v>0.0419013684177429</v>
       </c>
       <c r="K209" t="n">
-        <v>0.234913553552356</v>
+        <v>0.1250701043405079</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1062916830592596</v>
+        <v>0.1014034131306262</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2344507970636957</v>
+        <v>0.1235480323523244</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1681777098712784</v>
+        <v>0.1616678480559831</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2356995050489695</v>
+        <v>0.1222104295890447</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02014674787582609</v>
+        <v>0.00625553254784416</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2348217641113118</v>
+        <v>0.04736833568911736</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04359270115107355</v>
+        <v>0.04187733548835043</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2365448976742474</v>
+        <v>0.1259386467317614</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1060024965356779</v>
+        <v>0.1017468681393263</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2360789275988603</v>
+        <v>0.1244060047992155</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1687582395610688</v>
+        <v>0.1615804665216055</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2373363071673652</v>
+        <v>0.1230591131278575</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02016563643166704</v>
+        <v>0.006221155315877941</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2364412245534588</v>
+        <v>0.04736806716065334</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04403554097053666</v>
+        <v>0.04195397757360446</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2381762417961387</v>
+        <v>0.1268071891230149</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1059054498358608</v>
+        <v>0.1021918602267838</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2377070581340248</v>
+        <v>0.1252639772461067</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1684261957501298</v>
+        <v>0.1607953889021163</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2389731092857608</v>
+        <v>0.1239077966666703</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01818303659515474</v>
+        <v>0.006196089101922236</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2380606849956058</v>
+        <v>0.04736779863218933</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04377509616387032</v>
+        <v>0.04213125493399127</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2398075859180301</v>
+        <v>0.1276757315142685</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1069004516253576</v>
+        <v>0.1016382964056693</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2393351886691894</v>
+        <v>0.1261219496929978</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1689814310649798</v>
+        <v>0.161112472273589</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2406099114041564</v>
+        <v>0.1247564802054831</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02019893141597012</v>
+        <v>0.006180746675729362</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2396801454377527</v>
+        <v>0.04736753010372531</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04411132888250749</v>
+        <v>0.04170912782999713</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2414389300399215</v>
+        <v>0.128544273905522</v>
       </c>
       <c r="L213" t="n">
-        <v>0.106887410569718</v>
+        <v>0.1021860836886542</v>
       </c>
       <c r="M213" t="n">
-        <v>0.240963319204354</v>
+        <v>0.1269799221398889</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1684237981321371</v>
+        <v>0.1605315737120973</v>
       </c>
       <c r="O213" t="n">
-        <v>0.242246713522552</v>
+        <v>0.1256051637442959</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01821330394379413</v>
+        <v>0.006175540807053362</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2412996058798997</v>
+        <v>0.0473672615752613</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04404420127788113</v>
+        <v>0.04208755652210826</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2430702741618128</v>
+        <v>0.1294128162967755</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1061662353344915</v>
+        <v>0.1019351290884093</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2425914497395185</v>
+        <v>0.1278378945867801</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1684531495781201</v>
+        <v>0.1614525502937151</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2438835156409477</v>
+        <v>0.1264538472831087</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0182261372283077</v>
+        <v>0.006175540807053362</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2429190663220467</v>
+        <v>0.0473672615752613</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04417367550142422</v>
+        <v>0.04176650127081097</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2447016182837042</v>
+        <v>0.130281358688029</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1062368345852277</v>
+        <v>0.1011853396176057</v>
       </c>
       <c r="M215" t="n">
-        <v>0.244219580274683</v>
+        <v>0.1286958670336712</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1702693380294472</v>
+        <v>0.1612752590945158</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2455203177593432</v>
+        <v>0.1273025308219216</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01823741431919176</v>
+        <v>0.005976716690172496</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2445385267641937</v>
+        <v>0.04734950597598545</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04389971370456972</v>
+        <v>0.04194592233659145</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2463329624055955</v>
+        <v>0.1311499010792826</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1063991169874761</v>
+        <v>0.1016366222889144</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2458477108098476</v>
+        <v>0.1295538394805623</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1690722161126367</v>
+        <v>0.1609995571905731</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2471571198777389</v>
+        <v>0.1281512143607343</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01824711826612724</v>
+        <v>0.005783419554595479</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2461579872063407</v>
+        <v>0.04733175037670961</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04402227803875053</v>
+        <v>0.041625779979936</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2479643065274869</v>
+        <v>0.1320184434705361</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1068529912067863</v>
+        <v>0.1010888841150064</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2474758413450122</v>
+        <v>0.1304118119274535</v>
       </c>
       <c r="N217" t="n">
-        <v>0.169361636454207</v>
+        <v>0.1607253016579608</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2487939219961345</v>
+        <v>0.1289998978995472</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01925523211879509</v>
+        <v>0.005595889206690068</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2477774476484876</v>
+        <v>0.04731399477743378</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04394133065539975</v>
+        <v>0.04190603446133088</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2495956506493782</v>
+        <v>0.1328869858617896</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1063983659087079</v>
+        <v>0.1019420321085526</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2491039718801767</v>
+        <v>0.1312697843743446</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1705374516806765</v>
+        <v>0.1614523495727525</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2504307241145302</v>
+        <v>0.12984858143836</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01826173892687623</v>
+        <v>0.005414365452824046</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2493969080906346</v>
+        <v>0.04729623917815794</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04395683370595023</v>
+        <v>0.04198664604126236</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2512269947712696</v>
+        <v>0.1337555282530432</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1066351497587903</v>
+        <v>0.1016959732822243</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2507321024153413</v>
+        <v>0.1321277568212358</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1695995144185635</v>
+        <v>0.1608805580110217</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2520675262329258</v>
+        <v>0.1306972649771728</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01926662174005161</v>
+        <v>0.005239088099365359</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2510163685327816</v>
+        <v>0.04727848357888211</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04426874934183497</v>
+        <v>0.04186757498021665</v>
       </c>
       <c r="K220" t="n">
-        <v>0.252858338893161</v>
+        <v>0.1346240706442967</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1071632514225833</v>
+        <v>0.1010506146486921</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2523602329505059</v>
+        <v>0.1329857292681269</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1701476772943864</v>
+        <v>0.1611097840488423</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2537043283513213</v>
+        <v>0.1315459485159856</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01826986360800215</v>
+        <v>0.005070296952681734</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2526358289749286</v>
+        <v>0.04726072797960626</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04427703971448695</v>
+        <v>0.04164878153868007</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2544896830150524</v>
+        <v>0.1354926130355502</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1074825795656362</v>
+        <v>0.1008058632206273</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2539883634856704</v>
+        <v>0.1338437017150181</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1692817929346637</v>
+        <v>0.1600398847622879</v>
       </c>
       <c r="O221" t="n">
-        <v>0.255341130469717</v>
+        <v>0.1323946320547984</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02027144758040879</v>
+        <v>0.004908231819141108</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2542552894170756</v>
+        <v>0.04724297238033043</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0442816669753391</v>
+        <v>0.04163022597713881</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2561210271369437</v>
+        <v>0.1363611554268037</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1067930428534987</v>
+        <v>0.1007616260107009</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2556164940208349</v>
+        <v>0.1347016741619092</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1690017139659135</v>
+        <v>0.1611707172274319</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2569779325881126</v>
+        <v>0.1332433155936112</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0202636067507878</v>
+        <v>0.00475313250511121</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2558747498592225</v>
+        <v>0.04722521678105458</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0438790279138121</v>
+        <v>0.04171186855607917</v>
       </c>
       <c r="K223" t="n">
-        <v>0.257752371258835</v>
+        <v>0.1372296978180572</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1074794681536679</v>
+        <v>0.1009178100315837</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2572446245559994</v>
+        <v>0.1355596466088003</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1701044562659398</v>
+        <v>0.1605021385203483</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2586147347065082</v>
+        <v>0.134091999132424</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02021066767187946</v>
+        <v>0.004605238816959976</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2574942103013695</v>
+        <v>0.04720746118177874</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04399423229875488</v>
+        <v>0.0418936695359874</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2593837153807264</v>
+        <v>0.1380982402093108</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1072530232390904</v>
+        <v>0.101574322295947</v>
       </c>
       <c r="M224" t="n">
-        <v>0.258872755091164</v>
+        <v>0.1364176190556915</v>
       </c>
       <c r="N224" t="n">
-        <v>0.168934118897967</v>
+        <v>0.1600340057171106</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2602515368249039</v>
+        <v>0.1349406826712368</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01811269845208912</v>
+        <v>0.00446479056105515</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2591136707435165</v>
+        <v>0.04718970558250291</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04390618275689367</v>
+        <v>0.04187558917734975</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2610150595026178</v>
+        <v>0.1389667826005643</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1067791667940632</v>
+        <v>0.1013310698164616</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2605008856263286</v>
+        <v>0.1372755915025826</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1682569475671644</v>
+        <v>0.1601661758937925</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2618883389432995</v>
+        <v>0.1357893662100496</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01897498324121679</v>
+        <v>0.004332027543764647</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2607331311856635</v>
+        <v>0.04717194998322707</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04332667832853905</v>
+        <v>0.0418575877406525</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2626464036245092</v>
+        <v>0.1398353249918178</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1055863717291083</v>
+        <v>0.1008879596057985</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2621290161614931</v>
+        <v>0.1381335639494738</v>
       </c>
       <c r="N226" t="n">
-        <v>0.167418884981188</v>
+        <v>0.1595985061264676</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2635251410616951</v>
+        <v>0.1366380497488625</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01780280618906248</v>
+        <v>0.00420718957145623</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2623525916278104</v>
+        <v>0.04715419438395123</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04316751805400157</v>
+        <v>0.04163962548638189</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2642777477464005</v>
+        <v>0.1407038673830714</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1047031109547474</v>
+        <v>0.1012448986766288</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2637571466966577</v>
+        <v>0.1389915363963649</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1657658738476939</v>
+        <v>0.1596308534912096</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2651619431800907</v>
+        <v>0.1374867332876752</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01760145144542619</v>
+        <v>0.004090516450497787</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2639720520699574</v>
+        <v>0.04713643878467539</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04254050097359184</v>
+        <v>0.04162166267502418</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2659090918682919</v>
+        <v>0.1415724097743249</v>
       </c>
       <c r="L228" t="n">
-        <v>0.1039578573815023</v>
+        <v>0.1010017940416236</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2653852772318223</v>
+        <v>0.1398495088432561</v>
       </c>
       <c r="N228" t="n">
-        <v>0.164743856874338</v>
+        <v>0.1605630750640923</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2667987452984864</v>
+        <v>0.1383354168264881</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01937620316010794</v>
+        <v>0.003982247987257104</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2655915125121044</v>
+        <v>0.04711868318539955</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0422574261276204</v>
+        <v>0.04150365956706563</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2675404359901832</v>
+        <v>0.1424409521655784</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1025790839198949</v>
+        <v>0.1013585527134536</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2670134077669868</v>
+        <v>0.1407074812901472</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1631987767687765</v>
+        <v>0.1594950279211891</v>
       </c>
       <c r="O229" t="n">
-        <v>0.268435547416882</v>
+        <v>0.1391841003653009</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01713234548290772</v>
+        <v>0.003882623988102067</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2672109729542513</v>
+        <v>0.04710092758612371</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04173009255639787</v>
+        <v>0.04178557642299247</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2691717801120746</v>
+        <v>0.143309494556832</v>
       </c>
       <c r="L230" t="n">
-        <v>0.101195263480447</v>
+        <v>0.1005150817047901</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2686415383021514</v>
+        <v>0.1415654537370383</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1601765762386653</v>
+        <v>0.1598265691385738</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2700723495352776</v>
+        <v>0.1400327839041137</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01887516256362554</v>
+        <v>0.003791884259400448</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2688304333963984</v>
+        <v>0.04708317198684787</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04137029930023478</v>
+        <v>0.04176737350329102</v>
       </c>
       <c r="K231" t="n">
-        <v>0.270803124233966</v>
+        <v>0.1441780369480855</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1000348689736804</v>
+        <v>0.100971288028304</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2702696688373159</v>
+        <v>0.1424234261839295</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1581231979916604</v>
+        <v>0.15965755579232</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2717091516536732</v>
+        <v>0.1408814674429265</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01760993855206142</v>
+        <v>0.003710268607520155</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2704498938385453</v>
+        <v>0.04706541638757204</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04038984539944176</v>
+        <v>0.04134901106844747</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2724344683558573</v>
+        <v>0.145046579339339</v>
       </c>
       <c r="L232" t="n">
-        <v>0.09812637331011687</v>
+        <v>0.1010270786966663</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2718977993724804</v>
+        <v>0.1432813986308206</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1574845847354179</v>
+        <v>0.1595878449585015</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2733459537720688</v>
+        <v>0.1417301509817393</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01734195759801536</v>
+        <v>0.003638016838828945</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2720693542806923</v>
+        <v>0.0470476607882962</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04000052989432935</v>
+        <v>0.04163044937894811</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2740658124777487</v>
+        <v>0.1459151217305925</v>
       </c>
       <c r="L233" t="n">
-        <v>0.09749824940027832</v>
+        <v>0.1007824164514448</v>
       </c>
       <c r="M233" t="n">
-        <v>0.273525929907645</v>
+        <v>0.1441393710777118</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1539066791775939</v>
+        <v>0.1606176482244168</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2749827558904644</v>
+        <v>0.1425788345205521</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01807650385128735</v>
+        <v>0.003575368759694719</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2736888147228393</v>
+        <v>0.04702990518902036</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03921415182520814</v>
+        <v>0.04131184049814846</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2756971565996401</v>
+        <v>0.146783664121846</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0950789701546865</v>
+        <v>0.1002379405434096</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2751540604428096</v>
+        <v>0.1449973435246029</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1529354240258443</v>
+        <v>0.1591479884496873</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2766195580088601</v>
+        <v>0.1434275180593649</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01781886146167744</v>
+        <v>0.003522564176485256</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2753082751649862</v>
+        <v>0.04701214958974451</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03904251023238872</v>
+        <v>0.04169339836261345</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2773285007215314</v>
+        <v>0.1476522065130996</v>
       </c>
       <c r="L235" t="n">
-        <v>0.09379700848386335</v>
+        <v>0.1011938634524768</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2767821909779741</v>
+        <v>0.145855315971494</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1507167619878252</v>
+        <v>0.1601789524489748</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2782563601272557</v>
+        <v>0.1442762015981778</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01557431457898559</v>
+        <v>0.003479842895568429</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2769277356071332</v>
+        <v>0.04699439399046868</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03849740415618165</v>
+        <v>0.04137512678282768</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2789598448434227</v>
+        <v>0.1485207489043531</v>
       </c>
       <c r="L236" t="n">
-        <v>0.09268083729833057</v>
+        <v>0.100450193248182</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2784103215131387</v>
+        <v>0.1467132884183852</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1483966357711927</v>
+        <v>0.1593105526253635</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2798931622456513</v>
+        <v>0.1451248851369906</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01734814735301184</v>
+        <v>0.00344744472331205</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2785471960492802</v>
+        <v>0.04697663839119284</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03789063263689751</v>
+        <v>0.04145702920742672</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2805911889653142</v>
+        <v>0.1493892912956066</v>
       </c>
       <c r="L237" t="n">
-        <v>0.09125892950861</v>
+        <v>0.1010069380000604</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2800384520483032</v>
+        <v>0.1475712608652763</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1457209880836026</v>
+        <v>0.1592428013819376</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2815299643640469</v>
+        <v>0.1459735686758034</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01713740760513475</v>
+        <v>0.003425609466083966</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2801666564914272</v>
+        <v>0.046958882791917</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03712384377980293</v>
+        <v>0.0416391090850462</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2822225330872055</v>
+        <v>0.1502578336868602</v>
       </c>
       <c r="L238" t="n">
-        <v>0.09043052478487901</v>
+        <v>0.1008641057776475</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2816665825834678</v>
+        <v>0.1484292333121675</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1437075440096158</v>
+        <v>0.1603757111217816</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2831667664824426</v>
+        <v>0.1468222522146162</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01692648520250208</v>
+        <v>0.003414576930252003</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2817861169335741</v>
+        <v>0.04694112719264116</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03686003443907934</v>
+        <v>0.04122136986432166</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2838538772090969</v>
+        <v>0.1511263760781137</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08950664563664507</v>
+        <v>0.1008217046504786</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2832947131186324</v>
+        <v>0.1492872057590586</v>
       </c>
       <c r="N239" t="n">
-        <v>0.142514179096318</v>
+        <v>0.1596092942479795</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2848035686008382</v>
+        <v>0.147670935753429</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0147147657837783</v>
+        <v>0.003413607712848668</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2834055773757211</v>
+        <v>0.04692337159336533</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03639446348643044</v>
+        <v>0.0416038149938887</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2854852213309882</v>
+        <v>0.1519949184693672</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0886785037270425</v>
+        <v>0.1009797426880889</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2849228436537969</v>
+        <v>0.1501451782059497</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1395139868235489</v>
+        <v>0.1589435631636157</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2864403707192338</v>
+        <v>0.1485196192922418</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01650223683061662</v>
+        <v>0.003417066364229879</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2850250378178681</v>
+        <v>0.04690561599408948</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03572710296949222</v>
+        <v>0.04138644792238289</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2871165654528796</v>
+        <v>0.1528634608606207</v>
       </c>
       <c r="L241" t="n">
-        <v>0.08704603160269031</v>
+        <v>0.100238227960014</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2865509741889614</v>
+        <v>0.1510031506528409</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1385068583513305</v>
+        <v>0.1587785302717745</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2880771728376295</v>
+        <v>0.1493683028310546</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01428888582467018</v>
+        <v>0.00342421348142815</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2866444982600151</v>
+        <v>0.04688786039481365</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03525792493590058</v>
+        <v>0.04146927209843979</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2887479095747709</v>
+        <v>0.1537320032518743</v>
       </c>
       <c r="L242" t="n">
-        <v>0.08620916181020763</v>
+        <v>0.100097168535789</v>
       </c>
       <c r="M242" t="n">
-        <v>0.288179104724126</v>
+        <v>0.151861123099732</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1365926848396846</v>
+        <v>0.1602142079755401</v>
       </c>
       <c r="O242" t="n">
-        <v>0.289713974956025</v>
+        <v>0.1502169863698674</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01407470024759216</v>
+        <v>0.003435288870811293</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2882639587021621</v>
+        <v>0.04687010479553781</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03518690143329149</v>
+        <v>0.04125229097069504</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2903792536966623</v>
+        <v>0.1546005456431278</v>
       </c>
       <c r="L243" t="n">
-        <v>0.08496782689621363</v>
+        <v>0.1002565724849497</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2898072352592905</v>
+        <v>0.1527190955466232</v>
       </c>
       <c r="N243" t="n">
-        <v>0.135571357448633</v>
+        <v>0.1591506086779969</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2913507770744207</v>
+        <v>0.1510656699086802</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01485966758103574</v>
+        <v>0.003450532338747168</v>
       </c>
       <c r="G244" t="n">
-        <v>0.289883419144309</v>
+        <v>0.04685234919626197</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03471400450930093</v>
+        <v>0.04113550798778415</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2920105978185537</v>
+        <v>0.1554690880343813</v>
       </c>
       <c r="L244" t="n">
-        <v>0.08402195940732732</v>
+        <v>0.09981644787703098</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2914353657944551</v>
+        <v>0.1535770679935143</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1331427673381975</v>
+        <v>0.1597877447822288</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2929875791928163</v>
+        <v>0.151914353447493</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01564377530665405</v>
+        <v>0.003470183691603596</v>
       </c>
       <c r="G245" t="n">
-        <v>0.291502879586456</v>
+        <v>0.04683459359698613</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03383920621156483</v>
+        <v>0.04131892659834273</v>
       </c>
       <c r="K245" t="n">
-        <v>0.293641941940445</v>
+        <v>0.1563376304256349</v>
       </c>
       <c r="L245" t="n">
-        <v>0.08227149189016786</v>
+        <v>0.1007768027815684</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2930634963296197</v>
+        <v>0.1544350404404055</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1317068056684</v>
+        <v>0.1595256286913205</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2946243813112119</v>
+        <v>0.1527630369863059</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01342701090610031</v>
+        <v>0.003494482735748414</v>
       </c>
       <c r="G246" t="n">
-        <v>0.293122340028603</v>
+        <v>0.04681683799771029</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03336247858771917</v>
+        <v>0.04140255025100639</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2952732860623364</v>
+        <v>0.1572061728168884</v>
       </c>
       <c r="L246" t="n">
-        <v>0.08171635689135429</v>
+        <v>0.1001376452680973</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2946916268647842</v>
+        <v>0.1552930128872966</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1298633635992623</v>
+        <v>0.1582642728083561</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2962611834296076</v>
+        <v>0.1536117205251187</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01320936186102765</v>
+        <v>0.003523669277549449</v>
       </c>
       <c r="G247" t="n">
-        <v>0.29474180047075</v>
+        <v>0.04679908239843445</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03328379368539987</v>
+        <v>0.04128638239441067</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2969046301842277</v>
+        <v>0.1580747152081419</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07995648695750579</v>
+        <v>0.09969898340615313</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2963197573999488</v>
+        <v>0.1561509853341877</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1284123322908064</v>
+        <v>0.1584036895364199</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2978979855480032</v>
+        <v>0.1544604040639315</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01399081565308927</v>
+        <v>0.00355798312337454</v>
       </c>
       <c r="G248" t="n">
-        <v>0.296361260912897</v>
+        <v>0.04678132679915861</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03270312355224292</v>
+        <v>0.04137042647719118</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2985359743061191</v>
+        <v>0.1589432575993954</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07869181463524136</v>
+        <v>0.1003608252652711</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2979478879351133</v>
+        <v>0.1570089577810789</v>
       </c>
       <c r="N248" t="n">
-        <v>0.126253602903054</v>
+        <v>0.1596438912785961</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2995347876663987</v>
+        <v>0.1553090876027443</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01477135976393831</v>
+        <v>0.003597664079591521</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2979807213550439</v>
+        <v>0.04676357119988277</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03222044023588423</v>
+        <v>0.04125468594798347</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3001673184280105</v>
+        <v>0.159811799990649</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0781222724711802</v>
+        <v>0.09972317891498667</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2995760184702779</v>
+        <v>0.15786693022797</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1243870665960269</v>
+        <v>0.1593848904379689</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3011715897847944</v>
+        <v>0.1561577711415571</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01355098167522795</v>
+        <v>0.003642951952568231</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2996001817971909</v>
+        <v>0.04674581560060694</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0317357157839598</v>
+        <v>0.04113916425542315</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3017986625499018</v>
+        <v>0.1606803423819025</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07624779301194132</v>
+        <v>0.1001860524248351</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3012041490054425</v>
+        <v>0.1587249026748612</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1225126145297472</v>
+        <v>0.1584266994176227</v>
       </c>
       <c r="O250" t="n">
-        <v>0.30280839190319</v>
+        <v>0.1570064546803699</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01232966886861137</v>
+        <v>0.003694086548672496</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3012196422393379</v>
+        <v>0.0467280600013311</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03134892224410557</v>
+        <v>0.04142386484814579</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3034300066717932</v>
+        <v>0.161548884773156</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07566830880414385</v>
+        <v>0.09974945386435194</v>
       </c>
       <c r="M251" t="n">
-        <v>0.302832279540607</v>
+        <v>0.1595828751217523</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1195301378642364</v>
+        <v>0.1586693306206418</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3044451940215857</v>
+        <v>0.1578551382191827</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01210740882574172</v>
+        <v>0.003751307674272147</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3028391026814849</v>
+        <v>0.04671030440205526</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03066003166395749</v>
+        <v>0.04130879117478696</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3050613507936846</v>
+        <v>0.1624174271644095</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07398375239440691</v>
+        <v>0.1001133913030724</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3044604100757715</v>
+        <v>0.1604408475686434</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1182395277595166</v>
+        <v>0.1582127964501104</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3060819961399813</v>
+        <v>0.1587038217579955</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01288418902827219</v>
+        <v>0.003814855135735033</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3044585631236318</v>
+        <v>0.04669254880277942</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02996901609115153</v>
+        <v>0.04139394668398226</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3066926949155759</v>
+        <v>0.1632859695556631</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07269405632934961</v>
+        <v>0.1002778728105319</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3060885406109361</v>
+        <v>0.1612988200155346</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1154406753756098</v>
+        <v>0.1578571093091127</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3077187982583769</v>
+        <v>0.1595525052968083</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01165999695785593</v>
+        <v>0.003884968739428958</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3060780235657788</v>
+        <v>0.04667479320350358</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02977584757332362</v>
+        <v>0.04127933482436726</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3083240390374672</v>
+        <v>0.1641545119469166</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07199915315559099</v>
+        <v>0.1003429064562656</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3077166711461007</v>
+        <v>0.1621567924624257</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1147334718725373</v>
+        <v>0.1585022816007332</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3093556003767725</v>
+        <v>0.1604011888356211</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01143482009614612</v>
+        <v>0.003961888291721803</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3076974840079258</v>
+        <v>0.04665703760422774</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02898049815810971</v>
+        <v>0.04136495904457754</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3099553831593587</v>
+        <v>0.1650230543381701</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07089897541975021</v>
+        <v>0.1001085003098092</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3093448016812652</v>
+        <v>0.1630147649093169</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1129178084103215</v>
+        <v>0.1585483257280558</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3109924024951681</v>
+        <v>0.1612498723744339</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01320864592479593</v>
+        <v>0.004045853598981339</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3093169444500728</v>
+        <v>0.0466392820049519</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02848293989314578</v>
+        <v>0.04115082279324866</v>
       </c>
       <c r="K256" t="n">
-        <v>0.31158672728125</v>
+        <v>0.1658915967294237</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06989345566844635</v>
+        <v>0.1001746624406979</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3109729322164297</v>
+        <v>0.163872737356208</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1108935761489839</v>
+        <v>0.1585952540941651</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3126292046135637</v>
+        <v>0.1620985559132468</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01198146192545851</v>
+        <v>0.004137104467575474</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3109364048922198</v>
+        <v>0.04662152640567606</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02798314482606779</v>
+        <v>0.04113692951901626</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3132180714031413</v>
+        <v>0.1667601391206772</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0684825264482985</v>
+        <v>0.100241400918467</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3126010627515943</v>
+        <v>0.1647307098030991</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1081606662485464</v>
+        <v>0.1583430791021452</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3142660067319594</v>
+        <v>0.1629472394520596</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01275325557978706</v>
+        <v>0.004235880703871965</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3125558653343667</v>
+        <v>0.04660377080640023</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02778108500451168</v>
+        <v>0.04132328267051588</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3148494155250327</v>
+        <v>0.1676286815119307</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06746612030592578</v>
+        <v>0.09940872381265187</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3142291932867589</v>
+        <v>0.1655886822499903</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1073189698690311</v>
+        <v>0.1584918131550805</v>
       </c>
       <c r="O258" t="n">
-        <v>0.315902808850355</v>
+        <v>0.1637959229908724</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01152401436943474</v>
+        <v>0.004342422114238728</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3141753257765137</v>
+        <v>0.04658601520712438</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02717673247611339</v>
+        <v>0.04110988569638309</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3164807596469241</v>
+        <v>0.1684972239031842</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06554416978794722</v>
+        <v>0.09937663919278794</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3158573238219234</v>
+        <v>0.1664466546968814</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1054683781704596</v>
+        <v>0.1589414686560551</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3175396109687506</v>
+        <v>0.1646446065296852</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0112937257760547</v>
+        <v>0.004456968505043513</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3157947862186608</v>
+        <v>0.04656825960784855</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0265700592885089</v>
+        <v>0.04099674204525351</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3181121037688155</v>
+        <v>0.1693657662944378</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06481660744098203</v>
+        <v>0.09924515512841053</v>
       </c>
       <c r="M260" t="n">
-        <v>0.317485454357088</v>
+        <v>0.1673046271437726</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1027087823128537</v>
+        <v>0.1574920580081534</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3191764130871462</v>
+        <v>0.165493290068498</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01206237728130012</v>
+        <v>0.004579759682654221</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3174142466608077</v>
+        <v>0.0465505040085727</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02636103748933413</v>
+        <v>0.04118385516576267</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3197434478907068</v>
+        <v>0.1702343086856913</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0635833658116492</v>
+        <v>0.1002142796890551</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3191135848922525</v>
+        <v>0.1681625995906637</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1003400734562354</v>
+        <v>0.1587435936144595</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3208132152055418</v>
+        <v>0.1663419736073108</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01082995636682418</v>
+        <v>0.004711035453438622</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3190337071029546</v>
+        <v>0.04653274840929687</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02564963912622509</v>
+        <v>0.04127122850654617</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3213747920125982</v>
+        <v>0.1711028510769448</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06274437744656788</v>
+        <v>0.09998402094425676</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3207417154274171</v>
+        <v>0.1690205720375549</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0982621427606265</v>
+        <v>0.157596087878058</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3224500173239375</v>
+        <v>0.1671906571461236</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01059645051428003</v>
+        <v>0.004851035623764641</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3206531675451016</v>
+        <v>0.04651499281002103</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0252358362468177</v>
+        <v>0.04105886551623962</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3230061361344895</v>
+        <v>0.1719713934681983</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06049957489235722</v>
+        <v>0.09945438696355111</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3223698459625816</v>
+        <v>0.169878544484446</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09707488138604897</v>
+        <v>0.1583495532020328</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3240868194423331</v>
+        <v>0.1680393406849365</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.009361847205320857</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3222726279872486</v>
+        <v>0.04649723721074519</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02451960089874794</v>
+        <v>0.04104676964347857</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3246374802563809</v>
+        <v>0.1728399358594518</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05924889069563621</v>
+        <v>0.09932538581647346</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3239979764977462</v>
+        <v>0.1707365169313372</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09567818049252452</v>
+        <v>0.1574040019894683</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3257236215607287</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1688880242237492</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04648407931600835</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005263525208947878</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04648434784447236</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005524460619110147</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04648461637293638</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005782725998719207</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0464848849014004</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006038241116030046</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04648515342986442</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006290925739275283</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04648542195832844</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006540699636709654</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04648569048679246</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006787482576566028</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04648595901525647</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007031194327098901</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04648622754372049</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007271754656541389</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0464864960721845</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007509083333147731</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04648676460064852</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.00774310012515133</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04648703312911254</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.007973724800806097</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04648730165757656</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008200877128345753</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04648757018604057</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008424476876023927</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04648783871450459</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.008644443812074638</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04648810724296861</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.008860697704751189</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04648837577143263</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009073158322287916</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04648864429989664</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009281745432933308</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04648891282836066</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009486378804935525</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04648918135682468</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.009686978206529404</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04648944988528869</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.009883463405967421</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04648971841375271</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01007575417148476</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04648998694221673</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01026377027133354</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04649025547068075</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01044743147374931</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04649052399914476</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01062698515998856</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04649079252760878</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01080431677631546</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04649106105607279</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01097967370398623</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04649132958453681</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01115297571123691</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04649159811300083</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01132414256631884</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04649186664146485</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01149309403746829</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04649213516992887</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01165974989293637</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04649240369839289</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01182402990095956</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0464926722268569</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01198585382978525</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04649294075532091</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01214514144766064</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04649320928378493</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01230181252282254</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04649347781224895</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0124557868235215</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04649374634071297</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01260698411799457</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04649401486917698</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01275532417449208</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.046494283397641</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0129007267612513</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04649455192610502</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01304311164652232</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04649482045456904</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01318239859854266</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04649508898303305</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01331850738556214</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04649535751149707</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.0134513577758186</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04649562603996109</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01358086953756154</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04649589456842511</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01370696243902907</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04649616309688912</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01382955624847042</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04649643162535314</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01394857073412401</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04649670015381716</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01406392566423875</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04649696868228118</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01417554080705337</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04649723721074519</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01417554080705337</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04648407931600835</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01426269630992359</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04650237197221222</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01434663208327634</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0465206646284161</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0144273123173778</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04653895728461997</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01450470120249425</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04655724994082384</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01457876292889185</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04657554259702772</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01464946168683687</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0465938352532316</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.0147167616665955</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04661212790943546</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01478062705843398</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04663042056563933</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01484102205261854</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04664871322184321</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01489791083941536</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04666700587804708</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01495125760909072</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04668529853425096</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01500102655191078</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04670359119045483</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01504718185814182</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04672188384665871</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01508968771805002</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04674017650286257</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01512850832190162</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04675846915906644</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01516360785996284</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04677676181527032</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01519495052249989</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0467950544714742</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01522250049977902</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04681334712767807</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01524622198206641</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04683163978388194</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01526607915962833</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04684993244008582</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01528203622273096</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04686822509628968</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01529405736164054</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04688651775249356</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.0153021067666233</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04690481040869744</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01530614862794544</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04692310306490131</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01530629335895279</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04694139572110518</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01530338248838914</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04695968837730905</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01529752642960031</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04697798103351293</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01528868937285251</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0469962736897168</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01527683550841197</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04701456634592067</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01526192902654491</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04703285900212455</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01524393411751755</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04705115165832842</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01522281497159611</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04706944431453229</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01519853577904682</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04708773697073616</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01517106073013589</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04710602962694004</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01514035401512955</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04712432228314391</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01510637982429403</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04714261493934778</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01506910234789553</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04716090759555166</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01502848577620029</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04717920025175553</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01498449429947452</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0471974929079594</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01493709210798445</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04721578556416327</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01488624339199629</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04723407822036715</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01483191234177628</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04725237087657103</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01477406314759063</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04727066353277489</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01471265999970555</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04728895618897877</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.0146476670883873</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04730724884518264</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01457904860390205</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04732554150138651</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01450676873651607</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04734383415759039</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01443079167649555</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04736212681379427</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01435108161410673</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04738041946999814</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01435108161410673</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04738041946999814</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.0146501796464294</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04896276397123574</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01494335198316611</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05054510847247334</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01523046952277035</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05212745297371094</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01551140316369564</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05370979747494854</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01578602380439547</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05529214197618613</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01605420234332335</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05687448647742373</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01631580967893277</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05845683097866133</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01657071670967726</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06003917547989894</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0168187943340103</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06162151998113654</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01705991345038542</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06320386448237414</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01729394495725611</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06478620898361173</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01752075975307586</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06636855348484934</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.0177402287362982</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06795089798608694</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.01795222280537662</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.06953324248732455</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.01815661285876462</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07111558698856213</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.01835326979491572</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07269793148979974</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.01854206451228341</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07428027599103734</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.0187228679093212</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07586262049227493</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.0188955508844826</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07744496499351254</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.0190599843362211</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.07902730949475013</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.01921603916299022</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08060965399598774</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.01936358626324346</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08219199849722535</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.01950249653543432</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08377434299846294</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.01963264087801629</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08535668749970055</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.01975389018944291</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08693903200093814</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.01986611536816766</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.08852137650217574</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.01996918731264404</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09010372100341335</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02006297692132557</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09168606550465093</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02014735509266574</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09326841000588854</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02022219272511806</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09485075450712614</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02028736071713605</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09643309900836373</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02034272996717319</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.09801544350960134</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02038817137368299</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.09959778801083893</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02042355583511897</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1011801325120766</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02044875424993461</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1027624770133141</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02046810881880896</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1043448215145517</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02046809448079803</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1059271660157893</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02046544525024407</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1075095105170269</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02045845057452862</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1090918550182645</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02044744048372182</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1106741995195022</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02043274500789388</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1122565440207397</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02041469417711493</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1138388885219773</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02039361802145516</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1154212330232149</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02036984657098473</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1170035775244525</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02034370985577381</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1185859220256901</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02031553790589258</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1201682665269277</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02028566075141119</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1217506110281654</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02025440842239983</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1233329555294029</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02022211094892865</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1249153000306405</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02018909836106784</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1264976445318781</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02015547811355835</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1280799890331157</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02011136012829409</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1296623335343534</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02005376117276572</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.131244678035591</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.01998611414971699</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1328270225368285</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0199118519618916</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1344093670380662</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.01983440751203327</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1359917115393038</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.01975721370288572</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1375740560405413</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.01968370343719269</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1391564005417789</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.01961730961769789</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1407387450430165</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.01956146514714504</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1423210895442542</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.01951960292827785</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1439034340454917</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.01948830595394455</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1454857785467293</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.01945892154071034</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.147068123047967</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.01943126233072824</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1486504675492046</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.01940521832043175</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.01938067950625437</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1518151565516797</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.01935753588462961</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1533975010529173</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.01933567745199097</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1549798455541549</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.01931499420477197</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1565621900553925</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.01929537613940611</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1581445345566301</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.01927671325232688</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1597268790578678</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.0192588955399678</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1613092235591053</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.01924181299876238</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.162891568060343</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0192253556251441</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1644739125615805</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.0192094134155465</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1660562570628181</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.01919387636640306</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1676386015640557</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0191786344741473</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1692209460652933</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.01916357773521273</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1708032905665309</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.01914859614603284</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1723856350677686</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.01913357970304114</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1739679795690061</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.01911841840267114</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1755503240702438</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.01910300224135634</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1771326685714814</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.01908754341405631</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1787150130727189</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.01907234293031993</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1802973575739565</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.01905741035347402</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1818797020751941</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.01904275522974037</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1834620465764318</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.01902838710534085</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1850443910776693</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.01901431552649725</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1866267355789069</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.01900055003943141</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1882090800801446</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.01898710019036515</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1897914245813822</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.0189739755255203</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1913737690826197</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.01896118559111868</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1929561135838573</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.01894873993338213</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1945384580850949</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.01893664809853245</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1961208025863325</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.01892491963279149</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1977031470875701</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.01891356408238107</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.1992854915888078</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.01890259099352301</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2008678360900454</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.01889200991243913</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2024501805912829</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.01888183038535127</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2040325250925206</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
